--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1032">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3891,6 +3891,18 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A      J U L I O            2 0 2 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>ENCHILADA-QQUESO-CHORIZO</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-JAMONES-RES-GELATINA-CHORIZO BLANCO</t>
+  </si>
+  <si>
+    <t>CHORIZO-LONGANIZA-QUESOS-</t>
   </si>
 </sst>
 </file>
@@ -7328,6 +7340,39 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7400,76 +7445,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7513,6 +7492,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7706,6 +7718,15 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7720,15 +7741,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7748,7 +7760,7 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7760,8 +7772,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF00FF99"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCFF66"/>
@@ -12552,23 +12564,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="709"/>
-      <c r="C1" s="711" t="s">
+      <c r="B1" s="685"/>
+      <c r="C1" s="687" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="712"/>
-      <c r="E1" s="712"/>
-      <c r="F1" s="712"/>
-      <c r="G1" s="712"/>
-      <c r="H1" s="712"/>
-      <c r="I1" s="712"/>
-      <c r="J1" s="712"/>
-      <c r="K1" s="712"/>
-      <c r="L1" s="712"/>
-      <c r="M1" s="712"/>
+      <c r="D1" s="688"/>
+      <c r="E1" s="688"/>
+      <c r="F1" s="688"/>
+      <c r="G1" s="688"/>
+      <c r="H1" s="688"/>
+      <c r="I1" s="688"/>
+      <c r="J1" s="688"/>
+      <c r="K1" s="688"/>
+      <c r="L1" s="688"/>
+      <c r="M1" s="688"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="710"/>
+      <c r="B2" s="686"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12578,17 +12590,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="713" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="714"/>
+      <c r="B3" s="689" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="690"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="715" t="s">
+      <c r="H3" s="691" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="715"/>
+      <c r="I3" s="691"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -12602,14 +12614,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="716" t="s">
+      <c r="E4" s="692" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="717"/>
-      <c r="H4" s="718" t="s">
+      <c r="F4" s="693"/>
+      <c r="H4" s="694" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="719"/>
+      <c r="I4" s="695"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12619,10 +12631,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="690" t="s">
+      <c r="P4" s="701" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="691"/>
+      <c r="Q4" s="702"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -14063,11 +14075,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="692">
+      <c r="M39" s="703">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="694">
+      <c r="N39" s="705">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -14093,8 +14105,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="693"/>
-      <c r="N40" s="695"/>
+      <c r="M40" s="704"/>
+      <c r="N40" s="706"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -14309,29 +14321,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="696" t="s">
+      <c r="H52" s="707" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="697"/>
+      <c r="I52" s="708"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="698">
+      <c r="K52" s="709">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="699"/>
-      <c r="M52" s="700">
+      <c r="L52" s="710"/>
+      <c r="M52" s="711">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="701"/>
+      <c r="N52" s="712"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="702" t="s">
+      <c r="D53" s="713" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="702"/>
+      <c r="E53" s="713"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -14342,22 +14354,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="702" t="s">
+      <c r="D54" s="713" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="702"/>
+      <c r="E54" s="713"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="703" t="s">
+      <c r="I54" s="714" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="704"/>
-      <c r="K54" s="705">
+      <c r="J54" s="715"/>
+      <c r="K54" s="716">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="706"/>
+      <c r="L54" s="717"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -14390,11 +14402,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="707">
+      <c r="K56" s="718">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="708"/>
+      <c r="L56" s="719"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -14411,22 +14423,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="685" t="s">
+      <c r="D58" s="696" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="686"/>
+      <c r="E58" s="697"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="687" t="s">
+      <c r="I58" s="698" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="688"/>
-      <c r="K58" s="689">
+      <c r="J58" s="699"/>
+      <c r="K58" s="700">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="689"/>
+      <c r="L58" s="700"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -14570,12 +14582,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -14590,6 +14596,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17448,7 +17460,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="709"/>
+      <c r="B1" s="685"/>
       <c r="C1" s="751" t="s">
         <v>451</v>
       </c>
@@ -17464,7 +17476,7 @@
       <c r="M1" s="752"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="710"/>
+      <c r="B2" s="686"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17474,21 +17486,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="713" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="714"/>
+      <c r="B3" s="689" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="690"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="715" t="s">
+      <c r="H3" s="691" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="715"/>
+      <c r="I3" s="691"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="739" t="s">
+      <c r="P3" s="728" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="749" t="s">
@@ -17506,14 +17518,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="716" t="s">
+      <c r="E4" s="692" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="717"/>
-      <c r="H4" s="718" t="s">
+      <c r="F4" s="693"/>
+      <c r="H4" s="694" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="719"/>
+      <c r="I4" s="695"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -17523,15 +17535,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="740"/>
+      <c r="P4" s="729"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="750"/>
-      <c r="W4" s="722" t="s">
+      <c r="W4" s="738" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="738"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17582,8 +17594,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="738"/>
+      <c r="X5" s="738"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18346,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="742">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -18398,7 +18410,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="743"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -18447,8 +18459,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="744"/>
+      <c r="X21" s="744"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -18548,8 +18560,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="745"/>
+      <c r="X23" s="745"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -18604,8 +18616,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="745"/>
+      <c r="X24" s="745"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -18653,8 +18665,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="746"/>
+      <c r="X25" s="746"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -18703,8 +18715,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="746"/>
+      <c r="X26" s="746"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -18752,9 +18764,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="739"/>
+      <c r="X27" s="740"/>
+      <c r="Y27" s="741"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18802,9 +18814,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="740"/>
+      <c r="X28" s="740"/>
+      <c r="Y28" s="741"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19136,11 +19148,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="741">
+      <c r="M36" s="730">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="743">
+      <c r="N36" s="732">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -19173,8 +19185,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="742"/>
-      <c r="N37" s="744"/>
+      <c r="M37" s="731"/>
+      <c r="N37" s="733"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -19861,26 +19873,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="696" t="s">
+      <c r="H68" s="707" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="697"/>
+      <c r="I68" s="708"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="698">
+      <c r="K68" s="709">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="731"/>
+      <c r="L68" s="736"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="702" t="s">
+      <c r="D69" s="713" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="702"/>
+      <c r="E69" s="713"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19889,22 +19901,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="732" t="s">
+      <c r="D70" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="732"/>
+      <c r="E70" s="737"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="703" t="s">
+      <c r="I70" s="714" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="704"/>
-      <c r="K70" s="705">
+      <c r="J70" s="715"/>
+      <c r="K70" s="716">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="705"/>
+      <c r="L70" s="716"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19945,11 +19957,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="707">
+      <c r="K72" s="718">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="708"/>
+      <c r="L72" s="719"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19966,22 +19978,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="685" t="s">
+      <c r="D74" s="696" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="686"/>
+      <c r="E74" s="697"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="687" t="s">
+      <c r="I74" s="698" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="688"/>
-      <c r="K74" s="689">
+      <c r="J74" s="699"/>
+      <c r="K74" s="700">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="689"/>
+      <c r="L74" s="700"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -20128,21 +20140,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -20158,6 +20155,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22743,7 +22755,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="709"/>
+      <c r="B1" s="685"/>
       <c r="C1" s="751" t="s">
         <v>620</v>
       </c>
@@ -22759,7 +22771,7 @@
       <c r="M1" s="752"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="710"/>
+      <c r="B2" s="686"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22769,21 +22781,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="713" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="714"/>
+      <c r="B3" s="689" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="690"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="715" t="s">
+      <c r="H3" s="691" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="715"/>
+      <c r="I3" s="691"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="739" t="s">
+      <c r="P3" s="728" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="749" t="s">
@@ -22801,14 +22813,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="716" t="s">
+      <c r="E4" s="692" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="717"/>
-      <c r="H4" s="718" t="s">
+      <c r="F4" s="693"/>
+      <c r="H4" s="694" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="719"/>
+      <c r="I4" s="695"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22818,15 +22830,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="740"/>
+      <c r="P4" s="729"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="750"/>
-      <c r="W4" s="722" t="s">
+      <c r="W4" s="738" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="738"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22877,8 +22889,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="738"/>
+      <c r="X5" s="738"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23637,7 +23649,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="742">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -23689,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="743"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -23738,8 +23750,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="744"/>
+      <c r="X21" s="744"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23836,8 +23848,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="745"/>
+      <c r="X23" s="745"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23892,8 +23904,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="745"/>
+      <c r="X24" s="745"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23939,8 +23951,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="746"/>
+      <c r="X25" s="746"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23991,8 +24003,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="746"/>
+      <c r="X26" s="746"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -24043,9 +24055,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="739"/>
+      <c r="X27" s="740"/>
+      <c r="Y27" s="741"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24095,9 +24107,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="740"/>
+      <c r="X28" s="740"/>
+      <c r="Y28" s="741"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24701,11 +24713,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="741">
+      <c r="M41" s="730">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="741">
+      <c r="N41" s="730">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -24743,8 +24755,8 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="742"/>
-      <c r="N42" s="742"/>
+      <c r="M42" s="731"/>
+      <c r="N42" s="731"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="790"/>
     </row>
@@ -25431,26 +25443,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="696" t="s">
+      <c r="H70" s="707" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="697"/>
+      <c r="I70" s="708"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="698">
+      <c r="K70" s="709">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="731"/>
+      <c r="L70" s="736"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="702" t="s">
+      <c r="D71" s="713" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="702"/>
+      <c r="E71" s="713"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -25460,22 +25472,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="732" t="s">
+      <c r="D72" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="732"/>
+      <c r="E72" s="737"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="703" t="s">
+      <c r="I72" s="714" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="704"/>
-      <c r="K72" s="705">
+      <c r="J72" s="715"/>
+      <c r="K72" s="716">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="705"/>
+      <c r="L72" s="716"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -25516,11 +25528,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="707">
+      <c r="K74" s="718">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="708"/>
+      <c r="L74" s="719"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25539,22 +25551,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="685" t="s">
+      <c r="D76" s="696" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="686"/>
+      <c r="E76" s="697"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="687" t="s">
+      <c r="I76" s="698" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="688"/>
-      <c r="K76" s="689">
+      <c r="J76" s="699"/>
+      <c r="K76" s="700">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="689"/>
+      <c r="L76" s="700"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -25714,21 +25726,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -25744,6 +25741,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29040,7 +29052,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="709"/>
+      <c r="B1" s="685"/>
       <c r="C1" s="751" t="s">
         <v>754</v>
       </c>
@@ -29056,7 +29068,7 @@
       <c r="M1" s="752"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="710"/>
+      <c r="B2" s="686"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29066,21 +29078,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="713" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="714"/>
+      <c r="B3" s="689" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="690"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="715" t="s">
+      <c r="H3" s="691" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="715"/>
+      <c r="I3" s="691"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="739" t="s">
+      <c r="P3" s="728" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="749" t="s">
@@ -29102,14 +29114,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="716" t="s">
+      <c r="E4" s="692" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="717"/>
-      <c r="H4" s="718" t="s">
+      <c r="F4" s="693"/>
+      <c r="H4" s="694" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="719"/>
+      <c r="I4" s="695"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -29119,15 +29131,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="740"/>
+      <c r="P4" s="729"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="750"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="817"/>
-      <c r="X4" s="817"/>
+      <c r="W4" s="811"/>
+      <c r="X4" s="811"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29181,8 +29193,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="817"/>
-      <c r="X5" s="817"/>
+      <c r="W5" s="811"/>
+      <c r="X5" s="811"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29948,7 +29960,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="818"/>
+      <c r="W19" s="812"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -30002,7 +30014,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="818"/>
+      <c r="W20" s="812"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30057,8 +30069,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="744"/>
+      <c r="X21" s="744"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30169,8 +30181,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="745"/>
+      <c r="X23" s="745"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30231,8 +30243,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="745"/>
+      <c r="X24" s="745"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30285,8 +30297,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="746"/>
+      <c r="X25" s="746"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30341,8 +30353,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="746"/>
+      <c r="X26" s="746"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30397,9 +30409,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="739"/>
+      <c r="X27" s="740"/>
+      <c r="Y27" s="741"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30453,9 +30465,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="740"/>
+      <c r="X28" s="740"/>
+      <c r="Y28" s="741"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31046,11 +31058,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="741">
+      <c r="M41" s="730">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="741">
+      <c r="N41" s="730">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -31082,8 +31094,8 @@
       <c r="L42" s="640">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="742"/>
-      <c r="N42" s="742"/>
+      <c r="M42" s="731"/>
+      <c r="N42" s="731"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="790"/>
     </row>
@@ -31574,26 +31586,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="696" t="s">
+      <c r="H63" s="707" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="697"/>
+      <c r="I63" s="708"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="814">
+      <c r="K63" s="817">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="815"/>
+      <c r="L63" s="818"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="702" t="s">
+      <c r="D64" s="713" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="702"/>
+      <c r="E64" s="713"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -31602,22 +31614,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="732" t="s">
+      <c r="D65" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="732"/>
+      <c r="E65" s="737"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="703" t="s">
+      <c r="I65" s="714" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="704"/>
-      <c r="K65" s="705">
+      <c r="J65" s="715"/>
+      <c r="K65" s="716">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="705"/>
+      <c r="L65" s="716"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -31658,11 +31670,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="816">
+      <c r="K67" s="813">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="705"/>
+      <c r="L67" s="716"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -31679,22 +31691,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="685" t="s">
+      <c r="D69" s="696" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="686"/>
+      <c r="E69" s="697"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="811" t="s">
+      <c r="I69" s="814" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="812"/>
-      <c r="K69" s="813">
+      <c r="J69" s="815"/>
+      <c r="K69" s="816">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="813"/>
+      <c r="L69" s="816"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -31841,6 +31853,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -31856,21 +31883,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34228,7 +34240,7 @@
   </sheetPr>
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
@@ -34255,7 +34267,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="709"/>
+      <c r="B1" s="685"/>
       <c r="C1" s="751" t="s">
         <v>884</v>
       </c>
@@ -34271,7 +34283,7 @@
       <c r="M1" s="752"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="710"/>
+      <c r="B2" s="686"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34281,21 +34293,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="713" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="714"/>
+      <c r="B3" s="689" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="690"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="715" t="s">
+      <c r="H3" s="691" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="715"/>
+      <c r="I3" s="691"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="739" t="s">
+      <c r="P3" s="728" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="749" t="s">
@@ -34313,14 +34325,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="716" t="s">
+      <c r="E4" s="692" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="717"/>
-      <c r="H4" s="718" t="s">
+      <c r="F4" s="693"/>
+      <c r="H4" s="694" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="719"/>
+      <c r="I4" s="695"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -34330,7 +34342,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="740"/>
+      <c r="P4" s="729"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -36102,11 +36114,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="741">
+      <c r="M41" s="730">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="741">
+      <c r="N41" s="730">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -36144,8 +36156,8 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="742"/>
-      <c r="N42" s="742"/>
+      <c r="M42" s="731"/>
+      <c r="N42" s="731"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="790"/>
     </row>
@@ -36828,26 +36840,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="696" t="s">
+      <c r="H69" s="707" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="697"/>
+      <c r="I69" s="708"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="814">
+      <c r="K69" s="817">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="815"/>
+      <c r="L69" s="818"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="702" t="s">
+      <c r="D70" s="713" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="702"/>
+      <c r="E70" s="713"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1683028.8699999999</v>
@@ -36856,22 +36868,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="732" t="s">
+      <c r="D71" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="732"/>
+      <c r="E71" s="737"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="703" t="s">
+      <c r="I71" s="714" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="704"/>
-      <c r="K71" s="705">
+      <c r="J71" s="715"/>
+      <c r="K71" s="716">
         <f>F73+F74+F75</f>
         <v>2167293.46</v>
       </c>
-      <c r="L71" s="705"/>
+      <c r="L71" s="716"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -36912,11 +36924,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="816">
+      <c r="K73" s="813">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="705"/>
+      <c r="L73" s="716"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -36933,22 +36945,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="685" t="s">
+      <c r="D75" s="696" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="686"/>
+      <c r="E75" s="697"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="687" t="s">
+      <c r="I75" s="698" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="688"/>
-      <c r="K75" s="689">
+      <c r="J75" s="699"/>
+      <c r="K75" s="700">
         <f>K71+K73</f>
         <v>-379688.70000000019</v>
       </c>
-      <c r="L75" s="689"/>
+      <c r="L75" s="700"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -37095,17 +37107,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -37117,6 +37118,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42554,8 +42566,8 @@
   </sheetPr>
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -42581,7 +42593,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="709"/>
+      <c r="B1" s="685"/>
       <c r="C1" s="751" t="s">
         <v>1027</v>
       </c>
@@ -42597,7 +42609,7 @@
       <c r="M1" s="752"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="710"/>
+      <c r="B2" s="686"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42607,21 +42619,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="713" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="714"/>
+      <c r="B3" s="689" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="690"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="715" t="s">
+      <c r="H3" s="691" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="715"/>
+      <c r="I3" s="691"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="739" t="s">
+      <c r="P3" s="728" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="749" t="s">
@@ -42639,14 +42651,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="716" t="s">
+      <c r="E4" s="692" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="717"/>
-      <c r="H4" s="718" t="s">
+      <c r="F4" s="693"/>
+      <c r="H4" s="694" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="719"/>
+      <c r="I4" s="695"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -42656,7 +42668,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="740"/>
+      <c r="P4" s="729"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -42669,29 +42681,40 @@
       <c r="B5" s="24">
         <v>44746</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="25">
+        <v>13812</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>1029</v>
+      </c>
       <c r="E5" s="27">
         <v>44746</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="28">
+        <v>120812</v>
+      </c>
       <c r="G5" s="575"/>
       <c r="H5" s="29">
         <v>44746</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="30">
+        <v>4929.5</v>
+      </c>
       <c r="J5" s="37"/>
       <c r="K5" s="31"/>
       <c r="L5" s="9"/>
       <c r="M5" s="32">
-        <v>0</v>
+        <v>62065.5</v>
       </c>
       <c r="N5" s="33">
-        <v>0</v>
+        <v>40005</v>
+      </c>
+      <c r="O5" s="664" t="s">
+        <v>766</v>
       </c>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>120812</v>
       </c>
       <c r="Q5" s="325">
         <f>P5-F5</f>
@@ -42706,29 +42729,40 @@
       <c r="B6" s="24">
         <v>44747</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="25">
+        <v>45897</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>1030</v>
+      </c>
       <c r="E6" s="27">
         <v>44747</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28">
+        <v>96271</v>
+      </c>
       <c r="G6" s="575"/>
       <c r="H6" s="29">
         <v>44747</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="30">
+        <v>1094</v>
+      </c>
       <c r="J6" s="37"/>
       <c r="K6" s="38"/>
       <c r="L6" s="39"/>
       <c r="M6" s="32">
-        <v>0</v>
+        <v>25042</v>
       </c>
       <c r="N6" s="33">
-        <v>0</v>
+        <v>24238</v>
+      </c>
+      <c r="O6" s="664" t="s">
+        <v>766</v>
       </c>
       <c r="P6" s="39">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>96271</v>
       </c>
       <c r="Q6" s="325">
         <f t="shared" ref="Q6:Q40" si="0">P6-F6</f>
@@ -42743,29 +42777,40 @@
       <c r="B7" s="24">
         <v>44748</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="25">
+        <v>19195</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>1031</v>
+      </c>
       <c r="E7" s="27">
         <v>44748</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28">
+        <v>85317</v>
+      </c>
       <c r="G7" s="575"/>
       <c r="H7" s="29">
         <v>44748</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="30">
+        <v>4864</v>
+      </c>
       <c r="J7" s="37"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
       <c r="M7" s="32">
-        <v>0</v>
+        <v>34750</v>
       </c>
       <c r="N7" s="33">
-        <v>0</v>
+        <v>28374</v>
+      </c>
+      <c r="O7" s="664" t="s">
+        <v>766</v>
       </c>
       <c r="P7" s="39">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>87183</v>
       </c>
       <c r="Q7" s="325">
         <v>0</v>
@@ -42799,6 +42844,7 @@
       <c r="N8" s="33">
         <v>0</v>
       </c>
+      <c r="O8" s="664"/>
       <c r="P8" s="39">
         <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
         <v>0</v>
@@ -42835,6 +42881,7 @@
       <c r="N9" s="33">
         <v>0</v>
       </c>
+      <c r="O9" s="664"/>
       <c r="P9" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -42872,6 +42919,7 @@
       <c r="N10" s="33">
         <v>0</v>
       </c>
+      <c r="O10" s="664"/>
       <c r="P10" s="39">
         <f>N10+M10+L10+I10+C10</f>
         <v>0</v>
@@ -42909,6 +42957,7 @@
       <c r="N11" s="33">
         <v>0</v>
       </c>
+      <c r="O11" s="664"/>
       <c r="P11" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -42946,6 +42995,7 @@
       <c r="N12" s="33">
         <v>0</v>
       </c>
+      <c r="O12" s="664"/>
       <c r="P12" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -42983,6 +43033,7 @@
       <c r="N13" s="33">
         <v>0</v>
       </c>
+      <c r="O13" s="664"/>
       <c r="P13" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43001,7 +43052,9 @@
         <v>44755</v>
       </c>
       <c r="C14" s="25"/>
-      <c r="D14" s="40"/>
+      <c r="D14" s="40" t="s">
+        <v>1028</v>
+      </c>
       <c r="E14" s="27">
         <v>44755</v>
       </c>
@@ -43058,6 +43111,7 @@
       <c r="N15" s="33">
         <v>0</v>
       </c>
+      <c r="O15" s="664"/>
       <c r="P15" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43095,6 +43149,7 @@
       <c r="N16" s="33">
         <v>0</v>
       </c>
+      <c r="O16" s="664"/>
       <c r="P16" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43132,6 +43187,7 @@
       <c r="N17" s="33">
         <v>0</v>
       </c>
+      <c r="O17" s="664"/>
       <c r="P17" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43169,6 +43225,7 @@
       <c r="N18" s="33">
         <v>0</v>
       </c>
+      <c r="O18" s="664"/>
       <c r="P18" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43206,6 +43263,7 @@
       <c r="N19" s="33">
         <v>0</v>
       </c>
+      <c r="O19" s="664"/>
       <c r="P19" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43243,6 +43301,7 @@
       <c r="N20" s="33">
         <v>0</v>
       </c>
+      <c r="O20" s="664"/>
       <c r="P20" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43280,6 +43339,7 @@
       <c r="N21" s="33">
         <v>0</v>
       </c>
+      <c r="O21" s="664"/>
       <c r="P21" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43317,6 +43377,7 @@
       <c r="N22" s="33">
         <v>0</v>
       </c>
+      <c r="O22" s="664"/>
       <c r="P22" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43354,6 +43415,7 @@
       <c r="N23" s="33">
         <v>0</v>
       </c>
+      <c r="O23" s="664"/>
       <c r="P23" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43391,6 +43453,7 @@
       <c r="N24" s="33">
         <v>0</v>
       </c>
+      <c r="O24" s="664"/>
       <c r="P24" s="39">
         <f>N24+M24+L24+I24+C24</f>
         <v>0</v>
@@ -43428,6 +43491,7 @@
       <c r="N25" s="33">
         <v>0</v>
       </c>
+      <c r="O25" s="664"/>
       <c r="P25" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43960,17 +44024,17 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="741">
+      <c r="M41" s="730">
         <f>SUM(M5:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="741">
+        <v>121857.5</v>
+      </c>
+      <c r="N41" s="730">
         <f>SUM(N5:N40)</f>
-        <v>0</v>
+        <v>92617</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>0</v>
+        <v>304266</v>
       </c>
       <c r="Q41" s="789">
         <f>SUM(Q5:Q40)</f>
@@ -43990,8 +44054,8 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="742"/>
-      <c r="N42" s="742"/>
+      <c r="M42" s="731"/>
+      <c r="N42" s="731"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="790"/>
     </row>
@@ -44046,7 +44110,7 @@
       <c r="L45" s="39"/>
       <c r="M45" s="791">
         <f>M41+N41</f>
-        <v>0</v>
+        <v>214474.5</v>
       </c>
       <c r="N45" s="792"/>
       <c r="P45" s="34"/>
@@ -44445,7 +44509,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>0</v>
+        <v>78904</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -44453,7 +44517,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>0</v>
+        <v>302400</v>
       </c>
       <c r="G67" s="576"/>
       <c r="H67" s="91" t="s">
@@ -44461,7 +44525,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>0</v>
+        <v>10887.5</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -44487,50 +44551,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="696" t="s">
+      <c r="H69" s="707" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="697"/>
+      <c r="I69" s="708"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="814">
+      <c r="K69" s="817">
         <f>I67+L67</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="815"/>
+        <v>10887.5</v>
+      </c>
+      <c r="L69" s="818"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="702" t="s">
+      <c r="D70" s="713" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="702"/>
+      <c r="E70" s="713"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>0</v>
+        <v>212608.5</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="732" t="s">
+      <c r="D71" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="732"/>
+      <c r="E71" s="737"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="703" t="s">
+      <c r="I71" s="714" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="704"/>
-      <c r="K71" s="705">
+      <c r="J71" s="715"/>
+      <c r="K71" s="716">
         <f>F73+F74+F75</f>
-        <v>2355426.54</v>
-      </c>
-      <c r="L71" s="705"/>
+        <v>2568035.04</v>
+      </c>
+      <c r="L71" s="716"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -44564,18 +44628,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>0</v>
+        <v>212608.5</v>
       </c>
       <c r="H73" s="558"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="816">
+      <c r="K73" s="813">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="705"/>
+      <c r="L73" s="716"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -44590,22 +44654,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="685" t="s">
+      <c r="D75" s="696" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="686"/>
+      <c r="E75" s="697"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="687" t="s">
+      <c r="I75" s="698" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="688"/>
-      <c r="K75" s="689">
+      <c r="J75" s="699"/>
+      <c r="K75" s="700">
         <f>K71+K73</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="689"/>
+        <v>212608.5</v>
+      </c>
+      <c r="L75" s="700"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -44749,16 +44813,9 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="H69:I69"/>
@@ -44768,9 +44825,16 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46881,23 +46945,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="709"/>
-      <c r="C1" s="711" t="s">
+      <c r="B1" s="685"/>
+      <c r="C1" s="687" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="712"/>
-      <c r="E1" s="712"/>
-      <c r="F1" s="712"/>
-      <c r="G1" s="712"/>
-      <c r="H1" s="712"/>
-      <c r="I1" s="712"/>
-      <c r="J1" s="712"/>
-      <c r="K1" s="712"/>
-      <c r="L1" s="712"/>
-      <c r="M1" s="712"/>
+      <c r="D1" s="688"/>
+      <c r="E1" s="688"/>
+      <c r="F1" s="688"/>
+      <c r="G1" s="688"/>
+      <c r="H1" s="688"/>
+      <c r="I1" s="688"/>
+      <c r="J1" s="688"/>
+      <c r="K1" s="688"/>
+      <c r="L1" s="688"/>
+      <c r="M1" s="688"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="710"/>
+      <c r="B2" s="686"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -46907,21 +46971,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="713" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="714"/>
+      <c r="B3" s="689" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="690"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="715" t="s">
+      <c r="H3" s="691" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="715"/>
+      <c r="I3" s="691"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="739" t="s">
+      <c r="P3" s="728" t="s">
         <v>6</v>
       </c>
     </row>
@@ -46936,14 +47000,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="716" t="s">
+      <c r="E4" s="692" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="717"/>
-      <c r="H4" s="718" t="s">
+      <c r="F4" s="693"/>
+      <c r="H4" s="694" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="719"/>
+      <c r="I4" s="695"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -46953,14 +47017,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="740"/>
+      <c r="P4" s="729"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="722" t="s">
+      <c r="W4" s="738" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="738"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47011,8 +47075,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="738"/>
+      <c r="X5" s="738"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47783,7 +47847,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="742">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -47835,7 +47899,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="743"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -47884,8 +47948,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="744"/>
+      <c r="X21" s="744"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -47986,8 +48050,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="745"/>
+      <c r="X23" s="745"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -48041,8 +48105,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="745"/>
+      <c r="X24" s="745"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -48088,8 +48152,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="746"/>
+      <c r="X25" s="746"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -48140,8 +48204,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="746"/>
+      <c r="X26" s="746"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -48189,9 +48253,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="739"/>
+      <c r="X27" s="740"/>
+      <c r="Y27" s="741"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48241,9 +48305,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="740"/>
+      <c r="X28" s="740"/>
+      <c r="Y28" s="741"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48578,11 +48642,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="741">
+      <c r="M36" s="730">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="743">
+      <c r="N36" s="732">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -48590,7 +48654,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="745">
+      <c r="Q36" s="734">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -48625,13 +48689,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="742"/>
-      <c r="N37" s="744"/>
+      <c r="M37" s="731"/>
+      <c r="N37" s="733"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="746"/>
+      <c r="Q37" s="735"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -48921,26 +48985,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="696" t="s">
+      <c r="H52" s="707" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="697"/>
+      <c r="I52" s="708"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="698">
+      <c r="K52" s="709">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="731"/>
+      <c r="L52" s="736"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="702" t="s">
+      <c r="D53" s="713" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="702"/>
+      <c r="E53" s="713"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -48949,29 +49013,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="732" t="s">
+      <c r="D54" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="732"/>
+      <c r="E54" s="737"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="703" t="s">
+      <c r="I54" s="714" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="704"/>
-      <c r="K54" s="705">
+      <c r="J54" s="715"/>
+      <c r="K54" s="716">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="705"/>
-      <c r="M54" s="733" t="s">
+      <c r="L54" s="716"/>
+      <c r="M54" s="722" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="734"/>
-      <c r="O54" s="734"/>
-      <c r="P54" s="734"/>
-      <c r="Q54" s="735"/>
+      <c r="N54" s="723"/>
+      <c r="O54" s="723"/>
+      <c r="P54" s="723"/>
+      <c r="Q54" s="724"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -48985,11 +49049,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="736"/>
-      <c r="N55" s="737"/>
-      <c r="O55" s="737"/>
-      <c r="P55" s="737"/>
-      <c r="Q55" s="738"/>
+      <c r="M55" s="725"/>
+      <c r="N55" s="726"/>
+      <c r="O55" s="726"/>
+      <c r="P55" s="726"/>
+      <c r="Q55" s="727"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -49007,11 +49071,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="707">
+      <c r="K56" s="718">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="708"/>
+      <c r="L56" s="719"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -49028,22 +49092,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="685" t="s">
+      <c r="D58" s="696" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="686"/>
+      <c r="E58" s="697"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="687" t="s">
+      <c r="I58" s="698" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="688"/>
-      <c r="K58" s="689">
+      <c r="J58" s="699"/>
+      <c r="K58" s="700">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="689"/>
+      <c r="L58" s="700"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -49187,17 +49251,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -49208,14 +49269,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51958,23 +52022,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="709"/>
-      <c r="C1" s="711" t="s">
+      <c r="B1" s="685"/>
+      <c r="C1" s="687" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="712"/>
-      <c r="E1" s="712"/>
-      <c r="F1" s="712"/>
-      <c r="G1" s="712"/>
-      <c r="H1" s="712"/>
-      <c r="I1" s="712"/>
-      <c r="J1" s="712"/>
-      <c r="K1" s="712"/>
-      <c r="L1" s="712"/>
-      <c r="M1" s="712"/>
+      <c r="D1" s="688"/>
+      <c r="E1" s="688"/>
+      <c r="F1" s="688"/>
+      <c r="G1" s="688"/>
+      <c r="H1" s="688"/>
+      <c r="I1" s="688"/>
+      <c r="J1" s="688"/>
+      <c r="K1" s="688"/>
+      <c r="L1" s="688"/>
+      <c r="M1" s="688"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="710"/>
+      <c r="B2" s="686"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -51984,21 +52048,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="713" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="714"/>
+      <c r="B3" s="689" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="690"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="715" t="s">
+      <c r="H3" s="691" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="715"/>
+      <c r="I3" s="691"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="739" t="s">
+      <c r="P3" s="728" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="749" t="s">
@@ -52016,14 +52080,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="716" t="s">
+      <c r="E4" s="692" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="717"/>
-      <c r="H4" s="718" t="s">
+      <c r="F4" s="693"/>
+      <c r="H4" s="694" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="719"/>
+      <c r="I4" s="695"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -52033,15 +52097,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="740"/>
+      <c r="P4" s="729"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="750"/>
-      <c r="W4" s="722" t="s">
+      <c r="W4" s="738" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="738"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52102,8 +52166,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="738"/>
+      <c r="X5" s="738"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52860,7 +52924,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="742">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -52912,7 +52976,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="743"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -52961,8 +53025,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="744"/>
+      <c r="X21" s="744"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -53063,8 +53127,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="745"/>
+      <c r="X23" s="745"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -53115,8 +53179,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="745"/>
+      <c r="X24" s="745"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -53162,8 +53226,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="746"/>
+      <c r="X25" s="746"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -53211,8 +53275,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="746"/>
+      <c r="X26" s="746"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -53272,9 +53336,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="739"/>
+      <c r="X27" s="740"/>
+      <c r="Y27" s="741"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53328,9 +53392,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="740"/>
+      <c r="X28" s="740"/>
+      <c r="Y28" s="741"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53646,11 +53710,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="741">
+      <c r="M36" s="730">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="743">
+      <c r="N36" s="732">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -53658,7 +53722,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="745">
+      <c r="Q36" s="734">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -53677,13 +53741,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="742"/>
-      <c r="N37" s="744"/>
+      <c r="M37" s="731"/>
+      <c r="N37" s="733"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="746"/>
+      <c r="Q37" s="735"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -53957,26 +54021,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="696" t="s">
+      <c r="H52" s="707" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="697"/>
+      <c r="I52" s="708"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="698">
+      <c r="K52" s="709">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="731"/>
+      <c r="L52" s="736"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="702" t="s">
+      <c r="D53" s="713" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="702"/>
+      <c r="E53" s="713"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -53985,29 +54049,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="732" t="s">
+      <c r="D54" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="732"/>
+      <c r="E54" s="737"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="703" t="s">
+      <c r="I54" s="714" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="704"/>
-      <c r="K54" s="705">
+      <c r="J54" s="715"/>
+      <c r="K54" s="716">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="705"/>
-      <c r="M54" s="733" t="s">
+      <c r="L54" s="716"/>
+      <c r="M54" s="722" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="734"/>
-      <c r="O54" s="734"/>
-      <c r="P54" s="734"/>
-      <c r="Q54" s="735"/>
+      <c r="N54" s="723"/>
+      <c r="O54" s="723"/>
+      <c r="P54" s="723"/>
+      <c r="Q54" s="724"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -54021,11 +54085,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="736"/>
-      <c r="N55" s="737"/>
-      <c r="O55" s="737"/>
-      <c r="P55" s="737"/>
-      <c r="Q55" s="738"/>
+      <c r="M55" s="725"/>
+      <c r="N55" s="726"/>
+      <c r="O55" s="726"/>
+      <c r="P55" s="726"/>
+      <c r="Q55" s="727"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -54043,11 +54107,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="707">
+      <c r="K56" s="718">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="708"/>
+      <c r="L56" s="719"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -54064,22 +54128,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="685" t="s">
+      <c r="D58" s="696" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="686"/>
+      <c r="E58" s="697"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="687" t="s">
+      <c r="I58" s="698" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="688"/>
-      <c r="K58" s="689">
+      <c r="J58" s="699"/>
+      <c r="K58" s="700">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="689"/>
+      <c r="L58" s="700"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -54223,13 +54287,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -54239,20 +54310,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56947,7 +57011,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="709"/>
+      <c r="B1" s="685"/>
       <c r="C1" s="751" t="s">
         <v>316</v>
       </c>
@@ -56963,7 +57027,7 @@
       <c r="M1" s="752"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="710"/>
+      <c r="B2" s="686"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56973,21 +57037,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="713" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="714"/>
+      <c r="B3" s="689" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="690"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="715" t="s">
+      <c r="H3" s="691" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="715"/>
+      <c r="I3" s="691"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="739" t="s">
+      <c r="P3" s="728" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="749" t="s">
@@ -57005,14 +57069,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="716" t="s">
+      <c r="E4" s="692" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="717"/>
-      <c r="H4" s="718" t="s">
+      <c r="F4" s="693"/>
+      <c r="H4" s="694" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="719"/>
+      <c r="I4" s="695"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -57022,15 +57086,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="740"/>
+      <c r="P4" s="729"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="750"/>
-      <c r="W4" s="722" t="s">
+      <c r="W4" s="738" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="738"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57081,8 +57145,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="738"/>
+      <c r="X5" s="738"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57846,7 +57910,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="742">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -57899,7 +57963,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="743"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -57948,8 +58012,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="744"/>
+      <c r="X21" s="744"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -58049,8 +58113,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="745"/>
+      <c r="X23" s="745"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -58105,8 +58169,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="745"/>
+      <c r="X24" s="745"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -58151,8 +58215,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="746"/>
+      <c r="X25" s="746"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -58200,8 +58264,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="746"/>
+      <c r="X26" s="746"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -58255,9 +58319,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="739"/>
+      <c r="X27" s="740"/>
+      <c r="Y27" s="741"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58311,9 +58375,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="740"/>
+      <c r="X28" s="740"/>
+      <c r="Y28" s="741"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58624,11 +58688,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="741">
+      <c r="M36" s="730">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="743">
+      <c r="N36" s="732">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -58636,7 +58700,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="745">
+      <c r="Q36" s="734">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -58661,13 +58725,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="742"/>
-      <c r="N37" s="744"/>
+      <c r="M37" s="731"/>
+      <c r="N37" s="733"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="746"/>
+      <c r="Q37" s="735"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -58960,26 +59024,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="696" t="s">
+      <c r="H52" s="707" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="697"/>
+      <c r="I52" s="708"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="698">
+      <c r="K52" s="709">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="731"/>
+      <c r="L52" s="736"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="702" t="s">
+      <c r="D53" s="713" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="702"/>
+      <c r="E53" s="713"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -58988,22 +59052,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="732" t="s">
+      <c r="D54" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="732"/>
+      <c r="E54" s="737"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="703" t="s">
+      <c r="I54" s="714" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="704"/>
-      <c r="K54" s="705">
+      <c r="J54" s="715"/>
+      <c r="K54" s="716">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="705"/>
+      <c r="L54" s="716"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -59044,11 +59108,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="707">
+      <c r="K56" s="718">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="708"/>
+      <c r="L56" s="719"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -59065,22 +59129,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="685" t="s">
+      <c r="D58" s="696" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="686"/>
+      <c r="E58" s="697"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="687" t="s">
+      <c r="I58" s="698" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="688"/>
-      <c r="K58" s="689">
+      <c r="J58" s="699"/>
+      <c r="K58" s="700">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="689"/>
+      <c r="L58" s="700"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -59224,6 +59288,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -59239,20 +59317,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -62046,7 +62110,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="709"/>
+      <c r="B1" s="685"/>
       <c r="C1" s="751" t="s">
         <v>646</v>
       </c>
@@ -62062,7 +62126,7 @@
       <c r="M1" s="752"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="710"/>
+      <c r="B2" s="686"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -62072,21 +62136,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="713" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="714"/>
+      <c r="B3" s="689" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="690"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="715" t="s">
+      <c r="H3" s="691" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="715"/>
+      <c r="I3" s="691"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="739" t="s">
+      <c r="P3" s="728" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="749" t="s">
@@ -62104,14 +62168,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="716" t="s">
+      <c r="E4" s="692" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="717"/>
-      <c r="H4" s="718" t="s">
+      <c r="F4" s="693"/>
+      <c r="H4" s="694" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="719"/>
+      <c r="I4" s="695"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -62121,15 +62185,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="740"/>
+      <c r="P4" s="729"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="750"/>
-      <c r="W4" s="722" t="s">
+      <c r="W4" s="738" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="738"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62180,8 +62244,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="738"/>
+      <c r="X5" s="738"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62942,7 +63006,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="742">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -62994,7 +63058,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="743"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -63043,8 +63107,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="744"/>
+      <c r="X21" s="744"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -63143,8 +63207,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="745"/>
+      <c r="X23" s="745"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -63199,8 +63263,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="745"/>
+      <c r="X24" s="745"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -63248,8 +63312,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="746"/>
+      <c r="X25" s="746"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -63297,8 +63361,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="746"/>
+      <c r="X26" s="746"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -63346,9 +63410,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="739"/>
+      <c r="X27" s="740"/>
+      <c r="Y27" s="741"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63396,9 +63460,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="740"/>
+      <c r="X28" s="740"/>
+      <c r="Y28" s="741"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63739,11 +63803,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="741">
+      <c r="M36" s="730">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="743">
+      <c r="N36" s="732">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -63776,8 +63840,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="742"/>
-      <c r="N37" s="744"/>
+      <c r="M37" s="731"/>
+      <c r="N37" s="733"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -64084,26 +64148,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="696" t="s">
+      <c r="H52" s="707" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="697"/>
+      <c r="I52" s="708"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="698">
+      <c r="K52" s="709">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="731"/>
+      <c r="L52" s="736"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="702" t="s">
+      <c r="D53" s="713" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="702"/>
+      <c r="E53" s="713"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -64112,22 +64176,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="732" t="s">
+      <c r="D54" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="732"/>
+      <c r="E54" s="737"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="703" t="s">
+      <c r="I54" s="714" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="704"/>
-      <c r="K54" s="705">
+      <c r="J54" s="715"/>
+      <c r="K54" s="716">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="705"/>
+      <c r="L54" s="716"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -64168,11 +64232,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="707">
+      <c r="K56" s="718">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="708"/>
+      <c r="L56" s="719"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -64189,22 +64253,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="685" t="s">
+      <c r="D58" s="696" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="686"/>
+      <c r="E58" s="697"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="687" t="s">
+      <c r="I58" s="698" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="688"/>
-      <c r="K58" s="689">
+      <c r="J58" s="699"/>
+      <c r="K58" s="700">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="689"/>
+      <c r="L58" s="700"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -64348,20 +64412,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -64378,6 +64428,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1038">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3903,6 +3903,24 @@
   </si>
   <si>
     <t>CHORIZO-LONGANIZA-QUESOS-</t>
+  </si>
+  <si>
+    <t>PAVO-JAMON-LONGANIZA-PASTOR-POLLO</t>
+  </si>
+  <si>
+    <t>CHORIZO-ENCHILADA-NUGGETS-SALCHICHONERIA POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-PASTOR-ARABE</t>
+  </si>
+  <si>
+    <t>NOMINA # 28</t>
+  </si>
+  <si>
+    <t>Nomina # 28</t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA--QUESO</t>
   </si>
 </sst>
 </file>
@@ -7340,37 +7358,7 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7445,10 +7433,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7492,39 +7546,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7718,15 +7739,6 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7741,6 +7753,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7758,9 +7779,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12564,23 +12582,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="685"/>
-      <c r="C1" s="687" t="s">
+      <c r="B1" s="710"/>
+      <c r="C1" s="712" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="688"/>
-      <c r="E1" s="688"/>
-      <c r="F1" s="688"/>
-      <c r="G1" s="688"/>
-      <c r="H1" s="688"/>
-      <c r="I1" s="688"/>
-      <c r="J1" s="688"/>
-      <c r="K1" s="688"/>
-      <c r="L1" s="688"/>
-      <c r="M1" s="688"/>
+      <c r="D1" s="713"/>
+      <c r="E1" s="713"/>
+      <c r="F1" s="713"/>
+      <c r="G1" s="713"/>
+      <c r="H1" s="713"/>
+      <c r="I1" s="713"/>
+      <c r="J1" s="713"/>
+      <c r="K1" s="713"/>
+      <c r="L1" s="713"/>
+      <c r="M1" s="713"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="686"/>
+      <c r="B2" s="711"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12590,17 +12608,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="690"/>
+      <c r="B3" s="714" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="715"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="691" t="s">
+      <c r="H3" s="716" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="691"/>
+      <c r="I3" s="716"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -12614,14 +12632,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="692" t="s">
+      <c r="E4" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="H4" s="694" t="s">
+      <c r="F4" s="718"/>
+      <c r="H4" s="719" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="695"/>
+      <c r="I4" s="720"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12631,10 +12649,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="701" t="s">
+      <c r="P4" s="691" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="702"/>
+      <c r="Q4" s="692"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -14075,11 +14093,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="703">
+      <c r="M39" s="693">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="705">
+      <c r="N39" s="695">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -14105,8 +14123,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="704"/>
-      <c r="N40" s="706"/>
+      <c r="M40" s="694"/>
+      <c r="N40" s="696"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -14321,29 +14339,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="707" t="s">
+      <c r="H52" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="708"/>
+      <c r="I52" s="698"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="709">
+      <c r="K52" s="699">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="710"/>
-      <c r="M52" s="711">
+      <c r="L52" s="700"/>
+      <c r="M52" s="701">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="712"/>
+      <c r="N52" s="702"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="713" t="s">
+      <c r="D53" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="713"/>
+      <c r="E53" s="703"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -14354,22 +14372,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="713" t="s">
+      <c r="D54" s="703" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="713"/>
+      <c r="E54" s="703"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="714" t="s">
+      <c r="I54" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="715"/>
-      <c r="K54" s="716">
+      <c r="J54" s="705"/>
+      <c r="K54" s="706">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="717"/>
+      <c r="L54" s="707"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -14402,11 +14420,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="718">
+      <c r="K56" s="708">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="719"/>
+      <c r="L56" s="709"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -14423,22 +14441,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="696" t="s">
+      <c r="D58" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="697"/>
+      <c r="E58" s="687"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="698" t="s">
+      <c r="I58" s="688" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="699"/>
-      <c r="K58" s="700">
+      <c r="J58" s="689"/>
+      <c r="K58" s="690">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="700"/>
+      <c r="L58" s="690"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -14582,6 +14600,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -14596,12 +14620,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17062,10 +17080,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="781" t="s">
+      <c r="I76" s="782" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="782"/>
+      <c r="J76" s="783"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -17084,8 +17102,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="783"/>
-      <c r="J77" s="784"/>
+      <c r="I77" s="784"/>
+      <c r="J77" s="785"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -17152,7 +17170,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="747" t="s">
+      <c r="F80" s="748" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -17167,7 +17185,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="748"/>
+      <c r="F81" s="749"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -17175,10 +17193,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="780" t="s">
+      <c r="B82" s="781" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="780"/>
+      <c r="C82" s="781"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -17460,23 +17478,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="685"/>
-      <c r="C1" s="751" t="s">
+      <c r="B1" s="710"/>
+      <c r="C1" s="752" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="752"/>
-      <c r="E1" s="752"/>
-      <c r="F1" s="752"/>
-      <c r="G1" s="752"/>
-      <c r="H1" s="752"/>
-      <c r="I1" s="752"/>
-      <c r="J1" s="752"/>
-      <c r="K1" s="752"/>
-      <c r="L1" s="752"/>
-      <c r="M1" s="752"/>
+      <c r="D1" s="753"/>
+      <c r="E1" s="753"/>
+      <c r="F1" s="753"/>
+      <c r="G1" s="753"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
+      <c r="J1" s="753"/>
+      <c r="K1" s="753"/>
+      <c r="L1" s="753"/>
+      <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="686"/>
+      <c r="B2" s="711"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17486,24 +17504,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="690"/>
+      <c r="B3" s="714" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="715"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="691" t="s">
+      <c r="H3" s="716" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="691"/>
+      <c r="I3" s="716"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="728" t="s">
+      <c r="P3" s="740" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="749" t="s">
+      <c r="R3" s="750" t="s">
         <v>216</v>
       </c>
     </row>
@@ -17518,14 +17536,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="692" t="s">
+      <c r="E4" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="H4" s="694" t="s">
+      <c r="F4" s="718"/>
+      <c r="H4" s="719" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="695"/>
+      <c r="I4" s="720"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -17535,15 +17553,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="729"/>
+      <c r="P4" s="741"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="750"/>
-      <c r="W4" s="738" t="s">
+      <c r="R4" s="751"/>
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="738"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17594,8 +17612,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="738"/>
-      <c r="X5" s="738"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18358,7 +18376,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="742">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -18410,7 +18428,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="743"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -18459,8 +18477,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="744"/>
-      <c r="X21" s="744"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -18560,8 +18578,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="745"/>
-      <c r="X23" s="745"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -18616,8 +18634,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="745"/>
-      <c r="X24" s="745"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -18665,8 +18683,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="746"/>
-      <c r="X25" s="746"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -18715,8 +18733,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="746"/>
-      <c r="X26" s="746"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -18764,9 +18782,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="739"/>
-      <c r="X27" s="740"/>
-      <c r="Y27" s="741"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18814,9 +18832,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="740"/>
-      <c r="X28" s="740"/>
-      <c r="Y28" s="741"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19148,11 +19166,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="730">
+      <c r="M36" s="742">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="732">
+      <c r="N36" s="744">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -19160,7 +19178,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="776">
+      <c r="Q36" s="777">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -19185,13 +19203,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="731"/>
-      <c r="N37" s="733"/>
+      <c r="M37" s="743"/>
+      <c r="N37" s="745"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="777"/>
+      <c r="Q37" s="778"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -19241,11 +19259,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="778">
+      <c r="M39" s="779">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="779"/>
+      <c r="N39" s="780"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -19873,26 +19891,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="707" t="s">
+      <c r="H68" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="708"/>
+      <c r="I68" s="698"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="709">
+      <c r="K68" s="699">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="736"/>
+      <c r="L68" s="732"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="713" t="s">
+      <c r="D69" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="713"/>
+      <c r="E69" s="703"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19901,22 +19919,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="737" t="s">
+      <c r="D70" s="733" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="737"/>
+      <c r="E70" s="733"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="714" t="s">
+      <c r="I70" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="715"/>
-      <c r="K70" s="716">
+      <c r="J70" s="705"/>
+      <c r="K70" s="706">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="716"/>
+      <c r="L70" s="706"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19957,11 +19975,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="718">
+      <c r="K72" s="708">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="719"/>
+      <c r="L72" s="709"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19978,22 +19996,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="696" t="s">
+      <c r="D74" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="697"/>
+      <c r="E74" s="687"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="698" t="s">
+      <c r="I74" s="688" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="699"/>
-      <c r="K74" s="700">
+      <c r="J74" s="689"/>
+      <c r="K74" s="690">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="700"/>
+      <c r="L74" s="690"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -20140,6 +20158,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -20155,21 +20188,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22437,7 +22455,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="747" t="s">
+      <c r="F80" s="748" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -22450,7 +22468,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="748"/>
+      <c r="F81" s="749"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -22470,10 +22488,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="785" t="s">
+      <c r="I83" s="786" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="786"/>
+      <c r="J83" s="787"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -22482,8 +22500,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="787"/>
-      <c r="J84" s="788"/>
+      <c r="I84" s="788"/>
+      <c r="J84" s="789"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -22755,23 +22773,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="685"/>
-      <c r="C1" s="751" t="s">
+      <c r="B1" s="710"/>
+      <c r="C1" s="752" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="752"/>
-      <c r="E1" s="752"/>
-      <c r="F1" s="752"/>
-      <c r="G1" s="752"/>
-      <c r="H1" s="752"/>
-      <c r="I1" s="752"/>
-      <c r="J1" s="752"/>
-      <c r="K1" s="752"/>
-      <c r="L1" s="752"/>
-      <c r="M1" s="752"/>
+      <c r="D1" s="753"/>
+      <c r="E1" s="753"/>
+      <c r="F1" s="753"/>
+      <c r="G1" s="753"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
+      <c r="J1" s="753"/>
+      <c r="K1" s="753"/>
+      <c r="L1" s="753"/>
+      <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="686"/>
+      <c r="B2" s="711"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22781,24 +22799,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="690"/>
+      <c r="B3" s="714" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="715"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="691" t="s">
+      <c r="H3" s="716" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="691"/>
+      <c r="I3" s="716"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="728" t="s">
+      <c r="P3" s="740" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="749" t="s">
+      <c r="R3" s="750" t="s">
         <v>216</v>
       </c>
     </row>
@@ -22813,14 +22831,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="692" t="s">
+      <c r="E4" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="H4" s="694" t="s">
+      <c r="F4" s="718"/>
+      <c r="H4" s="719" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="695"/>
+      <c r="I4" s="720"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22830,15 +22848,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="729"/>
+      <c r="P4" s="741"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="750"/>
-      <c r="W4" s="738" t="s">
+      <c r="R4" s="751"/>
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="738"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22889,8 +22907,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="738"/>
-      <c r="X5" s="738"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23649,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="742">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -23701,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="743"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -23750,8 +23768,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="744"/>
-      <c r="X21" s="744"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23848,8 +23866,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="745"/>
-      <c r="X23" s="745"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23904,8 +23922,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="745"/>
-      <c r="X24" s="745"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23951,8 +23969,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="746"/>
-      <c r="X25" s="746"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -24003,8 +24021,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="746"/>
-      <c r="X26" s="746"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -24055,9 +24073,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="739"/>
-      <c r="X27" s="740"/>
-      <c r="Y27" s="741"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24107,9 +24125,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="740"/>
-      <c r="X28" s="740"/>
-      <c r="Y28" s="741"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24713,11 +24731,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="730">
+      <c r="M41" s="742">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="730">
+      <c r="N41" s="742">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -24725,7 +24743,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="789">
+      <c r="Q41" s="790">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -24755,10 +24773,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="731"/>
-      <c r="N42" s="731"/>
+      <c r="M42" s="743"/>
+      <c r="N42" s="743"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="790"/>
+      <c r="Q42" s="791"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -24846,11 +24864,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="791">
+      <c r="M45" s="792">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="792"/>
+      <c r="N45" s="793"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -25443,26 +25461,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="707" t="s">
+      <c r="H70" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="708"/>
+      <c r="I70" s="698"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="709">
+      <c r="K70" s="699">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="736"/>
+      <c r="L70" s="732"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="713" t="s">
+      <c r="D71" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="713"/>
+      <c r="E71" s="703"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -25472,22 +25490,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="737" t="s">
+      <c r="D72" s="733" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="737"/>
+      <c r="E72" s="733"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="714" t="s">
+      <c r="I72" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="715"/>
-      <c r="K72" s="716">
+      <c r="J72" s="705"/>
+      <c r="K72" s="706">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="716"/>
+      <c r="L72" s="706"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -25528,11 +25546,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="718">
+      <c r="K74" s="708">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="719"/>
+      <c r="L74" s="709"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25551,22 +25569,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="696" t="s">
+      <c r="D76" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="697"/>
+      <c r="E76" s="687"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="698" t="s">
+      <c r="I76" s="688" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="699"/>
-      <c r="K76" s="700">
+      <c r="J76" s="689"/>
+      <c r="K76" s="690">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="700"/>
+      <c r="L76" s="690"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -25726,6 +25744,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -25741,21 +25774,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28271,7 +28289,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="747" t="s">
+      <c r="F90" s="748" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -28284,7 +28302,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="748"/>
+      <c r="F91" s="749"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -28303,10 +28321,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="785" t="s">
+      <c r="I93" s="786" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="786"/>
+      <c r="J93" s="787"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -28316,8 +28334,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="787"/>
-      <c r="J94" s="788"/>
+      <c r="I94" s="788"/>
+      <c r="J94" s="789"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -28758,11 +28776,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="793">
+      <c r="C130" s="794">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="794"/>
+      <c r="D130" s="795"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -28798,21 +28816,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="799" t="s">
+      <c r="F2" s="800" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="800"/>
-      <c r="H2" s="801"/>
+      <c r="G2" s="801"/>
+      <c r="H2" s="802"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="796" t="s">
+      <c r="B3" s="797" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="797"/>
-      <c r="D3" s="798"/>
-      <c r="F3" s="802"/>
-      <c r="G3" s="803"/>
-      <c r="H3" s="804"/>
+      <c r="C3" s="798"/>
+      <c r="D3" s="799"/>
+      <c r="F3" s="803"/>
+      <c r="G3" s="804"/>
+      <c r="H3" s="805"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -28957,11 +28975,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="805">
+      <c r="G11" s="806">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="806"/>
+      <c r="H11" s="807"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -28978,23 +28996,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="809" t="s">
+      <c r="C15" s="810" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="807">
+      <c r="D15" s="808">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="810"/>
-      <c r="D16" s="808"/>
+      <c r="C16" s="811"/>
+      <c r="D16" s="809"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="795" t="s">
+      <c r="C17" s="796" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="795"/>
+      <c r="D17" s="796"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -29052,23 +29070,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="685"/>
-      <c r="C1" s="751" t="s">
+      <c r="B1" s="710"/>
+      <c r="C1" s="752" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="752"/>
-      <c r="E1" s="752"/>
-      <c r="F1" s="752"/>
-      <c r="G1" s="752"/>
-      <c r="H1" s="752"/>
-      <c r="I1" s="752"/>
-      <c r="J1" s="752"/>
-      <c r="K1" s="752"/>
-      <c r="L1" s="752"/>
-      <c r="M1" s="752"/>
+      <c r="D1" s="753"/>
+      <c r="E1" s="753"/>
+      <c r="F1" s="753"/>
+      <c r="G1" s="753"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
+      <c r="J1" s="753"/>
+      <c r="K1" s="753"/>
+      <c r="L1" s="753"/>
+      <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="686"/>
+      <c r="B2" s="711"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29078,24 +29096,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="690"/>
+      <c r="B3" s="714" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="715"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="691" t="s">
+      <c r="H3" s="716" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="691"/>
+      <c r="I3" s="716"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="728" t="s">
+      <c r="P3" s="740" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="749" t="s">
+      <c r="R3" s="750" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -29114,14 +29132,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="692" t="s">
+      <c r="E4" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="H4" s="694" t="s">
+      <c r="F4" s="718"/>
+      <c r="H4" s="719" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="695"/>
+      <c r="I4" s="720"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -29131,15 +29149,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="729"/>
+      <c r="P4" s="741"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="750"/>
+      <c r="R4" s="751"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="811"/>
-      <c r="X4" s="811"/>
+      <c r="W4" s="818"/>
+      <c r="X4" s="818"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29193,8 +29211,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="811"/>
-      <c r="X5" s="811"/>
+      <c r="W5" s="818"/>
+      <c r="X5" s="818"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29960,7 +29978,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="812"/>
+      <c r="W19" s="819"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -30014,7 +30032,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="812"/>
+      <c r="W20" s="819"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30069,8 +30087,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="744"/>
-      <c r="X21" s="744"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30181,8 +30199,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="745"/>
-      <c r="X23" s="745"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30243,8 +30261,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="745"/>
-      <c r="X24" s="745"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30297,8 +30315,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="746"/>
-      <c r="X25" s="746"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30353,8 +30371,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="746"/>
-      <c r="X26" s="746"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30409,9 +30427,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="739"/>
-      <c r="X27" s="740"/>
-      <c r="Y27" s="741"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30465,9 +30483,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="740"/>
-      <c r="X28" s="740"/>
-      <c r="Y28" s="741"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31058,11 +31076,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="730">
+      <c r="M41" s="742">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="730">
+      <c r="N41" s="742">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -31070,7 +31088,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="789">
+      <c r="Q41" s="790">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -31094,10 +31112,10 @@
       <c r="L42" s="640">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="731"/>
-      <c r="N42" s="731"/>
+      <c r="M42" s="743"/>
+      <c r="N42" s="743"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="790"/>
+      <c r="Q42" s="791"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -31166,11 +31184,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="791">
+      <c r="M45" s="792">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="792"/>
+      <c r="N45" s="793"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -31586,26 +31604,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="707" t="s">
+      <c r="H63" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="708"/>
+      <c r="I63" s="698"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="817">
+      <c r="K63" s="815">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="818"/>
+      <c r="L63" s="816"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="713" t="s">
+      <c r="D64" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="713"/>
+      <c r="E64" s="703"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -31614,22 +31632,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="737" t="s">
+      <c r="D65" s="733" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="737"/>
+      <c r="E65" s="733"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="714" t="s">
+      <c r="I65" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="715"/>
-      <c r="K65" s="716">
+      <c r="J65" s="705"/>
+      <c r="K65" s="706">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="716"/>
+      <c r="L65" s="706"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -31670,11 +31688,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="813">
+      <c r="K67" s="817">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="716"/>
+      <c r="L67" s="706"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -31691,22 +31709,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="696" t="s">
+      <c r="D69" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="697"/>
+      <c r="E69" s="687"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="814" t="s">
+      <c r="I69" s="812" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="815"/>
-      <c r="K69" s="816">
+      <c r="J69" s="813"/>
+      <c r="K69" s="814">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="816"/>
+      <c r="L69" s="814"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -31853,21 +31871,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -31883,6 +31886,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33856,7 +33874,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="747" t="s">
+      <c r="F71" s="748" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -33869,7 +33887,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="748"/>
+      <c r="F72" s="749"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -33888,10 +33906,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="785" t="s">
+      <c r="I74" s="786" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="786"/>
+      <c r="J74" s="787"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -33900,8 +33918,8 @@
       <c r="D75" s="654"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="787"/>
-      <c r="J75" s="788"/>
+      <c r="I75" s="788"/>
+      <c r="J75" s="789"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -34035,11 +34053,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="821" t="s">
+      <c r="A89" s="822" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="822"/>
-      <c r="C89" s="822"/>
+      <c r="B89" s="823"/>
+      <c r="C89" s="823"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -34049,10 +34067,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="823" t="s">
+      <c r="B90" s="824" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="824"/>
+      <c r="C90" s="825"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -34153,7 +34171,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="662"/>
-      <c r="C97" s="819">
+      <c r="C97" s="820">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -34167,7 +34185,7 @@
       <c r="B98" s="663" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="820"/>
+      <c r="C98" s="821"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -34267,23 +34285,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="685"/>
-      <c r="C1" s="751" t="s">
+      <c r="B1" s="710"/>
+      <c r="C1" s="752" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="752"/>
-      <c r="E1" s="752"/>
-      <c r="F1" s="752"/>
-      <c r="G1" s="752"/>
-      <c r="H1" s="752"/>
-      <c r="I1" s="752"/>
-      <c r="J1" s="752"/>
-      <c r="K1" s="752"/>
-      <c r="L1" s="752"/>
-      <c r="M1" s="752"/>
+      <c r="D1" s="753"/>
+      <c r="E1" s="753"/>
+      <c r="F1" s="753"/>
+      <c r="G1" s="753"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
+      <c r="J1" s="753"/>
+      <c r="K1" s="753"/>
+      <c r="L1" s="753"/>
+      <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="686"/>
+      <c r="B2" s="711"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34293,24 +34311,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="690"/>
+      <c r="B3" s="714" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="715"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="691" t="s">
+      <c r="H3" s="716" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="691"/>
+      <c r="I3" s="716"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="728" t="s">
+      <c r="P3" s="740" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="749" t="s">
+      <c r="R3" s="750" t="s">
         <v>216</v>
       </c>
     </row>
@@ -34325,14 +34343,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="692" t="s">
+      <c r="E4" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="H4" s="694" t="s">
+      <c r="F4" s="718"/>
+      <c r="H4" s="719" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="695"/>
+      <c r="I4" s="720"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -34342,11 +34360,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="729"/>
+      <c r="P4" s="741"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="750"/>
+      <c r="R4" s="751"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -36114,11 +36132,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="730">
+      <c r="M41" s="742">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="730">
+      <c r="N41" s="742">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -36126,7 +36144,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="789">
+      <c r="Q41" s="790">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -36156,10 +36174,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="731"/>
-      <c r="N42" s="731"/>
+      <c r="M42" s="743"/>
+      <c r="N42" s="743"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="790"/>
+      <c r="Q42" s="791"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -36246,11 +36264,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="791">
+      <c r="M45" s="792">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="792"/>
+      <c r="N45" s="793"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -36840,26 +36858,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="707" t="s">
+      <c r="H69" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="708"/>
+      <c r="I69" s="698"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="817">
+      <c r="K69" s="815">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="818"/>
+      <c r="L69" s="816"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="713" t="s">
+      <c r="D70" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="713"/>
+      <c r="E70" s="703"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1683028.8699999999</v>
@@ -36868,22 +36886,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="737" t="s">
+      <c r="D71" s="733" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="737"/>
+      <c r="E71" s="733"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="714" t="s">
+      <c r="I71" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="715"/>
-      <c r="K71" s="716">
+      <c r="J71" s="705"/>
+      <c r="K71" s="706">
         <f>F73+F74+F75</f>
         <v>2167293.46</v>
       </c>
-      <c r="L71" s="716"/>
+      <c r="L71" s="706"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -36924,11 +36942,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="813">
+      <c r="K73" s="817">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="716"/>
+      <c r="L73" s="706"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -36945,22 +36963,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="696" t="s">
+      <c r="D75" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="697"/>
+      <c r="E75" s="687"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="698" t="s">
+      <c r="I75" s="688" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="699"/>
-      <c r="K75" s="700">
+      <c r="J75" s="689"/>
+      <c r="K75" s="690">
         <f>K71+K73</f>
         <v>-379688.70000000019</v>
       </c>
-      <c r="L75" s="700"/>
+      <c r="L75" s="690"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -37107,6 +37125,17 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -37118,17 +37147,6 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38989,10 +39007,10 @@
         <f>SUM(F3:F66)</f>
         <v>2122394.9000000004</v>
       </c>
-      <c r="H67" s="785" t="s">
+      <c r="H67" s="786" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="786"/>
+      <c r="I67" s="787"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -39012,11 +39030,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="747" t="s">
+      <c r="F68" s="748" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="787"/>
-      <c r="I68" s="788"/>
+      <c r="H68" s="788"/>
+      <c r="I68" s="789"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -39027,7 +39045,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="748"/>
+      <c r="F69" s="749"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -40967,7 +40985,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="720" t="s">
+      <c r="B41" s="721" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -40999,7 +41017,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="721"/>
+      <c r="B42" s="722"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -42567,7 +42585,7 @@
   <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -42593,23 +42611,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="685"/>
-      <c r="C1" s="751" t="s">
+      <c r="B1" s="710"/>
+      <c r="C1" s="752" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="752"/>
-      <c r="E1" s="752"/>
-      <c r="F1" s="752"/>
-      <c r="G1" s="752"/>
-      <c r="H1" s="752"/>
-      <c r="I1" s="752"/>
-      <c r="J1" s="752"/>
-      <c r="K1" s="752"/>
-      <c r="L1" s="752"/>
-      <c r="M1" s="752"/>
+      <c r="D1" s="753"/>
+      <c r="E1" s="753"/>
+      <c r="F1" s="753"/>
+      <c r="G1" s="753"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
+      <c r="J1" s="753"/>
+      <c r="K1" s="753"/>
+      <c r="L1" s="753"/>
+      <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="686"/>
+      <c r="B2" s="711"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42619,24 +42637,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="690"/>
+      <c r="B3" s="714" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="715"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="691" t="s">
+      <c r="H3" s="716" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="691"/>
+      <c r="I3" s="716"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="728" t="s">
+      <c r="P3" s="740" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="749" t="s">
+      <c r="R3" s="750" t="s">
         <v>216</v>
       </c>
     </row>
@@ -42651,14 +42669,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="692" t="s">
+      <c r="E4" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="H4" s="694" t="s">
+      <c r="F4" s="718"/>
+      <c r="H4" s="719" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="695"/>
+      <c r="I4" s="720"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -42668,11 +42686,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="729"/>
+      <c r="P4" s="741"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="750"/>
+      <c r="R4" s="751"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -42824,30 +42842,40 @@
       <c r="B8" s="24">
         <v>44749</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="25">
+        <v>16605</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>1032</v>
+      </c>
       <c r="E8" s="27">
         <v>44749</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28">
+        <v>117714</v>
+      </c>
       <c r="G8" s="575"/>
       <c r="H8" s="29">
         <v>44749</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="30">
+        <v>2712</v>
+      </c>
       <c r="J8" s="43"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
       <c r="M8" s="32">
-        <v>0</v>
+        <v>47083</v>
       </c>
       <c r="N8" s="33">
-        <v>0</v>
-      </c>
-      <c r="O8" s="664"/>
+        <v>51314</v>
+      </c>
+      <c r="O8" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P8" s="39">
         <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>117714</v>
       </c>
       <c r="Q8" s="325">
         <v>0</v>
@@ -42861,37 +42889,46 @@
       <c r="B9" s="24">
         <v>44750</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="25">
+        <v>45512</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>1033</v>
+      </c>
       <c r="E9" s="27">
         <v>44750</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28">
+        <v>100306</v>
+      </c>
       <c r="G9" s="575"/>
       <c r="H9" s="29">
         <v>44750</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="30">
+        <v>4017</v>
+      </c>
       <c r="J9" s="37"/>
       <c r="K9" s="223"/>
       <c r="L9" s="39"/>
       <c r="M9" s="32">
-        <v>0</v>
+        <v>87636</v>
       </c>
       <c r="N9" s="33">
-        <v>0</v>
-      </c>
-      <c r="O9" s="664"/>
+        <v>26852</v>
+      </c>
+      <c r="O9" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P9" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>164017</v>
       </c>
       <c r="Q9" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="319">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="388">
+        <v>63711</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42899,34 +42936,51 @@
       <c r="B10" s="24">
         <v>44751</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="25">
+        <v>6587</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>1034</v>
+      </c>
       <c r="E10" s="27">
         <v>44751</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28">
+        <v>132964</v>
+      </c>
       <c r="G10" s="575"/>
       <c r="H10" s="29">
         <v>44751</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="45"/>
+      <c r="I10" s="30">
+        <v>12175</v>
+      </c>
+      <c r="J10" s="37">
+        <v>44751</v>
+      </c>
+      <c r="K10" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L10" s="45">
+        <v>18134</v>
+      </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <f>43500+200</f>
+        <v>43700</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
-      </c>
-      <c r="O10" s="664"/>
+        <v>52577</v>
+      </c>
+      <c r="O10" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P10" s="39">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>133173</v>
       </c>
       <c r="Q10" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="R10" s="319">
         <v>0</v>
@@ -42937,30 +42991,40 @@
       <c r="B11" s="24">
         <v>44752</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="25">
+        <v>16855</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>1037</v>
+      </c>
       <c r="E11" s="27">
         <v>44752</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28">
+        <v>83625</v>
+      </c>
       <c r="G11" s="575"/>
       <c r="H11" s="29">
         <v>44752</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="30">
+        <v>1073.5</v>
+      </c>
       <c r="J11" s="43"/>
       <c r="K11" s="168"/>
       <c r="L11" s="39"/>
       <c r="M11" s="32">
-        <v>0</v>
+        <v>38583.5</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
-      </c>
-      <c r="O11" s="664"/>
+        <v>27113</v>
+      </c>
+      <c r="O11" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P11" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83625</v>
       </c>
       <c r="Q11" s="325">
         <f t="shared" si="0"/>
@@ -43073,7 +43137,7 @@
       <c r="N14" s="33">
         <v>0</v>
       </c>
-      <c r="O14" s="825"/>
+      <c r="O14" s="685"/>
       <c r="P14" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43804,9 +43868,15 @@
       <c r="G34" s="575"/>
       <c r="H34" s="29"/>
       <c r="I34" s="30"/>
-      <c r="J34" s="560"/>
-      <c r="K34" s="570"/>
-      <c r="L34" s="9"/>
+      <c r="J34" s="560">
+        <v>44751</v>
+      </c>
+      <c r="K34" s="570" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L34" s="9">
+        <v>19463.41</v>
+      </c>
       <c r="M34" s="32">
         <v>0</v>
       </c>
@@ -43815,11 +43885,11 @@
       </c>
       <c r="P34" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19463.41</v>
       </c>
       <c r="Q34" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19463.41</v>
       </c>
       <c r="R34" s="319">
         <v>0</v>
@@ -44024,21 +44094,21 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="730">
+      <c r="M41" s="742">
         <f>SUM(M5:M40)</f>
-        <v>121857.5</v>
-      </c>
-      <c r="N41" s="730">
+        <v>338860</v>
+      </c>
+      <c r="N41" s="742">
         <f>SUM(N5:N40)</f>
-        <v>92617</v>
+        <v>250473</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>304266</v>
-      </c>
-      <c r="Q41" s="789">
+        <v>822258.41</v>
+      </c>
+      <c r="Q41" s="790">
         <f>SUM(Q5:Q40)</f>
-        <v>0</v>
+        <v>19672.41</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44054,10 +44124,10 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="731"/>
-      <c r="N42" s="731"/>
+      <c r="M42" s="743"/>
+      <c r="N42" s="743"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="790"/>
+      <c r="Q42" s="791"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -44108,11 +44178,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="791">
+      <c r="M45" s="792">
         <f>M41+N41</f>
-        <v>214474.5</v>
-      </c>
-      <c r="N45" s="792"/>
+        <v>589333</v>
+      </c>
+      <c r="N45" s="793"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -44509,7 +44579,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>78904</v>
+        <v>164463</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -44517,7 +44587,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>302400</v>
+        <v>737009</v>
       </c>
       <c r="G67" s="576"/>
       <c r="H67" s="91" t="s">
@@ -44525,7 +44595,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>10887.5</v>
+        <v>30865</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -44533,7 +44603,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)</f>
-        <v>0</v>
+        <v>37597.410000000003</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -44551,50 +44621,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="707" t="s">
+      <c r="H69" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="708"/>
+      <c r="I69" s="698"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="817">
+      <c r="K69" s="815">
         <f>I67+L67</f>
-        <v>10887.5</v>
-      </c>
-      <c r="L69" s="818"/>
+        <v>68462.41</v>
+      </c>
+      <c r="L69" s="816"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="713" t="s">
+      <c r="D70" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="713"/>
+      <c r="E70" s="703"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>212608.5</v>
+        <v>504083.58999999997</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="737" t="s">
+      <c r="D71" s="733" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="737"/>
+      <c r="E71" s="733"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="714" t="s">
+      <c r="I71" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="715"/>
-      <c r="K71" s="716">
+      <c r="J71" s="705"/>
+      <c r="K71" s="706">
         <f>F73+F74+F75</f>
-        <v>2568035.04</v>
-      </c>
-      <c r="L71" s="716"/>
+        <v>2859510.13</v>
+      </c>
+      <c r="L71" s="706"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -44628,18 +44698,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>212608.5</v>
+        <v>504083.58999999997</v>
       </c>
       <c r="H73" s="558"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="813">
+      <c r="K73" s="817">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="716"/>
+      <c r="L73" s="706"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -44654,22 +44724,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="696" t="s">
+      <c r="D75" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="697"/>
+      <c r="E75" s="687"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="698" t="s">
+      <c r="I75" s="688" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="699"/>
-      <c r="K75" s="700">
+      <c r="J75" s="689"/>
+      <c r="K75" s="690">
         <f>K71+K73</f>
-        <v>212608.5</v>
-      </c>
-      <c r="L75" s="700"/>
+        <v>504083.58999999985</v>
+      </c>
+      <c r="L75" s="690"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -44813,18 +44883,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="K75:L75"/>
@@ -44835,6 +44893,18 @@
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="K73:L73"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46239,10 +46309,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="785" t="s">
+      <c r="H67" s="786" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="786"/>
+      <c r="I67" s="787"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -46262,11 +46332,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="747" t="s">
+      <c r="F68" s="748" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="787"/>
-      <c r="I68" s="788"/>
+      <c r="H68" s="788"/>
+      <c r="I68" s="789"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -46277,7 +46347,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="748"/>
+      <c r="F69" s="749"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -46945,23 +47015,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="685"/>
-      <c r="C1" s="687" t="s">
+      <c r="B1" s="710"/>
+      <c r="C1" s="712" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="688"/>
-      <c r="E1" s="688"/>
-      <c r="F1" s="688"/>
-      <c r="G1" s="688"/>
-      <c r="H1" s="688"/>
-      <c r="I1" s="688"/>
-      <c r="J1" s="688"/>
-      <c r="K1" s="688"/>
-      <c r="L1" s="688"/>
-      <c r="M1" s="688"/>
+      <c r="D1" s="713"/>
+      <c r="E1" s="713"/>
+      <c r="F1" s="713"/>
+      <c r="G1" s="713"/>
+      <c r="H1" s="713"/>
+      <c r="I1" s="713"/>
+      <c r="J1" s="713"/>
+      <c r="K1" s="713"/>
+      <c r="L1" s="713"/>
+      <c r="M1" s="713"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="686"/>
+      <c r="B2" s="711"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -46971,21 +47041,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="690"/>
+      <c r="B3" s="714" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="715"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="691" t="s">
+      <c r="H3" s="716" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="691"/>
+      <c r="I3" s="716"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="728" t="s">
+      <c r="P3" s="740" t="s">
         <v>6</v>
       </c>
     </row>
@@ -47000,14 +47070,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="692" t="s">
+      <c r="E4" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="H4" s="694" t="s">
+      <c r="F4" s="718"/>
+      <c r="H4" s="719" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="695"/>
+      <c r="I4" s="720"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -47017,14 +47087,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="729"/>
+      <c r="P4" s="741"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="738" t="s">
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="738"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47075,8 +47145,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="738"/>
-      <c r="X5" s="738"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47847,7 +47917,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="742">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -47899,7 +47969,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="743"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -47948,8 +48018,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="744"/>
-      <c r="X21" s="744"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -48050,8 +48120,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="745"/>
-      <c r="X23" s="745"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -48105,8 +48175,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="745"/>
-      <c r="X24" s="745"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -48152,8 +48222,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="746"/>
-      <c r="X25" s="746"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -48204,8 +48274,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="746"/>
-      <c r="X26" s="746"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -48253,9 +48323,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="739"/>
-      <c r="X27" s="740"/>
-      <c r="Y27" s="741"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48305,9 +48375,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="740"/>
-      <c r="X28" s="740"/>
-      <c r="Y28" s="741"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48642,11 +48712,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="730">
+      <c r="M36" s="742">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="732">
+      <c r="N36" s="744">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -48654,7 +48724,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="734">
+      <c r="Q36" s="746">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -48689,13 +48759,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="731"/>
-      <c r="N37" s="733"/>
+      <c r="M37" s="743"/>
+      <c r="N37" s="745"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="735"/>
+      <c r="Q37" s="747"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -48985,26 +49055,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="707" t="s">
+      <c r="H52" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="708"/>
+      <c r="I52" s="698"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="709">
+      <c r="K52" s="699">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="736"/>
+      <c r="L52" s="732"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="713" t="s">
+      <c r="D53" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="713"/>
+      <c r="E53" s="703"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -49013,29 +49083,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="737" t="s">
+      <c r="D54" s="733" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="737"/>
+      <c r="E54" s="733"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="714" t="s">
+      <c r="I54" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="715"/>
-      <c r="K54" s="716">
+      <c r="J54" s="705"/>
+      <c r="K54" s="706">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="716"/>
-      <c r="M54" s="722" t="s">
+      <c r="L54" s="706"/>
+      <c r="M54" s="734" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="723"/>
-      <c r="O54" s="723"/>
-      <c r="P54" s="723"/>
-      <c r="Q54" s="724"/>
+      <c r="N54" s="735"/>
+      <c r="O54" s="735"/>
+      <c r="P54" s="735"/>
+      <c r="Q54" s="736"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -49049,11 +49119,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="725"/>
-      <c r="N55" s="726"/>
-      <c r="O55" s="726"/>
-      <c r="P55" s="726"/>
-      <c r="Q55" s="727"/>
+      <c r="M55" s="737"/>
+      <c r="N55" s="738"/>
+      <c r="O55" s="738"/>
+      <c r="P55" s="738"/>
+      <c r="Q55" s="739"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -49071,11 +49141,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="718">
+      <c r="K56" s="708">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="719"/>
+      <c r="L56" s="709"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -49092,22 +49162,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="696" t="s">
+      <c r="D58" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="697"/>
+      <c r="E58" s="687"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="698" t="s">
+      <c r="I58" s="688" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="699"/>
-      <c r="K58" s="700">
+      <c r="J58" s="689"/>
+      <c r="K58" s="690">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="700"/>
+      <c r="L58" s="690"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -49251,14 +49321,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -49269,17 +49342,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51697,7 +51767,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="747" t="s">
+      <c r="F87" s="748" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -51710,7 +51780,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="748"/>
+      <c r="F88" s="749"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -52022,23 +52092,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="685"/>
-      <c r="C1" s="687" t="s">
+      <c r="B1" s="710"/>
+      <c r="C1" s="712" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="688"/>
-      <c r="E1" s="688"/>
-      <c r="F1" s="688"/>
-      <c r="G1" s="688"/>
-      <c r="H1" s="688"/>
-      <c r="I1" s="688"/>
-      <c r="J1" s="688"/>
-      <c r="K1" s="688"/>
-      <c r="L1" s="688"/>
-      <c r="M1" s="688"/>
+      <c r="D1" s="713"/>
+      <c r="E1" s="713"/>
+      <c r="F1" s="713"/>
+      <c r="G1" s="713"/>
+      <c r="H1" s="713"/>
+      <c r="I1" s="713"/>
+      <c r="J1" s="713"/>
+      <c r="K1" s="713"/>
+      <c r="L1" s="713"/>
+      <c r="M1" s="713"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="686"/>
+      <c r="B2" s="711"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -52048,24 +52118,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="690"/>
+      <c r="B3" s="714" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="715"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="691" t="s">
+      <c r="H3" s="716" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="691"/>
+      <c r="I3" s="716"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="728" t="s">
+      <c r="P3" s="740" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="749" t="s">
+      <c r="R3" s="750" t="s">
         <v>216</v>
       </c>
     </row>
@@ -52080,14 +52150,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="692" t="s">
+      <c r="E4" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="H4" s="694" t="s">
+      <c r="F4" s="718"/>
+      <c r="H4" s="719" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="695"/>
+      <c r="I4" s="720"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -52097,15 +52167,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="729"/>
+      <c r="P4" s="741"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="750"/>
-      <c r="W4" s="738" t="s">
+      <c r="R4" s="751"/>
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="738"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52166,8 +52236,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="738"/>
-      <c r="X5" s="738"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52924,7 +52994,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="742">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -52976,7 +53046,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="743"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -53025,8 +53095,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="744"/>
-      <c r="X21" s="744"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -53127,8 +53197,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="745"/>
-      <c r="X23" s="745"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -53179,8 +53249,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="745"/>
-      <c r="X24" s="745"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -53226,8 +53296,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="746"/>
-      <c r="X25" s="746"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -53275,8 +53345,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="746"/>
-      <c r="X26" s="746"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -53336,9 +53406,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="739"/>
-      <c r="X27" s="740"/>
-      <c r="Y27" s="741"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53392,9 +53462,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="740"/>
-      <c r="X28" s="740"/>
-      <c r="Y28" s="741"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53710,11 +53780,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="730">
+      <c r="M36" s="742">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="732">
+      <c r="N36" s="744">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -53722,7 +53792,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="734">
+      <c r="Q36" s="746">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -53741,13 +53811,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="731"/>
-      <c r="N37" s="733"/>
+      <c r="M37" s="743"/>
+      <c r="N37" s="745"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="735"/>
+      <c r="Q37" s="747"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -54021,26 +54091,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="707" t="s">
+      <c r="H52" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="708"/>
+      <c r="I52" s="698"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="709">
+      <c r="K52" s="699">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="736"/>
+      <c r="L52" s="732"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="713" t="s">
+      <c r="D53" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="713"/>
+      <c r="E53" s="703"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -54049,29 +54119,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="737" t="s">
+      <c r="D54" s="733" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="737"/>
+      <c r="E54" s="733"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="714" t="s">
+      <c r="I54" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="715"/>
-      <c r="K54" s="716">
+      <c r="J54" s="705"/>
+      <c r="K54" s="706">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="716"/>
-      <c r="M54" s="722" t="s">
+      <c r="L54" s="706"/>
+      <c r="M54" s="734" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="723"/>
-      <c r="O54" s="723"/>
-      <c r="P54" s="723"/>
-      <c r="Q54" s="724"/>
+      <c r="N54" s="735"/>
+      <c r="O54" s="735"/>
+      <c r="P54" s="735"/>
+      <c r="Q54" s="736"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -54085,11 +54155,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="725"/>
-      <c r="N55" s="726"/>
-      <c r="O55" s="726"/>
-      <c r="P55" s="726"/>
-      <c r="Q55" s="727"/>
+      <c r="M55" s="737"/>
+      <c r="N55" s="738"/>
+      <c r="O55" s="738"/>
+      <c r="P55" s="738"/>
+      <c r="Q55" s="739"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -54107,11 +54177,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="718">
+      <c r="K56" s="708">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="719"/>
+      <c r="L56" s="709"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -54128,22 +54198,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="696" t="s">
+      <c r="D58" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="697"/>
+      <c r="E58" s="687"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="698" t="s">
+      <c r="I58" s="688" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="699"/>
-      <c r="K58" s="700">
+      <c r="J58" s="689"/>
+      <c r="K58" s="690">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="700"/>
+      <c r="L58" s="690"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -54287,20 +54357,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -54310,13 +54373,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56706,7 +56776,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="747" t="s">
+      <c r="F75" s="748" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -56719,7 +56789,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="748"/>
+      <c r="F76" s="749"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -57011,23 +57081,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="685"/>
-      <c r="C1" s="751" t="s">
+      <c r="B1" s="710"/>
+      <c r="C1" s="752" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="752"/>
-      <c r="E1" s="752"/>
-      <c r="F1" s="752"/>
-      <c r="G1" s="752"/>
-      <c r="H1" s="752"/>
-      <c r="I1" s="752"/>
-      <c r="J1" s="752"/>
-      <c r="K1" s="752"/>
-      <c r="L1" s="752"/>
-      <c r="M1" s="752"/>
+      <c r="D1" s="753"/>
+      <c r="E1" s="753"/>
+      <c r="F1" s="753"/>
+      <c r="G1" s="753"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
+      <c r="J1" s="753"/>
+      <c r="K1" s="753"/>
+      <c r="L1" s="753"/>
+      <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="686"/>
+      <c r="B2" s="711"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -57037,24 +57107,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="690"/>
+      <c r="B3" s="714" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="715"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="691" t="s">
+      <c r="H3" s="716" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="691"/>
+      <c r="I3" s="716"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="728" t="s">
+      <c r="P3" s="740" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="749" t="s">
+      <c r="R3" s="750" t="s">
         <v>216</v>
       </c>
     </row>
@@ -57069,14 +57139,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="692" t="s">
+      <c r="E4" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="H4" s="694" t="s">
+      <c r="F4" s="718"/>
+      <c r="H4" s="719" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="695"/>
+      <c r="I4" s="720"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -57086,15 +57156,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="729"/>
+      <c r="P4" s="741"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="750"/>
-      <c r="W4" s="738" t="s">
+      <c r="R4" s="751"/>
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="738"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57145,8 +57215,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="738"/>
-      <c r="X5" s="738"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57910,7 +57980,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="742">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -57963,7 +58033,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="743"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -58012,8 +58082,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="744"/>
-      <c r="X21" s="744"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -58113,8 +58183,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="745"/>
-      <c r="X23" s="745"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -58169,8 +58239,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="745"/>
-      <c r="X24" s="745"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -58215,8 +58285,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="746"/>
-      <c r="X25" s="746"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -58264,8 +58334,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="746"/>
-      <c r="X26" s="746"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -58319,9 +58389,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="739"/>
-      <c r="X27" s="740"/>
-      <c r="Y27" s="741"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58375,9 +58445,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="740"/>
-      <c r="X28" s="740"/>
-      <c r="Y28" s="741"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58688,11 +58758,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="730">
+      <c r="M36" s="742">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="732">
+      <c r="N36" s="744">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -58700,7 +58770,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="734">
+      <c r="Q36" s="746">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -58725,13 +58795,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="731"/>
-      <c r="N37" s="733"/>
+      <c r="M37" s="743"/>
+      <c r="N37" s="745"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="735"/>
+      <c r="Q37" s="747"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -59024,26 +59094,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="707" t="s">
+      <c r="H52" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="708"/>
+      <c r="I52" s="698"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="709">
+      <c r="K52" s="699">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="736"/>
+      <c r="L52" s="732"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="713" t="s">
+      <c r="D53" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="713"/>
+      <c r="E53" s="703"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -59052,22 +59122,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="737" t="s">
+      <c r="D54" s="733" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="737"/>
+      <c r="E54" s="733"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="714" t="s">
+      <c r="I54" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="715"/>
-      <c r="K54" s="716">
+      <c r="J54" s="705"/>
+      <c r="K54" s="706">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="716"/>
+      <c r="L54" s="706"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -59108,11 +59178,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="718">
+      <c r="K56" s="708">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="719"/>
+      <c r="L56" s="709"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -59129,22 +59199,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="696" t="s">
+      <c r="D58" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="697"/>
+      <c r="E58" s="687"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="698" t="s">
+      <c r="I58" s="688" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="699"/>
-      <c r="K58" s="700">
+      <c r="J58" s="689"/>
+      <c r="K58" s="690">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="700"/>
+      <c r="L58" s="690"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -59288,20 +59358,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -59317,6 +59373,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -61013,12 +61083,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="753" t="s">
+      <c r="B43" s="754" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="754"/>
-      <c r="D43" s="754"/>
-      <c r="E43" s="755"/>
+      <c r="C43" s="755"/>
+      <c r="D43" s="755"/>
+      <c r="E43" s="756"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61046,10 +61116,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="756"/>
-      <c r="C44" s="757"/>
-      <c r="D44" s="757"/>
-      <c r="E44" s="758"/>
+      <c r="B44" s="757"/>
+      <c r="C44" s="758"/>
+      <c r="D44" s="758"/>
+      <c r="E44" s="759"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61077,10 +61147,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="759"/>
-      <c r="C45" s="760"/>
-      <c r="D45" s="760"/>
-      <c r="E45" s="761"/>
+      <c r="B45" s="760"/>
+      <c r="C45" s="761"/>
+      <c r="D45" s="761"/>
+      <c r="E45" s="762"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61123,10 +61193,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="768" t="s">
+      <c r="B47" s="769" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="769"/>
+      <c r="C47" s="770"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -61148,8 +61218,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="770"/>
-      <c r="C48" s="771"/>
+      <c r="B48" s="771"/>
+      <c r="C48" s="772"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -61157,11 +61227,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="762" t="s">
+      <c r="J48" s="763" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="763"/>
-      <c r="L48" s="764"/>
+      <c r="K48" s="764"/>
+      <c r="L48" s="765"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -61179,9 +61249,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="765"/>
-      <c r="K49" s="766"/>
-      <c r="L49" s="767"/>
+      <c r="J49" s="766"/>
+      <c r="K49" s="767"/>
+      <c r="L49" s="768"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -61198,10 +61268,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="772" t="s">
+      <c r="I50" s="773" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="773"/>
+      <c r="J50" s="774"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -61222,8 +61292,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="772"/>
-      <c r="J51" s="773"/>
+      <c r="I51" s="773"/>
+      <c r="J51" s="774"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -61242,8 +61312,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="772"/>
-      <c r="J52" s="773"/>
+      <c r="I52" s="773"/>
+      <c r="J52" s="774"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -61262,8 +61332,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="772"/>
-      <c r="J53" s="773"/>
+      <c r="I53" s="773"/>
+      <c r="J53" s="774"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -61282,8 +61352,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="772"/>
-      <c r="J54" s="773"/>
+      <c r="I54" s="773"/>
+      <c r="J54" s="774"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -61302,8 +61372,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="772"/>
-      <c r="J55" s="773"/>
+      <c r="I55" s="773"/>
+      <c r="J55" s="774"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -61322,8 +61392,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="772"/>
-      <c r="J56" s="773"/>
+      <c r="I56" s="773"/>
+      <c r="J56" s="774"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -61342,8 +61412,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="772"/>
-      <c r="J57" s="773"/>
+      <c r="I57" s="773"/>
+      <c r="J57" s="774"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -61362,8 +61432,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="772"/>
-      <c r="J58" s="773"/>
+      <c r="I58" s="773"/>
+      <c r="J58" s="774"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -61382,8 +61452,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="772"/>
-      <c r="J59" s="773"/>
+      <c r="I59" s="773"/>
+      <c r="J59" s="774"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -61402,8 +61472,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="772"/>
-      <c r="J60" s="773"/>
+      <c r="I60" s="773"/>
+      <c r="J60" s="774"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -61422,8 +61492,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="772"/>
-      <c r="J61" s="773"/>
+      <c r="I61" s="773"/>
+      <c r="J61" s="774"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -61442,8 +61512,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="772"/>
-      <c r="J62" s="773"/>
+      <c r="I62" s="773"/>
+      <c r="J62" s="774"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -61462,8 +61532,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="772"/>
-      <c r="J63" s="773"/>
+      <c r="I63" s="773"/>
+      <c r="J63" s="774"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -61482,8 +61552,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="772"/>
-      <c r="J64" s="773"/>
+      <c r="I64" s="773"/>
+      <c r="J64" s="774"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -61502,8 +61572,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="772"/>
-      <c r="J65" s="773"/>
+      <c r="I65" s="773"/>
+      <c r="J65" s="774"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -61522,8 +61592,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="772"/>
-      <c r="J66" s="773"/>
+      <c r="I66" s="773"/>
+      <c r="J66" s="774"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -61542,8 +61612,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="772"/>
-      <c r="J67" s="773"/>
+      <c r="I67" s="773"/>
+      <c r="J67" s="774"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -61562,8 +61632,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="772"/>
-      <c r="J68" s="773"/>
+      <c r="I68" s="773"/>
+      <c r="J68" s="774"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -61582,8 +61652,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="772"/>
-      <c r="J69" s="773"/>
+      <c r="I69" s="773"/>
+      <c r="J69" s="774"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -61602,8 +61672,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="772"/>
-      <c r="J70" s="773"/>
+      <c r="I70" s="773"/>
+      <c r="J70" s="774"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -61622,8 +61692,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="772"/>
-      <c r="J71" s="773"/>
+      <c r="I71" s="773"/>
+      <c r="J71" s="774"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -61642,8 +61712,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="772"/>
-      <c r="J72" s="773"/>
+      <c r="I72" s="773"/>
+      <c r="J72" s="774"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -61662,8 +61732,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="772"/>
-      <c r="J73" s="773"/>
+      <c r="I73" s="773"/>
+      <c r="J73" s="774"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -61682,8 +61752,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="772"/>
-      <c r="J74" s="773"/>
+      <c r="I74" s="773"/>
+      <c r="J74" s="774"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -61702,8 +61772,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="772"/>
-      <c r="J75" s="773"/>
+      <c r="I75" s="773"/>
+      <c r="J75" s="774"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -61722,8 +61792,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="772"/>
-      <c r="J76" s="773"/>
+      <c r="I76" s="773"/>
+      <c r="J76" s="774"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -61742,8 +61812,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="772"/>
-      <c r="J77" s="773"/>
+      <c r="I77" s="773"/>
+      <c r="J77" s="774"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -61764,8 +61834,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="774"/>
-      <c r="J78" s="775"/>
+      <c r="I78" s="775"/>
+      <c r="J78" s="776"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -61810,7 +61880,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="747" t="s">
+      <c r="F80" s="748" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -61822,7 +61892,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="748"/>
+      <c r="F81" s="749"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -62110,23 +62180,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="685"/>
-      <c r="C1" s="751" t="s">
+      <c r="B1" s="710"/>
+      <c r="C1" s="752" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="752"/>
-      <c r="E1" s="752"/>
-      <c r="F1" s="752"/>
-      <c r="G1" s="752"/>
-      <c r="H1" s="752"/>
-      <c r="I1" s="752"/>
-      <c r="J1" s="752"/>
-      <c r="K1" s="752"/>
-      <c r="L1" s="752"/>
-      <c r="M1" s="752"/>
+      <c r="D1" s="753"/>
+      <c r="E1" s="753"/>
+      <c r="F1" s="753"/>
+      <c r="G1" s="753"/>
+      <c r="H1" s="753"/>
+      <c r="I1" s="753"/>
+      <c r="J1" s="753"/>
+      <c r="K1" s="753"/>
+      <c r="L1" s="753"/>
+      <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="686"/>
+      <c r="B2" s="711"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -62136,24 +62206,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="689" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="690"/>
+      <c r="B3" s="714" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="715"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="691" t="s">
+      <c r="H3" s="716" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="691"/>
+      <c r="I3" s="716"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="728" t="s">
+      <c r="P3" s="740" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="749" t="s">
+      <c r="R3" s="750" t="s">
         <v>216</v>
       </c>
     </row>
@@ -62168,14 +62238,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="692" t="s">
+      <c r="E4" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="693"/>
-      <c r="H4" s="694" t="s">
+      <c r="F4" s="718"/>
+      <c r="H4" s="719" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="695"/>
+      <c r="I4" s="720"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -62185,15 +62255,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="729"/>
+      <c r="P4" s="741"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="750"/>
-      <c r="W4" s="738" t="s">
+      <c r="R4" s="751"/>
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="738"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62244,8 +62314,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="738"/>
-      <c r="X5" s="738"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63006,7 +63076,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="742">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -63058,7 +63128,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="743"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -63107,8 +63177,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="744"/>
-      <c r="X21" s="744"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -63207,8 +63277,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="745"/>
-      <c r="X23" s="745"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -63263,8 +63333,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="745"/>
-      <c r="X24" s="745"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -63312,8 +63382,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="746"/>
-      <c r="X25" s="746"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -63361,8 +63431,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="746"/>
-      <c r="X26" s="746"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -63410,9 +63480,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="739"/>
-      <c r="X27" s="740"/>
-      <c r="Y27" s="741"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63460,9 +63530,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="740"/>
-      <c r="X28" s="740"/>
-      <c r="Y28" s="741"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63803,11 +63873,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="730">
+      <c r="M36" s="742">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="732">
+      <c r="N36" s="744">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -63815,7 +63885,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="776">
+      <c r="Q36" s="777">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -63840,13 +63910,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="731"/>
-      <c r="N37" s="733"/>
+      <c r="M37" s="743"/>
+      <c r="N37" s="745"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="777"/>
+      <c r="Q37" s="778"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -63896,11 +63966,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="778">
+      <c r="M39" s="779">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="779"/>
+      <c r="N39" s="780"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -64148,26 +64218,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="707" t="s">
+      <c r="H52" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="708"/>
+      <c r="I52" s="698"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="709">
+      <c r="K52" s="699">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="736"/>
+      <c r="L52" s="732"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="713" t="s">
+      <c r="D53" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="713"/>
+      <c r="E53" s="703"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -64176,22 +64246,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="737" t="s">
+      <c r="D54" s="733" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="737"/>
+      <c r="E54" s="733"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="714" t="s">
+      <c r="I54" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="715"/>
-      <c r="K54" s="716">
+      <c r="J54" s="705"/>
+      <c r="K54" s="706">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="716"/>
+      <c r="L54" s="706"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -64232,11 +64302,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="718">
+      <c r="K56" s="708">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="719"/>
+      <c r="L56" s="709"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -64253,22 +64323,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="696" t="s">
+      <c r="D58" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="697"/>
+      <c r="E58" s="687"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="698" t="s">
+      <c r="I58" s="688" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="699"/>
-      <c r="K58" s="700">
+      <c r="J58" s="689"/>
+      <c r="K58" s="690">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="700"/>
+      <c r="L58" s="690"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -64412,6 +64482,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -64428,20 +64512,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1039">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3921,6 +3921,9 @@
   </si>
   <si>
     <t>SALCHICHONERIA--QUESO</t>
+  </si>
+  <si>
+    <t>zavaleta</t>
   </si>
 </sst>
 </file>
@@ -5952,7 +5955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="826">
+  <cellXfs count="827">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -7361,6 +7364,39 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7433,76 +7469,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7546,6 +7516,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7739,6 +7742,15 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7753,15 +7765,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7781,6 +7784,9 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7790,10 +7796,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF990033"/>
@@ -12582,23 +12588,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="710"/>
-      <c r="C1" s="712" t="s">
+      <c r="B1" s="686"/>
+      <c r="C1" s="688" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="713"/>
-      <c r="E1" s="713"/>
-      <c r="F1" s="713"/>
-      <c r="G1" s="713"/>
-      <c r="H1" s="713"/>
-      <c r="I1" s="713"/>
-      <c r="J1" s="713"/>
-      <c r="K1" s="713"/>
-      <c r="L1" s="713"/>
-      <c r="M1" s="713"/>
+      <c r="D1" s="689"/>
+      <c r="E1" s="689"/>
+      <c r="F1" s="689"/>
+      <c r="G1" s="689"/>
+      <c r="H1" s="689"/>
+      <c r="I1" s="689"/>
+      <c r="J1" s="689"/>
+      <c r="K1" s="689"/>
+      <c r="L1" s="689"/>
+      <c r="M1" s="689"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="711"/>
+      <c r="B2" s="687"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12608,17 +12614,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="714" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="715"/>
+      <c r="B3" s="690" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="691"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="716" t="s">
+      <c r="H3" s="692" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="716"/>
+      <c r="I3" s="692"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -12632,14 +12638,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="717" t="s">
+      <c r="E4" s="693" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="718"/>
-      <c r="H4" s="719" t="s">
+      <c r="F4" s="694"/>
+      <c r="H4" s="695" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="720"/>
+      <c r="I4" s="696"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12649,10 +12655,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="691" t="s">
+      <c r="P4" s="702" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="692"/>
+      <c r="Q4" s="703"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -14093,11 +14099,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="693">
+      <c r="M39" s="704">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="695">
+      <c r="N39" s="706">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -14123,8 +14129,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="694"/>
-      <c r="N40" s="696"/>
+      <c r="M40" s="705"/>
+      <c r="N40" s="707"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -14339,29 +14345,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="697" t="s">
+      <c r="H52" s="708" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="698"/>
+      <c r="I52" s="709"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="699">
+      <c r="K52" s="710">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="700"/>
-      <c r="M52" s="701">
+      <c r="L52" s="711"/>
+      <c r="M52" s="712">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="702"/>
+      <c r="N52" s="713"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="703" t="s">
+      <c r="D53" s="714" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="703"/>
+      <c r="E53" s="714"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -14372,22 +14378,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="703" t="s">
+      <c r="D54" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="703"/>
+      <c r="E54" s="714"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="704" t="s">
+      <c r="I54" s="715" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="705"/>
-      <c r="K54" s="706">
+      <c r="J54" s="716"/>
+      <c r="K54" s="717">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="707"/>
+      <c r="L54" s="718"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -14420,11 +14426,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="708">
+      <c r="K56" s="719">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="709"/>
+      <c r="L56" s="720"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -14441,22 +14447,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="686" t="s">
+      <c r="D58" s="697" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="687"/>
+      <c r="E58" s="698"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="688" t="s">
+      <c r="I58" s="699" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="689"/>
-      <c r="K58" s="690">
+      <c r="J58" s="700"/>
+      <c r="K58" s="701">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="690"/>
+      <c r="L58" s="701"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -14600,12 +14606,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -14620,6 +14620,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17478,7 +17484,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="710"/>
+      <c r="B1" s="686"/>
       <c r="C1" s="752" t="s">
         <v>451</v>
       </c>
@@ -17494,7 +17500,7 @@
       <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="711"/>
+      <c r="B2" s="687"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17504,21 +17510,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="714" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="715"/>
+      <c r="B3" s="690" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="691"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="716" t="s">
+      <c r="H3" s="692" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="716"/>
+      <c r="I3" s="692"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="740" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="750" t="s">
@@ -17536,14 +17542,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="717" t="s">
+      <c r="E4" s="693" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="718"/>
-      <c r="H4" s="719" t="s">
+      <c r="F4" s="694"/>
+      <c r="H4" s="695" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="720"/>
+      <c r="I4" s="696"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -17553,15 +17559,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="741"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="751"/>
-      <c r="W4" s="723" t="s">
+      <c r="W4" s="739" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="739"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17612,8 +17618,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="739"/>
+      <c r="X5" s="739"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18376,7 +18382,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="743">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -18428,7 +18434,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="744"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -18477,8 +18483,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="745"/>
+      <c r="X21" s="745"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -18578,8 +18584,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="746"/>
+      <c r="X23" s="746"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -18634,8 +18640,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="746"/>
+      <c r="X24" s="746"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -18683,8 +18689,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="747"/>
+      <c r="X25" s="747"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -18733,8 +18739,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="747"/>
+      <c r="X26" s="747"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -18782,9 +18788,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="740"/>
+      <c r="X27" s="741"/>
+      <c r="Y27" s="742"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18832,9 +18838,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="741"/>
+      <c r="X28" s="741"/>
+      <c r="Y28" s="742"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19166,11 +19172,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="742">
+      <c r="M36" s="731">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="744">
+      <c r="N36" s="733">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -19203,8 +19209,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="743"/>
-      <c r="N37" s="745"/>
+      <c r="M37" s="732"/>
+      <c r="N37" s="734"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -19891,26 +19897,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="697" t="s">
+      <c r="H68" s="708" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="698"/>
+      <c r="I68" s="709"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="699">
+      <c r="K68" s="710">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="732"/>
+      <c r="L68" s="737"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="703" t="s">
+      <c r="D69" s="714" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="703"/>
+      <c r="E69" s="714"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19919,22 +19925,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="733" t="s">
+      <c r="D70" s="738" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="733"/>
+      <c r="E70" s="738"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="704" t="s">
+      <c r="I70" s="715" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="705"/>
-      <c r="K70" s="706">
+      <c r="J70" s="716"/>
+      <c r="K70" s="717">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="706"/>
+      <c r="L70" s="717"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19975,11 +19981,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="708">
+      <c r="K72" s="719">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="709"/>
+      <c r="L72" s="720"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19996,22 +20002,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="686" t="s">
+      <c r="D74" s="697" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="687"/>
+      <c r="E74" s="698"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="688" t="s">
+      <c r="I74" s="699" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="689"/>
-      <c r="K74" s="690">
+      <c r="J74" s="700"/>
+      <c r="K74" s="701">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="690"/>
+      <c r="L74" s="701"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -20158,21 +20164,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -20188,6 +20179,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22773,7 +22779,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="710"/>
+      <c r="B1" s="686"/>
       <c r="C1" s="752" t="s">
         <v>620</v>
       </c>
@@ -22789,7 +22795,7 @@
       <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="711"/>
+      <c r="B2" s="687"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22799,21 +22805,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="714" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="715"/>
+      <c r="B3" s="690" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="691"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="716" t="s">
+      <c r="H3" s="692" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="716"/>
+      <c r="I3" s="692"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="740" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="750" t="s">
@@ -22831,14 +22837,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="717" t="s">
+      <c r="E4" s="693" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="718"/>
-      <c r="H4" s="719" t="s">
+      <c r="F4" s="694"/>
+      <c r="H4" s="695" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="720"/>
+      <c r="I4" s="696"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22848,15 +22854,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="741"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="751"/>
-      <c r="W4" s="723" t="s">
+      <c r="W4" s="739" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="739"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22907,8 +22913,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="739"/>
+      <c r="X5" s="739"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23667,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="743">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -23719,7 +23725,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="744"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -23768,8 +23774,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="745"/>
+      <c r="X21" s="745"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23866,8 +23872,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="746"/>
+      <c r="X23" s="746"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23922,8 +23928,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="746"/>
+      <c r="X24" s="746"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23969,8 +23975,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="747"/>
+      <c r="X25" s="747"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -24021,8 +24027,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="747"/>
+      <c r="X26" s="747"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -24073,9 +24079,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="740"/>
+      <c r="X27" s="741"/>
+      <c r="Y27" s="742"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24125,9 +24131,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="741"/>
+      <c r="X28" s="741"/>
+      <c r="Y28" s="742"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24731,11 +24737,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="742">
+      <c r="M41" s="731">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="742">
+      <c r="N41" s="731">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -24773,8 +24779,8 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="743"/>
-      <c r="N42" s="743"/>
+      <c r="M42" s="732"/>
+      <c r="N42" s="732"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="791"/>
     </row>
@@ -25461,26 +25467,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="697" t="s">
+      <c r="H70" s="708" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="698"/>
+      <c r="I70" s="709"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="699">
+      <c r="K70" s="710">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="732"/>
+      <c r="L70" s="737"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="703" t="s">
+      <c r="D71" s="714" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="703"/>
+      <c r="E71" s="714"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -25490,22 +25496,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="733" t="s">
+      <c r="D72" s="738" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="733"/>
+      <c r="E72" s="738"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="704" t="s">
+      <c r="I72" s="715" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="705"/>
-      <c r="K72" s="706">
+      <c r="J72" s="716"/>
+      <c r="K72" s="717">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="706"/>
+      <c r="L72" s="717"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -25546,11 +25552,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="708">
+      <c r="K74" s="719">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="709"/>
+      <c r="L74" s="720"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25569,22 +25575,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="686" t="s">
+      <c r="D76" s="697" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="687"/>
+      <c r="E76" s="698"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="688" t="s">
+      <c r="I76" s="699" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="689"/>
-      <c r="K76" s="690">
+      <c r="J76" s="700"/>
+      <c r="K76" s="701">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="690"/>
+      <c r="L76" s="701"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -25744,21 +25750,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -25774,6 +25765,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29070,7 +29076,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="710"/>
+      <c r="B1" s="686"/>
       <c r="C1" s="752" t="s">
         <v>754</v>
       </c>
@@ -29086,7 +29092,7 @@
       <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="711"/>
+      <c r="B2" s="687"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29096,21 +29102,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="714" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="715"/>
+      <c r="B3" s="690" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="691"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="716" t="s">
+      <c r="H3" s="692" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="716"/>
+      <c r="I3" s="692"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="740" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="750" t="s">
@@ -29132,14 +29138,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="717" t="s">
+      <c r="E4" s="693" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="718"/>
-      <c r="H4" s="719" t="s">
+      <c r="F4" s="694"/>
+      <c r="H4" s="695" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="720"/>
+      <c r="I4" s="696"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -29149,15 +29155,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="741"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="751"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="818"/>
-      <c r="X4" s="818"/>
+      <c r="W4" s="812"/>
+      <c r="X4" s="812"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29211,8 +29217,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="818"/>
-      <c r="X5" s="818"/>
+      <c r="W5" s="812"/>
+      <c r="X5" s="812"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29978,7 +29984,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="819"/>
+      <c r="W19" s="813"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -30032,7 +30038,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="819"/>
+      <c r="W20" s="813"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30087,8 +30093,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="745"/>
+      <c r="X21" s="745"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30199,8 +30205,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="746"/>
+      <c r="X23" s="746"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30261,8 +30267,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="746"/>
+      <c r="X24" s="746"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30315,8 +30321,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="747"/>
+      <c r="X25" s="747"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30371,8 +30377,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="747"/>
+      <c r="X26" s="747"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30427,9 +30433,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="740"/>
+      <c r="X27" s="741"/>
+      <c r="Y27" s="742"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30483,9 +30489,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="741"/>
+      <c r="X28" s="741"/>
+      <c r="Y28" s="742"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31076,11 +31082,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="742">
+      <c r="M41" s="731">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="742">
+      <c r="N41" s="731">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -31112,8 +31118,8 @@
       <c r="L42" s="640">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="743"/>
-      <c r="N42" s="743"/>
+      <c r="M42" s="732"/>
+      <c r="N42" s="732"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="791"/>
     </row>
@@ -31604,26 +31610,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="697" t="s">
+      <c r="H63" s="708" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="698"/>
+      <c r="I63" s="709"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="815">
+      <c r="K63" s="818">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="816"/>
+      <c r="L63" s="819"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="703" t="s">
+      <c r="D64" s="714" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="703"/>
+      <c r="E64" s="714"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -31632,22 +31638,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="733" t="s">
+      <c r="D65" s="738" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="733"/>
+      <c r="E65" s="738"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="704" t="s">
+      <c r="I65" s="715" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="705"/>
-      <c r="K65" s="706">
+      <c r="J65" s="716"/>
+      <c r="K65" s="717">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="706"/>
+      <c r="L65" s="717"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -31688,11 +31694,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="817">
+      <c r="K67" s="814">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="706"/>
+      <c r="L67" s="717"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -31709,22 +31715,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="686" t="s">
+      <c r="D69" s="697" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="687"/>
+      <c r="E69" s="698"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="812" t="s">
+      <c r="I69" s="815" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="813"/>
-      <c r="K69" s="814">
+      <c r="J69" s="816"/>
+      <c r="K69" s="817">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="814"/>
+      <c r="L69" s="817"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -31871,6 +31877,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -31886,21 +31907,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34285,7 +34291,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="710"/>
+      <c r="B1" s="686"/>
       <c r="C1" s="752" t="s">
         <v>884</v>
       </c>
@@ -34301,7 +34307,7 @@
       <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="711"/>
+      <c r="B2" s="687"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34311,21 +34317,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="714" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="715"/>
+      <c r="B3" s="690" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="691"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="716" t="s">
+      <c r="H3" s="692" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="716"/>
+      <c r="I3" s="692"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="740" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="750" t="s">
@@ -34343,14 +34349,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="717" t="s">
+      <c r="E4" s="693" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="718"/>
-      <c r="H4" s="719" t="s">
+      <c r="F4" s="694"/>
+      <c r="H4" s="695" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="720"/>
+      <c r="I4" s="696"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -34360,7 +34366,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="741"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -36132,11 +36138,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="742">
+      <c r="M41" s="731">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="742">
+      <c r="N41" s="731">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -36174,8 +36180,8 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="743"/>
-      <c r="N42" s="743"/>
+      <c r="M42" s="732"/>
+      <c r="N42" s="732"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="791"/>
     </row>
@@ -36858,26 +36864,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="697" t="s">
+      <c r="H69" s="708" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="698"/>
+      <c r="I69" s="709"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="815">
+      <c r="K69" s="818">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="816"/>
+      <c r="L69" s="819"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="703" t="s">
+      <c r="D70" s="714" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="703"/>
+      <c r="E70" s="714"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1683028.8699999999</v>
@@ -36886,22 +36892,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="733" t="s">
+      <c r="D71" s="738" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="733"/>
+      <c r="E71" s="738"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="704" t="s">
+      <c r="I71" s="715" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="705"/>
-      <c r="K71" s="706">
+      <c r="J71" s="716"/>
+      <c r="K71" s="717">
         <f>F73+F74+F75</f>
         <v>2167293.46</v>
       </c>
-      <c r="L71" s="706"/>
+      <c r="L71" s="717"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -36942,11 +36948,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="817">
+      <c r="K73" s="814">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="706"/>
+      <c r="L73" s="717"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -36963,22 +36969,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="686" t="s">
+      <c r="D75" s="697" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="687"/>
+      <c r="E75" s="698"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="688" t="s">
+      <c r="I75" s="699" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="689"/>
-      <c r="K75" s="690">
+      <c r="J75" s="700"/>
+      <c r="K75" s="701">
         <f>K71+K73</f>
         <v>-379688.70000000019</v>
       </c>
-      <c r="L75" s="690"/>
+      <c r="L75" s="701"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -37125,17 +37131,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -37147,6 +37142,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42585,7 +42591,7 @@
   <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -42611,7 +42617,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="710"/>
+      <c r="B1" s="686"/>
       <c r="C1" s="752" t="s">
         <v>1027</v>
       </c>
@@ -42627,7 +42633,7 @@
       <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="711"/>
+      <c r="B2" s="687"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42637,21 +42643,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="714" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="715"/>
+      <c r="B3" s="690" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="691"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="716" t="s">
+      <c r="H3" s="692" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="716"/>
+      <c r="I3" s="692"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="740" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="750" t="s">
@@ -42669,14 +42675,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="717" t="s">
+      <c r="E4" s="693" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="718"/>
-      <c r="H4" s="719" t="s">
+      <c r="F4" s="694"/>
+      <c r="H4" s="695" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="720"/>
+      <c r="I4" s="696"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -42686,7 +42692,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="741"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -42721,14 +42727,14 @@
       <c r="J5" s="37"/>
       <c r="K5" s="31"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="32">
+      <c r="M5" s="536">
         <v>62065.5</v>
       </c>
       <c r="N5" s="33">
         <v>40005</v>
       </c>
-      <c r="O5" s="664" t="s">
-        <v>766</v>
+      <c r="O5" s="826" t="s">
+        <v>1038</v>
       </c>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
@@ -44094,11 +44100,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="742">
+      <c r="M41" s="731">
         <f>SUM(M5:M40)</f>
         <v>338860</v>
       </c>
-      <c r="N41" s="742">
+      <c r="N41" s="731">
         <f>SUM(N5:N40)</f>
         <v>250473</v>
       </c>
@@ -44124,8 +44130,8 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="743"/>
-      <c r="N42" s="743"/>
+      <c r="M42" s="732"/>
+      <c r="N42" s="732"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="791"/>
     </row>
@@ -44621,26 +44627,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="697" t="s">
+      <c r="H69" s="708" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="698"/>
+      <c r="I69" s="709"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="815">
+      <c r="K69" s="818">
         <f>I67+L67</f>
         <v>68462.41</v>
       </c>
-      <c r="L69" s="816"/>
+      <c r="L69" s="819"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="703" t="s">
+      <c r="D70" s="714" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="703"/>
+      <c r="E70" s="714"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>504083.58999999997</v>
@@ -44649,22 +44655,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="733" t="s">
+      <c r="D71" s="738" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="733"/>
+      <c r="E71" s="738"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="704" t="s">
+      <c r="I71" s="715" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="705"/>
-      <c r="K71" s="706">
+      <c r="J71" s="716"/>
+      <c r="K71" s="717">
         <f>F73+F74+F75</f>
         <v>2859510.13</v>
       </c>
-      <c r="L71" s="706"/>
+      <c r="L71" s="717"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -44705,11 +44711,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="817">
+      <c r="K73" s="814">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="706"/>
+      <c r="L73" s="717"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -44724,22 +44730,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="686" t="s">
+      <c r="D75" s="697" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="687"/>
+      <c r="E75" s="698"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="688" t="s">
+      <c r="I75" s="699" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="689"/>
-      <c r="K75" s="690">
+      <c r="J75" s="700"/>
+      <c r="K75" s="701">
         <f>K71+K73</f>
         <v>504083.58999999985</v>
       </c>
-      <c r="L75" s="690"/>
+      <c r="L75" s="701"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -44883,6 +44889,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="K75:L75"/>
@@ -44895,16 +44911,6 @@
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47015,23 +47021,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="710"/>
-      <c r="C1" s="712" t="s">
+      <c r="B1" s="686"/>
+      <c r="C1" s="688" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="713"/>
-      <c r="E1" s="713"/>
-      <c r="F1" s="713"/>
-      <c r="G1" s="713"/>
-      <c r="H1" s="713"/>
-      <c r="I1" s="713"/>
-      <c r="J1" s="713"/>
-      <c r="K1" s="713"/>
-      <c r="L1" s="713"/>
-      <c r="M1" s="713"/>
+      <c r="D1" s="689"/>
+      <c r="E1" s="689"/>
+      <c r="F1" s="689"/>
+      <c r="G1" s="689"/>
+      <c r="H1" s="689"/>
+      <c r="I1" s="689"/>
+      <c r="J1" s="689"/>
+      <c r="K1" s="689"/>
+      <c r="L1" s="689"/>
+      <c r="M1" s="689"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="711"/>
+      <c r="B2" s="687"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -47041,21 +47047,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="714" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="715"/>
+      <c r="B3" s="690" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="691"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="716" t="s">
+      <c r="H3" s="692" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="716"/>
+      <c r="I3" s="692"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="740" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
     </row>
@@ -47070,14 +47076,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="717" t="s">
+      <c r="E4" s="693" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="718"/>
-      <c r="H4" s="719" t="s">
+      <c r="F4" s="694"/>
+      <c r="H4" s="695" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="720"/>
+      <c r="I4" s="696"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -47087,14 +47093,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="741"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="723" t="s">
+      <c r="W4" s="739" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="739"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47145,8 +47151,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="739"/>
+      <c r="X5" s="739"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47917,7 +47923,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="743">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -47969,7 +47975,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="744"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -48018,8 +48024,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="745"/>
+      <c r="X21" s="745"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -48120,8 +48126,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="746"/>
+      <c r="X23" s="746"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -48175,8 +48181,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="746"/>
+      <c r="X24" s="746"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -48222,8 +48228,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="747"/>
+      <c r="X25" s="747"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -48274,8 +48280,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="747"/>
+      <c r="X26" s="747"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -48323,9 +48329,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="740"/>
+      <c r="X27" s="741"/>
+      <c r="Y27" s="742"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48375,9 +48381,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="741"/>
+      <c r="X28" s="741"/>
+      <c r="Y28" s="742"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48712,11 +48718,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="742">
+      <c r="M36" s="731">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="744">
+      <c r="N36" s="733">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -48724,7 +48730,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="746">
+      <c r="Q36" s="735">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -48759,13 +48765,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="743"/>
-      <c r="N37" s="745"/>
+      <c r="M37" s="732"/>
+      <c r="N37" s="734"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="747"/>
+      <c r="Q37" s="736"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -49055,26 +49061,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="697" t="s">
+      <c r="H52" s="708" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="698"/>
+      <c r="I52" s="709"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="699">
+      <c r="K52" s="710">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="732"/>
+      <c r="L52" s="737"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="703" t="s">
+      <c r="D53" s="714" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="703"/>
+      <c r="E53" s="714"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -49083,29 +49089,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="733" t="s">
+      <c r="D54" s="738" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="733"/>
+      <c r="E54" s="738"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="704" t="s">
+      <c r="I54" s="715" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="705"/>
-      <c r="K54" s="706">
+      <c r="J54" s="716"/>
+      <c r="K54" s="717">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="706"/>
-      <c r="M54" s="734" t="s">
+      <c r="L54" s="717"/>
+      <c r="M54" s="723" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="735"/>
-      <c r="O54" s="735"/>
-      <c r="P54" s="735"/>
-      <c r="Q54" s="736"/>
+      <c r="N54" s="724"/>
+      <c r="O54" s="724"/>
+      <c r="P54" s="724"/>
+      <c r="Q54" s="725"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -49119,11 +49125,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="737"/>
-      <c r="N55" s="738"/>
-      <c r="O55" s="738"/>
-      <c r="P55" s="738"/>
-      <c r="Q55" s="739"/>
+      <c r="M55" s="726"/>
+      <c r="N55" s="727"/>
+      <c r="O55" s="727"/>
+      <c r="P55" s="727"/>
+      <c r="Q55" s="728"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -49141,11 +49147,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="708">
+      <c r="K56" s="719">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="709"/>
+      <c r="L56" s="720"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -49162,22 +49168,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="686" t="s">
+      <c r="D58" s="697" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="687"/>
+      <c r="E58" s="698"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="688" t="s">
+      <c r="I58" s="699" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="689"/>
-      <c r="K58" s="690">
+      <c r="J58" s="700"/>
+      <c r="K58" s="701">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="690"/>
+      <c r="L58" s="701"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -49321,17 +49327,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -49342,14 +49345,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -52092,23 +52098,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="710"/>
-      <c r="C1" s="712" t="s">
+      <c r="B1" s="686"/>
+      <c r="C1" s="688" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="713"/>
-      <c r="E1" s="713"/>
-      <c r="F1" s="713"/>
-      <c r="G1" s="713"/>
-      <c r="H1" s="713"/>
-      <c r="I1" s="713"/>
-      <c r="J1" s="713"/>
-      <c r="K1" s="713"/>
-      <c r="L1" s="713"/>
-      <c r="M1" s="713"/>
+      <c r="D1" s="689"/>
+      <c r="E1" s="689"/>
+      <c r="F1" s="689"/>
+      <c r="G1" s="689"/>
+      <c r="H1" s="689"/>
+      <c r="I1" s="689"/>
+      <c r="J1" s="689"/>
+      <c r="K1" s="689"/>
+      <c r="L1" s="689"/>
+      <c r="M1" s="689"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="711"/>
+      <c r="B2" s="687"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -52118,21 +52124,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="714" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="715"/>
+      <c r="B3" s="690" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="691"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="716" t="s">
+      <c r="H3" s="692" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="716"/>
+      <c r="I3" s="692"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="740" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="750" t="s">
@@ -52150,14 +52156,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="717" t="s">
+      <c r="E4" s="693" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="718"/>
-      <c r="H4" s="719" t="s">
+      <c r="F4" s="694"/>
+      <c r="H4" s="695" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="720"/>
+      <c r="I4" s="696"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -52167,15 +52173,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="741"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="751"/>
-      <c r="W4" s="723" t="s">
+      <c r="W4" s="739" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="739"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52236,8 +52242,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="739"/>
+      <c r="X5" s="739"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52994,7 +53000,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="743">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -53046,7 +53052,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="744"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -53095,8 +53101,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="745"/>
+      <c r="X21" s="745"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -53197,8 +53203,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="746"/>
+      <c r="X23" s="746"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -53249,8 +53255,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="746"/>
+      <c r="X24" s="746"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -53296,8 +53302,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="747"/>
+      <c r="X25" s="747"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -53345,8 +53351,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="747"/>
+      <c r="X26" s="747"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -53406,9 +53412,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="740"/>
+      <c r="X27" s="741"/>
+      <c r="Y27" s="742"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53462,9 +53468,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="741"/>
+      <c r="X28" s="741"/>
+      <c r="Y28" s="742"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53780,11 +53786,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="742">
+      <c r="M36" s="731">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="744">
+      <c r="N36" s="733">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -53792,7 +53798,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="746">
+      <c r="Q36" s="735">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -53811,13 +53817,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="743"/>
-      <c r="N37" s="745"/>
+      <c r="M37" s="732"/>
+      <c r="N37" s="734"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="747"/>
+      <c r="Q37" s="736"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -54091,26 +54097,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="697" t="s">
+      <c r="H52" s="708" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="698"/>
+      <c r="I52" s="709"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="699">
+      <c r="K52" s="710">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="732"/>
+      <c r="L52" s="737"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="703" t="s">
+      <c r="D53" s="714" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="703"/>
+      <c r="E53" s="714"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -54119,29 +54125,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="733" t="s">
+      <c r="D54" s="738" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="733"/>
+      <c r="E54" s="738"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="704" t="s">
+      <c r="I54" s="715" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="705"/>
-      <c r="K54" s="706">
+      <c r="J54" s="716"/>
+      <c r="K54" s="717">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="706"/>
-      <c r="M54" s="734" t="s">
+      <c r="L54" s="717"/>
+      <c r="M54" s="723" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="735"/>
-      <c r="O54" s="735"/>
-      <c r="P54" s="735"/>
-      <c r="Q54" s="736"/>
+      <c r="N54" s="724"/>
+      <c r="O54" s="724"/>
+      <c r="P54" s="724"/>
+      <c r="Q54" s="725"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -54155,11 +54161,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="737"/>
-      <c r="N55" s="738"/>
-      <c r="O55" s="738"/>
-      <c r="P55" s="738"/>
-      <c r="Q55" s="739"/>
+      <c r="M55" s="726"/>
+      <c r="N55" s="727"/>
+      <c r="O55" s="727"/>
+      <c r="P55" s="727"/>
+      <c r="Q55" s="728"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -54177,11 +54183,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="708">
+      <c r="K56" s="719">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="709"/>
+      <c r="L56" s="720"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -54198,22 +54204,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="686" t="s">
+      <c r="D58" s="697" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="687"/>
+      <c r="E58" s="698"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="688" t="s">
+      <c r="I58" s="699" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="689"/>
-      <c r="K58" s="690">
+      <c r="J58" s="700"/>
+      <c r="K58" s="701">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="690"/>
+      <c r="L58" s="701"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -54357,13 +54363,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -54373,20 +54386,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -57081,7 +57087,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="710"/>
+      <c r="B1" s="686"/>
       <c r="C1" s="752" t="s">
         <v>316</v>
       </c>
@@ -57097,7 +57103,7 @@
       <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="711"/>
+      <c r="B2" s="687"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -57107,21 +57113,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="714" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="715"/>
+      <c r="B3" s="690" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="691"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="716" t="s">
+      <c r="H3" s="692" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="716"/>
+      <c r="I3" s="692"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="740" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="750" t="s">
@@ -57139,14 +57145,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="717" t="s">
+      <c r="E4" s="693" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="718"/>
-      <c r="H4" s="719" t="s">
+      <c r="F4" s="694"/>
+      <c r="H4" s="695" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="720"/>
+      <c r="I4" s="696"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -57156,15 +57162,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="741"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="751"/>
-      <c r="W4" s="723" t="s">
+      <c r="W4" s="739" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="739"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57215,8 +57221,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="739"/>
+      <c r="X5" s="739"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57980,7 +57986,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="743">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -58033,7 +58039,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="744"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -58082,8 +58088,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="745"/>
+      <c r="X21" s="745"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -58183,8 +58189,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="746"/>
+      <c r="X23" s="746"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -58239,8 +58245,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="746"/>
+      <c r="X24" s="746"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -58285,8 +58291,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="747"/>
+      <c r="X25" s="747"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -58334,8 +58340,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="747"/>
+      <c r="X26" s="747"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -58389,9 +58395,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="740"/>
+      <c r="X27" s="741"/>
+      <c r="Y27" s="742"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58445,9 +58451,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="741"/>
+      <c r="X28" s="741"/>
+      <c r="Y28" s="742"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58758,11 +58764,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="742">
+      <c r="M36" s="731">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="744">
+      <c r="N36" s="733">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -58770,7 +58776,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="746">
+      <c r="Q36" s="735">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -58795,13 +58801,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="743"/>
-      <c r="N37" s="745"/>
+      <c r="M37" s="732"/>
+      <c r="N37" s="734"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="747"/>
+      <c r="Q37" s="736"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -59094,26 +59100,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="697" t="s">
+      <c r="H52" s="708" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="698"/>
+      <c r="I52" s="709"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="699">
+      <c r="K52" s="710">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="732"/>
+      <c r="L52" s="737"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="703" t="s">
+      <c r="D53" s="714" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="703"/>
+      <c r="E53" s="714"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -59122,22 +59128,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="733" t="s">
+      <c r="D54" s="738" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="733"/>
+      <c r="E54" s="738"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="704" t="s">
+      <c r="I54" s="715" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="705"/>
-      <c r="K54" s="706">
+      <c r="J54" s="716"/>
+      <c r="K54" s="717">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="706"/>
+      <c r="L54" s="717"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -59178,11 +59184,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="708">
+      <c r="K56" s="719">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="709"/>
+      <c r="L56" s="720"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -59199,22 +59205,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="686" t="s">
+      <c r="D58" s="697" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="687"/>
+      <c r="E58" s="698"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="688" t="s">
+      <c r="I58" s="699" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="689"/>
-      <c r="K58" s="690">
+      <c r="J58" s="700"/>
+      <c r="K58" s="701">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="690"/>
+      <c r="L58" s="701"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -59358,6 +59364,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -59373,20 +59393,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -62180,7 +62186,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="710"/>
+      <c r="B1" s="686"/>
       <c r="C1" s="752" t="s">
         <v>646</v>
       </c>
@@ -62196,7 +62202,7 @@
       <c r="M1" s="753"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="711"/>
+      <c r="B2" s="687"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -62206,21 +62212,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="714" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="715"/>
+      <c r="B3" s="690" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="691"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="716" t="s">
+      <c r="H3" s="692" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="716"/>
+      <c r="I3" s="692"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="740" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="750" t="s">
@@ -62238,14 +62244,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="717" t="s">
+      <c r="E4" s="693" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="718"/>
-      <c r="H4" s="719" t="s">
+      <c r="F4" s="694"/>
+      <c r="H4" s="695" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="720"/>
+      <c r="I4" s="696"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -62255,15 +62261,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="741"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="751"/>
-      <c r="W4" s="723" t="s">
+      <c r="W4" s="739" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="739"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62314,8 +62320,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="739"/>
+      <c r="X5" s="739"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63076,7 +63082,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="743">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -63128,7 +63134,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="744"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -63177,8 +63183,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="745"/>
+      <c r="X21" s="745"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -63277,8 +63283,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="746"/>
+      <c r="X23" s="746"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -63333,8 +63339,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="746"/>
+      <c r="X24" s="746"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -63382,8 +63388,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="747"/>
+      <c r="X25" s="747"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -63431,8 +63437,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="747"/>
+      <c r="X26" s="747"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -63480,9 +63486,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="740"/>
+      <c r="X27" s="741"/>
+      <c r="Y27" s="742"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63530,9 +63536,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="741"/>
+      <c r="X28" s="741"/>
+      <c r="Y28" s="742"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63873,11 +63879,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="742">
+      <c r="M36" s="731">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="744">
+      <c r="N36" s="733">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -63910,8 +63916,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="743"/>
-      <c r="N37" s="745"/>
+      <c r="M37" s="732"/>
+      <c r="N37" s="734"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -64218,26 +64224,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="697" t="s">
+      <c r="H52" s="708" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="698"/>
+      <c r="I52" s="709"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="699">
+      <c r="K52" s="710">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="732"/>
+      <c r="L52" s="737"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="703" t="s">
+      <c r="D53" s="714" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="703"/>
+      <c r="E53" s="714"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -64246,22 +64252,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="733" t="s">
+      <c r="D54" s="738" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="733"/>
+      <c r="E54" s="738"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="704" t="s">
+      <c r="I54" s="715" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="705"/>
-      <c r="K54" s="706">
+      <c r="J54" s="716"/>
+      <c r="K54" s="717">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="706"/>
+      <c r="L54" s="717"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -64302,11 +64308,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="708">
+      <c r="K56" s="719">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="709"/>
+      <c r="L56" s="720"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -64323,22 +64329,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="686" t="s">
+      <c r="D58" s="697" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="687"/>
+      <c r="E58" s="698"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="688" t="s">
+      <c r="I58" s="699" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="689"/>
-      <c r="K58" s="690">
+      <c r="J58" s="700"/>
+      <c r="K58" s="701">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="690"/>
+      <c r="L58" s="701"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -64482,20 +64488,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -64512,6 +64504,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -3939,7 +3939,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4519,6 +4519,14 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5955,7 +5963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="827">
+  <cellXfs count="829">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -7364,6 +7372,9 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7784,9 +7795,8 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="73" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="73" fillId="14" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7796,8 +7806,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFF66"/>
@@ -12588,23 +12598,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="686"/>
-      <c r="C1" s="688" t="s">
+      <c r="B1" s="687"/>
+      <c r="C1" s="689" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="689"/>
-      <c r="E1" s="689"/>
-      <c r="F1" s="689"/>
-      <c r="G1" s="689"/>
-      <c r="H1" s="689"/>
-      <c r="I1" s="689"/>
-      <c r="J1" s="689"/>
-      <c r="K1" s="689"/>
-      <c r="L1" s="689"/>
-      <c r="M1" s="689"/>
+      <c r="D1" s="690"/>
+      <c r="E1" s="690"/>
+      <c r="F1" s="690"/>
+      <c r="G1" s="690"/>
+      <c r="H1" s="690"/>
+      <c r="I1" s="690"/>
+      <c r="J1" s="690"/>
+      <c r="K1" s="690"/>
+      <c r="L1" s="690"/>
+      <c r="M1" s="690"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="687"/>
+      <c r="B2" s="688"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12614,17 +12624,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="691"/>
+      <c r="B3" s="691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="692"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="692" t="s">
+      <c r="H3" s="693" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="692"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -12638,14 +12648,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="693" t="s">
+      <c r="E4" s="694" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="694"/>
-      <c r="H4" s="695" t="s">
+      <c r="F4" s="695"/>
+      <c r="H4" s="696" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="696"/>
+      <c r="I4" s="697"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12655,10 +12665,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="702" t="s">
+      <c r="P4" s="703" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="703"/>
+      <c r="Q4" s="704"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -14099,11 +14109,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="704">
+      <c r="M39" s="705">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="706">
+      <c r="N39" s="707">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -14129,8 +14139,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="705"/>
-      <c r="N40" s="707"/>
+      <c r="M40" s="706"/>
+      <c r="N40" s="708"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -14345,29 +14355,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="708" t="s">
+      <c r="H52" s="709" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="709"/>
+      <c r="I52" s="710"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="710">
+      <c r="K52" s="711">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="711"/>
-      <c r="M52" s="712">
+      <c r="L52" s="712"/>
+      <c r="M52" s="713">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="713"/>
+      <c r="N52" s="714"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="714" t="s">
+      <c r="D53" s="715" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="714"/>
+      <c r="E53" s="715"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -14378,22 +14388,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="714" t="s">
+      <c r="D54" s="715" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="714"/>
+      <c r="E54" s="715"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="715" t="s">
+      <c r="I54" s="716" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="716"/>
-      <c r="K54" s="717">
+      <c r="J54" s="717"/>
+      <c r="K54" s="718">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="718"/>
+      <c r="L54" s="719"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -14426,11 +14436,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="719">
+      <c r="K56" s="720">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="720"/>
+      <c r="L56" s="721"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -14447,22 +14457,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="697" t="s">
+      <c r="D58" s="698" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="698"/>
+      <c r="E58" s="699"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="699" t="s">
+      <c r="I58" s="700" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="700"/>
-      <c r="K58" s="701">
+      <c r="J58" s="701"/>
+      <c r="K58" s="702">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="701"/>
+      <c r="L58" s="702"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -17086,10 +17096,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="782" t="s">
+      <c r="I76" s="783" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="783"/>
+      <c r="J76" s="784"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -17108,8 +17118,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="784"/>
-      <c r="J77" s="785"/>
+      <c r="I77" s="785"/>
+      <c r="J77" s="786"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -17176,7 +17186,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="748" t="s">
+      <c r="F80" s="749" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -17191,7 +17201,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="749"/>
+      <c r="F81" s="750"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -17199,10 +17209,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="781" t="s">
+      <c r="B82" s="782" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="781"/>
+      <c r="C82" s="782"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -17454,7 +17464,7 @@
   </sheetPr>
   <dimension ref="A1:Z96"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
@@ -17484,23 +17494,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="686"/>
-      <c r="C1" s="752" t="s">
+      <c r="B1" s="687"/>
+      <c r="C1" s="753" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="753"/>
-      <c r="E1" s="753"/>
-      <c r="F1" s="753"/>
-      <c r="G1" s="753"/>
-      <c r="H1" s="753"/>
-      <c r="I1" s="753"/>
-      <c r="J1" s="753"/>
-      <c r="K1" s="753"/>
-      <c r="L1" s="753"/>
-      <c r="M1" s="753"/>
+      <c r="D1" s="754"/>
+      <c r="E1" s="754"/>
+      <c r="F1" s="754"/>
+      <c r="G1" s="754"/>
+      <c r="H1" s="754"/>
+      <c r="I1" s="754"/>
+      <c r="J1" s="754"/>
+      <c r="K1" s="754"/>
+      <c r="L1" s="754"/>
+      <c r="M1" s="754"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="687"/>
+      <c r="B2" s="688"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17510,24 +17520,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="691"/>
+      <c r="B3" s="691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="692"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="692" t="s">
+      <c r="H3" s="693" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="692"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="729" t="s">
+      <c r="P3" s="730" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="750" t="s">
+      <c r="R3" s="751" t="s">
         <v>216</v>
       </c>
     </row>
@@ -17542,14 +17552,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="693" t="s">
+      <c r="E4" s="694" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="694"/>
-      <c r="H4" s="695" t="s">
+      <c r="F4" s="695"/>
+      <c r="H4" s="696" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="696"/>
+      <c r="I4" s="697"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -17559,15 +17569,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="730"/>
+      <c r="P4" s="731"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="751"/>
-      <c r="W4" s="739" t="s">
+      <c r="R4" s="752"/>
+      <c r="W4" s="740" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="739"/>
+      <c r="X4" s="740"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17618,8 +17628,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="739"/>
-      <c r="X5" s="739"/>
+      <c r="W5" s="740"/>
+      <c r="X5" s="740"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18382,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="743">
+      <c r="W19" s="744">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -18434,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="744"/>
+      <c r="W20" s="745"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -18483,8 +18493,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="745"/>
-      <c r="X21" s="745"/>
+      <c r="W21" s="746"/>
+      <c r="X21" s="746"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -18584,8 +18594,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="746"/>
-      <c r="X23" s="746"/>
+      <c r="W23" s="747"/>
+      <c r="X23" s="747"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -18640,8 +18650,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="746"/>
-      <c r="X24" s="746"/>
+      <c r="W24" s="747"/>
+      <c r="X24" s="747"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -18689,8 +18699,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="747"/>
-      <c r="X25" s="747"/>
+      <c r="W25" s="748"/>
+      <c r="X25" s="748"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -18739,8 +18749,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="747"/>
-      <c r="X26" s="747"/>
+      <c r="W26" s="748"/>
+      <c r="X26" s="748"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -18788,9 +18798,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="740"/>
-      <c r="X27" s="741"/>
-      <c r="Y27" s="742"/>
+      <c r="W27" s="741"/>
+      <c r="X27" s="742"/>
+      <c r="Y27" s="743"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18838,9 +18848,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="741"/>
-      <c r="X28" s="741"/>
-      <c r="Y28" s="742"/>
+      <c r="W28" s="742"/>
+      <c r="X28" s="742"/>
+      <c r="Y28" s="743"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19172,11 +19182,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="731">
+      <c r="M36" s="732">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="733">
+      <c r="N36" s="734">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -19184,7 +19194,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="777">
+      <c r="Q36" s="778">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -19209,13 +19219,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="732"/>
-      <c r="N37" s="734"/>
+      <c r="M37" s="733"/>
+      <c r="N37" s="735"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="778"/>
+      <c r="Q37" s="779"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -19265,11 +19275,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="779">
+      <c r="M39" s="780">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="780"/>
+      <c r="N39" s="781"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -19897,26 +19907,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="708" t="s">
+      <c r="H68" s="709" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="709"/>
+      <c r="I68" s="710"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="710">
+      <c r="K68" s="711">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="737"/>
+      <c r="L68" s="738"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="714" t="s">
+      <c r="D69" s="715" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="714"/>
+      <c r="E69" s="715"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19925,22 +19935,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="738" t="s">
+      <c r="D70" s="739" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="738"/>
+      <c r="E70" s="739"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="715" t="s">
+      <c r="I70" s="716" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="716"/>
-      <c r="K70" s="717">
+      <c r="J70" s="717"/>
+      <c r="K70" s="718">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="717"/>
+      <c r="L70" s="718"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19981,11 +19991,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="719">
+      <c r="K72" s="720">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="720"/>
+      <c r="L72" s="721"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -20002,22 +20012,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="697" t="s">
+      <c r="D74" s="698" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="698"/>
+      <c r="E74" s="699"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="699" t="s">
+      <c r="I74" s="700" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="700"/>
-      <c r="K74" s="701">
+      <c r="J74" s="701"/>
+      <c r="K74" s="702">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="701"/>
+      <c r="L74" s="702"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -22461,7 +22471,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="748" t="s">
+      <c r="F80" s="749" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -22474,7 +22484,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="749"/>
+      <c r="F81" s="750"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -22494,10 +22504,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="786" t="s">
+      <c r="I83" s="787" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="787"/>
+      <c r="J83" s="788"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -22506,8 +22516,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="788"/>
-      <c r="J84" s="789"/>
+      <c r="I84" s="789"/>
+      <c r="J84" s="790"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -22749,7 +22759,7 @@
   </sheetPr>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
@@ -22779,23 +22789,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="686"/>
-      <c r="C1" s="752" t="s">
+      <c r="B1" s="687"/>
+      <c r="C1" s="753" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="753"/>
-      <c r="E1" s="753"/>
-      <c r="F1" s="753"/>
-      <c r="G1" s="753"/>
-      <c r="H1" s="753"/>
-      <c r="I1" s="753"/>
-      <c r="J1" s="753"/>
-      <c r="K1" s="753"/>
-      <c r="L1" s="753"/>
-      <c r="M1" s="753"/>
+      <c r="D1" s="754"/>
+      <c r="E1" s="754"/>
+      <c r="F1" s="754"/>
+      <c r="G1" s="754"/>
+      <c r="H1" s="754"/>
+      <c r="I1" s="754"/>
+      <c r="J1" s="754"/>
+      <c r="K1" s="754"/>
+      <c r="L1" s="754"/>
+      <c r="M1" s="754"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="687"/>
+      <c r="B2" s="688"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22805,24 +22815,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="691"/>
+      <c r="B3" s="691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="692"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="692" t="s">
+      <c r="H3" s="693" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="692"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="729" t="s">
+      <c r="P3" s="730" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="750" t="s">
+      <c r="R3" s="751" t="s">
         <v>216</v>
       </c>
     </row>
@@ -22837,14 +22847,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="693" t="s">
+      <c r="E4" s="694" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="694"/>
-      <c r="H4" s="695" t="s">
+      <c r="F4" s="695"/>
+      <c r="H4" s="696" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="696"/>
+      <c r="I4" s="697"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22854,15 +22864,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="730"/>
+      <c r="P4" s="731"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="751"/>
-      <c r="W4" s="739" t="s">
+      <c r="R4" s="752"/>
+      <c r="W4" s="740" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="739"/>
+      <c r="X4" s="740"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22913,8 +22923,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="739"/>
-      <c r="X5" s="739"/>
+      <c r="W5" s="740"/>
+      <c r="X5" s="740"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23673,7 +23683,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="743">
+      <c r="W19" s="744">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -23725,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="744"/>
+      <c r="W20" s="745"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -23774,8 +23784,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="745"/>
-      <c r="X21" s="745"/>
+      <c r="W21" s="746"/>
+      <c r="X21" s="746"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23872,8 +23882,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="746"/>
-      <c r="X23" s="746"/>
+      <c r="W23" s="747"/>
+      <c r="X23" s="747"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23928,8 +23938,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="746"/>
-      <c r="X24" s="746"/>
+      <c r="W24" s="747"/>
+      <c r="X24" s="747"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23975,8 +23985,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="747"/>
-      <c r="X25" s="747"/>
+      <c r="W25" s="748"/>
+      <c r="X25" s="748"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -24027,8 +24037,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="747"/>
-      <c r="X26" s="747"/>
+      <c r="W26" s="748"/>
+      <c r="X26" s="748"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -24079,9 +24089,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="740"/>
-      <c r="X27" s="741"/>
-      <c r="Y27" s="742"/>
+      <c r="W27" s="741"/>
+      <c r="X27" s="742"/>
+      <c r="Y27" s="743"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24131,9 +24141,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="741"/>
-      <c r="X28" s="741"/>
-      <c r="Y28" s="742"/>
+      <c r="W28" s="742"/>
+      <c r="X28" s="742"/>
+      <c r="Y28" s="743"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24737,11 +24747,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="731">
+      <c r="M41" s="732">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="731">
+      <c r="N41" s="732">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -24749,7 +24759,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="790">
+      <c r="Q41" s="791">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -24779,10 +24789,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="732"/>
-      <c r="N42" s="732"/>
+      <c r="M42" s="733"/>
+      <c r="N42" s="733"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="791"/>
+      <c r="Q42" s="792"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -24870,11 +24880,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="792">
+      <c r="M45" s="793">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="793"/>
+      <c r="N45" s="794"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -25467,26 +25477,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="708" t="s">
+      <c r="H70" s="709" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="709"/>
+      <c r="I70" s="710"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="710">
+      <c r="K70" s="711">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="737"/>
+      <c r="L70" s="738"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="714" t="s">
+      <c r="D71" s="715" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="714"/>
+      <c r="E71" s="715"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -25496,22 +25506,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="738" t="s">
+      <c r="D72" s="739" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="738"/>
+      <c r="E72" s="739"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="715" t="s">
+      <c r="I72" s="716" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="716"/>
-      <c r="K72" s="717">
+      <c r="J72" s="717"/>
+      <c r="K72" s="718">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="717"/>
+      <c r="L72" s="718"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -25552,11 +25562,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="719">
+      <c r="K74" s="720">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="720"/>
+      <c r="L74" s="721"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25575,22 +25585,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="697" t="s">
+      <c r="D76" s="698" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="698"/>
+      <c r="E76" s="699"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="699" t="s">
+      <c r="I76" s="700" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="700"/>
-      <c r="K76" s="701">
+      <c r="J76" s="701"/>
+      <c r="K76" s="702">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="701"/>
+      <c r="L76" s="702"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -28295,7 +28305,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="748" t="s">
+      <c r="F90" s="749" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -28308,7 +28318,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="749"/>
+      <c r="F91" s="750"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -28327,10 +28337,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="786" t="s">
+      <c r="I93" s="787" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="787"/>
+      <c r="J93" s="788"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -28340,8 +28350,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="788"/>
-      <c r="J94" s="789"/>
+      <c r="I94" s="789"/>
+      <c r="J94" s="790"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -28782,11 +28792,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="794">
+      <c r="C130" s="795">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="795"/>
+      <c r="D130" s="796"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -28822,21 +28832,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="800" t="s">
+      <c r="F2" s="801" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="801"/>
-      <c r="H2" s="802"/>
+      <c r="G2" s="802"/>
+      <c r="H2" s="803"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="797" t="s">
+      <c r="B3" s="798" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="798"/>
-      <c r="D3" s="799"/>
-      <c r="F3" s="803"/>
-      <c r="G3" s="804"/>
-      <c r="H3" s="805"/>
+      <c r="C3" s="799"/>
+      <c r="D3" s="800"/>
+      <c r="F3" s="804"/>
+      <c r="G3" s="805"/>
+      <c r="H3" s="806"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -28981,11 +28991,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="806">
+      <c r="G11" s="807">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="807"/>
+      <c r="H11" s="808"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -29002,23 +29012,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="810" t="s">
+      <c r="C15" s="811" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="808">
+      <c r="D15" s="809">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="811"/>
-      <c r="D16" s="809"/>
+      <c r="C16" s="812"/>
+      <c r="D16" s="810"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="796" t="s">
+      <c r="C17" s="797" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="796"/>
+      <c r="D17" s="797"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -29043,7 +29053,7 @@
   <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
@@ -29076,23 +29086,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="686"/>
-      <c r="C1" s="752" t="s">
+      <c r="B1" s="687"/>
+      <c r="C1" s="753" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="753"/>
-      <c r="E1" s="753"/>
-      <c r="F1" s="753"/>
-      <c r="G1" s="753"/>
-      <c r="H1" s="753"/>
-      <c r="I1" s="753"/>
-      <c r="J1" s="753"/>
-      <c r="K1" s="753"/>
-      <c r="L1" s="753"/>
-      <c r="M1" s="753"/>
+      <c r="D1" s="754"/>
+      <c r="E1" s="754"/>
+      <c r="F1" s="754"/>
+      <c r="G1" s="754"/>
+      <c r="H1" s="754"/>
+      <c r="I1" s="754"/>
+      <c r="J1" s="754"/>
+      <c r="K1" s="754"/>
+      <c r="L1" s="754"/>
+      <c r="M1" s="754"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="687"/>
+      <c r="B2" s="688"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29102,24 +29112,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="691"/>
+      <c r="B3" s="691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="692"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="692" t="s">
+      <c r="H3" s="693" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="692"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="729" t="s">
+      <c r="P3" s="730" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="750" t="s">
+      <c r="R3" s="751" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -29138,14 +29148,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="693" t="s">
+      <c r="E4" s="694" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="694"/>
-      <c r="H4" s="695" t="s">
+      <c r="F4" s="695"/>
+      <c r="H4" s="696" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="696"/>
+      <c r="I4" s="697"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -29155,15 +29165,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="730"/>
+      <c r="P4" s="731"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="751"/>
+      <c r="R4" s="752"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="812"/>
-      <c r="X4" s="812"/>
+      <c r="W4" s="813"/>
+      <c r="X4" s="813"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29217,8 +29227,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="812"/>
-      <c r="X5" s="812"/>
+      <c r="W5" s="813"/>
+      <c r="X5" s="813"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29984,7 +29994,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="813"/>
+      <c r="W19" s="814"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -30038,7 +30048,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="813"/>
+      <c r="W20" s="814"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30093,8 +30103,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="745"/>
-      <c r="X21" s="745"/>
+      <c r="W21" s="746"/>
+      <c r="X21" s="746"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30205,8 +30215,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="746"/>
-      <c r="X23" s="746"/>
+      <c r="W23" s="747"/>
+      <c r="X23" s="747"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30267,8 +30277,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="746"/>
-      <c r="X24" s="746"/>
+      <c r="W24" s="747"/>
+      <c r="X24" s="747"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30321,8 +30331,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="747"/>
-      <c r="X25" s="747"/>
+      <c r="W25" s="748"/>
+      <c r="X25" s="748"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30377,8 +30387,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="747"/>
-      <c r="X26" s="747"/>
+      <c r="W26" s="748"/>
+      <c r="X26" s="748"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30433,9 +30443,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="740"/>
-      <c r="X27" s="741"/>
-      <c r="Y27" s="742"/>
+      <c r="W27" s="741"/>
+      <c r="X27" s="742"/>
+      <c r="Y27" s="743"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30489,9 +30499,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="741"/>
-      <c r="X28" s="741"/>
-      <c r="Y28" s="742"/>
+      <c r="W28" s="742"/>
+      <c r="X28" s="742"/>
+      <c r="Y28" s="743"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31082,11 +31092,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="731">
+      <c r="M41" s="732">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="731">
+      <c r="N41" s="732">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -31094,7 +31104,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="790">
+      <c r="Q41" s="791">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -31118,10 +31128,10 @@
       <c r="L42" s="640">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="732"/>
-      <c r="N42" s="732"/>
+      <c r="M42" s="733"/>
+      <c r="N42" s="733"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="791"/>
+      <c r="Q42" s="792"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -31190,11 +31200,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="792">
+      <c r="M45" s="793">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="793"/>
+      <c r="N45" s="794"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -31610,26 +31620,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="708" t="s">
+      <c r="H63" s="709" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="709"/>
+      <c r="I63" s="710"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="818">
+      <c r="K63" s="819">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="819"/>
+      <c r="L63" s="820"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="714" t="s">
+      <c r="D64" s="715" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="714"/>
+      <c r="E64" s="715"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -31638,22 +31648,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="738" t="s">
+      <c r="D65" s="739" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="738"/>
+      <c r="E65" s="739"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="715" t="s">
+      <c r="I65" s="716" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="716"/>
-      <c r="K65" s="717">
+      <c r="J65" s="717"/>
+      <c r="K65" s="718">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="717"/>
+      <c r="L65" s="718"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -31694,11 +31704,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="814">
+      <c r="K67" s="815">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="717"/>
+      <c r="L67" s="718"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -31715,22 +31725,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="697" t="s">
+      <c r="D69" s="698" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="698"/>
+      <c r="E69" s="699"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="815" t="s">
+      <c r="I69" s="816" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="816"/>
-      <c r="K69" s="817">
+      <c r="J69" s="817"/>
+      <c r="K69" s="818">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="817"/>
+      <c r="L69" s="818"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -31922,8 +31932,8 @@
   </sheetPr>
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32519,11 +32529,15 @@
       <c r="C17" s="111">
         <v>49325.599999999999</v>
       </c>
-      <c r="D17" s="412"/>
-      <c r="E17" s="111"/>
+      <c r="D17" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E17" s="828">
+        <v>49325.599999999999</v>
+      </c>
       <c r="F17" s="547">
         <f t="shared" si="0"/>
-        <v>49325.599999999999</v>
+        <v>0</v>
       </c>
       <c r="I17" s="393" t="s">
         <v>869</v>
@@ -32551,11 +32565,15 @@
       <c r="C18" s="111">
         <v>3087.2</v>
       </c>
-      <c r="D18" s="412"/>
-      <c r="E18" s="111"/>
+      <c r="D18" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E18" s="828">
+        <v>3087.2</v>
+      </c>
       <c r="F18" s="547">
         <f t="shared" si="0"/>
-        <v>3087.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="393" t="s">
         <v>869</v>
@@ -32583,11 +32601,15 @@
       <c r="C19" s="111">
         <v>1128</v>
       </c>
-      <c r="D19" s="412"/>
-      <c r="E19" s="111"/>
+      <c r="D19" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E19" s="828">
+        <v>1128</v>
+      </c>
       <c r="F19" s="547">
         <f t="shared" si="0"/>
-        <v>1128</v>
+        <v>0</v>
       </c>
       <c r="I19" s="393" t="s">
         <v>870</v>
@@ -32615,11 +32637,15 @@
       <c r="C20" s="111">
         <v>73300.850000000006</v>
       </c>
-      <c r="D20" s="412"/>
-      <c r="E20" s="111"/>
+      <c r="D20" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E20" s="828">
+        <v>73300.850000000006</v>
+      </c>
       <c r="F20" s="547">
         <f t="shared" si="0"/>
-        <v>73300.850000000006</v>
+        <v>0</v>
       </c>
       <c r="I20" s="393" t="s">
         <v>871</v>
@@ -32647,11 +32673,15 @@
       <c r="C21" s="111">
         <v>77730.7</v>
       </c>
-      <c r="D21" s="412"/>
-      <c r="E21" s="111"/>
+      <c r="D21" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E21" s="828">
+        <v>77730.7</v>
+      </c>
       <c r="F21" s="547">
         <f t="shared" si="0"/>
-        <v>77730.7</v>
+        <v>0</v>
       </c>
       <c r="I21" s="393" t="s">
         <v>871</v>
@@ -32679,11 +32709,15 @@
       <c r="C22" s="111">
         <v>13778.94</v>
       </c>
-      <c r="D22" s="412"/>
-      <c r="E22" s="111"/>
+      <c r="D22" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E22" s="828">
+        <v>13778.94</v>
+      </c>
       <c r="F22" s="547">
         <f t="shared" si="0"/>
-        <v>13778.94</v>
+        <v>0</v>
       </c>
       <c r="G22" s="138"/>
       <c r="I22" s="393" t="s">
@@ -32712,11 +32746,15 @@
       <c r="C23" s="111">
         <v>768</v>
       </c>
-      <c r="D23" s="412"/>
-      <c r="E23" s="111"/>
+      <c r="D23" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E23" s="828">
+        <v>768</v>
+      </c>
       <c r="F23" s="547">
         <f t="shared" si="0"/>
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="I23" s="393" t="s">
         <v>873</v>
@@ -32744,11 +32782,15 @@
       <c r="C24" s="111">
         <v>85663.7</v>
       </c>
-      <c r="D24" s="412"/>
-      <c r="E24" s="111"/>
+      <c r="D24" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E24" s="828">
+        <v>85663.7</v>
+      </c>
       <c r="F24" s="547">
         <f t="shared" si="0"/>
-        <v>85663.7</v>
+        <v>0</v>
       </c>
       <c r="I24" s="393" t="s">
         <v>873</v>
@@ -33016,11 +33058,15 @@
       <c r="C31" s="111">
         <v>2520</v>
       </c>
-      <c r="D31" s="412"/>
-      <c r="E31" s="111"/>
+      <c r="D31" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E31" s="828">
+        <v>2520</v>
+      </c>
       <c r="F31" s="547">
         <f t="shared" si="0"/>
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="I31" s="393" t="s">
         <v>879</v>
@@ -33048,11 +33094,15 @@
       <c r="C32" s="111">
         <v>8158.8</v>
       </c>
-      <c r="D32" s="412"/>
-      <c r="E32" s="111"/>
+      <c r="D32" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E32" s="828">
+        <v>8158.8</v>
+      </c>
       <c r="F32" s="547">
         <f t="shared" si="0"/>
-        <v>8158.8</v>
+        <v>0</v>
       </c>
       <c r="I32" s="393" t="s">
         <v>880</v>
@@ -33080,11 +33130,15 @@
       <c r="C33" s="111">
         <v>9299</v>
       </c>
-      <c r="D33" s="412"/>
-      <c r="E33" s="111"/>
+      <c r="D33" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E33" s="828">
+        <v>9299</v>
+      </c>
       <c r="F33" s="547">
         <f t="shared" si="0"/>
-        <v>9299</v>
+        <v>0</v>
       </c>
       <c r="I33" s="393" t="s">
         <v>881</v>
@@ -33112,11 +33166,15 @@
       <c r="C34" s="111">
         <v>10924.4</v>
       </c>
-      <c r="D34" s="412"/>
-      <c r="E34" s="111"/>
+      <c r="D34" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E34" s="828">
+        <v>10924.4</v>
+      </c>
       <c r="F34" s="547">
         <f t="shared" si="0"/>
-        <v>10924.4</v>
+        <v>0</v>
       </c>
       <c r="I34" s="393" t="s">
         <v>882</v>
@@ -33144,11 +33202,15 @@
       <c r="C35" s="111">
         <v>48105.599999999999</v>
       </c>
-      <c r="D35" s="412"/>
-      <c r="E35" s="111"/>
+      <c r="D35" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E35" s="828">
+        <v>48105.599999999999</v>
+      </c>
       <c r="F35" s="547">
         <f t="shared" si="0"/>
-        <v>48105.599999999999</v>
+        <v>0</v>
       </c>
       <c r="I35" s="245"/>
       <c r="J35" s="57"/>
@@ -33170,11 +33232,15 @@
       <c r="C36" s="111">
         <v>8408.4</v>
       </c>
-      <c r="D36" s="412"/>
-      <c r="E36" s="111"/>
+      <c r="D36" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E36" s="828">
+        <v>8408.4</v>
+      </c>
       <c r="F36" s="547">
         <f t="shared" si="0"/>
-        <v>8408.4</v>
+        <v>0</v>
       </c>
       <c r="I36" s="245"/>
       <c r="J36" s="57"/>
@@ -33855,11 +33921,11 @@
       <c r="D70" s="407"/>
       <c r="E70" s="395">
         <f>SUM(E3:E69)</f>
-        <v>1179998.1099999999</v>
+        <v>1572197.2999999993</v>
       </c>
       <c r="F70" s="153">
         <f>SUM(F3:F69)</f>
-        <v>392199.19</v>
+        <v>0</v>
       </c>
       <c r="K70" s="646">
         <f>SUM(K3:K69)</f>
@@ -33880,7 +33946,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="748" t="s">
+      <c r="F71" s="749" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -33893,7 +33959,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="749"/>
+      <c r="F72" s="750"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -33912,10 +33978,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="786" t="s">
+      <c r="I74" s="787" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="787"/>
+      <c r="J74" s="788"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -33924,8 +33990,8 @@
       <c r="D75" s="654"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="788"/>
-      <c r="J75" s="789"/>
+      <c r="I75" s="789"/>
+      <c r="J75" s="790"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -34059,11 +34125,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="822" t="s">
+      <c r="A89" s="823" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="823"/>
-      <c r="C89" s="823"/>
+      <c r="B89" s="824"/>
+      <c r="C89" s="824"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -34073,10 +34139,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="824" t="s">
+      <c r="B90" s="825" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="825"/>
+      <c r="C90" s="826"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -34177,7 +34243,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="662"/>
-      <c r="C97" s="820">
+      <c r="C97" s="821">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -34191,7 +34257,7 @@
       <c r="B98" s="663" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="821"/>
+      <c r="C98" s="822"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -34264,7 +34330,7 @@
   </sheetPr>
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
@@ -34291,23 +34357,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="686"/>
-      <c r="C1" s="752" t="s">
+      <c r="B1" s="687"/>
+      <c r="C1" s="753" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="753"/>
-      <c r="E1" s="753"/>
-      <c r="F1" s="753"/>
-      <c r="G1" s="753"/>
-      <c r="H1" s="753"/>
-      <c r="I1" s="753"/>
-      <c r="J1" s="753"/>
-      <c r="K1" s="753"/>
-      <c r="L1" s="753"/>
-      <c r="M1" s="753"/>
+      <c r="D1" s="754"/>
+      <c r="E1" s="754"/>
+      <c r="F1" s="754"/>
+      <c r="G1" s="754"/>
+      <c r="H1" s="754"/>
+      <c r="I1" s="754"/>
+      <c r="J1" s="754"/>
+      <c r="K1" s="754"/>
+      <c r="L1" s="754"/>
+      <c r="M1" s="754"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="687"/>
+      <c r="B2" s="688"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34317,24 +34383,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="691"/>
+      <c r="B3" s="691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="692"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="692" t="s">
+      <c r="H3" s="693" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="692"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="729" t="s">
+      <c r="P3" s="730" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="750" t="s">
+      <c r="R3" s="751" t="s">
         <v>216</v>
       </c>
     </row>
@@ -34349,14 +34415,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="693" t="s">
+      <c r="E4" s="694" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="694"/>
-      <c r="H4" s="695" t="s">
+      <c r="F4" s="695"/>
+      <c r="H4" s="696" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="696"/>
+      <c r="I4" s="697"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -34366,11 +34432,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="730"/>
+      <c r="P4" s="731"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="751"/>
+      <c r="R4" s="752"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -36138,11 +36204,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="731">
+      <c r="M41" s="732">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="731">
+      <c r="N41" s="732">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -36150,7 +36216,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="790">
+      <c r="Q41" s="791">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -36180,10 +36246,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="732"/>
-      <c r="N42" s="732"/>
+      <c r="M42" s="733"/>
+      <c r="N42" s="733"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="791"/>
+      <c r="Q42" s="792"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -36270,11 +36336,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="792">
+      <c r="M45" s="793">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="793"/>
+      <c r="N45" s="794"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -36864,26 +36930,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="708" t="s">
+      <c r="H69" s="709" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="709"/>
+      <c r="I69" s="710"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="818">
+      <c r="K69" s="819">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="819"/>
+      <c r="L69" s="820"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="714" t="s">
+      <c r="D70" s="715" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="714"/>
+      <c r="E70" s="715"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1683028.8699999999</v>
@@ -36892,22 +36958,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="738" t="s">
+      <c r="D71" s="739" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="738"/>
+      <c r="E71" s="739"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="715" t="s">
+      <c r="I71" s="716" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="716"/>
-      <c r="K71" s="717">
+      <c r="J71" s="717"/>
+      <c r="K71" s="718">
         <f>F73+F74+F75</f>
         <v>2167293.46</v>
       </c>
-      <c r="L71" s="717"/>
+      <c r="L71" s="718"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -36948,11 +37014,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="814">
+      <c r="K73" s="815">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="717"/>
+      <c r="L73" s="718"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -36969,22 +37035,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="697" t="s">
+      <c r="D75" s="698" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="698"/>
+      <c r="E75" s="699"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="699" t="s">
+      <c r="I75" s="700" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="700"/>
-      <c r="K75" s="701">
+      <c r="J75" s="701"/>
+      <c r="K75" s="702">
         <f>K71+K73</f>
         <v>-379688.70000000019</v>
       </c>
-      <c r="L75" s="701"/>
+      <c r="L75" s="702"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -37168,8 +37234,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37259,11 +37325,15 @@
       <c r="C3" s="111">
         <v>66303.14</v>
       </c>
-      <c r="D3" s="412"/>
-      <c r="E3" s="111"/>
+      <c r="D3" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E3" s="828">
+        <v>66303.14</v>
+      </c>
       <c r="F3" s="410">
         <f>C3-E3</f>
-        <v>66303.14</v>
+        <v>0</v>
       </c>
       <c r="H3" s="500" t="s">
         <v>990</v>
@@ -37291,11 +37361,15 @@
       <c r="C4" s="111">
         <v>111611.08</v>
       </c>
-      <c r="D4" s="412"/>
-      <c r="E4" s="111"/>
+      <c r="D4" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E4" s="828">
+        <v>111611.08</v>
+      </c>
       <c r="F4" s="547">
         <f t="shared" ref="F4:F64" si="0">C4-E4</f>
-        <v>111611.08</v>
+        <v>0</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="497" t="s">
@@ -37324,11 +37398,15 @@
       <c r="C5" s="111">
         <v>5816.4</v>
       </c>
-      <c r="D5" s="412"/>
-      <c r="E5" s="111"/>
+      <c r="D5" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E5" s="828">
+        <v>5816.4</v>
+      </c>
       <c r="F5" s="547">
         <f t="shared" si="0"/>
-        <v>5816.4</v>
+        <v>0</v>
       </c>
       <c r="H5" s="676" t="s">
         <v>992</v>
@@ -37356,11 +37434,15 @@
       <c r="C6" s="111">
         <v>308.72000000000003</v>
       </c>
-      <c r="D6" s="412"/>
-      <c r="E6" s="111"/>
+      <c r="D6" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E6" s="828">
+        <v>308.72000000000003</v>
+      </c>
       <c r="F6" s="547">
         <f t="shared" si="0"/>
-        <v>308.72000000000003</v>
+        <v>0</v>
       </c>
       <c r="H6" s="676" t="s">
         <v>993</v>
@@ -37388,11 +37470,15 @@
       <c r="C7" s="111">
         <v>8698.7000000000007</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="111"/>
+      <c r="D7" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E7" s="828">
+        <v>8698.7000000000007</v>
+      </c>
       <c r="F7" s="547">
         <f t="shared" si="0"/>
-        <v>8698.7000000000007</v>
+        <v>0</v>
       </c>
       <c r="H7" s="679" t="s">
         <v>994</v>
@@ -37420,11 +37506,15 @@
       <c r="C8" s="111">
         <v>32020.98</v>
       </c>
-      <c r="D8" s="412"/>
-      <c r="E8" s="111"/>
+      <c r="D8" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E8" s="828">
+        <v>32020.98</v>
+      </c>
       <c r="F8" s="547">
         <f t="shared" si="0"/>
-        <v>32020.98</v>
+        <v>0</v>
       </c>
       <c r="H8" s="679" t="s">
         <v>995</v>
@@ -37452,11 +37542,15 @@
       <c r="C9" s="111">
         <v>61048.800000000003</v>
       </c>
-      <c r="D9" s="412"/>
-      <c r="E9" s="111"/>
+      <c r="D9" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E9" s="828">
+        <v>61048.800000000003</v>
+      </c>
       <c r="F9" s="547">
         <f t="shared" si="0"/>
-        <v>61048.800000000003</v>
+        <v>0</v>
       </c>
       <c r="H9" s="676" t="s">
         <v>996</v>
@@ -37484,11 +37578,15 @@
       <c r="C10" s="111">
         <v>100170.2</v>
       </c>
-      <c r="D10" s="412"/>
-      <c r="E10" s="111"/>
+      <c r="D10" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E10" s="828">
+        <v>100170.2</v>
+      </c>
       <c r="F10" s="547">
         <f t="shared" si="0"/>
-        <v>100170.2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="138"/>
       <c r="H10" s="676" t="s">
@@ -37517,11 +37615,15 @@
       <c r="C11" s="111">
         <v>49503.49</v>
       </c>
-      <c r="D11" s="412"/>
-      <c r="E11" s="111"/>
+      <c r="D11" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E11" s="828">
+        <v>49503.49</v>
+      </c>
       <c r="F11" s="547">
         <f t="shared" si="0"/>
-        <v>49503.49</v>
+        <v>0</v>
       </c>
       <c r="H11" s="676" t="s">
         <v>998</v>
@@ -37549,11 +37651,15 @@
       <c r="C12" s="111">
         <v>47878.06</v>
       </c>
-      <c r="D12" s="412"/>
-      <c r="E12" s="111"/>
+      <c r="D12" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E12" s="828">
+        <v>47878.06</v>
+      </c>
       <c r="F12" s="547">
         <f t="shared" si="0"/>
-        <v>47878.06</v>
+        <v>0</v>
       </c>
       <c r="H12" s="676" t="s">
         <v>999</v>
@@ -37581,11 +37687,15 @@
       <c r="C13" s="111">
         <v>15201.66</v>
       </c>
-      <c r="D13" s="412"/>
-      <c r="E13" s="111"/>
+      <c r="D13" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E13" s="828">
+        <v>15201.66</v>
+      </c>
       <c r="F13" s="547">
         <f t="shared" si="0"/>
-        <v>15201.66</v>
+        <v>0</v>
       </c>
       <c r="H13" s="679" t="s">
         <v>1000</v>
@@ -37613,11 +37723,15 @@
       <c r="C14" s="111">
         <v>1710</v>
       </c>
-      <c r="D14" s="412"/>
-      <c r="E14" s="111"/>
+      <c r="D14" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E14" s="828">
+        <v>1710</v>
+      </c>
       <c r="F14" s="547">
         <f t="shared" si="0"/>
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="H14" s="679" t="s">
         <v>1001</v>
@@ -37645,11 +37759,15 @@
       <c r="C15" s="111">
         <v>45293.1</v>
       </c>
-      <c r="D15" s="412"/>
-      <c r="E15" s="111"/>
+      <c r="D15" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E15" s="828">
+        <v>45293.1</v>
+      </c>
       <c r="F15" s="547">
         <f t="shared" si="0"/>
-        <v>45293.1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="676" t="s">
         <v>1001</v>
@@ -37677,11 +37795,15 @@
       <c r="C16" s="111">
         <v>45940.800000000003</v>
       </c>
-      <c r="D16" s="412"/>
-      <c r="E16" s="111"/>
+      <c r="D16" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E16" s="828">
+        <v>45940.800000000003</v>
+      </c>
       <c r="F16" s="547">
         <f t="shared" si="0"/>
-        <v>45940.800000000003</v>
+        <v>0</v>
       </c>
       <c r="H16" s="679" t="s">
         <v>1002</v>
@@ -37709,11 +37831,15 @@
       <c r="C17" s="111">
         <v>69162.899999999994</v>
       </c>
-      <c r="D17" s="412"/>
-      <c r="E17" s="111"/>
+      <c r="D17" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E17" s="828">
+        <v>69162.899999999994</v>
+      </c>
       <c r="F17" s="547">
         <f t="shared" si="0"/>
-        <v>69162.899999999994</v>
+        <v>0</v>
       </c>
       <c r="H17" s="679" t="s">
         <v>1003</v>
@@ -37741,11 +37867,15 @@
       <c r="C18" s="111">
         <v>157826.47</v>
       </c>
-      <c r="D18" s="412"/>
-      <c r="E18" s="111"/>
+      <c r="D18" s="827">
+        <v>44760</v>
+      </c>
+      <c r="E18" s="828">
+        <v>157826.47</v>
+      </c>
       <c r="F18" s="547">
         <f t="shared" si="0"/>
-        <v>157826.47</v>
+        <v>0</v>
       </c>
       <c r="H18" s="676" t="s">
         <v>1003</v>
@@ -39007,16 +39137,16 @@
       <c r="D67" s="407"/>
       <c r="E67" s="395">
         <f>SUM(E3:E66)</f>
-        <v>0</v>
+        <v>818494.5</v>
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>2122394.9000000004</v>
-      </c>
-      <c r="H67" s="786" t="s">
+        <v>1303900.4000000001</v>
+      </c>
+      <c r="H67" s="787" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="787"/>
+      <c r="I67" s="788"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -39036,11 +39166,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="748" t="s">
+      <c r="F68" s="749" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="788"/>
-      <c r="I68" s="789"/>
+      <c r="H68" s="789"/>
+      <c r="I68" s="790"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -39051,7 +39181,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="749"/>
+      <c r="F69" s="750"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -40991,7 +41121,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="721" t="s">
+      <c r="B41" s="722" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -41023,7 +41153,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="722"/>
+      <c r="B42" s="723"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -42590,7 +42720,7 @@
   </sheetPr>
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -42617,23 +42747,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="686"/>
-      <c r="C1" s="752" t="s">
+      <c r="B1" s="687"/>
+      <c r="C1" s="753" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="753"/>
-      <c r="E1" s="753"/>
-      <c r="F1" s="753"/>
-      <c r="G1" s="753"/>
-      <c r="H1" s="753"/>
-      <c r="I1" s="753"/>
-      <c r="J1" s="753"/>
-      <c r="K1" s="753"/>
-      <c r="L1" s="753"/>
-      <c r="M1" s="753"/>
+      <c r="D1" s="754"/>
+      <c r="E1" s="754"/>
+      <c r="F1" s="754"/>
+      <c r="G1" s="754"/>
+      <c r="H1" s="754"/>
+      <c r="I1" s="754"/>
+      <c r="J1" s="754"/>
+      <c r="K1" s="754"/>
+      <c r="L1" s="754"/>
+      <c r="M1" s="754"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="687"/>
+      <c r="B2" s="688"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42643,24 +42773,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="691"/>
+      <c r="B3" s="691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="692"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="692" t="s">
+      <c r="H3" s="693" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="692"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="729" t="s">
+      <c r="P3" s="730" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="750" t="s">
+      <c r="R3" s="751" t="s">
         <v>216</v>
       </c>
     </row>
@@ -42675,14 +42805,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="693" t="s">
+      <c r="E4" s="694" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="694"/>
-      <c r="H4" s="695" t="s">
+      <c r="F4" s="695"/>
+      <c r="H4" s="696" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="696"/>
+      <c r="I4" s="697"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -42692,11 +42822,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="730"/>
+      <c r="P4" s="731"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="751"/>
+      <c r="R4" s="752"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -42733,7 +42863,7 @@
       <c r="N5" s="33">
         <v>40005</v>
       </c>
-      <c r="O5" s="826" t="s">
+      <c r="O5" s="686" t="s">
         <v>1038</v>
       </c>
       <c r="P5" s="34">
@@ -44100,11 +44230,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="731">
+      <c r="M41" s="732">
         <f>SUM(M5:M40)</f>
         <v>338860</v>
       </c>
-      <c r="N41" s="731">
+      <c r="N41" s="732">
         <f>SUM(N5:N40)</f>
         <v>250473</v>
       </c>
@@ -44112,7 +44242,7 @@
         <f>SUM(P5:P40)</f>
         <v>822258.41</v>
       </c>
-      <c r="Q41" s="790">
+      <c r="Q41" s="791">
         <f>SUM(Q5:Q40)</f>
         <v>19672.41</v>
       </c>
@@ -44130,10 +44260,10 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="732"/>
-      <c r="N42" s="732"/>
+      <c r="M42" s="733"/>
+      <c r="N42" s="733"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="791"/>
+      <c r="Q42" s="792"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -44184,11 +44314,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="792">
+      <c r="M45" s="793">
         <f>M41+N41</f>
         <v>589333</v>
       </c>
-      <c r="N45" s="793"/>
+      <c r="N45" s="794"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -44627,26 +44757,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="708" t="s">
+      <c r="H69" s="709" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="709"/>
+      <c r="I69" s="710"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="818">
+      <c r="K69" s="819">
         <f>I67+L67</f>
         <v>68462.41</v>
       </c>
-      <c r="L69" s="819"/>
+      <c r="L69" s="820"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="714" t="s">
+      <c r="D70" s="715" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="714"/>
+      <c r="E70" s="715"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>504083.58999999997</v>
@@ -44655,22 +44785,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="738" t="s">
+      <c r="D71" s="739" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="738"/>
+      <c r="E71" s="739"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="715" t="s">
+      <c r="I71" s="716" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="716"/>
-      <c r="K71" s="717">
+      <c r="J71" s="717"/>
+      <c r="K71" s="718">
         <f>F73+F74+F75</f>
         <v>2859510.13</v>
       </c>
-      <c r="L71" s="717"/>
+      <c r="L71" s="718"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -44711,11 +44841,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="814">
+      <c r="K73" s="815">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="717"/>
+      <c r="L73" s="718"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -44730,22 +44860,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="697" t="s">
+      <c r="D75" s="698" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="698"/>
+      <c r="E75" s="699"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="699" t="s">
+      <c r="I75" s="700" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="700"/>
-      <c r="K75" s="701">
+      <c r="J75" s="701"/>
+      <c r="K75" s="702">
         <f>K71+K73</f>
         <v>504083.58999999985</v>
       </c>
-      <c r="L75" s="701"/>
+      <c r="L75" s="702"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -44889,7 +45019,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B1:B2"/>
@@ -44911,6 +45040,7 @@
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
+    <mergeCell ref="Q41:Q42"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46315,10 +46445,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="786" t="s">
+      <c r="H67" s="787" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="787"/>
+      <c r="I67" s="788"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -46338,11 +46468,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="748" t="s">
+      <c r="F68" s="749" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="788"/>
-      <c r="I68" s="789"/>
+      <c r="H68" s="789"/>
+      <c r="I68" s="790"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -46353,7 +46483,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="749"/>
+      <c r="F69" s="750"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -47021,23 +47151,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="686"/>
-      <c r="C1" s="688" t="s">
+      <c r="B1" s="687"/>
+      <c r="C1" s="689" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="689"/>
-      <c r="E1" s="689"/>
-      <c r="F1" s="689"/>
-      <c r="G1" s="689"/>
-      <c r="H1" s="689"/>
-      <c r="I1" s="689"/>
-      <c r="J1" s="689"/>
-      <c r="K1" s="689"/>
-      <c r="L1" s="689"/>
-      <c r="M1" s="689"/>
+      <c r="D1" s="690"/>
+      <c r="E1" s="690"/>
+      <c r="F1" s="690"/>
+      <c r="G1" s="690"/>
+      <c r="H1" s="690"/>
+      <c r="I1" s="690"/>
+      <c r="J1" s="690"/>
+      <c r="K1" s="690"/>
+      <c r="L1" s="690"/>
+      <c r="M1" s="690"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="687"/>
+      <c r="B2" s="688"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -47047,21 +47177,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="691"/>
+      <c r="B3" s="691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="692"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="692" t="s">
+      <c r="H3" s="693" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="692"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="729" t="s">
+      <c r="P3" s="730" t="s">
         <v>6</v>
       </c>
     </row>
@@ -47076,14 +47206,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="693" t="s">
+      <c r="E4" s="694" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="694"/>
-      <c r="H4" s="695" t="s">
+      <c r="F4" s="695"/>
+      <c r="H4" s="696" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="696"/>
+      <c r="I4" s="697"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -47093,14 +47223,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="730"/>
+      <c r="P4" s="731"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="739" t="s">
+      <c r="W4" s="740" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="739"/>
+      <c r="X4" s="740"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47151,8 +47281,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="739"/>
-      <c r="X5" s="739"/>
+      <c r="W5" s="740"/>
+      <c r="X5" s="740"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47923,7 +48053,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="743">
+      <c r="W19" s="744">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -47975,7 +48105,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="744"/>
+      <c r="W20" s="745"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -48024,8 +48154,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="745"/>
-      <c r="X21" s="745"/>
+      <c r="W21" s="746"/>
+      <c r="X21" s="746"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -48126,8 +48256,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="746"/>
-      <c r="X23" s="746"/>
+      <c r="W23" s="747"/>
+      <c r="X23" s="747"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -48181,8 +48311,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="746"/>
-      <c r="X24" s="746"/>
+      <c r="W24" s="747"/>
+      <c r="X24" s="747"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -48228,8 +48358,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="747"/>
-      <c r="X25" s="747"/>
+      <c r="W25" s="748"/>
+      <c r="X25" s="748"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -48280,8 +48410,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="747"/>
-      <c r="X26" s="747"/>
+      <c r="W26" s="748"/>
+      <c r="X26" s="748"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -48329,9 +48459,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="740"/>
-      <c r="X27" s="741"/>
-      <c r="Y27" s="742"/>
+      <c r="W27" s="741"/>
+      <c r="X27" s="742"/>
+      <c r="Y27" s="743"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48381,9 +48511,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="741"/>
-      <c r="X28" s="741"/>
-      <c r="Y28" s="742"/>
+      <c r="W28" s="742"/>
+      <c r="X28" s="742"/>
+      <c r="Y28" s="743"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48718,11 +48848,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="731">
+      <c r="M36" s="732">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="733">
+      <c r="N36" s="734">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -48730,7 +48860,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="735">
+      <c r="Q36" s="736">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -48765,13 +48895,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="732"/>
-      <c r="N37" s="734"/>
+      <c r="M37" s="733"/>
+      <c r="N37" s="735"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="736"/>
+      <c r="Q37" s="737"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -49061,26 +49191,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="708" t="s">
+      <c r="H52" s="709" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="709"/>
+      <c r="I52" s="710"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="710">
+      <c r="K52" s="711">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="737"/>
+      <c r="L52" s="738"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="714" t="s">
+      <c r="D53" s="715" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="714"/>
+      <c r="E53" s="715"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -49089,29 +49219,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="738" t="s">
+      <c r="D54" s="739" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="738"/>
+      <c r="E54" s="739"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="715" t="s">
+      <c r="I54" s="716" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="716"/>
-      <c r="K54" s="717">
+      <c r="J54" s="717"/>
+      <c r="K54" s="718">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="717"/>
-      <c r="M54" s="723" t="s">
+      <c r="L54" s="718"/>
+      <c r="M54" s="724" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="724"/>
-      <c r="O54" s="724"/>
-      <c r="P54" s="724"/>
-      <c r="Q54" s="725"/>
+      <c r="N54" s="725"/>
+      <c r="O54" s="725"/>
+      <c r="P54" s="725"/>
+      <c r="Q54" s="726"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -49125,11 +49255,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="726"/>
-      <c r="N55" s="727"/>
-      <c r="O55" s="727"/>
-      <c r="P55" s="727"/>
-      <c r="Q55" s="728"/>
+      <c r="M55" s="727"/>
+      <c r="N55" s="728"/>
+      <c r="O55" s="728"/>
+      <c r="P55" s="728"/>
+      <c r="Q55" s="729"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -49147,11 +49277,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="719">
+      <c r="K56" s="720">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="720"/>
+      <c r="L56" s="721"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -49168,22 +49298,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="697" t="s">
+      <c r="D58" s="698" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="698"/>
+      <c r="E58" s="699"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="699" t="s">
+      <c r="I58" s="700" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="700"/>
-      <c r="K58" s="701">
+      <c r="J58" s="701"/>
+      <c r="K58" s="702">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="701"/>
+      <c r="L58" s="702"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -51773,7 +51903,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="748" t="s">
+      <c r="F87" s="749" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -51786,7 +51916,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="749"/>
+      <c r="F88" s="750"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -52098,23 +52228,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="686"/>
-      <c r="C1" s="688" t="s">
+      <c r="B1" s="687"/>
+      <c r="C1" s="689" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="689"/>
-      <c r="E1" s="689"/>
-      <c r="F1" s="689"/>
-      <c r="G1" s="689"/>
-      <c r="H1" s="689"/>
-      <c r="I1" s="689"/>
-      <c r="J1" s="689"/>
-      <c r="K1" s="689"/>
-      <c r="L1" s="689"/>
-      <c r="M1" s="689"/>
+      <c r="D1" s="690"/>
+      <c r="E1" s="690"/>
+      <c r="F1" s="690"/>
+      <c r="G1" s="690"/>
+      <c r="H1" s="690"/>
+      <c r="I1" s="690"/>
+      <c r="J1" s="690"/>
+      <c r="K1" s="690"/>
+      <c r="L1" s="690"/>
+      <c r="M1" s="690"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="687"/>
+      <c r="B2" s="688"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -52124,24 +52254,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="691"/>
+      <c r="B3" s="691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="692"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="692" t="s">
+      <c r="H3" s="693" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="692"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="729" t="s">
+      <c r="P3" s="730" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="750" t="s">
+      <c r="R3" s="751" t="s">
         <v>216</v>
       </c>
     </row>
@@ -52156,14 +52286,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="693" t="s">
+      <c r="E4" s="694" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="694"/>
-      <c r="H4" s="695" t="s">
+      <c r="F4" s="695"/>
+      <c r="H4" s="696" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="696"/>
+      <c r="I4" s="697"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -52173,15 +52303,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="730"/>
+      <c r="P4" s="731"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="751"/>
-      <c r="W4" s="739" t="s">
+      <c r="R4" s="752"/>
+      <c r="W4" s="740" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="739"/>
+      <c r="X4" s="740"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52242,8 +52372,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="739"/>
-      <c r="X5" s="739"/>
+      <c r="W5" s="740"/>
+      <c r="X5" s="740"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53000,7 +53130,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="743">
+      <c r="W19" s="744">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -53052,7 +53182,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="744"/>
+      <c r="W20" s="745"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -53101,8 +53231,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="745"/>
-      <c r="X21" s="745"/>
+      <c r="W21" s="746"/>
+      <c r="X21" s="746"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -53203,8 +53333,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="746"/>
-      <c r="X23" s="746"/>
+      <c r="W23" s="747"/>
+      <c r="X23" s="747"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -53255,8 +53385,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="746"/>
-      <c r="X24" s="746"/>
+      <c r="W24" s="747"/>
+      <c r="X24" s="747"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -53302,8 +53432,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="747"/>
-      <c r="X25" s="747"/>
+      <c r="W25" s="748"/>
+      <c r="X25" s="748"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -53351,8 +53481,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="747"/>
-      <c r="X26" s="747"/>
+      <c r="W26" s="748"/>
+      <c r="X26" s="748"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -53412,9 +53542,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="740"/>
-      <c r="X27" s="741"/>
-      <c r="Y27" s="742"/>
+      <c r="W27" s="741"/>
+      <c r="X27" s="742"/>
+      <c r="Y27" s="743"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53468,9 +53598,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="741"/>
-      <c r="X28" s="741"/>
-      <c r="Y28" s="742"/>
+      <c r="W28" s="742"/>
+      <c r="X28" s="742"/>
+      <c r="Y28" s="743"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53786,11 +53916,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="731">
+      <c r="M36" s="732">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="733">
+      <c r="N36" s="734">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -53798,7 +53928,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="735">
+      <c r="Q36" s="736">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -53817,13 +53947,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="732"/>
-      <c r="N37" s="734"/>
+      <c r="M37" s="733"/>
+      <c r="N37" s="735"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="736"/>
+      <c r="Q37" s="737"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -54097,26 +54227,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="708" t="s">
+      <c r="H52" s="709" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="709"/>
+      <c r="I52" s="710"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="710">
+      <c r="K52" s="711">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="737"/>
+      <c r="L52" s="738"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="714" t="s">
+      <c r="D53" s="715" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="714"/>
+      <c r="E53" s="715"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -54125,29 +54255,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="738" t="s">
+      <c r="D54" s="739" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="738"/>
+      <c r="E54" s="739"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="715" t="s">
+      <c r="I54" s="716" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="716"/>
-      <c r="K54" s="717">
+      <c r="J54" s="717"/>
+      <c r="K54" s="718">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="717"/>
-      <c r="M54" s="723" t="s">
+      <c r="L54" s="718"/>
+      <c r="M54" s="724" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="724"/>
-      <c r="O54" s="724"/>
-      <c r="P54" s="724"/>
-      <c r="Q54" s="725"/>
+      <c r="N54" s="725"/>
+      <c r="O54" s="725"/>
+      <c r="P54" s="725"/>
+      <c r="Q54" s="726"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -54161,11 +54291,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="726"/>
-      <c r="N55" s="727"/>
-      <c r="O55" s="727"/>
-      <c r="P55" s="727"/>
-      <c r="Q55" s="728"/>
+      <c r="M55" s="727"/>
+      <c r="N55" s="728"/>
+      <c r="O55" s="728"/>
+      <c r="P55" s="728"/>
+      <c r="Q55" s="729"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -54183,11 +54313,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="719">
+      <c r="K56" s="720">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="720"/>
+      <c r="L56" s="721"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -54204,22 +54334,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="697" t="s">
+      <c r="D58" s="698" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="698"/>
+      <c r="E58" s="699"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="699" t="s">
+      <c r="I58" s="700" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="700"/>
-      <c r="K58" s="701">
+      <c r="J58" s="701"/>
+      <c r="K58" s="702">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="701"/>
+      <c r="L58" s="702"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -56782,7 +56912,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="748" t="s">
+      <c r="F75" s="749" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -56795,7 +56925,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="749"/>
+      <c r="F76" s="750"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -57057,7 +57187,7 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
@@ -57087,23 +57217,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="686"/>
-      <c r="C1" s="752" t="s">
+      <c r="B1" s="687"/>
+      <c r="C1" s="753" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="753"/>
-      <c r="E1" s="753"/>
-      <c r="F1" s="753"/>
-      <c r="G1" s="753"/>
-      <c r="H1" s="753"/>
-      <c r="I1" s="753"/>
-      <c r="J1" s="753"/>
-      <c r="K1" s="753"/>
-      <c r="L1" s="753"/>
-      <c r="M1" s="753"/>
+      <c r="D1" s="754"/>
+      <c r="E1" s="754"/>
+      <c r="F1" s="754"/>
+      <c r="G1" s="754"/>
+      <c r="H1" s="754"/>
+      <c r="I1" s="754"/>
+      <c r="J1" s="754"/>
+      <c r="K1" s="754"/>
+      <c r="L1" s="754"/>
+      <c r="M1" s="754"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="687"/>
+      <c r="B2" s="688"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -57113,24 +57243,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="691"/>
+      <c r="B3" s="691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="692"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="692" t="s">
+      <c r="H3" s="693" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="692"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="729" t="s">
+      <c r="P3" s="730" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="750" t="s">
+      <c r="R3" s="751" t="s">
         <v>216</v>
       </c>
     </row>
@@ -57145,14 +57275,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="693" t="s">
+      <c r="E4" s="694" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="694"/>
-      <c r="H4" s="695" t="s">
+      <c r="F4" s="695"/>
+      <c r="H4" s="696" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="696"/>
+      <c r="I4" s="697"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -57162,15 +57292,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="730"/>
+      <c r="P4" s="731"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="751"/>
-      <c r="W4" s="739" t="s">
+      <c r="R4" s="752"/>
+      <c r="W4" s="740" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="739"/>
+      <c r="X4" s="740"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57221,8 +57351,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="739"/>
-      <c r="X5" s="739"/>
+      <c r="W5" s="740"/>
+      <c r="X5" s="740"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57986,7 +58116,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="743">
+      <c r="W19" s="744">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -58039,7 +58169,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="744"/>
+      <c r="W20" s="745"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -58088,8 +58218,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="745"/>
-      <c r="X21" s="745"/>
+      <c r="W21" s="746"/>
+      <c r="X21" s="746"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -58189,8 +58319,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="746"/>
-      <c r="X23" s="746"/>
+      <c r="W23" s="747"/>
+      <c r="X23" s="747"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -58245,8 +58375,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="746"/>
-      <c r="X24" s="746"/>
+      <c r="W24" s="747"/>
+      <c r="X24" s="747"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -58291,8 +58421,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="747"/>
-      <c r="X25" s="747"/>
+      <c r="W25" s="748"/>
+      <c r="X25" s="748"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -58340,8 +58470,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="747"/>
-      <c r="X26" s="747"/>
+      <c r="W26" s="748"/>
+      <c r="X26" s="748"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -58395,9 +58525,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="740"/>
-      <c r="X27" s="741"/>
-      <c r="Y27" s="742"/>
+      <c r="W27" s="741"/>
+      <c r="X27" s="742"/>
+      <c r="Y27" s="743"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58451,9 +58581,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="741"/>
-      <c r="X28" s="741"/>
-      <c r="Y28" s="742"/>
+      <c r="W28" s="742"/>
+      <c r="X28" s="742"/>
+      <c r="Y28" s="743"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58764,11 +58894,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="731">
+      <c r="M36" s="732">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="733">
+      <c r="N36" s="734">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -58776,7 +58906,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="735">
+      <c r="Q36" s="736">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -58801,13 +58931,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="732"/>
-      <c r="N37" s="734"/>
+      <c r="M37" s="733"/>
+      <c r="N37" s="735"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="736"/>
+      <c r="Q37" s="737"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -59100,26 +59230,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="708" t="s">
+      <c r="H52" s="709" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="709"/>
+      <c r="I52" s="710"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="710">
+      <c r="K52" s="711">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="737"/>
+      <c r="L52" s="738"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="714" t="s">
+      <c r="D53" s="715" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="714"/>
+      <c r="E53" s="715"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -59128,22 +59258,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="738" t="s">
+      <c r="D54" s="739" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="738"/>
+      <c r="E54" s="739"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="715" t="s">
+      <c r="I54" s="716" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="716"/>
-      <c r="K54" s="717">
+      <c r="J54" s="717"/>
+      <c r="K54" s="718">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="717"/>
+      <c r="L54" s="718"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -59184,11 +59314,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="719">
+      <c r="K56" s="720">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="720"/>
+      <c r="L56" s="721"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -59205,22 +59335,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="697" t="s">
+      <c r="D58" s="698" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="698"/>
+      <c r="E58" s="699"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="699" t="s">
+      <c r="I58" s="700" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="700"/>
-      <c r="K58" s="701">
+      <c r="J58" s="701"/>
+      <c r="K58" s="702">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="701"/>
+      <c r="L58" s="702"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -61089,12 +61219,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="754" t="s">
+      <c r="B43" s="755" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="755"/>
-      <c r="D43" s="755"/>
-      <c r="E43" s="756"/>
+      <c r="C43" s="756"/>
+      <c r="D43" s="756"/>
+      <c r="E43" s="757"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61122,10 +61252,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="757"/>
-      <c r="C44" s="758"/>
-      <c r="D44" s="758"/>
-      <c r="E44" s="759"/>
+      <c r="B44" s="758"/>
+      <c r="C44" s="759"/>
+      <c r="D44" s="759"/>
+      <c r="E44" s="760"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61153,10 +61283,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="760"/>
-      <c r="C45" s="761"/>
-      <c r="D45" s="761"/>
-      <c r="E45" s="762"/>
+      <c r="B45" s="761"/>
+      <c r="C45" s="762"/>
+      <c r="D45" s="762"/>
+      <c r="E45" s="763"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61199,10 +61329,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="769" t="s">
+      <c r="B47" s="770" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="770"/>
+      <c r="C47" s="771"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -61224,8 +61354,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="771"/>
-      <c r="C48" s="772"/>
+      <c r="B48" s="772"/>
+      <c r="C48" s="773"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -61233,11 +61363,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="763" t="s">
+      <c r="J48" s="764" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="764"/>
-      <c r="L48" s="765"/>
+      <c r="K48" s="765"/>
+      <c r="L48" s="766"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -61255,9 +61385,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="766"/>
-      <c r="K49" s="767"/>
-      <c r="L49" s="768"/>
+      <c r="J49" s="767"/>
+      <c r="K49" s="768"/>
+      <c r="L49" s="769"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -61274,10 +61404,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="773" t="s">
+      <c r="I50" s="774" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="774"/>
+      <c r="J50" s="775"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -61298,8 +61428,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="773"/>
-      <c r="J51" s="774"/>
+      <c r="I51" s="774"/>
+      <c r="J51" s="775"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -61318,8 +61448,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="773"/>
-      <c r="J52" s="774"/>
+      <c r="I52" s="774"/>
+      <c r="J52" s="775"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -61338,8 +61468,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="773"/>
-      <c r="J53" s="774"/>
+      <c r="I53" s="774"/>
+      <c r="J53" s="775"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -61358,8 +61488,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="773"/>
-      <c r="J54" s="774"/>
+      <c r="I54" s="774"/>
+      <c r="J54" s="775"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -61378,8 +61508,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="773"/>
-      <c r="J55" s="774"/>
+      <c r="I55" s="774"/>
+      <c r="J55" s="775"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -61398,8 +61528,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="773"/>
-      <c r="J56" s="774"/>
+      <c r="I56" s="774"/>
+      <c r="J56" s="775"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -61418,8 +61548,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="773"/>
-      <c r="J57" s="774"/>
+      <c r="I57" s="774"/>
+      <c r="J57" s="775"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -61438,8 +61568,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="773"/>
-      <c r="J58" s="774"/>
+      <c r="I58" s="774"/>
+      <c r="J58" s="775"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -61458,8 +61588,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="773"/>
-      <c r="J59" s="774"/>
+      <c r="I59" s="774"/>
+      <c r="J59" s="775"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -61478,8 +61608,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="773"/>
-      <c r="J60" s="774"/>
+      <c r="I60" s="774"/>
+      <c r="J60" s="775"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -61498,8 +61628,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="773"/>
-      <c r="J61" s="774"/>
+      <c r="I61" s="774"/>
+      <c r="J61" s="775"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -61518,8 +61648,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="773"/>
-      <c r="J62" s="774"/>
+      <c r="I62" s="774"/>
+      <c r="J62" s="775"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -61538,8 +61668,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="773"/>
-      <c r="J63" s="774"/>
+      <c r="I63" s="774"/>
+      <c r="J63" s="775"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -61558,8 +61688,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="773"/>
-      <c r="J64" s="774"/>
+      <c r="I64" s="774"/>
+      <c r="J64" s="775"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -61578,8 +61708,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="773"/>
-      <c r="J65" s="774"/>
+      <c r="I65" s="774"/>
+      <c r="J65" s="775"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -61598,8 +61728,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="773"/>
-      <c r="J66" s="774"/>
+      <c r="I66" s="774"/>
+      <c r="J66" s="775"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -61618,8 +61748,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="773"/>
-      <c r="J67" s="774"/>
+      <c r="I67" s="774"/>
+      <c r="J67" s="775"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -61638,8 +61768,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="773"/>
-      <c r="J68" s="774"/>
+      <c r="I68" s="774"/>
+      <c r="J68" s="775"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -61658,8 +61788,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="773"/>
-      <c r="J69" s="774"/>
+      <c r="I69" s="774"/>
+      <c r="J69" s="775"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -61678,8 +61808,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="773"/>
-      <c r="J70" s="774"/>
+      <c r="I70" s="774"/>
+      <c r="J70" s="775"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -61698,8 +61828,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="773"/>
-      <c r="J71" s="774"/>
+      <c r="I71" s="774"/>
+      <c r="J71" s="775"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -61718,8 +61848,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="773"/>
-      <c r="J72" s="774"/>
+      <c r="I72" s="774"/>
+      <c r="J72" s="775"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -61738,8 +61868,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="773"/>
-      <c r="J73" s="774"/>
+      <c r="I73" s="774"/>
+      <c r="J73" s="775"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -61758,8 +61888,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="773"/>
-      <c r="J74" s="774"/>
+      <c r="I74" s="774"/>
+      <c r="J74" s="775"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -61778,8 +61908,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="773"/>
-      <c r="J75" s="774"/>
+      <c r="I75" s="774"/>
+      <c r="J75" s="775"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -61798,8 +61928,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="773"/>
-      <c r="J76" s="774"/>
+      <c r="I76" s="774"/>
+      <c r="J76" s="775"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -61818,8 +61948,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="773"/>
-      <c r="J77" s="774"/>
+      <c r="I77" s="774"/>
+      <c r="J77" s="775"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -61840,8 +61970,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="775"/>
-      <c r="J78" s="776"/>
+      <c r="I78" s="776"/>
+      <c r="J78" s="777"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -61886,7 +62016,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="748" t="s">
+      <c r="F80" s="749" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -61898,7 +62028,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="749"/>
+      <c r="F81" s="750"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -62156,7 +62286,7 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -62186,23 +62316,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="686"/>
-      <c r="C1" s="752" t="s">
+      <c r="B1" s="687"/>
+      <c r="C1" s="753" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="753"/>
-      <c r="E1" s="753"/>
-      <c r="F1" s="753"/>
-      <c r="G1" s="753"/>
-      <c r="H1" s="753"/>
-      <c r="I1" s="753"/>
-      <c r="J1" s="753"/>
-      <c r="K1" s="753"/>
-      <c r="L1" s="753"/>
-      <c r="M1" s="753"/>
+      <c r="D1" s="754"/>
+      <c r="E1" s="754"/>
+      <c r="F1" s="754"/>
+      <c r="G1" s="754"/>
+      <c r="H1" s="754"/>
+      <c r="I1" s="754"/>
+      <c r="J1" s="754"/>
+      <c r="K1" s="754"/>
+      <c r="L1" s="754"/>
+      <c r="M1" s="754"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="687"/>
+      <c r="B2" s="688"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -62212,24 +62342,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="691"/>
+      <c r="B3" s="691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="692"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="692" t="s">
+      <c r="H3" s="693" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="692"/>
+      <c r="I3" s="693"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="729" t="s">
+      <c r="P3" s="730" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="750" t="s">
+      <c r="R3" s="751" t="s">
         <v>216</v>
       </c>
     </row>
@@ -62244,14 +62374,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="693" t="s">
+      <c r="E4" s="694" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="694"/>
-      <c r="H4" s="695" t="s">
+      <c r="F4" s="695"/>
+      <c r="H4" s="696" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="696"/>
+      <c r="I4" s="697"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -62261,15 +62391,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="730"/>
+      <c r="P4" s="731"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="751"/>
-      <c r="W4" s="739" t="s">
+      <c r="R4" s="752"/>
+      <c r="W4" s="740" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="739"/>
+      <c r="X4" s="740"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62320,8 +62450,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="739"/>
-      <c r="X5" s="739"/>
+      <c r="W5" s="740"/>
+      <c r="X5" s="740"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63082,7 +63212,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="743">
+      <c r="W19" s="744">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -63134,7 +63264,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="744"/>
+      <c r="W20" s="745"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -63183,8 +63313,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="745"/>
-      <c r="X21" s="745"/>
+      <c r="W21" s="746"/>
+      <c r="X21" s="746"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -63283,8 +63413,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="746"/>
-      <c r="X23" s="746"/>
+      <c r="W23" s="747"/>
+      <c r="X23" s="747"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -63339,8 +63469,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="746"/>
-      <c r="X24" s="746"/>
+      <c r="W24" s="747"/>
+      <c r="X24" s="747"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -63388,8 +63518,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="747"/>
-      <c r="X25" s="747"/>
+      <c r="W25" s="748"/>
+      <c r="X25" s="748"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -63437,8 +63567,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="747"/>
-      <c r="X26" s="747"/>
+      <c r="W26" s="748"/>
+      <c r="X26" s="748"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -63486,9 +63616,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="740"/>
-      <c r="X27" s="741"/>
-      <c r="Y27" s="742"/>
+      <c r="W27" s="741"/>
+      <c r="X27" s="742"/>
+      <c r="Y27" s="743"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63536,9 +63666,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="741"/>
-      <c r="X28" s="741"/>
-      <c r="Y28" s="742"/>
+      <c r="W28" s="742"/>
+      <c r="X28" s="742"/>
+      <c r="Y28" s="743"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63879,11 +64009,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="731">
+      <c r="M36" s="732">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="733">
+      <c r="N36" s="734">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -63891,7 +64021,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="777">
+      <c r="Q36" s="778">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -63916,13 +64046,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="732"/>
-      <c r="N37" s="734"/>
+      <c r="M37" s="733"/>
+      <c r="N37" s="735"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="778"/>
+      <c r="Q37" s="779"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -63972,11 +64102,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="779">
+      <c r="M39" s="780">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="780"/>
+      <c r="N39" s="781"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -64224,26 +64354,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="708" t="s">
+      <c r="H52" s="709" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="709"/>
+      <c r="I52" s="710"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="710">
+      <c r="K52" s="711">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="737"/>
+      <c r="L52" s="738"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="714" t="s">
+      <c r="D53" s="715" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="714"/>
+      <c r="E53" s="715"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -64252,22 +64382,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="738" t="s">
+      <c r="D54" s="739" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="738"/>
+      <c r="E54" s="739"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="715" t="s">
+      <c r="I54" s="716" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="716"/>
-      <c r="K54" s="717">
+      <c r="J54" s="717"/>
+      <c r="K54" s="718">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="717"/>
+      <c r="L54" s="718"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -64308,11 +64438,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="719">
+      <c r="K56" s="720">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="720"/>
+      <c r="L56" s="721"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -64329,22 +64459,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="697" t="s">
+      <c r="D58" s="698" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="698"/>
+      <c r="E58" s="699"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="699" t="s">
+      <c r="I58" s="700" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="700"/>
-      <c r="K58" s="701">
+      <c r="J58" s="701"/>
+      <c r="K58" s="702">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="701"/>
+      <c r="L58" s="702"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="16" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1046">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3893,9 +3893,6 @@
     <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A      J U L I O            2 0 2 2</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t>ENCHILADA-QQUESO-CHORIZO</t>
   </si>
   <si>
@@ -3924,6 +3921,30 @@
   </si>
   <si>
     <t>zavaleta</t>
+  </si>
+  <si>
+    <t>LONGANIZA-POLLO-SALSAS-JAMON-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>QUESILLO,POLLO-JAMON-CHISTORRA-CHICHARRON</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-JAMONES-LONGANIZA</t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA--QUESO-POLLO-ENCHILADA-LONGANIZA</t>
+  </si>
+  <si>
+    <t>CHISTORRA-SALCHICHONERIA-POLLO-QUESO</t>
+  </si>
+  <si>
+    <t>LONGANIZA-POLLO-QUESOS-CREMA</t>
+  </si>
+  <si>
+    <t>NOMINA # 29</t>
+  </si>
+  <si>
+    <t>Nomina # 29</t>
   </si>
 </sst>
 </file>
@@ -7375,39 +7396,8 @@
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="73" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="73" fillId="14" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7480,10 +7470,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7527,39 +7583,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7753,15 +7776,6 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7776,6 +7790,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7795,8 +7818,6 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="73" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="73" fillId="14" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -12598,23 +12619,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="687"/>
-      <c r="C1" s="689" t="s">
+      <c r="B1" s="713"/>
+      <c r="C1" s="715" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="690"/>
-      <c r="E1" s="690"/>
-      <c r="F1" s="690"/>
-      <c r="G1" s="690"/>
-      <c r="H1" s="690"/>
-      <c r="I1" s="690"/>
-      <c r="J1" s="690"/>
-      <c r="K1" s="690"/>
-      <c r="L1" s="690"/>
-      <c r="M1" s="690"/>
+      <c r="D1" s="716"/>
+      <c r="E1" s="716"/>
+      <c r="F1" s="716"/>
+      <c r="G1" s="716"/>
+      <c r="H1" s="716"/>
+      <c r="I1" s="716"/>
+      <c r="J1" s="716"/>
+      <c r="K1" s="716"/>
+      <c r="L1" s="716"/>
+      <c r="M1" s="716"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="688"/>
+      <c r="B2" s="714"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12624,17 +12645,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="692"/>
+      <c r="B3" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="718"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="693" t="s">
+      <c r="H3" s="719" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="693"/>
+      <c r="I3" s="719"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -12648,14 +12669,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="694" t="s">
+      <c r="E4" s="720" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="695"/>
-      <c r="H4" s="696" t="s">
+      <c r="F4" s="721"/>
+      <c r="H4" s="722" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="697"/>
+      <c r="I4" s="723"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12665,10 +12686,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="703" t="s">
+      <c r="P4" s="694" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="704"/>
+      <c r="Q4" s="695"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -14109,11 +14130,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="705">
+      <c r="M39" s="696">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="707">
+      <c r="N39" s="698">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -14139,8 +14160,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="706"/>
-      <c r="N40" s="708"/>
+      <c r="M40" s="697"/>
+      <c r="N40" s="699"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -14355,29 +14376,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="709" t="s">
+      <c r="H52" s="700" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="710"/>
+      <c r="I52" s="701"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="711">
+      <c r="K52" s="702">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="712"/>
-      <c r="M52" s="713">
+      <c r="L52" s="703"/>
+      <c r="M52" s="704">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="714"/>
+      <c r="N52" s="705"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="715" t="s">
+      <c r="D53" s="706" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="715"/>
+      <c r="E53" s="706"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -14388,22 +14409,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="715" t="s">
+      <c r="D54" s="706" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="715"/>
+      <c r="E54" s="706"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="716" t="s">
+      <c r="I54" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="717"/>
-      <c r="K54" s="718">
+      <c r="J54" s="708"/>
+      <c r="K54" s="709">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="719"/>
+      <c r="L54" s="710"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -14436,11 +14457,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="720">
+      <c r="K56" s="711">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="721"/>
+      <c r="L56" s="712"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -14457,22 +14478,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="698" t="s">
+      <c r="D58" s="689" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="699"/>
+      <c r="E58" s="690"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="700" t="s">
+      <c r="I58" s="691" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="701"/>
-      <c r="K58" s="702">
+      <c r="J58" s="692"/>
+      <c r="K58" s="693">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="702"/>
+      <c r="L58" s="693"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -14616,6 +14637,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -14630,12 +14657,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17096,10 +17117,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="783" t="s">
+      <c r="I76" s="785" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="784"/>
+      <c r="J76" s="786"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -17118,8 +17139,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="785"/>
-      <c r="J77" s="786"/>
+      <c r="I77" s="787"/>
+      <c r="J77" s="788"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -17186,7 +17207,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="749" t="s">
+      <c r="F80" s="751" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -17201,7 +17222,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="750"/>
+      <c r="F81" s="752"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -17209,10 +17230,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="782" t="s">
+      <c r="B82" s="784" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="782"/>
+      <c r="C82" s="784"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -17494,23 +17515,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="687"/>
-      <c r="C1" s="753" t="s">
+      <c r="B1" s="713"/>
+      <c r="C1" s="755" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="754"/>
-      <c r="E1" s="754"/>
-      <c r="F1" s="754"/>
-      <c r="G1" s="754"/>
-      <c r="H1" s="754"/>
-      <c r="I1" s="754"/>
-      <c r="J1" s="754"/>
-      <c r="K1" s="754"/>
-      <c r="L1" s="754"/>
-      <c r="M1" s="754"/>
+      <c r="D1" s="756"/>
+      <c r="E1" s="756"/>
+      <c r="F1" s="756"/>
+      <c r="G1" s="756"/>
+      <c r="H1" s="756"/>
+      <c r="I1" s="756"/>
+      <c r="J1" s="756"/>
+      <c r="K1" s="756"/>
+      <c r="L1" s="756"/>
+      <c r="M1" s="756"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="688"/>
+      <c r="B2" s="714"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17520,24 +17541,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="692"/>
+      <c r="B3" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="718"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="693" t="s">
+      <c r="H3" s="719" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="693"/>
+      <c r="I3" s="719"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="730" t="s">
+      <c r="P3" s="743" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="751" t="s">
+      <c r="R3" s="753" t="s">
         <v>216</v>
       </c>
     </row>
@@ -17552,14 +17573,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="694" t="s">
+      <c r="E4" s="720" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="695"/>
-      <c r="H4" s="696" t="s">
+      <c r="F4" s="721"/>
+      <c r="H4" s="722" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="697"/>
+      <c r="I4" s="723"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -17569,15 +17590,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="731"/>
+      <c r="P4" s="744"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="752"/>
-      <c r="W4" s="740" t="s">
+      <c r="R4" s="754"/>
+      <c r="W4" s="726" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="740"/>
+      <c r="X4" s="726"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17628,8 +17649,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="740"/>
-      <c r="X5" s="740"/>
+      <c r="W5" s="726"/>
+      <c r="X5" s="726"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18392,7 +18413,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="744">
+      <c r="W19" s="730">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -18444,7 +18465,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="745"/>
+      <c r="W20" s="731"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -18493,8 +18514,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="746"/>
-      <c r="X21" s="746"/>
+      <c r="W21" s="732"/>
+      <c r="X21" s="732"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -18594,8 +18615,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="747"/>
-      <c r="X23" s="747"/>
+      <c r="W23" s="733"/>
+      <c r="X23" s="733"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -18650,8 +18671,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="747"/>
-      <c r="X24" s="747"/>
+      <c r="W24" s="733"/>
+      <c r="X24" s="733"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -18699,8 +18720,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="748"/>
-      <c r="X25" s="748"/>
+      <c r="W25" s="734"/>
+      <c r="X25" s="734"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -18749,8 +18770,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="748"/>
-      <c r="X26" s="748"/>
+      <c r="W26" s="734"/>
+      <c r="X26" s="734"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -18798,9 +18819,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="741"/>
-      <c r="X27" s="742"/>
-      <c r="Y27" s="743"/>
+      <c r="W27" s="727"/>
+      <c r="X27" s="728"/>
+      <c r="Y27" s="729"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18848,9 +18869,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="742"/>
-      <c r="X28" s="742"/>
-      <c r="Y28" s="743"/>
+      <c r="W28" s="728"/>
+      <c r="X28" s="728"/>
+      <c r="Y28" s="729"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19182,11 +19203,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="732">
+      <c r="M36" s="745">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="734">
+      <c r="N36" s="747">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -19194,7 +19215,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="778">
+      <c r="Q36" s="780">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -19219,13 +19240,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="733"/>
-      <c r="N37" s="735"/>
+      <c r="M37" s="746"/>
+      <c r="N37" s="748"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="779"/>
+      <c r="Q37" s="781"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -19275,11 +19296,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="780">
+      <c r="M39" s="782">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="781"/>
+      <c r="N39" s="783"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -19907,26 +19928,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="709" t="s">
+      <c r="H68" s="700" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="710"/>
+      <c r="I68" s="701"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="711">
+      <c r="K68" s="702">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="738"/>
+      <c r="L68" s="735"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="715" t="s">
+      <c r="D69" s="706" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="715"/>
+      <c r="E69" s="706"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19935,22 +19956,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="739" t="s">
+      <c r="D70" s="736" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="739"/>
+      <c r="E70" s="736"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="716" t="s">
+      <c r="I70" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="717"/>
-      <c r="K70" s="718">
+      <c r="J70" s="708"/>
+      <c r="K70" s="709">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="718"/>
+      <c r="L70" s="709"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19991,11 +20012,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="720">
+      <c r="K72" s="711">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="721"/>
+      <c r="L72" s="712"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -20012,22 +20033,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="698" t="s">
+      <c r="D74" s="689" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="699"/>
+      <c r="E74" s="690"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="700" t="s">
+      <c r="I74" s="691" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="701"/>
-      <c r="K74" s="702">
+      <c r="J74" s="692"/>
+      <c r="K74" s="693">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="702"/>
+      <c r="L74" s="693"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -20174,6 +20195,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -20189,21 +20225,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22471,7 +22492,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="749" t="s">
+      <c r="F80" s="751" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -22484,7 +22505,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="750"/>
+      <c r="F81" s="752"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -22504,10 +22525,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="787" t="s">
+      <c r="I83" s="789" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="788"/>
+      <c r="J83" s="790"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -22516,8 +22537,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="789"/>
-      <c r="J84" s="790"/>
+      <c r="I84" s="791"/>
+      <c r="J84" s="792"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -22789,23 +22810,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="687"/>
-      <c r="C1" s="753" t="s">
+      <c r="B1" s="713"/>
+      <c r="C1" s="755" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="754"/>
-      <c r="E1" s="754"/>
-      <c r="F1" s="754"/>
-      <c r="G1" s="754"/>
-      <c r="H1" s="754"/>
-      <c r="I1" s="754"/>
-      <c r="J1" s="754"/>
-      <c r="K1" s="754"/>
-      <c r="L1" s="754"/>
-      <c r="M1" s="754"/>
+      <c r="D1" s="756"/>
+      <c r="E1" s="756"/>
+      <c r="F1" s="756"/>
+      <c r="G1" s="756"/>
+      <c r="H1" s="756"/>
+      <c r="I1" s="756"/>
+      <c r="J1" s="756"/>
+      <c r="K1" s="756"/>
+      <c r="L1" s="756"/>
+      <c r="M1" s="756"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="688"/>
+      <c r="B2" s="714"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22815,24 +22836,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="692"/>
+      <c r="B3" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="718"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="693" t="s">
+      <c r="H3" s="719" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="693"/>
+      <c r="I3" s="719"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="730" t="s">
+      <c r="P3" s="743" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="751" t="s">
+      <c r="R3" s="753" t="s">
         <v>216</v>
       </c>
     </row>
@@ -22847,14 +22868,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="694" t="s">
+      <c r="E4" s="720" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="695"/>
-      <c r="H4" s="696" t="s">
+      <c r="F4" s="721"/>
+      <c r="H4" s="722" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="697"/>
+      <c r="I4" s="723"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22864,15 +22885,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="731"/>
+      <c r="P4" s="744"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="752"/>
-      <c r="W4" s="740" t="s">
+      <c r="R4" s="754"/>
+      <c r="W4" s="726" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="740"/>
+      <c r="X4" s="726"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22923,8 +22944,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="740"/>
-      <c r="X5" s="740"/>
+      <c r="W5" s="726"/>
+      <c r="X5" s="726"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23683,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="744">
+      <c r="W19" s="730">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -23735,7 +23756,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="745"/>
+      <c r="W20" s="731"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -23784,8 +23805,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="746"/>
-      <c r="X21" s="746"/>
+      <c r="W21" s="732"/>
+      <c r="X21" s="732"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23882,8 +23903,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="747"/>
-      <c r="X23" s="747"/>
+      <c r="W23" s="733"/>
+      <c r="X23" s="733"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23938,8 +23959,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="747"/>
-      <c r="X24" s="747"/>
+      <c r="W24" s="733"/>
+      <c r="X24" s="733"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23985,8 +24006,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="748"/>
-      <c r="X25" s="748"/>
+      <c r="W25" s="734"/>
+      <c r="X25" s="734"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -24037,8 +24058,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="748"/>
-      <c r="X26" s="748"/>
+      <c r="W26" s="734"/>
+      <c r="X26" s="734"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -24089,9 +24110,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="741"/>
-      <c r="X27" s="742"/>
-      <c r="Y27" s="743"/>
+      <c r="W27" s="727"/>
+      <c r="X27" s="728"/>
+      <c r="Y27" s="729"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24141,9 +24162,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="742"/>
-      <c r="X28" s="742"/>
-      <c r="Y28" s="743"/>
+      <c r="W28" s="728"/>
+      <c r="X28" s="728"/>
+      <c r="Y28" s="729"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24747,11 +24768,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="732">
+      <c r="M41" s="745">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="732">
+      <c r="N41" s="745">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -24759,7 +24780,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="791">
+      <c r="Q41" s="793">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -24789,10 +24810,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="733"/>
-      <c r="N42" s="733"/>
+      <c r="M42" s="746"/>
+      <c r="N42" s="746"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="792"/>
+      <c r="Q42" s="794"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -24880,11 +24901,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="793">
+      <c r="M45" s="795">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="794"/>
+      <c r="N45" s="796"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -25477,26 +25498,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="709" t="s">
+      <c r="H70" s="700" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="710"/>
+      <c r="I70" s="701"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="711">
+      <c r="K70" s="702">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="738"/>
+      <c r="L70" s="735"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="715" t="s">
+      <c r="D71" s="706" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="715"/>
+      <c r="E71" s="706"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -25506,22 +25527,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="739" t="s">
+      <c r="D72" s="736" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="739"/>
+      <c r="E72" s="736"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="716" t="s">
+      <c r="I72" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="717"/>
-      <c r="K72" s="718">
+      <c r="J72" s="708"/>
+      <c r="K72" s="709">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="718"/>
+      <c r="L72" s="709"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -25562,11 +25583,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="720">
+      <c r="K74" s="711">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="721"/>
+      <c r="L74" s="712"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25585,22 +25606,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="698" t="s">
+      <c r="D76" s="689" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="699"/>
+      <c r="E76" s="690"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="700" t="s">
+      <c r="I76" s="691" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="701"/>
-      <c r="K76" s="702">
+      <c r="J76" s="692"/>
+      <c r="K76" s="693">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="702"/>
+      <c r="L76" s="693"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -25760,6 +25781,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -25775,21 +25811,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28305,7 +28326,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="749" t="s">
+      <c r="F90" s="751" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -28318,7 +28339,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="750"/>
+      <c r="F91" s="752"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -28337,10 +28358,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="787" t="s">
+      <c r="I93" s="789" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="788"/>
+      <c r="J93" s="790"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -28350,8 +28371,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="789"/>
-      <c r="J94" s="790"/>
+      <c r="I94" s="791"/>
+      <c r="J94" s="792"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -28792,11 +28813,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="795">
+      <c r="C130" s="797">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="796"/>
+      <c r="D130" s="798"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -28832,21 +28853,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="801" t="s">
+      <c r="F2" s="803" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="802"/>
-      <c r="H2" s="803"/>
+      <c r="G2" s="804"/>
+      <c r="H2" s="805"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="798" t="s">
+      <c r="B3" s="800" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="799"/>
-      <c r="D3" s="800"/>
-      <c r="F3" s="804"/>
-      <c r="G3" s="805"/>
-      <c r="H3" s="806"/>
+      <c r="C3" s="801"/>
+      <c r="D3" s="802"/>
+      <c r="F3" s="806"/>
+      <c r="G3" s="807"/>
+      <c r="H3" s="808"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -28991,11 +29012,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="807">
+      <c r="G11" s="809">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="808"/>
+      <c r="H11" s="810"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -29012,23 +29033,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="811" t="s">
+      <c r="C15" s="813" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="809">
+      <c r="D15" s="811">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="812"/>
-      <c r="D16" s="810"/>
+      <c r="C16" s="814"/>
+      <c r="D16" s="812"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="797" t="s">
+      <c r="C17" s="799" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="797"/>
+      <c r="D17" s="799"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -29086,23 +29107,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="687"/>
-      <c r="C1" s="753" t="s">
+      <c r="B1" s="713"/>
+      <c r="C1" s="755" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="754"/>
-      <c r="E1" s="754"/>
-      <c r="F1" s="754"/>
-      <c r="G1" s="754"/>
-      <c r="H1" s="754"/>
-      <c r="I1" s="754"/>
-      <c r="J1" s="754"/>
-      <c r="K1" s="754"/>
-      <c r="L1" s="754"/>
-      <c r="M1" s="754"/>
+      <c r="D1" s="756"/>
+      <c r="E1" s="756"/>
+      <c r="F1" s="756"/>
+      <c r="G1" s="756"/>
+      <c r="H1" s="756"/>
+      <c r="I1" s="756"/>
+      <c r="J1" s="756"/>
+      <c r="K1" s="756"/>
+      <c r="L1" s="756"/>
+      <c r="M1" s="756"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="688"/>
+      <c r="B2" s="714"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29112,24 +29133,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="692"/>
+      <c r="B3" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="718"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="693" t="s">
+      <c r="H3" s="719" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="693"/>
+      <c r="I3" s="719"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="730" t="s">
+      <c r="P3" s="743" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="751" t="s">
+      <c r="R3" s="753" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -29148,14 +29169,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="694" t="s">
+      <c r="E4" s="720" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="695"/>
-      <c r="H4" s="696" t="s">
+      <c r="F4" s="721"/>
+      <c r="H4" s="722" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="697"/>
+      <c r="I4" s="723"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -29165,15 +29186,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="731"/>
+      <c r="P4" s="744"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="752"/>
+      <c r="R4" s="754"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="813"/>
-      <c r="X4" s="813"/>
+      <c r="W4" s="821"/>
+      <c r="X4" s="821"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29227,8 +29248,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="813"/>
-      <c r="X5" s="813"/>
+      <c r="W5" s="821"/>
+      <c r="X5" s="821"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29994,7 +30015,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="814"/>
+      <c r="W19" s="822"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -30048,7 +30069,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="814"/>
+      <c r="W20" s="822"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30103,8 +30124,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="746"/>
-      <c r="X21" s="746"/>
+      <c r="W21" s="732"/>
+      <c r="X21" s="732"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30215,8 +30236,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="747"/>
-      <c r="X23" s="747"/>
+      <c r="W23" s="733"/>
+      <c r="X23" s="733"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30277,8 +30298,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="747"/>
-      <c r="X24" s="747"/>
+      <c r="W24" s="733"/>
+      <c r="X24" s="733"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30331,8 +30352,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="748"/>
-      <c r="X25" s="748"/>
+      <c r="W25" s="734"/>
+      <c r="X25" s="734"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30387,8 +30408,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="748"/>
-      <c r="X26" s="748"/>
+      <c r="W26" s="734"/>
+      <c r="X26" s="734"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30443,9 +30464,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="741"/>
-      <c r="X27" s="742"/>
-      <c r="Y27" s="743"/>
+      <c r="W27" s="727"/>
+      <c r="X27" s="728"/>
+      <c r="Y27" s="729"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30499,9 +30520,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="742"/>
-      <c r="X28" s="742"/>
-      <c r="Y28" s="743"/>
+      <c r="W28" s="728"/>
+      <c r="X28" s="728"/>
+      <c r="Y28" s="729"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31092,11 +31113,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="732">
+      <c r="M41" s="745">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="732">
+      <c r="N41" s="745">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -31104,7 +31125,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="791">
+      <c r="Q41" s="793">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -31128,10 +31149,10 @@
       <c r="L42" s="640">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="733"/>
-      <c r="N42" s="733"/>
+      <c r="M42" s="746"/>
+      <c r="N42" s="746"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="792"/>
+      <c r="Q42" s="794"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -31200,11 +31221,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="793">
+      <c r="M45" s="795">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="794"/>
+      <c r="N45" s="796"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -31620,26 +31641,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="709" t="s">
+      <c r="H63" s="700" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="710"/>
+      <c r="I63" s="701"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="819">
+      <c r="K63" s="818">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="820"/>
+      <c r="L63" s="819"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="715" t="s">
+      <c r="D64" s="706" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="715"/>
+      <c r="E64" s="706"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -31648,22 +31669,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="739" t="s">
+      <c r="D65" s="736" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="739"/>
+      <c r="E65" s="736"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="716" t="s">
+      <c r="I65" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="717"/>
-      <c r="K65" s="718">
+      <c r="J65" s="708"/>
+      <c r="K65" s="709">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="718"/>
+      <c r="L65" s="709"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -31704,11 +31725,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="815">
+      <c r="K67" s="820">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="718"/>
+      <c r="L67" s="709"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -31725,22 +31746,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="698" t="s">
+      <c r="D69" s="689" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="699"/>
+      <c r="E69" s="690"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="816" t="s">
+      <c r="I69" s="815" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="817"/>
-      <c r="K69" s="818">
+      <c r="J69" s="816"/>
+      <c r="K69" s="817">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="818"/>
+      <c r="L69" s="817"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -31887,21 +31908,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -31917,6 +31923,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32529,10 +32550,10 @@
       <c r="C17" s="111">
         <v>49325.599999999999</v>
       </c>
-      <c r="D17" s="827">
+      <c r="D17" s="687">
         <v>44760</v>
       </c>
-      <c r="E17" s="828">
+      <c r="E17" s="688">
         <v>49325.599999999999</v>
       </c>
       <c r="F17" s="547">
@@ -32565,10 +32586,10 @@
       <c r="C18" s="111">
         <v>3087.2</v>
       </c>
-      <c r="D18" s="827">
+      <c r="D18" s="687">
         <v>44760</v>
       </c>
-      <c r="E18" s="828">
+      <c r="E18" s="688">
         <v>3087.2</v>
       </c>
       <c r="F18" s="547">
@@ -32601,10 +32622,10 @@
       <c r="C19" s="111">
         <v>1128</v>
       </c>
-      <c r="D19" s="827">
+      <c r="D19" s="687">
         <v>44760</v>
       </c>
-      <c r="E19" s="828">
+      <c r="E19" s="688">
         <v>1128</v>
       </c>
       <c r="F19" s="547">
@@ -32637,10 +32658,10 @@
       <c r="C20" s="111">
         <v>73300.850000000006</v>
       </c>
-      <c r="D20" s="827">
+      <c r="D20" s="687">
         <v>44760</v>
       </c>
-      <c r="E20" s="828">
+      <c r="E20" s="688">
         <v>73300.850000000006</v>
       </c>
       <c r="F20" s="547">
@@ -32673,10 +32694,10 @@
       <c r="C21" s="111">
         <v>77730.7</v>
       </c>
-      <c r="D21" s="827">
+      <c r="D21" s="687">
         <v>44760</v>
       </c>
-      <c r="E21" s="828">
+      <c r="E21" s="688">
         <v>77730.7</v>
       </c>
       <c r="F21" s="547">
@@ -32709,10 +32730,10 @@
       <c r="C22" s="111">
         <v>13778.94</v>
       </c>
-      <c r="D22" s="827">
+      <c r="D22" s="687">
         <v>44760</v>
       </c>
-      <c r="E22" s="828">
+      <c r="E22" s="688">
         <v>13778.94</v>
       </c>
       <c r="F22" s="547">
@@ -32746,10 +32767,10 @@
       <c r="C23" s="111">
         <v>768</v>
       </c>
-      <c r="D23" s="827">
+      <c r="D23" s="687">
         <v>44760</v>
       </c>
-      <c r="E23" s="828">
+      <c r="E23" s="688">
         <v>768</v>
       </c>
       <c r="F23" s="547">
@@ -32782,10 +32803,10 @@
       <c r="C24" s="111">
         <v>85663.7</v>
       </c>
-      <c r="D24" s="827">
+      <c r="D24" s="687">
         <v>44760</v>
       </c>
-      <c r="E24" s="828">
+      <c r="E24" s="688">
         <v>85663.7</v>
       </c>
       <c r="F24" s="547">
@@ -33058,10 +33079,10 @@
       <c r="C31" s="111">
         <v>2520</v>
       </c>
-      <c r="D31" s="827">
+      <c r="D31" s="687">
         <v>44760</v>
       </c>
-      <c r="E31" s="828">
+      <c r="E31" s="688">
         <v>2520</v>
       </c>
       <c r="F31" s="547">
@@ -33094,10 +33115,10 @@
       <c r="C32" s="111">
         <v>8158.8</v>
       </c>
-      <c r="D32" s="827">
+      <c r="D32" s="687">
         <v>44760</v>
       </c>
-      <c r="E32" s="828">
+      <c r="E32" s="688">
         <v>8158.8</v>
       </c>
       <c r="F32" s="547">
@@ -33130,10 +33151,10 @@
       <c r="C33" s="111">
         <v>9299</v>
       </c>
-      <c r="D33" s="827">
+      <c r="D33" s="687">
         <v>44760</v>
       </c>
-      <c r="E33" s="828">
+      <c r="E33" s="688">
         <v>9299</v>
       </c>
       <c r="F33" s="547">
@@ -33166,10 +33187,10 @@
       <c r="C34" s="111">
         <v>10924.4</v>
       </c>
-      <c r="D34" s="827">
+      <c r="D34" s="687">
         <v>44760</v>
       </c>
-      <c r="E34" s="828">
+      <c r="E34" s="688">
         <v>10924.4</v>
       </c>
       <c r="F34" s="547">
@@ -33202,10 +33223,10 @@
       <c r="C35" s="111">
         <v>48105.599999999999</v>
       </c>
-      <c r="D35" s="827">
+      <c r="D35" s="687">
         <v>44760</v>
       </c>
-      <c r="E35" s="828">
+      <c r="E35" s="688">
         <v>48105.599999999999</v>
       </c>
       <c r="F35" s="547">
@@ -33232,10 +33253,10 @@
       <c r="C36" s="111">
         <v>8408.4</v>
       </c>
-      <c r="D36" s="827">
+      <c r="D36" s="687">
         <v>44760</v>
       </c>
-      <c r="E36" s="828">
+      <c r="E36" s="688">
         <v>8408.4</v>
       </c>
       <c r="F36" s="547">
@@ -33946,7 +33967,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="749" t="s">
+      <c r="F71" s="751" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -33959,7 +33980,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="750"/>
+      <c r="F72" s="752"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -33978,10 +33999,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="787" t="s">
+      <c r="I74" s="789" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="788"/>
+      <c r="J74" s="790"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -33990,8 +34011,8 @@
       <c r="D75" s="654"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="789"/>
-      <c r="J75" s="790"/>
+      <c r="I75" s="791"/>
+      <c r="J75" s="792"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -34125,11 +34146,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="823" t="s">
+      <c r="A89" s="825" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="824"/>
-      <c r="C89" s="824"/>
+      <c r="B89" s="826"/>
+      <c r="C89" s="826"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -34139,10 +34160,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="825" t="s">
+      <c r="B90" s="827" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="826"/>
+      <c r="C90" s="828"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -34243,7 +34264,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="662"/>
-      <c r="C97" s="821">
+      <c r="C97" s="823">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -34257,7 +34278,7 @@
       <c r="B98" s="663" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="822"/>
+      <c r="C98" s="824"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -34357,23 +34378,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="687"/>
-      <c r="C1" s="753" t="s">
+      <c r="B1" s="713"/>
+      <c r="C1" s="755" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="754"/>
-      <c r="E1" s="754"/>
-      <c r="F1" s="754"/>
-      <c r="G1" s="754"/>
-      <c r="H1" s="754"/>
-      <c r="I1" s="754"/>
-      <c r="J1" s="754"/>
-      <c r="K1" s="754"/>
-      <c r="L1" s="754"/>
-      <c r="M1" s="754"/>
+      <c r="D1" s="756"/>
+      <c r="E1" s="756"/>
+      <c r="F1" s="756"/>
+      <c r="G1" s="756"/>
+      <c r="H1" s="756"/>
+      <c r="I1" s="756"/>
+      <c r="J1" s="756"/>
+      <c r="K1" s="756"/>
+      <c r="L1" s="756"/>
+      <c r="M1" s="756"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="688"/>
+      <c r="B2" s="714"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34383,24 +34404,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="692"/>
+      <c r="B3" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="718"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="693" t="s">
+      <c r="H3" s="719" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="693"/>
+      <c r="I3" s="719"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="730" t="s">
+      <c r="P3" s="743" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="751" t="s">
+      <c r="R3" s="753" t="s">
         <v>216</v>
       </c>
     </row>
@@ -34415,14 +34436,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="694" t="s">
+      <c r="E4" s="720" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="695"/>
-      <c r="H4" s="696" t="s">
+      <c r="F4" s="721"/>
+      <c r="H4" s="722" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="697"/>
+      <c r="I4" s="723"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -34432,11 +34453,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="731"/>
+      <c r="P4" s="744"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="752"/>
+      <c r="R4" s="754"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -36204,11 +36225,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="732">
+      <c r="M41" s="745">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="732">
+      <c r="N41" s="745">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -36216,7 +36237,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="791">
+      <c r="Q41" s="793">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -36246,10 +36267,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="733"/>
-      <c r="N42" s="733"/>
+      <c r="M42" s="746"/>
+      <c r="N42" s="746"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="792"/>
+      <c r="Q42" s="794"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -36336,11 +36357,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="793">
+      <c r="M45" s="795">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="794"/>
+      <c r="N45" s="796"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -36930,26 +36951,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="709" t="s">
+      <c r="H69" s="700" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="710"/>
+      <c r="I69" s="701"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="819">
+      <c r="K69" s="818">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="820"/>
+      <c r="L69" s="819"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="715" t="s">
+      <c r="D70" s="706" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="715"/>
+      <c r="E70" s="706"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1683028.8699999999</v>
@@ -36958,22 +36979,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="739" t="s">
+      <c r="D71" s="736" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="739"/>
+      <c r="E71" s="736"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="716" t="s">
+      <c r="I71" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="717"/>
-      <c r="K71" s="718">
+      <c r="J71" s="708"/>
+      <c r="K71" s="709">
         <f>F73+F74+F75</f>
         <v>2167293.46</v>
       </c>
-      <c r="L71" s="718"/>
+      <c r="L71" s="709"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -37014,11 +37035,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="815">
+      <c r="K73" s="820">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="718"/>
+      <c r="L73" s="709"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -37035,22 +37056,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="698" t="s">
+      <c r="D75" s="689" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="699"/>
+      <c r="E75" s="690"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="700" t="s">
+      <c r="I75" s="691" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="701"/>
-      <c r="K75" s="702">
+      <c r="J75" s="692"/>
+      <c r="K75" s="693">
         <f>K71+K73</f>
         <v>-379688.70000000019</v>
       </c>
-      <c r="L75" s="702"/>
+      <c r="L75" s="693"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -37197,6 +37218,17 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -37208,17 +37240,6 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37234,7 +37255,7 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -37325,10 +37346,10 @@
       <c r="C3" s="111">
         <v>66303.14</v>
       </c>
-      <c r="D3" s="827">
+      <c r="D3" s="687">
         <v>44760</v>
       </c>
-      <c r="E3" s="828">
+      <c r="E3" s="688">
         <v>66303.14</v>
       </c>
       <c r="F3" s="410">
@@ -37361,10 +37382,10 @@
       <c r="C4" s="111">
         <v>111611.08</v>
       </c>
-      <c r="D4" s="827">
+      <c r="D4" s="687">
         <v>44760</v>
       </c>
-      <c r="E4" s="828">
+      <c r="E4" s="688">
         <v>111611.08</v>
       </c>
       <c r="F4" s="547">
@@ -37398,10 +37419,10 @@
       <c r="C5" s="111">
         <v>5816.4</v>
       </c>
-      <c r="D5" s="827">
+      <c r="D5" s="687">
         <v>44760</v>
       </c>
-      <c r="E5" s="828">
+      <c r="E5" s="688">
         <v>5816.4</v>
       </c>
       <c r="F5" s="547">
@@ -37434,10 +37455,10 @@
       <c r="C6" s="111">
         <v>308.72000000000003</v>
       </c>
-      <c r="D6" s="827">
+      <c r="D6" s="687">
         <v>44760</v>
       </c>
-      <c r="E6" s="828">
+      <c r="E6" s="688">
         <v>308.72000000000003</v>
       </c>
       <c r="F6" s="547">
@@ -37470,10 +37491,10 @@
       <c r="C7" s="111">
         <v>8698.7000000000007</v>
       </c>
-      <c r="D7" s="827">
+      <c r="D7" s="687">
         <v>44760</v>
       </c>
-      <c r="E7" s="828">
+      <c r="E7" s="688">
         <v>8698.7000000000007</v>
       </c>
       <c r="F7" s="547">
@@ -37506,10 +37527,10 @@
       <c r="C8" s="111">
         <v>32020.98</v>
       </c>
-      <c r="D8" s="827">
+      <c r="D8" s="687">
         <v>44760</v>
       </c>
-      <c r="E8" s="828">
+      <c r="E8" s="688">
         <v>32020.98</v>
       </c>
       <c r="F8" s="547">
@@ -37542,10 +37563,10 @@
       <c r="C9" s="111">
         <v>61048.800000000003</v>
       </c>
-      <c r="D9" s="827">
+      <c r="D9" s="687">
         <v>44760</v>
       </c>
-      <c r="E9" s="828">
+      <c r="E9" s="688">
         <v>61048.800000000003</v>
       </c>
       <c r="F9" s="547">
@@ -37578,10 +37599,10 @@
       <c r="C10" s="111">
         <v>100170.2</v>
       </c>
-      <c r="D10" s="827">
+      <c r="D10" s="687">
         <v>44760</v>
       </c>
-      <c r="E10" s="828">
+      <c r="E10" s="688">
         <v>100170.2</v>
       </c>
       <c r="F10" s="547">
@@ -37615,10 +37636,10 @@
       <c r="C11" s="111">
         <v>49503.49</v>
       </c>
-      <c r="D11" s="827">
+      <c r="D11" s="687">
         <v>44760</v>
       </c>
-      <c r="E11" s="828">
+      <c r="E11" s="688">
         <v>49503.49</v>
       </c>
       <c r="F11" s="547">
@@ -37651,10 +37672,10 @@
       <c r="C12" s="111">
         <v>47878.06</v>
       </c>
-      <c r="D12" s="827">
+      <c r="D12" s="687">
         <v>44760</v>
       </c>
-      <c r="E12" s="828">
+      <c r="E12" s="688">
         <v>47878.06</v>
       </c>
       <c r="F12" s="547">
@@ -37687,10 +37708,10 @@
       <c r="C13" s="111">
         <v>15201.66</v>
       </c>
-      <c r="D13" s="827">
+      <c r="D13" s="687">
         <v>44760</v>
       </c>
-      <c r="E13" s="828">
+      <c r="E13" s="688">
         <v>15201.66</v>
       </c>
       <c r="F13" s="547">
@@ -37723,10 +37744,10 @@
       <c r="C14" s="111">
         <v>1710</v>
       </c>
-      <c r="D14" s="827">
+      <c r="D14" s="687">
         <v>44760</v>
       </c>
-      <c r="E14" s="828">
+      <c r="E14" s="688">
         <v>1710</v>
       </c>
       <c r="F14" s="547">
@@ -37759,10 +37780,10 @@
       <c r="C15" s="111">
         <v>45293.1</v>
       </c>
-      <c r="D15" s="827">
+      <c r="D15" s="687">
         <v>44760</v>
       </c>
-      <c r="E15" s="828">
+      <c r="E15" s="688">
         <v>45293.1</v>
       </c>
       <c r="F15" s="547">
@@ -37795,10 +37816,10 @@
       <c r="C16" s="111">
         <v>45940.800000000003</v>
       </c>
-      <c r="D16" s="827">
+      <c r="D16" s="687">
         <v>44760</v>
       </c>
-      <c r="E16" s="828">
+      <c r="E16" s="688">
         <v>45940.800000000003</v>
       </c>
       <c r="F16" s="547">
@@ -37831,10 +37852,10 @@
       <c r="C17" s="111">
         <v>69162.899999999994</v>
       </c>
-      <c r="D17" s="827">
+      <c r="D17" s="687">
         <v>44760</v>
       </c>
-      <c r="E17" s="828">
+      <c r="E17" s="688">
         <v>69162.899999999994</v>
       </c>
       <c r="F17" s="547">
@@ -37867,10 +37888,10 @@
       <c r="C18" s="111">
         <v>157826.47</v>
       </c>
-      <c r="D18" s="827">
+      <c r="D18" s="687">
         <v>44760</v>
       </c>
-      <c r="E18" s="828">
+      <c r="E18" s="688">
         <v>157826.47</v>
       </c>
       <c r="F18" s="547">
@@ -39143,10 +39164,10 @@
         <f>SUM(F3:F66)</f>
         <v>1303900.4000000001</v>
       </c>
-      <c r="H67" s="787" t="s">
+      <c r="H67" s="789" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="788"/>
+      <c r="I67" s="790"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -39166,11 +39187,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="749" t="s">
+      <c r="F68" s="751" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="789"/>
-      <c r="I68" s="790"/>
+      <c r="H68" s="791"/>
+      <c r="I68" s="792"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -39181,7 +39202,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="750"/>
+      <c r="F69" s="752"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -41121,7 +41142,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="722" t="s">
+      <c r="B41" s="724" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -41153,7 +41174,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="723"/>
+      <c r="B42" s="725"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -42720,8 +42741,8 @@
   </sheetPr>
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -42747,23 +42768,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="687"/>
-      <c r="C1" s="753" t="s">
+      <c r="B1" s="713"/>
+      <c r="C1" s="755" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="754"/>
-      <c r="E1" s="754"/>
-      <c r="F1" s="754"/>
-      <c r="G1" s="754"/>
-      <c r="H1" s="754"/>
-      <c r="I1" s="754"/>
-      <c r="J1" s="754"/>
-      <c r="K1" s="754"/>
-      <c r="L1" s="754"/>
-      <c r="M1" s="754"/>
+      <c r="D1" s="756"/>
+      <c r="E1" s="756"/>
+      <c r="F1" s="756"/>
+      <c r="G1" s="756"/>
+      <c r="H1" s="756"/>
+      <c r="I1" s="756"/>
+      <c r="J1" s="756"/>
+      <c r="K1" s="756"/>
+      <c r="L1" s="756"/>
+      <c r="M1" s="756"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="688"/>
+      <c r="B2" s="714"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42773,24 +42794,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="692"/>
+      <c r="B3" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="718"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="693" t="s">
+      <c r="H3" s="719" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="693"/>
+      <c r="I3" s="719"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="730" t="s">
+      <c r="P3" s="743" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="751" t="s">
+      <c r="R3" s="753" t="s">
         <v>216</v>
       </c>
     </row>
@@ -42805,14 +42826,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="694" t="s">
+      <c r="E4" s="720" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="695"/>
-      <c r="H4" s="696" t="s">
+      <c r="F4" s="721"/>
+      <c r="H4" s="722" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="697"/>
+      <c r="I4" s="723"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -42822,11 +42843,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="731"/>
+      <c r="P4" s="744"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="752"/>
+      <c r="R4" s="754"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -42839,7 +42860,7 @@
         <v>13812</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E5" s="27">
         <v>44746</v>
@@ -42864,7 +42885,7 @@
         <v>40005</v>
       </c>
       <c r="O5" s="686" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
@@ -42887,7 +42908,7 @@
         <v>45897</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E6" s="27">
         <v>44747</v>
@@ -42935,7 +42956,7 @@
         <v>19195</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E7" s="27">
         <v>44748</v>
@@ -42982,7 +43003,7 @@
         <v>16605</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E8" s="27">
         <v>44749</v>
@@ -43029,7 +43050,7 @@
         <v>45512</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E9" s="27">
         <v>44750</v>
@@ -43076,7 +43097,7 @@
         <v>6587</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E10" s="27">
         <v>44751</v>
@@ -43095,7 +43116,7 @@
         <v>44751</v>
       </c>
       <c r="K10" s="167" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L10" s="45">
         <v>18134</v>
@@ -43131,7 +43152,7 @@
         <v>16855</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E11" s="27">
         <v>44752</v>
@@ -43175,30 +43196,41 @@
       <c r="B12" s="24">
         <v>44753</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="25">
+        <v>18901</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>1038</v>
+      </c>
       <c r="E12" s="27">
         <v>44753</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="28">
+        <v>98705</v>
+      </c>
       <c r="G12" s="575"/>
       <c r="H12" s="29">
         <v>44753</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="30">
+        <v>1170</v>
+      </c>
       <c r="J12" s="37"/>
       <c r="K12" s="169"/>
       <c r="L12" s="39"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <f>42175</f>
+        <v>42175</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
-      </c>
-      <c r="O12" s="664"/>
+        <v>36459</v>
+      </c>
+      <c r="O12" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P12" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98705</v>
       </c>
       <c r="Q12" s="325">
         <f t="shared" si="0"/>
@@ -43213,30 +43245,41 @@
       <c r="B13" s="24">
         <v>44754</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="25">
+        <v>14752</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>1039</v>
+      </c>
       <c r="E13" s="27">
         <v>44754</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>94269</v>
+      </c>
       <c r="G13" s="575"/>
       <c r="H13" s="29">
         <v>44754</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="30">
+        <v>3628</v>
+      </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <f>34935+1550</f>
+        <v>36485</v>
       </c>
       <c r="N13" s="33">
-        <v>0</v>
-      </c>
-      <c r="O13" s="664"/>
+        <v>39404</v>
+      </c>
+      <c r="O13" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P13" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94269</v>
       </c>
       <c r="Q13" s="325">
         <f t="shared" si="0"/>
@@ -43251,32 +43294,40 @@
       <c r="B14" s="24">
         <v>44755</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="25">
+        <v>9603</v>
+      </c>
       <c r="D14" s="40" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="E14" s="27">
         <v>44755</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>95496</v>
+      </c>
       <c r="G14" s="575"/>
       <c r="H14" s="29">
         <v>44755</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="30">
+        <v>1390</v>
+      </c>
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <v>40724</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="O14" s="685"/>
+        <v>43779</v>
+      </c>
+      <c r="O14" s="685" t="s">
+        <v>766</v>
+      </c>
       <c r="P14" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>95496</v>
       </c>
       <c r="Q14" s="325">
         <f t="shared" si="0"/>
@@ -43291,30 +43342,40 @@
       <c r="B15" s="24">
         <v>44756</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="25">
+        <v>17228</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>1041</v>
+      </c>
       <c r="E15" s="27">
         <v>44756</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>91015</v>
+      </c>
       <c r="G15" s="575"/>
       <c r="H15" s="29">
         <v>44756</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="30">
+        <v>2244</v>
+      </c>
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="L15" s="39"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <v>49006</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
-      </c>
-      <c r="O15" s="664"/>
+        <v>22537</v>
+      </c>
+      <c r="O15" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P15" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>91015</v>
       </c>
       <c r="Q15" s="325">
         <f t="shared" si="0"/>
@@ -43329,30 +43390,41 @@
       <c r="B16" s="24">
         <v>44757</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="25">
+        <v>11698.5</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>1042</v>
+      </c>
       <c r="E16" s="27">
         <v>44757</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>128377</v>
+      </c>
       <c r="G16" s="575"/>
       <c r="H16" s="29">
         <v>44757</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>1863</v>
+      </c>
       <c r="J16" s="37"/>
       <c r="K16" s="169"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <f>61056+936.5</f>
+        <v>61992.5</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
-      </c>
-      <c r="O16" s="664"/>
+        <v>52823</v>
+      </c>
+      <c r="O16" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P16" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128377</v>
       </c>
       <c r="Q16" s="325">
         <f t="shared" si="0"/>
@@ -43367,30 +43439,44 @@
       <c r="B17" s="24">
         <v>44758</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="25">
+        <v>18820</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>1043</v>
+      </c>
       <c r="E17" s="27">
         <v>44758</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>130337</v>
+      </c>
       <c r="G17" s="575"/>
       <c r="H17" s="29">
         <v>44758</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="45"/>
+      <c r="I17" s="30">
+        <v>4008</v>
+      </c>
+      <c r="J17" s="37">
+        <v>44758</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L17" s="45">
+        <v>19573</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <f>32228.5+1009.5</f>
+        <v>33238</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
-      </c>
-      <c r="O17" s="664"/>
+        <v>54698</v>
+      </c>
       <c r="P17" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>130337</v>
       </c>
       <c r="Q17" s="325">
         <f t="shared" si="0"/>
@@ -44008,7 +44094,7 @@
         <v>44751</v>
       </c>
       <c r="K34" s="570" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L34" s="9">
         <v>19463.41</v>
@@ -44041,9 +44127,15 @@
       <c r="G35" s="575"/>
       <c r="H35" s="29"/>
       <c r="I35" s="30"/>
-      <c r="J35" s="560"/>
-      <c r="K35" s="571"/>
-      <c r="L35" s="69"/>
+      <c r="J35" s="560">
+        <v>44758</v>
+      </c>
+      <c r="K35" s="571" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L35" s="69">
+        <v>19849.560000000001</v>
+      </c>
       <c r="M35" s="32">
         <v>0</v>
       </c>
@@ -44052,11 +44144,11 @@
       </c>
       <c r="P35" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19849.560000000001</v>
       </c>
       <c r="Q35" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19849.560000000001</v>
       </c>
       <c r="R35" s="319">
         <v>0</v>
@@ -44230,21 +44322,21 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="732">
+      <c r="M41" s="745">
         <f>SUM(M5:M40)</f>
-        <v>338860</v>
-      </c>
-      <c r="N41" s="732">
+        <v>602480.5</v>
+      </c>
+      <c r="N41" s="745">
         <f>SUM(N5:N40)</f>
-        <v>250473</v>
+        <v>500173</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>822258.41</v>
-      </c>
-      <c r="Q41" s="791">
+        <v>1480306.97</v>
+      </c>
+      <c r="Q41" s="793">
         <f>SUM(Q5:Q40)</f>
-        <v>19672.41</v>
+        <v>39521.97</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44260,10 +44352,10 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="733"/>
-      <c r="N42" s="733"/>
+      <c r="M42" s="746"/>
+      <c r="N42" s="746"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="792"/>
+      <c r="Q42" s="794"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -44314,11 +44406,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="793">
+      <c r="M45" s="795">
         <f>M41+N41</f>
-        <v>589333</v>
-      </c>
-      <c r="N45" s="794"/>
+        <v>1102653.5</v>
+      </c>
+      <c r="N45" s="796"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -44715,7 +44807,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>164463</v>
+        <v>255465.5</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -44723,7 +44815,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>737009</v>
+        <v>1375208</v>
       </c>
       <c r="G67" s="576"/>
       <c r="H67" s="91" t="s">
@@ -44731,7 +44823,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>30865</v>
+        <v>45168</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -44739,7 +44831,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)</f>
-        <v>37597.410000000003</v>
+        <v>77019.97</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -44757,50 +44849,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="709" t="s">
+      <c r="H69" s="700" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="710"/>
+      <c r="I69" s="701"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="819">
+      <c r="K69" s="818">
         <f>I67+L67</f>
-        <v>68462.41</v>
-      </c>
-      <c r="L69" s="820"/>
+        <v>122187.97</v>
+      </c>
+      <c r="L69" s="819"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="715" t="s">
+      <c r="D70" s="706" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="715"/>
+      <c r="E70" s="706"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>504083.58999999997</v>
+        <v>997554.53</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="739" t="s">
+      <c r="D71" s="736" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="739"/>
+      <c r="E71" s="736"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="716" t="s">
+      <c r="I71" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="717"/>
-      <c r="K71" s="718">
+      <c r="J71" s="708"/>
+      <c r="K71" s="709">
         <f>F73+F74+F75</f>
-        <v>2859510.13</v>
-      </c>
-      <c r="L71" s="718"/>
+        <v>3352981.0700000003</v>
+      </c>
+      <c r="L71" s="709"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -44834,18 +44926,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>504083.58999999997</v>
+        <v>997554.53</v>
       </c>
       <c r="H73" s="558"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="815">
+      <c r="K73" s="820">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="718"/>
+      <c r="L73" s="709"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -44860,22 +44952,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="698" t="s">
+      <c r="D75" s="689" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="699"/>
+      <c r="E75" s="690"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="700" t="s">
+      <c r="I75" s="691" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="701"/>
-      <c r="K75" s="702">
+      <c r="J75" s="692"/>
+      <c r="K75" s="693">
         <f>K71+K73</f>
-        <v>504083.58999999985</v>
-      </c>
-      <c r="L75" s="702"/>
+        <v>997554.53000000026</v>
+      </c>
+      <c r="L75" s="693"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -45019,12 +45111,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -45041,6 +45127,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46445,10 +46537,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="787" t="s">
+      <c r="H67" s="789" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="788"/>
+      <c r="I67" s="790"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -46468,11 +46560,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="749" t="s">
+      <c r="F68" s="751" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="789"/>
-      <c r="I68" s="790"/>
+      <c r="H68" s="791"/>
+      <c r="I68" s="792"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -46483,7 +46575,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="750"/>
+      <c r="F69" s="752"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -47151,23 +47243,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="687"/>
-      <c r="C1" s="689" t="s">
+      <c r="B1" s="713"/>
+      <c r="C1" s="715" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="690"/>
-      <c r="E1" s="690"/>
-      <c r="F1" s="690"/>
-      <c r="G1" s="690"/>
-      <c r="H1" s="690"/>
-      <c r="I1" s="690"/>
-      <c r="J1" s="690"/>
-      <c r="K1" s="690"/>
-      <c r="L1" s="690"/>
-      <c r="M1" s="690"/>
+      <c r="D1" s="716"/>
+      <c r="E1" s="716"/>
+      <c r="F1" s="716"/>
+      <c r="G1" s="716"/>
+      <c r="H1" s="716"/>
+      <c r="I1" s="716"/>
+      <c r="J1" s="716"/>
+      <c r="K1" s="716"/>
+      <c r="L1" s="716"/>
+      <c r="M1" s="716"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="688"/>
+      <c r="B2" s="714"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -47177,21 +47269,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="692"/>
+      <c r="B3" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="718"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="693" t="s">
+      <c r="H3" s="719" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="693"/>
+      <c r="I3" s="719"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="730" t="s">
+      <c r="P3" s="743" t="s">
         <v>6</v>
       </c>
     </row>
@@ -47206,14 +47298,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="694" t="s">
+      <c r="E4" s="720" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="695"/>
-      <c r="H4" s="696" t="s">
+      <c r="F4" s="721"/>
+      <c r="H4" s="722" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="697"/>
+      <c r="I4" s="723"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -47223,14 +47315,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="731"/>
+      <c r="P4" s="744"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="740" t="s">
+      <c r="W4" s="726" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="740"/>
+      <c r="X4" s="726"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47281,8 +47373,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="740"/>
-      <c r="X5" s="740"/>
+      <c r="W5" s="726"/>
+      <c r="X5" s="726"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48053,7 +48145,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="744">
+      <c r="W19" s="730">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -48105,7 +48197,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="745"/>
+      <c r="W20" s="731"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -48154,8 +48246,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="746"/>
-      <c r="X21" s="746"/>
+      <c r="W21" s="732"/>
+      <c r="X21" s="732"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -48256,8 +48348,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="747"/>
-      <c r="X23" s="747"/>
+      <c r="W23" s="733"/>
+      <c r="X23" s="733"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -48311,8 +48403,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="747"/>
-      <c r="X24" s="747"/>
+      <c r="W24" s="733"/>
+      <c r="X24" s="733"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -48358,8 +48450,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="748"/>
-      <c r="X25" s="748"/>
+      <c r="W25" s="734"/>
+      <c r="X25" s="734"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -48410,8 +48502,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="748"/>
-      <c r="X26" s="748"/>
+      <c r="W26" s="734"/>
+      <c r="X26" s="734"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -48459,9 +48551,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="741"/>
-      <c r="X27" s="742"/>
-      <c r="Y27" s="743"/>
+      <c r="W27" s="727"/>
+      <c r="X27" s="728"/>
+      <c r="Y27" s="729"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48511,9 +48603,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="742"/>
-      <c r="X28" s="742"/>
-      <c r="Y28" s="743"/>
+      <c r="W28" s="728"/>
+      <c r="X28" s="728"/>
+      <c r="Y28" s="729"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48848,11 +48940,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="732">
+      <c r="M36" s="745">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="734">
+      <c r="N36" s="747">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -48860,7 +48952,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="736">
+      <c r="Q36" s="749">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -48895,13 +48987,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="733"/>
-      <c r="N37" s="735"/>
+      <c r="M37" s="746"/>
+      <c r="N37" s="748"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="737"/>
+      <c r="Q37" s="750"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -49191,26 +49283,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="709" t="s">
+      <c r="H52" s="700" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="710"/>
+      <c r="I52" s="701"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="711">
+      <c r="K52" s="702">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="738"/>
+      <c r="L52" s="735"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="715" t="s">
+      <c r="D53" s="706" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="715"/>
+      <c r="E53" s="706"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -49219,29 +49311,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="739" t="s">
+      <c r="D54" s="736" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="739"/>
+      <c r="E54" s="736"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="716" t="s">
+      <c r="I54" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="717"/>
-      <c r="K54" s="718">
+      <c r="J54" s="708"/>
+      <c r="K54" s="709">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="718"/>
-      <c r="M54" s="724" t="s">
+      <c r="L54" s="709"/>
+      <c r="M54" s="737" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="725"/>
-      <c r="O54" s="725"/>
-      <c r="P54" s="725"/>
-      <c r="Q54" s="726"/>
+      <c r="N54" s="738"/>
+      <c r="O54" s="738"/>
+      <c r="P54" s="738"/>
+      <c r="Q54" s="739"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -49255,11 +49347,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="727"/>
-      <c r="N55" s="728"/>
-      <c r="O55" s="728"/>
-      <c r="P55" s="728"/>
-      <c r="Q55" s="729"/>
+      <c r="M55" s="740"/>
+      <c r="N55" s="741"/>
+      <c r="O55" s="741"/>
+      <c r="P55" s="741"/>
+      <c r="Q55" s="742"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -49277,11 +49369,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="720">
+      <c r="K56" s="711">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="721"/>
+      <c r="L56" s="712"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -49298,22 +49390,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="698" t="s">
+      <c r="D58" s="689" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="699"/>
+      <c r="E58" s="690"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="700" t="s">
+      <c r="I58" s="691" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="701"/>
-      <c r="K58" s="702">
+      <c r="J58" s="692"/>
+      <c r="K58" s="693">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="702"/>
+      <c r="L58" s="693"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -49457,14 +49549,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -49475,17 +49570,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51903,7 +51995,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="749" t="s">
+      <c r="F87" s="751" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -51916,7 +52008,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="750"/>
+      <c r="F88" s="752"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -52228,23 +52320,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="687"/>
-      <c r="C1" s="689" t="s">
+      <c r="B1" s="713"/>
+      <c r="C1" s="715" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="690"/>
-      <c r="E1" s="690"/>
-      <c r="F1" s="690"/>
-      <c r="G1" s="690"/>
-      <c r="H1" s="690"/>
-      <c r="I1" s="690"/>
-      <c r="J1" s="690"/>
-      <c r="K1" s="690"/>
-      <c r="L1" s="690"/>
-      <c r="M1" s="690"/>
+      <c r="D1" s="716"/>
+      <c r="E1" s="716"/>
+      <c r="F1" s="716"/>
+      <c r="G1" s="716"/>
+      <c r="H1" s="716"/>
+      <c r="I1" s="716"/>
+      <c r="J1" s="716"/>
+      <c r="K1" s="716"/>
+      <c r="L1" s="716"/>
+      <c r="M1" s="716"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="688"/>
+      <c r="B2" s="714"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -52254,24 +52346,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="692"/>
+      <c r="B3" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="718"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="693" t="s">
+      <c r="H3" s="719" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="693"/>
+      <c r="I3" s="719"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="730" t="s">
+      <c r="P3" s="743" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="751" t="s">
+      <c r="R3" s="753" t="s">
         <v>216</v>
       </c>
     </row>
@@ -52286,14 +52378,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="694" t="s">
+      <c r="E4" s="720" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="695"/>
-      <c r="H4" s="696" t="s">
+      <c r="F4" s="721"/>
+      <c r="H4" s="722" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="697"/>
+      <c r="I4" s="723"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -52303,15 +52395,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="731"/>
+      <c r="P4" s="744"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="752"/>
-      <c r="W4" s="740" t="s">
+      <c r="R4" s="754"/>
+      <c r="W4" s="726" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="740"/>
+      <c r="X4" s="726"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52372,8 +52464,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="740"/>
-      <c r="X5" s="740"/>
+      <c r="W5" s="726"/>
+      <c r="X5" s="726"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53130,7 +53222,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="744">
+      <c r="W19" s="730">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -53182,7 +53274,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="745"/>
+      <c r="W20" s="731"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -53231,8 +53323,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="746"/>
-      <c r="X21" s="746"/>
+      <c r="W21" s="732"/>
+      <c r="X21" s="732"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -53333,8 +53425,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="747"/>
-      <c r="X23" s="747"/>
+      <c r="W23" s="733"/>
+      <c r="X23" s="733"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -53385,8 +53477,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="747"/>
-      <c r="X24" s="747"/>
+      <c r="W24" s="733"/>
+      <c r="X24" s="733"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -53432,8 +53524,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="748"/>
-      <c r="X25" s="748"/>
+      <c r="W25" s="734"/>
+      <c r="X25" s="734"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -53481,8 +53573,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="748"/>
-      <c r="X26" s="748"/>
+      <c r="W26" s="734"/>
+      <c r="X26" s="734"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -53542,9 +53634,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="741"/>
-      <c r="X27" s="742"/>
-      <c r="Y27" s="743"/>
+      <c r="W27" s="727"/>
+      <c r="X27" s="728"/>
+      <c r="Y27" s="729"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53598,9 +53690,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="742"/>
-      <c r="X28" s="742"/>
-      <c r="Y28" s="743"/>
+      <c r="W28" s="728"/>
+      <c r="X28" s="728"/>
+      <c r="Y28" s="729"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53916,11 +54008,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="732">
+      <c r="M36" s="745">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="734">
+      <c r="N36" s="747">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -53928,7 +54020,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="736">
+      <c r="Q36" s="749">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -53947,13 +54039,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="733"/>
-      <c r="N37" s="735"/>
+      <c r="M37" s="746"/>
+      <c r="N37" s="748"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="737"/>
+      <c r="Q37" s="750"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -54227,26 +54319,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="709" t="s">
+      <c r="H52" s="700" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="710"/>
+      <c r="I52" s="701"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="711">
+      <c r="K52" s="702">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="738"/>
+      <c r="L52" s="735"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="715" t="s">
+      <c r="D53" s="706" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="715"/>
+      <c r="E53" s="706"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -54255,29 +54347,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="739" t="s">
+      <c r="D54" s="736" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="739"/>
+      <c r="E54" s="736"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="716" t="s">
+      <c r="I54" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="717"/>
-      <c r="K54" s="718">
+      <c r="J54" s="708"/>
+      <c r="K54" s="709">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="718"/>
-      <c r="M54" s="724" t="s">
+      <c r="L54" s="709"/>
+      <c r="M54" s="737" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="725"/>
-      <c r="O54" s="725"/>
-      <c r="P54" s="725"/>
-      <c r="Q54" s="726"/>
+      <c r="N54" s="738"/>
+      <c r="O54" s="738"/>
+      <c r="P54" s="738"/>
+      <c r="Q54" s="739"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -54291,11 +54383,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="727"/>
-      <c r="N55" s="728"/>
-      <c r="O55" s="728"/>
-      <c r="P55" s="728"/>
-      <c r="Q55" s="729"/>
+      <c r="M55" s="740"/>
+      <c r="N55" s="741"/>
+      <c r="O55" s="741"/>
+      <c r="P55" s="741"/>
+      <c r="Q55" s="742"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -54313,11 +54405,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="720">
+      <c r="K56" s="711">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="721"/>
+      <c r="L56" s="712"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -54334,22 +54426,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="698" t="s">
+      <c r="D58" s="689" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="699"/>
+      <c r="E58" s="690"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="700" t="s">
+      <c r="I58" s="691" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="701"/>
-      <c r="K58" s="702">
+      <c r="J58" s="692"/>
+      <c r="K58" s="693">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="702"/>
+      <c r="L58" s="693"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -54493,20 +54585,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -54516,13 +54601,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56912,7 +57004,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="749" t="s">
+      <c r="F75" s="751" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -56925,7 +57017,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="750"/>
+      <c r="F76" s="752"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -57217,23 +57309,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="687"/>
-      <c r="C1" s="753" t="s">
+      <c r="B1" s="713"/>
+      <c r="C1" s="755" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="754"/>
-      <c r="E1" s="754"/>
-      <c r="F1" s="754"/>
-      <c r="G1" s="754"/>
-      <c r="H1" s="754"/>
-      <c r="I1" s="754"/>
-      <c r="J1" s="754"/>
-      <c r="K1" s="754"/>
-      <c r="L1" s="754"/>
-      <c r="M1" s="754"/>
+      <c r="D1" s="756"/>
+      <c r="E1" s="756"/>
+      <c r="F1" s="756"/>
+      <c r="G1" s="756"/>
+      <c r="H1" s="756"/>
+      <c r="I1" s="756"/>
+      <c r="J1" s="756"/>
+      <c r="K1" s="756"/>
+      <c r="L1" s="756"/>
+      <c r="M1" s="756"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="688"/>
+      <c r="B2" s="714"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -57243,24 +57335,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="692"/>
+      <c r="B3" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="718"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="693" t="s">
+      <c r="H3" s="719" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="693"/>
+      <c r="I3" s="719"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="730" t="s">
+      <c r="P3" s="743" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="751" t="s">
+      <c r="R3" s="753" t="s">
         <v>216</v>
       </c>
     </row>
@@ -57275,14 +57367,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="694" t="s">
+      <c r="E4" s="720" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="695"/>
-      <c r="H4" s="696" t="s">
+      <c r="F4" s="721"/>
+      <c r="H4" s="722" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="697"/>
+      <c r="I4" s="723"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -57292,15 +57384,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="731"/>
+      <c r="P4" s="744"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="752"/>
-      <c r="W4" s="740" t="s">
+      <c r="R4" s="754"/>
+      <c r="W4" s="726" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="740"/>
+      <c r="X4" s="726"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57351,8 +57443,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="740"/>
-      <c r="X5" s="740"/>
+      <c r="W5" s="726"/>
+      <c r="X5" s="726"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58116,7 +58208,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="744">
+      <c r="W19" s="730">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -58169,7 +58261,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="745"/>
+      <c r="W20" s="731"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -58218,8 +58310,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="746"/>
-      <c r="X21" s="746"/>
+      <c r="W21" s="732"/>
+      <c r="X21" s="732"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -58319,8 +58411,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="747"/>
-      <c r="X23" s="747"/>
+      <c r="W23" s="733"/>
+      <c r="X23" s="733"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -58375,8 +58467,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="747"/>
-      <c r="X24" s="747"/>
+      <c r="W24" s="733"/>
+      <c r="X24" s="733"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -58421,8 +58513,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="748"/>
-      <c r="X25" s="748"/>
+      <c r="W25" s="734"/>
+      <c r="X25" s="734"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -58470,8 +58562,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="748"/>
-      <c r="X26" s="748"/>
+      <c r="W26" s="734"/>
+      <c r="X26" s="734"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -58525,9 +58617,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="741"/>
-      <c r="X27" s="742"/>
-      <c r="Y27" s="743"/>
+      <c r="W27" s="727"/>
+      <c r="X27" s="728"/>
+      <c r="Y27" s="729"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58581,9 +58673,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="742"/>
-      <c r="X28" s="742"/>
-      <c r="Y28" s="743"/>
+      <c r="W28" s="728"/>
+      <c r="X28" s="728"/>
+      <c r="Y28" s="729"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58894,11 +58986,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="732">
+      <c r="M36" s="745">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="734">
+      <c r="N36" s="747">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -58906,7 +58998,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="736">
+      <c r="Q36" s="749">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -58931,13 +59023,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="733"/>
-      <c r="N37" s="735"/>
+      <c r="M37" s="746"/>
+      <c r="N37" s="748"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="737"/>
+      <c r="Q37" s="750"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -59230,26 +59322,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="709" t="s">
+      <c r="H52" s="700" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="710"/>
+      <c r="I52" s="701"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="711">
+      <c r="K52" s="702">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="738"/>
+      <c r="L52" s="735"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="715" t="s">
+      <c r="D53" s="706" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="715"/>
+      <c r="E53" s="706"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -59258,22 +59350,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="739" t="s">
+      <c r="D54" s="736" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="739"/>
+      <c r="E54" s="736"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="716" t="s">
+      <c r="I54" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="717"/>
-      <c r="K54" s="718">
+      <c r="J54" s="708"/>
+      <c r="K54" s="709">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="718"/>
+      <c r="L54" s="709"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -59314,11 +59406,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="720">
+      <c r="K56" s="711">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="721"/>
+      <c r="L56" s="712"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -59335,22 +59427,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="698" t="s">
+      <c r="D58" s="689" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="699"/>
+      <c r="E58" s="690"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="700" t="s">
+      <c r="I58" s="691" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="701"/>
-      <c r="K58" s="702">
+      <c r="J58" s="692"/>
+      <c r="K58" s="693">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="702"/>
+      <c r="L58" s="693"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -59494,20 +59586,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -59523,6 +59601,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -61219,12 +61311,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="755" t="s">
+      <c r="B43" s="757" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="756"/>
-      <c r="D43" s="756"/>
-      <c r="E43" s="757"/>
+      <c r="C43" s="758"/>
+      <c r="D43" s="758"/>
+      <c r="E43" s="759"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61252,10 +61344,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="758"/>
-      <c r="C44" s="759"/>
-      <c r="D44" s="759"/>
-      <c r="E44" s="760"/>
+      <c r="B44" s="760"/>
+      <c r="C44" s="761"/>
+      <c r="D44" s="761"/>
+      <c r="E44" s="762"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61283,10 +61375,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="761"/>
-      <c r="C45" s="762"/>
-      <c r="D45" s="762"/>
-      <c r="E45" s="763"/>
+      <c r="B45" s="763"/>
+      <c r="C45" s="764"/>
+      <c r="D45" s="764"/>
+      <c r="E45" s="765"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61329,10 +61421,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="770" t="s">
+      <c r="B47" s="772" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="771"/>
+      <c r="C47" s="773"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -61354,8 +61446,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="772"/>
-      <c r="C48" s="773"/>
+      <c r="B48" s="774"/>
+      <c r="C48" s="775"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -61363,11 +61455,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="764" t="s">
+      <c r="J48" s="766" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="765"/>
-      <c r="L48" s="766"/>
+      <c r="K48" s="767"/>
+      <c r="L48" s="768"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -61385,9 +61477,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="767"/>
-      <c r="K49" s="768"/>
-      <c r="L49" s="769"/>
+      <c r="J49" s="769"/>
+      <c r="K49" s="770"/>
+      <c r="L49" s="771"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -61404,10 +61496,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="774" t="s">
+      <c r="I50" s="776" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="775"/>
+      <c r="J50" s="777"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -61428,8 +61520,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="774"/>
-      <c r="J51" s="775"/>
+      <c r="I51" s="776"/>
+      <c r="J51" s="777"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -61448,8 +61540,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="774"/>
-      <c r="J52" s="775"/>
+      <c r="I52" s="776"/>
+      <c r="J52" s="777"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -61468,8 +61560,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="774"/>
-      <c r="J53" s="775"/>
+      <c r="I53" s="776"/>
+      <c r="J53" s="777"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -61488,8 +61580,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="774"/>
-      <c r="J54" s="775"/>
+      <c r="I54" s="776"/>
+      <c r="J54" s="777"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -61508,8 +61600,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="774"/>
-      <c r="J55" s="775"/>
+      <c r="I55" s="776"/>
+      <c r="J55" s="777"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -61528,8 +61620,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="774"/>
-      <c r="J56" s="775"/>
+      <c r="I56" s="776"/>
+      <c r="J56" s="777"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -61548,8 +61640,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="774"/>
-      <c r="J57" s="775"/>
+      <c r="I57" s="776"/>
+      <c r="J57" s="777"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -61568,8 +61660,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="774"/>
-      <c r="J58" s="775"/>
+      <c r="I58" s="776"/>
+      <c r="J58" s="777"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -61588,8 +61680,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="774"/>
-      <c r="J59" s="775"/>
+      <c r="I59" s="776"/>
+      <c r="J59" s="777"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -61608,8 +61700,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="774"/>
-      <c r="J60" s="775"/>
+      <c r="I60" s="776"/>
+      <c r="J60" s="777"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -61628,8 +61720,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="774"/>
-      <c r="J61" s="775"/>
+      <c r="I61" s="776"/>
+      <c r="J61" s="777"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -61648,8 +61740,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="774"/>
-      <c r="J62" s="775"/>
+      <c r="I62" s="776"/>
+      <c r="J62" s="777"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -61668,8 +61760,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="774"/>
-      <c r="J63" s="775"/>
+      <c r="I63" s="776"/>
+      <c r="J63" s="777"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -61688,8 +61780,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="774"/>
-      <c r="J64" s="775"/>
+      <c r="I64" s="776"/>
+      <c r="J64" s="777"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -61708,8 +61800,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="774"/>
-      <c r="J65" s="775"/>
+      <c r="I65" s="776"/>
+      <c r="J65" s="777"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -61728,8 +61820,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="774"/>
-      <c r="J66" s="775"/>
+      <c r="I66" s="776"/>
+      <c r="J66" s="777"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -61748,8 +61840,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="774"/>
-      <c r="J67" s="775"/>
+      <c r="I67" s="776"/>
+      <c r="J67" s="777"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -61768,8 +61860,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="774"/>
-      <c r="J68" s="775"/>
+      <c r="I68" s="776"/>
+      <c r="J68" s="777"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -61788,8 +61880,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="774"/>
-      <c r="J69" s="775"/>
+      <c r="I69" s="776"/>
+      <c r="J69" s="777"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -61808,8 +61900,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="774"/>
-      <c r="J70" s="775"/>
+      <c r="I70" s="776"/>
+      <c r="J70" s="777"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -61828,8 +61920,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="774"/>
-      <c r="J71" s="775"/>
+      <c r="I71" s="776"/>
+      <c r="J71" s="777"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -61848,8 +61940,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="774"/>
-      <c r="J72" s="775"/>
+      <c r="I72" s="776"/>
+      <c r="J72" s="777"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -61868,8 +61960,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="774"/>
-      <c r="J73" s="775"/>
+      <c r="I73" s="776"/>
+      <c r="J73" s="777"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -61888,8 +61980,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="774"/>
-      <c r="J74" s="775"/>
+      <c r="I74" s="776"/>
+      <c r="J74" s="777"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -61908,8 +62000,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="774"/>
-      <c r="J75" s="775"/>
+      <c r="I75" s="776"/>
+      <c r="J75" s="777"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -61928,8 +62020,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="774"/>
-      <c r="J76" s="775"/>
+      <c r="I76" s="776"/>
+      <c r="J76" s="777"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -61948,8 +62040,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="774"/>
-      <c r="J77" s="775"/>
+      <c r="I77" s="776"/>
+      <c r="J77" s="777"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -61970,8 +62062,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="776"/>
-      <c r="J78" s="777"/>
+      <c r="I78" s="778"/>
+      <c r="J78" s="779"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -62016,7 +62108,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="749" t="s">
+      <c r="F80" s="751" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -62028,7 +62120,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="750"/>
+      <c r="F81" s="752"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -62316,23 +62408,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="687"/>
-      <c r="C1" s="753" t="s">
+      <c r="B1" s="713"/>
+      <c r="C1" s="755" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="754"/>
-      <c r="E1" s="754"/>
-      <c r="F1" s="754"/>
-      <c r="G1" s="754"/>
-      <c r="H1" s="754"/>
-      <c r="I1" s="754"/>
-      <c r="J1" s="754"/>
-      <c r="K1" s="754"/>
-      <c r="L1" s="754"/>
-      <c r="M1" s="754"/>
+      <c r="D1" s="756"/>
+      <c r="E1" s="756"/>
+      <c r="F1" s="756"/>
+      <c r="G1" s="756"/>
+      <c r="H1" s="756"/>
+      <c r="I1" s="756"/>
+      <c r="J1" s="756"/>
+      <c r="K1" s="756"/>
+      <c r="L1" s="756"/>
+      <c r="M1" s="756"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="688"/>
+      <c r="B2" s="714"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -62342,24 +62434,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="691" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="692"/>
+      <c r="B3" s="717" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="718"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="693" t="s">
+      <c r="H3" s="719" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="693"/>
+      <c r="I3" s="719"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="730" t="s">
+      <c r="P3" s="743" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="751" t="s">
+      <c r="R3" s="753" t="s">
         <v>216</v>
       </c>
     </row>
@@ -62374,14 +62466,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="694" t="s">
+      <c r="E4" s="720" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="695"/>
-      <c r="H4" s="696" t="s">
+      <c r="F4" s="721"/>
+      <c r="H4" s="722" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="697"/>
+      <c r="I4" s="723"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -62391,15 +62483,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="731"/>
+      <c r="P4" s="744"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="752"/>
-      <c r="W4" s="740" t="s">
+      <c r="R4" s="754"/>
+      <c r="W4" s="726" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="740"/>
+      <c r="X4" s="726"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62450,8 +62542,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="740"/>
-      <c r="X5" s="740"/>
+      <c r="W5" s="726"/>
+      <c r="X5" s="726"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63212,7 +63304,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="744">
+      <c r="W19" s="730">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -63264,7 +63356,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="745"/>
+      <c r="W20" s="731"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -63313,8 +63405,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="746"/>
-      <c r="X21" s="746"/>
+      <c r="W21" s="732"/>
+      <c r="X21" s="732"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -63413,8 +63505,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="747"/>
-      <c r="X23" s="747"/>
+      <c r="W23" s="733"/>
+      <c r="X23" s="733"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -63469,8 +63561,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="747"/>
-      <c r="X24" s="747"/>
+      <c r="W24" s="733"/>
+      <c r="X24" s="733"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -63518,8 +63610,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="748"/>
-      <c r="X25" s="748"/>
+      <c r="W25" s="734"/>
+      <c r="X25" s="734"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -63567,8 +63659,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="748"/>
-      <c r="X26" s="748"/>
+      <c r="W26" s="734"/>
+      <c r="X26" s="734"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -63616,9 +63708,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="741"/>
-      <c r="X27" s="742"/>
-      <c r="Y27" s="743"/>
+      <c r="W27" s="727"/>
+      <c r="X27" s="728"/>
+      <c r="Y27" s="729"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63666,9 +63758,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="742"/>
-      <c r="X28" s="742"/>
-      <c r="Y28" s="743"/>
+      <c r="W28" s="728"/>
+      <c r="X28" s="728"/>
+      <c r="Y28" s="729"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64009,11 +64101,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="732">
+      <c r="M36" s="745">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="734">
+      <c r="N36" s="747">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -64021,7 +64113,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="778">
+      <c r="Q36" s="780">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -64046,13 +64138,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="733"/>
-      <c r="N37" s="735"/>
+      <c r="M37" s="746"/>
+      <c r="N37" s="748"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="779"/>
+      <c r="Q37" s="781"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -64102,11 +64194,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="780">
+      <c r="M39" s="782">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="781"/>
+      <c r="N39" s="783"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -64354,26 +64446,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="709" t="s">
+      <c r="H52" s="700" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="710"/>
+      <c r="I52" s="701"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="711">
+      <c r="K52" s="702">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="738"/>
+      <c r="L52" s="735"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="715" t="s">
+      <c r="D53" s="706" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="715"/>
+      <c r="E53" s="706"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -64382,22 +64474,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="739" t="s">
+      <c r="D54" s="736" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="739"/>
+      <c r="E54" s="736"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="716" t="s">
+      <c r="I54" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="717"/>
-      <c r="K54" s="718">
+      <c r="J54" s="708"/>
+      <c r="K54" s="709">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="718"/>
+      <c r="L54" s="709"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -64438,11 +64530,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="720">
+      <c r="K56" s="711">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="721"/>
+      <c r="L56" s="712"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -64459,22 +64551,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="698" t="s">
+      <c r="D58" s="689" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="699"/>
+      <c r="E58" s="690"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="700" t="s">
+      <c r="I58" s="691" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="701"/>
-      <c r="K58" s="702">
+      <c r="J58" s="692"/>
+      <c r="K58" s="693">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="702"/>
+      <c r="L58" s="693"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -64618,6 +64710,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -64634,20 +64740,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="16" activeTab="18"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1057">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3945,6 +3945,39 @@
   </si>
   <si>
     <t>Nomina # 29</t>
+  </si>
+  <si>
+    <t>CHORIZO-ENCHILADA-QUESOS-MIXIOTE</t>
+  </si>
+  <si>
+    <t>ABASTOS</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-CHORIZO-PATA</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-ARABE-SALCHICHA-CHISTORRA</t>
+  </si>
+  <si>
+    <t>LONGANIZA-POLLO-QUESOS-JAMON-CHORIZO</t>
+  </si>
+  <si>
+    <t>PRESTAMO</t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA-QUESOS -POLLO-PASTOR</t>
+  </si>
+  <si>
+    <t>AL PASTOR-QUESOS-POLLO-JAMON-PATA</t>
+  </si>
+  <si>
+    <t>SALSAS-JAMON-QUESO-POLLO</t>
+  </si>
+  <si>
+    <t>NOMINA # 30</t>
+  </si>
+  <si>
+    <t>Nomina #30</t>
   </si>
 </sst>
 </file>
@@ -5984,7 +6017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="829">
+  <cellXfs count="830">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -7398,6 +7431,7 @@
     </xf>
     <xf numFmtId="165" fontId="73" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="73" fillId="14" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="14" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7827,8 +7861,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFF66"/>
@@ -12619,23 +12653,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="713"/>
-      <c r="C1" s="715" t="s">
+      <c r="B1" s="714"/>
+      <c r="C1" s="716" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="716"/>
-      <c r="E1" s="716"/>
-      <c r="F1" s="716"/>
-      <c r="G1" s="716"/>
-      <c r="H1" s="716"/>
-      <c r="I1" s="716"/>
-      <c r="J1" s="716"/>
-      <c r="K1" s="716"/>
-      <c r="L1" s="716"/>
-      <c r="M1" s="716"/>
+      <c r="D1" s="717"/>
+      <c r="E1" s="717"/>
+      <c r="F1" s="717"/>
+      <c r="G1" s="717"/>
+      <c r="H1" s="717"/>
+      <c r="I1" s="717"/>
+      <c r="J1" s="717"/>
+      <c r="K1" s="717"/>
+      <c r="L1" s="717"/>
+      <c r="M1" s="717"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="714"/>
+      <c r="B2" s="715"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12645,17 +12679,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="717" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="718"/>
+      <c r="B3" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="719"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="719" t="s">
+      <c r="H3" s="720" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="719"/>
+      <c r="I3" s="720"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -12669,14 +12703,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="720" t="s">
+      <c r="E4" s="721" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="721"/>
-      <c r="H4" s="722" t="s">
+      <c r="F4" s="722"/>
+      <c r="H4" s="723" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="723"/>
+      <c r="I4" s="724"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12686,10 +12720,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="694" t="s">
+      <c r="P4" s="695" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="695"/>
+      <c r="Q4" s="696"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -14130,11 +14164,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="696">
+      <c r="M39" s="697">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="698">
+      <c r="N39" s="699">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -14160,8 +14194,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="697"/>
-      <c r="N40" s="699"/>
+      <c r="M40" s="698"/>
+      <c r="N40" s="700"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -14376,29 +14410,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="700" t="s">
+      <c r="H52" s="701" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="701"/>
+      <c r="I52" s="702"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="702">
+      <c r="K52" s="703">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="703"/>
-      <c r="M52" s="704">
+      <c r="L52" s="704"/>
+      <c r="M52" s="705">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="705"/>
+      <c r="N52" s="706"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="706" t="s">
+      <c r="D53" s="707" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="706"/>
+      <c r="E53" s="707"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -14409,22 +14443,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="706" t="s">
+      <c r="D54" s="707" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="706"/>
+      <c r="E54" s="707"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="707" t="s">
+      <c r="I54" s="708" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="708"/>
-      <c r="K54" s="709">
+      <c r="J54" s="709"/>
+      <c r="K54" s="710">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="710"/>
+      <c r="L54" s="711"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -14457,11 +14491,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="711">
+      <c r="K56" s="712">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="712"/>
+      <c r="L56" s="713"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -14478,22 +14512,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="689" t="s">
+      <c r="D58" s="690" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="690"/>
+      <c r="E58" s="691"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="691" t="s">
+      <c r="I58" s="692" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="692"/>
-      <c r="K58" s="693">
+      <c r="J58" s="693"/>
+      <c r="K58" s="694">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="693"/>
+      <c r="L58" s="694"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -17117,10 +17151,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="785" t="s">
+      <c r="I76" s="786" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="786"/>
+      <c r="J76" s="787"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -17139,8 +17173,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="787"/>
-      <c r="J77" s="788"/>
+      <c r="I77" s="788"/>
+      <c r="J77" s="789"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -17207,7 +17241,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="751" t="s">
+      <c r="F80" s="752" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -17222,7 +17256,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="752"/>
+      <c r="F81" s="753"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -17230,10 +17264,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="784" t="s">
+      <c r="B82" s="785" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="784"/>
+      <c r="C82" s="785"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -17515,23 +17549,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="713"/>
-      <c r="C1" s="755" t="s">
+      <c r="B1" s="714"/>
+      <c r="C1" s="756" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="756"/>
+      <c r="D1" s="757"/>
+      <c r="E1" s="757"/>
+      <c r="F1" s="757"/>
+      <c r="G1" s="757"/>
+      <c r="H1" s="757"/>
+      <c r="I1" s="757"/>
+      <c r="J1" s="757"/>
+      <c r="K1" s="757"/>
+      <c r="L1" s="757"/>
+      <c r="M1" s="757"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="714"/>
+      <c r="B2" s="715"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17541,24 +17575,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="717" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="718"/>
+      <c r="B3" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="719"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="719" t="s">
+      <c r="H3" s="720" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="719"/>
+      <c r="I3" s="720"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="743" t="s">
+      <c r="P3" s="744" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="753" t="s">
+      <c r="R3" s="754" t="s">
         <v>216</v>
       </c>
     </row>
@@ -17573,14 +17607,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="720" t="s">
+      <c r="E4" s="721" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="721"/>
-      <c r="H4" s="722" t="s">
+      <c r="F4" s="722"/>
+      <c r="H4" s="723" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="723"/>
+      <c r="I4" s="724"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -17590,15 +17624,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="744"/>
+      <c r="P4" s="745"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="754"/>
-      <c r="W4" s="726" t="s">
+      <c r="R4" s="755"/>
+      <c r="W4" s="727" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="726"/>
+      <c r="X4" s="727"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17649,8 +17683,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="726"/>
-      <c r="X5" s="726"/>
+      <c r="W5" s="727"/>
+      <c r="X5" s="727"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18413,7 +18447,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="730">
+      <c r="W19" s="731">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -18465,7 +18499,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="731"/>
+      <c r="W20" s="732"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -18514,8 +18548,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="732"/>
-      <c r="X21" s="732"/>
+      <c r="W21" s="733"/>
+      <c r="X21" s="733"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -18615,8 +18649,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="733"/>
-      <c r="X23" s="733"/>
+      <c r="W23" s="734"/>
+      <c r="X23" s="734"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -18671,8 +18705,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="733"/>
-      <c r="X24" s="733"/>
+      <c r="W24" s="734"/>
+      <c r="X24" s="734"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -18720,8 +18754,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="734"/>
-      <c r="X25" s="734"/>
+      <c r="W25" s="735"/>
+      <c r="X25" s="735"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -18770,8 +18804,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="734"/>
-      <c r="X26" s="734"/>
+      <c r="W26" s="735"/>
+      <c r="X26" s="735"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -18819,9 +18853,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="727"/>
-      <c r="X27" s="728"/>
-      <c r="Y27" s="729"/>
+      <c r="W27" s="728"/>
+      <c r="X27" s="729"/>
+      <c r="Y27" s="730"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18869,9 +18903,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="728"/>
-      <c r="X28" s="728"/>
-      <c r="Y28" s="729"/>
+      <c r="W28" s="729"/>
+      <c r="X28" s="729"/>
+      <c r="Y28" s="730"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19203,11 +19237,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="745">
+      <c r="M36" s="746">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="747">
+      <c r="N36" s="748">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -19215,7 +19249,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="780">
+      <c r="Q36" s="781">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -19240,13 +19274,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="746"/>
-      <c r="N37" s="748"/>
+      <c r="M37" s="747"/>
+      <c r="N37" s="749"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="781"/>
+      <c r="Q37" s="782"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -19296,11 +19330,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="782">
+      <c r="M39" s="783">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="783"/>
+      <c r="N39" s="784"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -19928,26 +19962,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="700" t="s">
+      <c r="H68" s="701" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="701"/>
+      <c r="I68" s="702"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="702">
+      <c r="K68" s="703">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="735"/>
+      <c r="L68" s="736"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="706" t="s">
+      <c r="D69" s="707" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="706"/>
+      <c r="E69" s="707"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19956,22 +19990,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="736" t="s">
+      <c r="D70" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="736"/>
+      <c r="E70" s="737"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="707" t="s">
+      <c r="I70" s="708" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="708"/>
-      <c r="K70" s="709">
+      <c r="J70" s="709"/>
+      <c r="K70" s="710">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="709"/>
+      <c r="L70" s="710"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -20012,11 +20046,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="711">
+      <c r="K72" s="712">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="712"/>
+      <c r="L72" s="713"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -20033,22 +20067,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="689" t="s">
+      <c r="D74" s="690" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="690"/>
+      <c r="E74" s="691"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="691" t="s">
+      <c r="I74" s="692" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="692"/>
-      <c r="K74" s="693">
+      <c r="J74" s="693"/>
+      <c r="K74" s="694">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="693"/>
+      <c r="L74" s="694"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -22492,7 +22526,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="751" t="s">
+      <c r="F80" s="752" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -22505,7 +22539,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="752"/>
+      <c r="F81" s="753"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -22525,10 +22559,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="789" t="s">
+      <c r="I83" s="790" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="790"/>
+      <c r="J83" s="791"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -22537,8 +22571,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="791"/>
-      <c r="J84" s="792"/>
+      <c r="I84" s="792"/>
+      <c r="J84" s="793"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -22810,23 +22844,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="713"/>
-      <c r="C1" s="755" t="s">
+      <c r="B1" s="714"/>
+      <c r="C1" s="756" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="756"/>
+      <c r="D1" s="757"/>
+      <c r="E1" s="757"/>
+      <c r="F1" s="757"/>
+      <c r="G1" s="757"/>
+      <c r="H1" s="757"/>
+      <c r="I1" s="757"/>
+      <c r="J1" s="757"/>
+      <c r="K1" s="757"/>
+      <c r="L1" s="757"/>
+      <c r="M1" s="757"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="714"/>
+      <c r="B2" s="715"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22836,24 +22870,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="717" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="718"/>
+      <c r="B3" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="719"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="719" t="s">
+      <c r="H3" s="720" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="719"/>
+      <c r="I3" s="720"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="743" t="s">
+      <c r="P3" s="744" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="753" t="s">
+      <c r="R3" s="754" t="s">
         <v>216</v>
       </c>
     </row>
@@ -22868,14 +22902,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="720" t="s">
+      <c r="E4" s="721" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="721"/>
-      <c r="H4" s="722" t="s">
+      <c r="F4" s="722"/>
+      <c r="H4" s="723" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="723"/>
+      <c r="I4" s="724"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22885,15 +22919,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="744"/>
+      <c r="P4" s="745"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="754"/>
-      <c r="W4" s="726" t="s">
+      <c r="R4" s="755"/>
+      <c r="W4" s="727" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="726"/>
+      <c r="X4" s="727"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22944,8 +22978,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="726"/>
-      <c r="X5" s="726"/>
+      <c r="W5" s="727"/>
+      <c r="X5" s="727"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23704,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="730">
+      <c r="W19" s="731">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -23756,7 +23790,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="731"/>
+      <c r="W20" s="732"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -23805,8 +23839,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="732"/>
-      <c r="X21" s="732"/>
+      <c r="W21" s="733"/>
+      <c r="X21" s="733"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23903,8 +23937,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="733"/>
-      <c r="X23" s="733"/>
+      <c r="W23" s="734"/>
+      <c r="X23" s="734"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23959,8 +23993,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="733"/>
-      <c r="X24" s="733"/>
+      <c r="W24" s="734"/>
+      <c r="X24" s="734"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -24006,8 +24040,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="734"/>
-      <c r="X25" s="734"/>
+      <c r="W25" s="735"/>
+      <c r="X25" s="735"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -24058,8 +24092,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="734"/>
-      <c r="X26" s="734"/>
+      <c r="W26" s="735"/>
+      <c r="X26" s="735"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -24110,9 +24144,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="727"/>
-      <c r="X27" s="728"/>
-      <c r="Y27" s="729"/>
+      <c r="W27" s="728"/>
+      <c r="X27" s="729"/>
+      <c r="Y27" s="730"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24162,9 +24196,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="728"/>
-      <c r="X28" s="728"/>
-      <c r="Y28" s="729"/>
+      <c r="W28" s="729"/>
+      <c r="X28" s="729"/>
+      <c r="Y28" s="730"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24768,11 +24802,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="745">
+      <c r="M41" s="746">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="745">
+      <c r="N41" s="746">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -24780,7 +24814,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="793">
+      <c r="Q41" s="794">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -24810,10 +24844,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="746"/>
-      <c r="N42" s="746"/>
+      <c r="M42" s="747"/>
+      <c r="N42" s="747"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="794"/>
+      <c r="Q42" s="795"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -24901,11 +24935,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="795">
+      <c r="M45" s="796">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="796"/>
+      <c r="N45" s="797"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -25498,26 +25532,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="700" t="s">
+      <c r="H70" s="701" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="701"/>
+      <c r="I70" s="702"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="702">
+      <c r="K70" s="703">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="735"/>
+      <c r="L70" s="736"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="706" t="s">
+      <c r="D71" s="707" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="706"/>
+      <c r="E71" s="707"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -25527,22 +25561,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="736" t="s">
+      <c r="D72" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="736"/>
+      <c r="E72" s="737"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="707" t="s">
+      <c r="I72" s="708" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="708"/>
-      <c r="K72" s="709">
+      <c r="J72" s="709"/>
+      <c r="K72" s="710">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="709"/>
+      <c r="L72" s="710"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -25583,11 +25617,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="711">
+      <c r="K74" s="712">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="712"/>
+      <c r="L74" s="713"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25606,22 +25640,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="689" t="s">
+      <c r="D76" s="690" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="690"/>
+      <c r="E76" s="691"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="691" t="s">
+      <c r="I76" s="692" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="692"/>
-      <c r="K76" s="693">
+      <c r="J76" s="693"/>
+      <c r="K76" s="694">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="693"/>
+      <c r="L76" s="694"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -28326,7 +28360,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="751" t="s">
+      <c r="F90" s="752" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -28339,7 +28373,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="752"/>
+      <c r="F91" s="753"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -28358,10 +28392,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="789" t="s">
+      <c r="I93" s="790" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="790"/>
+      <c r="J93" s="791"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -28371,8 +28405,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="791"/>
-      <c r="J94" s="792"/>
+      <c r="I94" s="792"/>
+      <c r="J94" s="793"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -28813,11 +28847,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="797">
+      <c r="C130" s="798">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="798"/>
+      <c r="D130" s="799"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -28853,21 +28887,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="803" t="s">
+      <c r="F2" s="804" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="804"/>
-      <c r="H2" s="805"/>
+      <c r="G2" s="805"/>
+      <c r="H2" s="806"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="800" t="s">
+      <c r="B3" s="801" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="801"/>
-      <c r="D3" s="802"/>
-      <c r="F3" s="806"/>
-      <c r="G3" s="807"/>
-      <c r="H3" s="808"/>
+      <c r="C3" s="802"/>
+      <c r="D3" s="803"/>
+      <c r="F3" s="807"/>
+      <c r="G3" s="808"/>
+      <c r="H3" s="809"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -29012,11 +29046,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="809">
+      <c r="G11" s="810">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="810"/>
+      <c r="H11" s="811"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -29033,23 +29067,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="813" t="s">
+      <c r="C15" s="814" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="811">
+      <c r="D15" s="812">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="814"/>
-      <c r="D16" s="812"/>
+      <c r="C16" s="815"/>
+      <c r="D16" s="813"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="799" t="s">
+      <c r="C17" s="800" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="799"/>
+      <c r="D17" s="800"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -29107,23 +29141,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="713"/>
-      <c r="C1" s="755" t="s">
+      <c r="B1" s="714"/>
+      <c r="C1" s="756" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="756"/>
+      <c r="D1" s="757"/>
+      <c r="E1" s="757"/>
+      <c r="F1" s="757"/>
+      <c r="G1" s="757"/>
+      <c r="H1" s="757"/>
+      <c r="I1" s="757"/>
+      <c r="J1" s="757"/>
+      <c r="K1" s="757"/>
+      <c r="L1" s="757"/>
+      <c r="M1" s="757"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="714"/>
+      <c r="B2" s="715"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29133,24 +29167,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="717" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="718"/>
+      <c r="B3" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="719"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="719" t="s">
+      <c r="H3" s="720" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="719"/>
+      <c r="I3" s="720"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="743" t="s">
+      <c r="P3" s="744" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="753" t="s">
+      <c r="R3" s="754" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -29169,14 +29203,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="720" t="s">
+      <c r="E4" s="721" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="721"/>
-      <c r="H4" s="722" t="s">
+      <c r="F4" s="722"/>
+      <c r="H4" s="723" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="723"/>
+      <c r="I4" s="724"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -29186,15 +29220,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="744"/>
+      <c r="P4" s="745"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="754"/>
+      <c r="R4" s="755"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="821"/>
-      <c r="X4" s="821"/>
+      <c r="W4" s="822"/>
+      <c r="X4" s="822"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29248,8 +29282,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="821"/>
-      <c r="X5" s="821"/>
+      <c r="W5" s="822"/>
+      <c r="X5" s="822"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30015,7 +30049,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="822"/>
+      <c r="W19" s="823"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -30069,7 +30103,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="822"/>
+      <c r="W20" s="823"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30124,8 +30158,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="732"/>
-      <c r="X21" s="732"/>
+      <c r="W21" s="733"/>
+      <c r="X21" s="733"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30236,8 +30270,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="733"/>
-      <c r="X23" s="733"/>
+      <c r="W23" s="734"/>
+      <c r="X23" s="734"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30298,8 +30332,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="733"/>
-      <c r="X24" s="733"/>
+      <c r="W24" s="734"/>
+      <c r="X24" s="734"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30352,8 +30386,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="734"/>
-      <c r="X25" s="734"/>
+      <c r="W25" s="735"/>
+      <c r="X25" s="735"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30408,8 +30442,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="734"/>
-      <c r="X26" s="734"/>
+      <c r="W26" s="735"/>
+      <c r="X26" s="735"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30464,9 +30498,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="727"/>
-      <c r="X27" s="728"/>
-      <c r="Y27" s="729"/>
+      <c r="W27" s="728"/>
+      <c r="X27" s="729"/>
+      <c r="Y27" s="730"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30520,9 +30554,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="728"/>
-      <c r="X28" s="728"/>
-      <c r="Y28" s="729"/>
+      <c r="W28" s="729"/>
+      <c r="X28" s="729"/>
+      <c r="Y28" s="730"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31113,11 +31147,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="745">
+      <c r="M41" s="746">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="745">
+      <c r="N41" s="746">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -31125,7 +31159,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="793">
+      <c r="Q41" s="794">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -31149,10 +31183,10 @@
       <c r="L42" s="640">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="746"/>
-      <c r="N42" s="746"/>
+      <c r="M42" s="747"/>
+      <c r="N42" s="747"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="794"/>
+      <c r="Q42" s="795"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -31221,11 +31255,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="795">
+      <c r="M45" s="796">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="796"/>
+      <c r="N45" s="797"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -31641,26 +31675,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="700" t="s">
+      <c r="H63" s="701" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="701"/>
+      <c r="I63" s="702"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="818">
+      <c r="K63" s="819">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="819"/>
+      <c r="L63" s="820"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="706" t="s">
+      <c r="D64" s="707" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="706"/>
+      <c r="E64" s="707"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -31669,22 +31703,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="736" t="s">
+      <c r="D65" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="736"/>
+      <c r="E65" s="737"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="707" t="s">
+      <c r="I65" s="708" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="708"/>
-      <c r="K65" s="709">
+      <c r="J65" s="709"/>
+      <c r="K65" s="710">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="709"/>
+      <c r="L65" s="710"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -31725,11 +31759,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="820">
+      <c r="K67" s="821">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="709"/>
+      <c r="L67" s="710"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -31746,22 +31780,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="689" t="s">
+      <c r="D69" s="690" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="690"/>
+      <c r="E69" s="691"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="815" t="s">
+      <c r="I69" s="816" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="816"/>
-      <c r="K69" s="817">
+      <c r="J69" s="817"/>
+      <c r="K69" s="818">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="817"/>
+      <c r="L69" s="818"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -33967,7 +34001,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="751" t="s">
+      <c r="F71" s="752" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -33980,7 +34014,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="752"/>
+      <c r="F72" s="753"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -33999,10 +34033,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="789" t="s">
+      <c r="I74" s="790" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="790"/>
+      <c r="J74" s="791"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -34011,8 +34045,8 @@
       <c r="D75" s="654"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="791"/>
-      <c r="J75" s="792"/>
+      <c r="I75" s="792"/>
+      <c r="J75" s="793"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -34146,11 +34180,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="825" t="s">
+      <c r="A89" s="826" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="826"/>
-      <c r="C89" s="826"/>
+      <c r="B89" s="827"/>
+      <c r="C89" s="827"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -34160,10 +34194,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="827" t="s">
+      <c r="B90" s="828" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="828"/>
+      <c r="C90" s="829"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -34264,7 +34298,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="662"/>
-      <c r="C97" s="823">
+      <c r="C97" s="824">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -34278,7 +34312,7 @@
       <c r="B98" s="663" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="824"/>
+      <c r="C98" s="825"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -34351,7 +34385,7 @@
   </sheetPr>
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
@@ -34378,23 +34412,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="713"/>
-      <c r="C1" s="755" t="s">
+      <c r="B1" s="714"/>
+      <c r="C1" s="756" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="756"/>
+      <c r="D1" s="757"/>
+      <c r="E1" s="757"/>
+      <c r="F1" s="757"/>
+      <c r="G1" s="757"/>
+      <c r="H1" s="757"/>
+      <c r="I1" s="757"/>
+      <c r="J1" s="757"/>
+      <c r="K1" s="757"/>
+      <c r="L1" s="757"/>
+      <c r="M1" s="757"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="714"/>
+      <c r="B2" s="715"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34404,24 +34438,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="717" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="718"/>
+      <c r="B3" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="719"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="719" t="s">
+      <c r="H3" s="720" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="719"/>
+      <c r="I3" s="720"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="743" t="s">
+      <c r="P3" s="744" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="753" t="s">
+      <c r="R3" s="754" t="s">
         <v>216</v>
       </c>
     </row>
@@ -34436,14 +34470,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="720" t="s">
+      <c r="E4" s="721" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="721"/>
-      <c r="H4" s="722" t="s">
+      <c r="F4" s="722"/>
+      <c r="H4" s="723" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="723"/>
+      <c r="I4" s="724"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -34453,11 +34487,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="744"/>
+      <c r="P4" s="745"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="754"/>
+      <c r="R4" s="755"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -36225,11 +36259,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="745">
+      <c r="M41" s="746">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="745">
+      <c r="N41" s="746">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -36237,7 +36271,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="793">
+      <c r="Q41" s="794">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -36267,10 +36301,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="746"/>
-      <c r="N42" s="746"/>
+      <c r="M42" s="747"/>
+      <c r="N42" s="747"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="794"/>
+      <c r="Q42" s="795"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -36357,11 +36391,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="795">
+      <c r="M45" s="796">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="796"/>
+      <c r="N45" s="797"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -36951,26 +36985,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="700" t="s">
+      <c r="H69" s="701" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="701"/>
+      <c r="I69" s="702"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="818">
+      <c r="K69" s="819">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="819"/>
+      <c r="L69" s="820"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="706" t="s">
+      <c r="D70" s="707" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="706"/>
+      <c r="E70" s="707"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1683028.8699999999</v>
@@ -36979,22 +37013,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="736" t="s">
+      <c r="D71" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="736"/>
+      <c r="E71" s="737"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="707" t="s">
+      <c r="I71" s="708" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="708"/>
-      <c r="K71" s="709">
+      <c r="J71" s="709"/>
+      <c r="K71" s="710">
         <f>F73+F74+F75</f>
         <v>2167293.46</v>
       </c>
-      <c r="L71" s="709"/>
+      <c r="L71" s="710"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -37035,11 +37069,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="820">
+      <c r="K73" s="821">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="709"/>
+      <c r="L73" s="710"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -37056,22 +37090,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="689" t="s">
+      <c r="D75" s="690" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="690"/>
+      <c r="E75" s="691"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="691" t="s">
+      <c r="I75" s="692" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="692"/>
-      <c r="K75" s="693">
+      <c r="J75" s="693"/>
+      <c r="K75" s="694">
         <f>K71+K73</f>
         <v>-379688.70000000019</v>
       </c>
-      <c r="L75" s="693"/>
+      <c r="L75" s="694"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -37255,7 +37289,7 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -39164,10 +39198,10 @@
         <f>SUM(F3:F66)</f>
         <v>1303900.4000000001</v>
       </c>
-      <c r="H67" s="789" t="s">
+      <c r="H67" s="790" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="790"/>
+      <c r="I67" s="791"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -39187,11 +39221,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="751" t="s">
+      <c r="F68" s="752" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="791"/>
-      <c r="I68" s="792"/>
+      <c r="H68" s="792"/>
+      <c r="I68" s="793"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -39202,7 +39236,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="752"/>
+      <c r="F69" s="753"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -41142,7 +41176,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="724" t="s">
+      <c r="B41" s="725" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -41174,7 +41208,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="725"/>
+      <c r="B42" s="726"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -42741,8 +42775,8 @@
   </sheetPr>
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -42768,23 +42802,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="713"/>
-      <c r="C1" s="755" t="s">
+      <c r="B1" s="714"/>
+      <c r="C1" s="756" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="756"/>
+      <c r="D1" s="757"/>
+      <c r="E1" s="757"/>
+      <c r="F1" s="757"/>
+      <c r="G1" s="757"/>
+      <c r="H1" s="757"/>
+      <c r="I1" s="757"/>
+      <c r="J1" s="757"/>
+      <c r="K1" s="757"/>
+      <c r="L1" s="757"/>
+      <c r="M1" s="757"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="714"/>
+      <c r="B2" s="715"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42794,24 +42828,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="717" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="718"/>
+      <c r="B3" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="719"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="719" t="s">
+      <c r="H3" s="720" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="719"/>
+      <c r="I3" s="720"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="743" t="s">
+      <c r="P3" s="744" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="753" t="s">
+      <c r="R3" s="754" t="s">
         <v>216</v>
       </c>
     </row>
@@ -42826,14 +42860,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="720" t="s">
+      <c r="E4" s="721" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="721"/>
-      <c r="H4" s="722" t="s">
+      <c r="F4" s="722"/>
+      <c r="H4" s="723" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="723"/>
+      <c r="I4" s="724"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -42843,11 +42877,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="744"/>
+      <c r="P4" s="745"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="754"/>
+      <c r="R4" s="755"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -43474,6 +43508,9 @@
       <c r="N17" s="33">
         <v>54698</v>
       </c>
+      <c r="O17" s="580" t="s">
+        <v>1047</v>
+      </c>
       <c r="P17" s="39">
         <f t="shared" si="1"/>
         <v>130337</v>
@@ -43491,34 +43528,44 @@
       <c r="B18" s="24">
         <v>44759</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="25">
+        <v>13508</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>1046</v>
+      </c>
       <c r="E18" s="27">
         <v>44759</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>128173</v>
+      </c>
       <c r="G18" s="575"/>
       <c r="H18" s="29">
         <v>44759</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30">
+        <v>1634</v>
+      </c>
       <c r="J18" s="37"/>
       <c r="K18" s="567"/>
       <c r="L18" s="39"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <v>83166</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
-      </c>
-      <c r="O18" s="664"/>
+        <v>29065</v>
+      </c>
+      <c r="O18" s="580" t="s">
+        <v>1047</v>
+      </c>
       <c r="P18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>127373</v>
+      </c>
+      <c r="Q18" s="386">
+        <f t="shared" si="0"/>
+        <v>-800</v>
       </c>
       <c r="R18" s="319">
         <v>0</v>
@@ -43529,34 +43576,44 @@
       <c r="B19" s="24">
         <v>44760</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="25">
+        <v>15257</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>1048</v>
+      </c>
       <c r="E19" s="27">
         <v>44760</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>153702</v>
+      </c>
       <c r="G19" s="575"/>
       <c r="H19" s="29">
         <v>44760</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="30">
+        <v>1745</v>
+      </c>
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <v>92159</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
-      </c>
-      <c r="O19" s="664"/>
+        <v>45141</v>
+      </c>
+      <c r="O19" s="580" t="s">
+        <v>1047</v>
+      </c>
       <c r="P19" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>154302</v>
       </c>
       <c r="Q19" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R19" s="319">
         <v>0</v>
@@ -43567,34 +43624,44 @@
       <c r="B20" s="24">
         <v>44761</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="25">
+        <v>5532</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>1049</v>
+      </c>
       <c r="E20" s="27">
         <v>44761</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>100478</v>
+      </c>
       <c r="G20" s="575"/>
       <c r="H20" s="29">
         <v>44761</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="30">
+        <v>3379</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
-      </c>
-      <c r="O20" s="664"/>
+        <v>30790</v>
+      </c>
+      <c r="O20" s="661" t="s">
+        <v>1051</v>
+      </c>
       <c r="P20" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>139701</v>
+      </c>
+      <c r="Q20" s="689">
+        <f t="shared" si="0"/>
+        <v>39223</v>
       </c>
       <c r="R20" s="319">
         <v>0</v>
@@ -43605,34 +43672,45 @@
       <c r="B21" s="24">
         <v>44762</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="25">
+        <v>21598</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>1050</v>
+      </c>
       <c r="E21" s="27">
         <v>44762</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>116923</v>
+      </c>
       <c r="G21" s="575"/>
       <c r="H21" s="29">
         <v>44762</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="30">
+        <v>1707</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="568"/>
       <c r="L21" s="45"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <f>14700+14714</f>
+        <v>29414</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
-      </c>
-      <c r="O21" s="664"/>
+        <v>31157</v>
+      </c>
+      <c r="O21" s="661" t="s">
+        <v>915</v>
+      </c>
       <c r="P21" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83876</v>
+      </c>
+      <c r="Q21" s="386">
+        <f t="shared" si="0"/>
+        <v>-33047</v>
       </c>
       <c r="R21" s="319">
         <v>0</v>
@@ -43643,34 +43721,44 @@
       <c r="B22" s="24">
         <v>44763</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="25">
+        <v>7375</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>1052</v>
+      </c>
       <c r="E22" s="27">
         <v>44763</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>131922</v>
+      </c>
       <c r="G22" s="575"/>
       <c r="H22" s="29">
         <v>44763</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="30">
+        <v>3065</v>
+      </c>
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <v>80325</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
-      </c>
-      <c r="O22" s="664"/>
+        <v>34984</v>
+      </c>
+      <c r="O22" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P22" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125749</v>
+      </c>
+      <c r="Q22" s="386">
+        <f t="shared" si="0"/>
+        <v>-6173</v>
       </c>
       <c r="R22" s="319">
         <v>0</v>
@@ -43681,30 +43769,42 @@
       <c r="B23" s="24">
         <v>44764</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="25">
+        <v>11382</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>1053</v>
+      </c>
       <c r="E23" s="27">
         <v>44764</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>80421</v>
+      </c>
       <c r="G23" s="575"/>
       <c r="H23" s="29">
         <v>44764</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="50"/>
+      <c r="I23" s="30">
+        <v>3798</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>7</v>
+      </c>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <v>40907</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
-      </c>
-      <c r="O23" s="664"/>
+        <v>24334</v>
+      </c>
+      <c r="O23" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P23" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80421</v>
       </c>
       <c r="Q23" s="325">
         <f t="shared" si="0"/>
@@ -43719,30 +43819,46 @@
       <c r="B24" s="24">
         <v>44765</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="25">
+        <v>11080.5</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>1054</v>
+      </c>
       <c r="E24" s="27">
         <v>44765</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>158449</v>
+      </c>
       <c r="G24" s="575"/>
       <c r="H24" s="29">
         <v>44765</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="52"/>
+      <c r="I24" s="30">
+        <v>6764</v>
+      </c>
+      <c r="J24" s="51">
+        <v>44765</v>
+      </c>
+      <c r="K24" s="173" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L24" s="52">
+        <v>20533</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <v>72303.5</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
-      </c>
-      <c r="O24" s="664"/>
+        <v>47768</v>
+      </c>
+      <c r="O24" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P24" s="39">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>158449</v>
       </c>
       <c r="Q24" s="325">
         <f t="shared" si="0"/>
@@ -43815,7 +43931,7 @@
       <c r="N26" s="33">
         <v>0</v>
       </c>
-      <c r="P26" s="284">
+      <c r="P26" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -43852,7 +43968,7 @@
       <c r="N27" s="33">
         <v>0</v>
       </c>
-      <c r="P27" s="39">
+      <c r="P27" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -43889,7 +44005,7 @@
       <c r="N28" s="33">
         <v>0</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P28" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -43926,7 +44042,7 @@
       <c r="N29" s="33">
         <v>0</v>
       </c>
-      <c r="P29" s="34">
+      <c r="P29" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -43963,7 +44079,7 @@
       <c r="N30" s="33">
         <v>0</v>
       </c>
-      <c r="P30" s="34">
+      <c r="P30" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -44106,12 +44222,11 @@
         <v>0</v>
       </c>
       <c r="P34" s="34">
-        <f t="shared" si="1"/>
-        <v>19463.41</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="325">
         <f t="shared" si="0"/>
-        <v>19463.41</v>
+        <v>0</v>
       </c>
       <c r="R34" s="319">
         <v>0</v>
@@ -44143,12 +44258,11 @@
         <v>0</v>
       </c>
       <c r="P35" s="34">
-        <f t="shared" si="1"/>
-        <v>19849.560000000001</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="325">
         <f t="shared" si="0"/>
-        <v>19849.560000000001</v>
+        <v>0</v>
       </c>
       <c r="R35" s="319">
         <v>0</v>
@@ -44164,9 +44278,15 @@
       <c r="G36" s="666"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="560"/>
-      <c r="K36" s="572"/>
-      <c r="L36" s="9"/>
+      <c r="J36" s="560">
+        <v>44765</v>
+      </c>
+      <c r="K36" s="572" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L36" s="9">
+        <v>18868</v>
+      </c>
       <c r="M36" s="32">
         <v>0</v>
       </c>
@@ -44174,7 +44294,6 @@
         <v>0</v>
       </c>
       <c r="P36" s="34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q36" s="325">
@@ -44322,21 +44441,21 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="745">
+      <c r="M41" s="746">
         <f>SUM(M5:M40)</f>
-        <v>602480.5</v>
-      </c>
-      <c r="N41" s="745">
+        <v>1100755</v>
+      </c>
+      <c r="N41" s="746">
         <f>SUM(N5:N40)</f>
-        <v>500173</v>
+        <v>743412</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>1480306.97</v>
-      </c>
-      <c r="Q41" s="793">
+        <v>2310865</v>
+      </c>
+      <c r="Q41" s="794">
         <f>SUM(Q5:Q40)</f>
-        <v>39521.97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44352,10 +44471,10 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="746"/>
-      <c r="N42" s="746"/>
+      <c r="M42" s="747"/>
+      <c r="N42" s="747"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="794"/>
+      <c r="Q42" s="795"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -44406,11 +44525,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="795">
+      <c r="M45" s="796">
         <f>M41+N41</f>
-        <v>1102653.5</v>
-      </c>
-      <c r="N45" s="796"/>
+        <v>1844167</v>
+      </c>
+      <c r="N45" s="797"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -44807,7 +44926,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>255465.5</v>
+        <v>341198</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -44815,7 +44934,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>1375208</v>
+        <v>2245276</v>
       </c>
       <c r="G67" s="576"/>
       <c r="H67" s="91" t="s">
@@ -44823,7 +44942,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>45168</v>
+        <v>67260</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -44831,7 +44950,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)</f>
-        <v>77019.97</v>
+        <v>116420.97</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -44849,50 +44968,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="700" t="s">
+      <c r="H69" s="701" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="701"/>
+      <c r="I69" s="702"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="818">
+      <c r="K69" s="819">
         <f>I67+L67</f>
-        <v>122187.97</v>
-      </c>
-      <c r="L69" s="819"/>
+        <v>183680.97</v>
+      </c>
+      <c r="L69" s="820"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="706" t="s">
+      <c r="D70" s="707" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="706"/>
+      <c r="E70" s="707"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>997554.53</v>
+        <v>1720397.03</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="736" t="s">
+      <c r="D71" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="736"/>
+      <c r="E71" s="737"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="707" t="s">
+      <c r="I71" s="708" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="708"/>
-      <c r="K71" s="709">
+      <c r="J71" s="709"/>
+      <c r="K71" s="710">
         <f>F73+F74+F75</f>
-        <v>3352981.0700000003</v>
-      </c>
-      <c r="L71" s="709"/>
+        <v>4075823.5700000003</v>
+      </c>
+      <c r="L71" s="710"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -44926,18 +45045,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>997554.53</v>
+        <v>1720397.03</v>
       </c>
       <c r="H73" s="558"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="820">
+      <c r="K73" s="821">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="709"/>
+      <c r="L73" s="710"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -44952,22 +45071,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="689" t="s">
+      <c r="D75" s="690" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="690"/>
+      <c r="E75" s="691"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="691" t="s">
+      <c r="I75" s="692" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="692"/>
-      <c r="K75" s="693">
+      <c r="J75" s="693"/>
+      <c r="K75" s="694">
         <f>K71+K73</f>
-        <v>997554.53000000026</v>
-      </c>
-      <c r="L75" s="693"/>
+        <v>1720397.0300000003</v>
+      </c>
+      <c r="L75" s="694"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -46537,10 +46656,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="789" t="s">
+      <c r="H67" s="790" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="790"/>
+      <c r="I67" s="791"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -46560,11 +46679,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="751" t="s">
+      <c r="F68" s="752" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="791"/>
-      <c r="I68" s="792"/>
+      <c r="H68" s="792"/>
+      <c r="I68" s="793"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -46575,7 +46694,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="752"/>
+      <c r="F69" s="753"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -47243,23 +47362,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="713"/>
-      <c r="C1" s="715" t="s">
+      <c r="B1" s="714"/>
+      <c r="C1" s="716" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="716"/>
-      <c r="E1" s="716"/>
-      <c r="F1" s="716"/>
-      <c r="G1" s="716"/>
-      <c r="H1" s="716"/>
-      <c r="I1" s="716"/>
-      <c r="J1" s="716"/>
-      <c r="K1" s="716"/>
-      <c r="L1" s="716"/>
-      <c r="M1" s="716"/>
+      <c r="D1" s="717"/>
+      <c r="E1" s="717"/>
+      <c r="F1" s="717"/>
+      <c r="G1" s="717"/>
+      <c r="H1" s="717"/>
+      <c r="I1" s="717"/>
+      <c r="J1" s="717"/>
+      <c r="K1" s="717"/>
+      <c r="L1" s="717"/>
+      <c r="M1" s="717"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="714"/>
+      <c r="B2" s="715"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -47269,21 +47388,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="717" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="718"/>
+      <c r="B3" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="719"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="719" t="s">
+      <c r="H3" s="720" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="719"/>
+      <c r="I3" s="720"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="743" t="s">
+      <c r="P3" s="744" t="s">
         <v>6</v>
       </c>
     </row>
@@ -47298,14 +47417,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="720" t="s">
+      <c r="E4" s="721" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="721"/>
-      <c r="H4" s="722" t="s">
+      <c r="F4" s="722"/>
+      <c r="H4" s="723" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="723"/>
+      <c r="I4" s="724"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -47315,14 +47434,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="744"/>
+      <c r="P4" s="745"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="726" t="s">
+      <c r="W4" s="727" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="726"/>
+      <c r="X4" s="727"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47373,8 +47492,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="726"/>
-      <c r="X5" s="726"/>
+      <c r="W5" s="727"/>
+      <c r="X5" s="727"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48145,7 +48264,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="730">
+      <c r="W19" s="731">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -48197,7 +48316,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="731"/>
+      <c r="W20" s="732"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -48246,8 +48365,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="732"/>
-      <c r="X21" s="732"/>
+      <c r="W21" s="733"/>
+      <c r="X21" s="733"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -48348,8 +48467,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="733"/>
-      <c r="X23" s="733"/>
+      <c r="W23" s="734"/>
+      <c r="X23" s="734"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -48403,8 +48522,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="733"/>
-      <c r="X24" s="733"/>
+      <c r="W24" s="734"/>
+      <c r="X24" s="734"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -48450,8 +48569,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="734"/>
-      <c r="X25" s="734"/>
+      <c r="W25" s="735"/>
+      <c r="X25" s="735"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -48502,8 +48621,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="734"/>
-      <c r="X26" s="734"/>
+      <c r="W26" s="735"/>
+      <c r="X26" s="735"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -48551,9 +48670,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="727"/>
-      <c r="X27" s="728"/>
-      <c r="Y27" s="729"/>
+      <c r="W27" s="728"/>
+      <c r="X27" s="729"/>
+      <c r="Y27" s="730"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48603,9 +48722,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="728"/>
-      <c r="X28" s="728"/>
-      <c r="Y28" s="729"/>
+      <c r="W28" s="729"/>
+      <c r="X28" s="729"/>
+      <c r="Y28" s="730"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48940,11 +49059,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="745">
+      <c r="M36" s="746">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="747">
+      <c r="N36" s="748">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -48952,7 +49071,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="749">
+      <c r="Q36" s="750">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -48987,13 +49106,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="746"/>
-      <c r="N37" s="748"/>
+      <c r="M37" s="747"/>
+      <c r="N37" s="749"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="750"/>
+      <c r="Q37" s="751"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -49283,26 +49402,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="700" t="s">
+      <c r="H52" s="701" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="701"/>
+      <c r="I52" s="702"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="702">
+      <c r="K52" s="703">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="735"/>
+      <c r="L52" s="736"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="706" t="s">
+      <c r="D53" s="707" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="706"/>
+      <c r="E53" s="707"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -49311,29 +49430,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="736" t="s">
+      <c r="D54" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="736"/>
+      <c r="E54" s="737"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="707" t="s">
+      <c r="I54" s="708" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="708"/>
-      <c r="K54" s="709">
+      <c r="J54" s="709"/>
+      <c r="K54" s="710">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="709"/>
-      <c r="M54" s="737" t="s">
+      <c r="L54" s="710"/>
+      <c r="M54" s="738" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="738"/>
-      <c r="O54" s="738"/>
-      <c r="P54" s="738"/>
-      <c r="Q54" s="739"/>
+      <c r="N54" s="739"/>
+      <c r="O54" s="739"/>
+      <c r="P54" s="739"/>
+      <c r="Q54" s="740"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -49347,11 +49466,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="740"/>
-      <c r="N55" s="741"/>
-      <c r="O55" s="741"/>
-      <c r="P55" s="741"/>
-      <c r="Q55" s="742"/>
+      <c r="M55" s="741"/>
+      <c r="N55" s="742"/>
+      <c r="O55" s="742"/>
+      <c r="P55" s="742"/>
+      <c r="Q55" s="743"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -49369,11 +49488,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="711">
+      <c r="K56" s="712">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="712"/>
+      <c r="L56" s="713"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -49390,22 +49509,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="689" t="s">
+      <c r="D58" s="690" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="690"/>
+      <c r="E58" s="691"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="691" t="s">
+      <c r="I58" s="692" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="692"/>
-      <c r="K58" s="693">
+      <c r="J58" s="693"/>
+      <c r="K58" s="694">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="693"/>
+      <c r="L58" s="694"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -51995,7 +52114,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="751" t="s">
+      <c r="F87" s="752" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -52008,7 +52127,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="752"/>
+      <c r="F88" s="753"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -52320,23 +52439,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="713"/>
-      <c r="C1" s="715" t="s">
+      <c r="B1" s="714"/>
+      <c r="C1" s="716" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="716"/>
-      <c r="E1" s="716"/>
-      <c r="F1" s="716"/>
-      <c r="G1" s="716"/>
-      <c r="H1" s="716"/>
-      <c r="I1" s="716"/>
-      <c r="J1" s="716"/>
-      <c r="K1" s="716"/>
-      <c r="L1" s="716"/>
-      <c r="M1" s="716"/>
+      <c r="D1" s="717"/>
+      <c r="E1" s="717"/>
+      <c r="F1" s="717"/>
+      <c r="G1" s="717"/>
+      <c r="H1" s="717"/>
+      <c r="I1" s="717"/>
+      <c r="J1" s="717"/>
+      <c r="K1" s="717"/>
+      <c r="L1" s="717"/>
+      <c r="M1" s="717"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="714"/>
+      <c r="B2" s="715"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -52346,24 +52465,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="717" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="718"/>
+      <c r="B3" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="719"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="719" t="s">
+      <c r="H3" s="720" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="719"/>
+      <c r="I3" s="720"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="743" t="s">
+      <c r="P3" s="744" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="753" t="s">
+      <c r="R3" s="754" t="s">
         <v>216</v>
       </c>
     </row>
@@ -52378,14 +52497,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="720" t="s">
+      <c r="E4" s="721" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="721"/>
-      <c r="H4" s="722" t="s">
+      <c r="F4" s="722"/>
+      <c r="H4" s="723" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="723"/>
+      <c r="I4" s="724"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -52395,15 +52514,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="744"/>
+      <c r="P4" s="745"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="754"/>
-      <c r="W4" s="726" t="s">
+      <c r="R4" s="755"/>
+      <c r="W4" s="727" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="726"/>
+      <c r="X4" s="727"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52464,8 +52583,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="726"/>
-      <c r="X5" s="726"/>
+      <c r="W5" s="727"/>
+      <c r="X5" s="727"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53222,7 +53341,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="730">
+      <c r="W19" s="731">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -53274,7 +53393,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="731"/>
+      <c r="W20" s="732"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -53323,8 +53442,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="732"/>
-      <c r="X21" s="732"/>
+      <c r="W21" s="733"/>
+      <c r="X21" s="733"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -53425,8 +53544,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="733"/>
-      <c r="X23" s="733"/>
+      <c r="W23" s="734"/>
+      <c r="X23" s="734"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -53477,8 +53596,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="733"/>
-      <c r="X24" s="733"/>
+      <c r="W24" s="734"/>
+      <c r="X24" s="734"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -53524,8 +53643,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="734"/>
-      <c r="X25" s="734"/>
+      <c r="W25" s="735"/>
+      <c r="X25" s="735"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -53573,8 +53692,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="734"/>
-      <c r="X26" s="734"/>
+      <c r="W26" s="735"/>
+      <c r="X26" s="735"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -53634,9 +53753,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="727"/>
-      <c r="X27" s="728"/>
-      <c r="Y27" s="729"/>
+      <c r="W27" s="728"/>
+      <c r="X27" s="729"/>
+      <c r="Y27" s="730"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53690,9 +53809,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="728"/>
-      <c r="X28" s="728"/>
-      <c r="Y28" s="729"/>
+      <c r="W28" s="729"/>
+      <c r="X28" s="729"/>
+      <c r="Y28" s="730"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54008,11 +54127,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="745">
+      <c r="M36" s="746">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="747">
+      <c r="N36" s="748">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -54020,7 +54139,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="749">
+      <c r="Q36" s="750">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -54039,13 +54158,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="746"/>
-      <c r="N37" s="748"/>
+      <c r="M37" s="747"/>
+      <c r="N37" s="749"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="750"/>
+      <c r="Q37" s="751"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -54319,26 +54438,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="700" t="s">
+      <c r="H52" s="701" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="701"/>
+      <c r="I52" s="702"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="702">
+      <c r="K52" s="703">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="735"/>
+      <c r="L52" s="736"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="706" t="s">
+      <c r="D53" s="707" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="706"/>
+      <c r="E53" s="707"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -54347,29 +54466,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="736" t="s">
+      <c r="D54" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="736"/>
+      <c r="E54" s="737"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="707" t="s">
+      <c r="I54" s="708" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="708"/>
-      <c r="K54" s="709">
+      <c r="J54" s="709"/>
+      <c r="K54" s="710">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="709"/>
-      <c r="M54" s="737" t="s">
+      <c r="L54" s="710"/>
+      <c r="M54" s="738" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="738"/>
-      <c r="O54" s="738"/>
-      <c r="P54" s="738"/>
-      <c r="Q54" s="739"/>
+      <c r="N54" s="739"/>
+      <c r="O54" s="739"/>
+      <c r="P54" s="739"/>
+      <c r="Q54" s="740"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -54383,11 +54502,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="740"/>
-      <c r="N55" s="741"/>
-      <c r="O55" s="741"/>
-      <c r="P55" s="741"/>
-      <c r="Q55" s="742"/>
+      <c r="M55" s="741"/>
+      <c r="N55" s="742"/>
+      <c r="O55" s="742"/>
+      <c r="P55" s="742"/>
+      <c r="Q55" s="743"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -54405,11 +54524,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="711">
+      <c r="K56" s="712">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="712"/>
+      <c r="L56" s="713"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -54426,22 +54545,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="689" t="s">
+      <c r="D58" s="690" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="690"/>
+      <c r="E58" s="691"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="691" t="s">
+      <c r="I58" s="692" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="692"/>
-      <c r="K58" s="693">
+      <c r="J58" s="693"/>
+      <c r="K58" s="694">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="693"/>
+      <c r="L58" s="694"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -57004,7 +57123,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="751" t="s">
+      <c r="F75" s="752" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -57017,7 +57136,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="752"/>
+      <c r="F76" s="753"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -57309,23 +57428,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="713"/>
-      <c r="C1" s="755" t="s">
+      <c r="B1" s="714"/>
+      <c r="C1" s="756" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="756"/>
+      <c r="D1" s="757"/>
+      <c r="E1" s="757"/>
+      <c r="F1" s="757"/>
+      <c r="G1" s="757"/>
+      <c r="H1" s="757"/>
+      <c r="I1" s="757"/>
+      <c r="J1" s="757"/>
+      <c r="K1" s="757"/>
+      <c r="L1" s="757"/>
+      <c r="M1" s="757"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="714"/>
+      <c r="B2" s="715"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -57335,24 +57454,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="717" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="718"/>
+      <c r="B3" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="719"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="719" t="s">
+      <c r="H3" s="720" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="719"/>
+      <c r="I3" s="720"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="743" t="s">
+      <c r="P3" s="744" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="753" t="s">
+      <c r="R3" s="754" t="s">
         <v>216</v>
       </c>
     </row>
@@ -57367,14 +57486,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="720" t="s">
+      <c r="E4" s="721" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="721"/>
-      <c r="H4" s="722" t="s">
+      <c r="F4" s="722"/>
+      <c r="H4" s="723" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="723"/>
+      <c r="I4" s="724"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -57384,15 +57503,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="744"/>
+      <c r="P4" s="745"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="754"/>
-      <c r="W4" s="726" t="s">
+      <c r="R4" s="755"/>
+      <c r="W4" s="727" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="726"/>
+      <c r="X4" s="727"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57443,8 +57562,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="726"/>
-      <c r="X5" s="726"/>
+      <c r="W5" s="727"/>
+      <c r="X5" s="727"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58208,7 +58327,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="730">
+      <c r="W19" s="731">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -58261,7 +58380,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="731"/>
+      <c r="W20" s="732"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -58310,8 +58429,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="732"/>
-      <c r="X21" s="732"/>
+      <c r="W21" s="733"/>
+      <c r="X21" s="733"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -58411,8 +58530,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="733"/>
-      <c r="X23" s="733"/>
+      <c r="W23" s="734"/>
+      <c r="X23" s="734"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -58467,8 +58586,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="733"/>
-      <c r="X24" s="733"/>
+      <c r="W24" s="734"/>
+      <c r="X24" s="734"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -58513,8 +58632,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="734"/>
-      <c r="X25" s="734"/>
+      <c r="W25" s="735"/>
+      <c r="X25" s="735"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -58562,8 +58681,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="734"/>
-      <c r="X26" s="734"/>
+      <c r="W26" s="735"/>
+      <c r="X26" s="735"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -58617,9 +58736,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="727"/>
-      <c r="X27" s="728"/>
-      <c r="Y27" s="729"/>
+      <c r="W27" s="728"/>
+      <c r="X27" s="729"/>
+      <c r="Y27" s="730"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58673,9 +58792,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="728"/>
-      <c r="X28" s="728"/>
-      <c r="Y28" s="729"/>
+      <c r="W28" s="729"/>
+      <c r="X28" s="729"/>
+      <c r="Y28" s="730"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58986,11 +59105,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="745">
+      <c r="M36" s="746">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="747">
+      <c r="N36" s="748">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -58998,7 +59117,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="749">
+      <c r="Q36" s="750">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -59023,13 +59142,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="746"/>
-      <c r="N37" s="748"/>
+      <c r="M37" s="747"/>
+      <c r="N37" s="749"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="750"/>
+      <c r="Q37" s="751"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -59322,26 +59441,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="700" t="s">
+      <c r="H52" s="701" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="701"/>
+      <c r="I52" s="702"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="702">
+      <c r="K52" s="703">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="735"/>
+      <c r="L52" s="736"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="706" t="s">
+      <c r="D53" s="707" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="706"/>
+      <c r="E53" s="707"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -59350,22 +59469,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="736" t="s">
+      <c r="D54" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="736"/>
+      <c r="E54" s="737"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="707" t="s">
+      <c r="I54" s="708" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="708"/>
-      <c r="K54" s="709">
+      <c r="J54" s="709"/>
+      <c r="K54" s="710">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="709"/>
+      <c r="L54" s="710"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -59406,11 +59525,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="711">
+      <c r="K56" s="712">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="712"/>
+      <c r="L56" s="713"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -59427,22 +59546,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="689" t="s">
+      <c r="D58" s="690" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="690"/>
+      <c r="E58" s="691"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="691" t="s">
+      <c r="I58" s="692" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="692"/>
-      <c r="K58" s="693">
+      <c r="J58" s="693"/>
+      <c r="K58" s="694">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="693"/>
+      <c r="L58" s="694"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -61311,12 +61430,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="757" t="s">
+      <c r="B43" s="758" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="758"/>
-      <c r="D43" s="758"/>
-      <c r="E43" s="759"/>
+      <c r="C43" s="759"/>
+      <c r="D43" s="759"/>
+      <c r="E43" s="760"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61344,10 +61463,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="760"/>
-      <c r="C44" s="761"/>
-      <c r="D44" s="761"/>
-      <c r="E44" s="762"/>
+      <c r="B44" s="761"/>
+      <c r="C44" s="762"/>
+      <c r="D44" s="762"/>
+      <c r="E44" s="763"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61375,10 +61494,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="763"/>
-      <c r="C45" s="764"/>
-      <c r="D45" s="764"/>
-      <c r="E45" s="765"/>
+      <c r="B45" s="764"/>
+      <c r="C45" s="765"/>
+      <c r="D45" s="765"/>
+      <c r="E45" s="766"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61421,10 +61540,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="772" t="s">
+      <c r="B47" s="773" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="773"/>
+      <c r="C47" s="774"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -61446,8 +61565,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="774"/>
-      <c r="C48" s="775"/>
+      <c r="B48" s="775"/>
+      <c r="C48" s="776"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -61455,11 +61574,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="766" t="s">
+      <c r="J48" s="767" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="767"/>
-      <c r="L48" s="768"/>
+      <c r="K48" s="768"/>
+      <c r="L48" s="769"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -61477,9 +61596,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="769"/>
-      <c r="K49" s="770"/>
-      <c r="L49" s="771"/>
+      <c r="J49" s="770"/>
+      <c r="K49" s="771"/>
+      <c r="L49" s="772"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -61496,10 +61615,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="776" t="s">
+      <c r="I50" s="777" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="777"/>
+      <c r="J50" s="778"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -61520,8 +61639,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="776"/>
-      <c r="J51" s="777"/>
+      <c r="I51" s="777"/>
+      <c r="J51" s="778"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -61540,8 +61659,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="776"/>
-      <c r="J52" s="777"/>
+      <c r="I52" s="777"/>
+      <c r="J52" s="778"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -61560,8 +61679,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="776"/>
-      <c r="J53" s="777"/>
+      <c r="I53" s="777"/>
+      <c r="J53" s="778"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -61580,8 +61699,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="776"/>
-      <c r="J54" s="777"/>
+      <c r="I54" s="777"/>
+      <c r="J54" s="778"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -61600,8 +61719,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="776"/>
-      <c r="J55" s="777"/>
+      <c r="I55" s="777"/>
+      <c r="J55" s="778"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -61620,8 +61739,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="776"/>
-      <c r="J56" s="777"/>
+      <c r="I56" s="777"/>
+      <c r="J56" s="778"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -61640,8 +61759,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="776"/>
-      <c r="J57" s="777"/>
+      <c r="I57" s="777"/>
+      <c r="J57" s="778"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -61660,8 +61779,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="776"/>
-      <c r="J58" s="777"/>
+      <c r="I58" s="777"/>
+      <c r="J58" s="778"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -61680,8 +61799,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="776"/>
-      <c r="J59" s="777"/>
+      <c r="I59" s="777"/>
+      <c r="J59" s="778"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -61700,8 +61819,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="776"/>
-      <c r="J60" s="777"/>
+      <c r="I60" s="777"/>
+      <c r="J60" s="778"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -61720,8 +61839,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="776"/>
-      <c r="J61" s="777"/>
+      <c r="I61" s="777"/>
+      <c r="J61" s="778"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -61740,8 +61859,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="776"/>
-      <c r="J62" s="777"/>
+      <c r="I62" s="777"/>
+      <c r="J62" s="778"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -61760,8 +61879,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="776"/>
-      <c r="J63" s="777"/>
+      <c r="I63" s="777"/>
+      <c r="J63" s="778"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -61780,8 +61899,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="776"/>
-      <c r="J64" s="777"/>
+      <c r="I64" s="777"/>
+      <c r="J64" s="778"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -61800,8 +61919,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="776"/>
-      <c r="J65" s="777"/>
+      <c r="I65" s="777"/>
+      <c r="J65" s="778"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -61820,8 +61939,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="776"/>
-      <c r="J66" s="777"/>
+      <c r="I66" s="777"/>
+      <c r="J66" s="778"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -61840,8 +61959,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="776"/>
-      <c r="J67" s="777"/>
+      <c r="I67" s="777"/>
+      <c r="J67" s="778"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -61860,8 +61979,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="776"/>
-      <c r="J68" s="777"/>
+      <c r="I68" s="777"/>
+      <c r="J68" s="778"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -61880,8 +61999,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="776"/>
-      <c r="J69" s="777"/>
+      <c r="I69" s="777"/>
+      <c r="J69" s="778"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -61900,8 +62019,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="776"/>
-      <c r="J70" s="777"/>
+      <c r="I70" s="777"/>
+      <c r="J70" s="778"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -61920,8 +62039,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="776"/>
-      <c r="J71" s="777"/>
+      <c r="I71" s="777"/>
+      <c r="J71" s="778"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -61940,8 +62059,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="776"/>
-      <c r="J72" s="777"/>
+      <c r="I72" s="777"/>
+      <c r="J72" s="778"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -61960,8 +62079,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="776"/>
-      <c r="J73" s="777"/>
+      <c r="I73" s="777"/>
+      <c r="J73" s="778"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -61980,8 +62099,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="776"/>
-      <c r="J74" s="777"/>
+      <c r="I74" s="777"/>
+      <c r="J74" s="778"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -62000,8 +62119,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="776"/>
-      <c r="J75" s="777"/>
+      <c r="I75" s="777"/>
+      <c r="J75" s="778"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -62020,8 +62139,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="776"/>
-      <c r="J76" s="777"/>
+      <c r="I76" s="777"/>
+      <c r="J76" s="778"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -62040,8 +62159,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="776"/>
-      <c r="J77" s="777"/>
+      <c r="I77" s="777"/>
+      <c r="J77" s="778"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -62062,8 +62181,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="778"/>
-      <c r="J78" s="779"/>
+      <c r="I78" s="779"/>
+      <c r="J78" s="780"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -62108,7 +62227,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="751" t="s">
+      <c r="F80" s="752" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -62120,7 +62239,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="752"/>
+      <c r="F81" s="753"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -62408,23 +62527,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="713"/>
-      <c r="C1" s="755" t="s">
+      <c r="B1" s="714"/>
+      <c r="C1" s="756" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="756"/>
+      <c r="D1" s="757"/>
+      <c r="E1" s="757"/>
+      <c r="F1" s="757"/>
+      <c r="G1" s="757"/>
+      <c r="H1" s="757"/>
+      <c r="I1" s="757"/>
+      <c r="J1" s="757"/>
+      <c r="K1" s="757"/>
+      <c r="L1" s="757"/>
+      <c r="M1" s="757"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="714"/>
+      <c r="B2" s="715"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -62434,24 +62553,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="717" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="718"/>
+      <c r="B3" s="718" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="719"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="719" t="s">
+      <c r="H3" s="720" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="719"/>
+      <c r="I3" s="720"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="743" t="s">
+      <c r="P3" s="744" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="753" t="s">
+      <c r="R3" s="754" t="s">
         <v>216</v>
       </c>
     </row>
@@ -62466,14 +62585,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="720" t="s">
+      <c r="E4" s="721" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="721"/>
-      <c r="H4" s="722" t="s">
+      <c r="F4" s="722"/>
+      <c r="H4" s="723" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="723"/>
+      <c r="I4" s="724"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -62483,15 +62602,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="744"/>
+      <c r="P4" s="745"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="754"/>
-      <c r="W4" s="726" t="s">
+      <c r="R4" s="755"/>
+      <c r="W4" s="727" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="726"/>
+      <c r="X4" s="727"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62542,8 +62661,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="726"/>
-      <c r="X5" s="726"/>
+      <c r="W5" s="727"/>
+      <c r="X5" s="727"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63304,7 +63423,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="730">
+      <c r="W19" s="731">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -63356,7 +63475,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="731"/>
+      <c r="W20" s="732"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -63405,8 +63524,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="732"/>
-      <c r="X21" s="732"/>
+      <c r="W21" s="733"/>
+      <c r="X21" s="733"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -63505,8 +63624,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="733"/>
-      <c r="X23" s="733"/>
+      <c r="W23" s="734"/>
+      <c r="X23" s="734"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -63561,8 +63680,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="733"/>
-      <c r="X24" s="733"/>
+      <c r="W24" s="734"/>
+      <c r="X24" s="734"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -63610,8 +63729,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="734"/>
-      <c r="X25" s="734"/>
+      <c r="W25" s="735"/>
+      <c r="X25" s="735"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -63659,8 +63778,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="734"/>
-      <c r="X26" s="734"/>
+      <c r="W26" s="735"/>
+      <c r="X26" s="735"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -63708,9 +63827,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="727"/>
-      <c r="X27" s="728"/>
-      <c r="Y27" s="729"/>
+      <c r="W27" s="728"/>
+      <c r="X27" s="729"/>
+      <c r="Y27" s="730"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63758,9 +63877,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="728"/>
-      <c r="X28" s="728"/>
-      <c r="Y28" s="729"/>
+      <c r="W28" s="729"/>
+      <c r="X28" s="729"/>
+      <c r="Y28" s="730"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64101,11 +64220,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="745">
+      <c r="M36" s="746">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="747">
+      <c r="N36" s="748">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -64113,7 +64232,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="780">
+      <c r="Q36" s="781">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -64138,13 +64257,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="746"/>
-      <c r="N37" s="748"/>
+      <c r="M37" s="747"/>
+      <c r="N37" s="749"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="781"/>
+      <c r="Q37" s="782"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -64194,11 +64313,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="782">
+      <c r="M39" s="783">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="783"/>
+      <c r="N39" s="784"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -64446,26 +64565,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="700" t="s">
+      <c r="H52" s="701" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="701"/>
+      <c r="I52" s="702"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="702">
+      <c r="K52" s="703">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="735"/>
+      <c r="L52" s="736"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="706" t="s">
+      <c r="D53" s="707" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="706"/>
+      <c r="E53" s="707"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -64474,22 +64593,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="736" t="s">
+      <c r="D54" s="737" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="736"/>
+      <c r="E54" s="737"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="707" t="s">
+      <c r="I54" s="708" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="708"/>
-      <c r="K54" s="709">
+      <c r="J54" s="709"/>
+      <c r="K54" s="710">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="709"/>
+      <c r="L54" s="710"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -64530,11 +64649,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="711">
+      <c r="K56" s="712">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="712"/>
+      <c r="L56" s="713"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -64551,22 +64670,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="689" t="s">
+      <c r="D58" s="690" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="690"/>
+      <c r="E58" s="691"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="691" t="s">
+      <c r="I58" s="692" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="692"/>
-      <c r="K58" s="693">
+      <c r="J58" s="693"/>
+      <c r="K58" s="694">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="693"/>
+      <c r="L58" s="694"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="1070">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3978,6 +3978,66 @@
   </si>
   <si>
     <t>Nomina #30</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-TOCINETA-PEPERONI</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-CHISTORRA-LONGANIZA-PATA-PICAÑA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Docto</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. NOTAS</t>
+    </r>
+  </si>
+  <si>
+    <t>QUESOS-SALCHICHA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESO-JAMON-PATA-CHULETA-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>QUESOS-CREMA-POLLO-PAVO-LONGANIZA</t>
+  </si>
+  <si>
+    <t>QUESOS-SALSAS-POLLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-PATA</t>
+  </si>
+  <si>
+    <t>Nomina # 31 y Vacaciones</t>
+  </si>
+  <si>
+    <t>Nomina #31</t>
+  </si>
+  <si>
+    <t>ENCHILADA-LONGANIZA-POLLO</t>
+  </si>
+  <si>
+    <t>Abastos/NLP</t>
   </si>
 </sst>
 </file>
@@ -6017,7 +6077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="830">
+  <cellXfs count="835">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -7432,6 +7492,13 @@
     <xf numFmtId="165" fontId="73" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="73" fillId="14" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="13" fillId="14" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7852,6 +7919,12 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7861,10 +7934,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FF00FF99"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF990033"/>
@@ -12653,23 +12726,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="714"/>
-      <c r="C1" s="716" t="s">
+      <c r="B1" s="717"/>
+      <c r="C1" s="719" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="717"/>
-      <c r="E1" s="717"/>
-      <c r="F1" s="717"/>
-      <c r="G1" s="717"/>
-      <c r="H1" s="717"/>
-      <c r="I1" s="717"/>
-      <c r="J1" s="717"/>
-      <c r="K1" s="717"/>
-      <c r="L1" s="717"/>
-      <c r="M1" s="717"/>
+      <c r="D1" s="720"/>
+      <c r="E1" s="720"/>
+      <c r="F1" s="720"/>
+      <c r="G1" s="720"/>
+      <c r="H1" s="720"/>
+      <c r="I1" s="720"/>
+      <c r="J1" s="720"/>
+      <c r="K1" s="720"/>
+      <c r="L1" s="720"/>
+      <c r="M1" s="720"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="715"/>
+      <c r="B2" s="718"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12679,17 +12752,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="719"/>
+      <c r="B3" s="721" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="722"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="720" t="s">
+      <c r="H3" s="723" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="720"/>
+      <c r="I3" s="723"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -12703,14 +12776,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="721" t="s">
+      <c r="E4" s="724" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="722"/>
-      <c r="H4" s="723" t="s">
+      <c r="F4" s="725"/>
+      <c r="H4" s="726" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="724"/>
+      <c r="I4" s="727"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12720,10 +12793,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="695" t="s">
+      <c r="P4" s="698" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="696"/>
+      <c r="Q4" s="699"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -14164,11 +14237,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="697">
+      <c r="M39" s="700">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="699">
+      <c r="N39" s="702">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -14194,8 +14267,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="698"/>
-      <c r="N40" s="700"/>
+      <c r="M40" s="701"/>
+      <c r="N40" s="703"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -14410,29 +14483,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="701" t="s">
+      <c r="H52" s="704" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="702"/>
+      <c r="I52" s="705"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="703">
+      <c r="K52" s="706">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="704"/>
-      <c r="M52" s="705">
+      <c r="L52" s="707"/>
+      <c r="M52" s="708">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="706"/>
+      <c r="N52" s="709"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="707" t="s">
+      <c r="D53" s="710" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="707"/>
+      <c r="E53" s="710"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -14443,22 +14516,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="707" t="s">
+      <c r="D54" s="710" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="707"/>
+      <c r="E54" s="710"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="708" t="s">
+      <c r="I54" s="711" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="709"/>
-      <c r="K54" s="710">
+      <c r="J54" s="712"/>
+      <c r="K54" s="713">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="711"/>
+      <c r="L54" s="714"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -14491,11 +14564,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="712">
+      <c r="K56" s="715">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="713"/>
+      <c r="L56" s="716"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -14512,22 +14585,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="690" t="s">
+      <c r="D58" s="693" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="691"/>
+      <c r="E58" s="694"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="692" t="s">
+      <c r="I58" s="695" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="693"/>
-      <c r="K58" s="694">
+      <c r="J58" s="696"/>
+      <c r="K58" s="697">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="694"/>
+      <c r="L58" s="697"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -17151,10 +17224,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="786" t="s">
+      <c r="I76" s="789" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="787"/>
+      <c r="J76" s="790"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -17173,8 +17246,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="788"/>
-      <c r="J77" s="789"/>
+      <c r="I77" s="791"/>
+      <c r="J77" s="792"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -17241,7 +17314,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="752" t="s">
+      <c r="F80" s="755" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -17256,7 +17329,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="753"/>
+      <c r="F81" s="756"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -17264,10 +17337,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="785" t="s">
+      <c r="B82" s="788" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="785"/>
+      <c r="C82" s="788"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -17549,23 +17622,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="714"/>
-      <c r="C1" s="756" t="s">
+      <c r="B1" s="717"/>
+      <c r="C1" s="759" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
+      <c r="D1" s="760"/>
+      <c r="E1" s="760"/>
+      <c r="F1" s="760"/>
+      <c r="G1" s="760"/>
+      <c r="H1" s="760"/>
+      <c r="I1" s="760"/>
+      <c r="J1" s="760"/>
+      <c r="K1" s="760"/>
+      <c r="L1" s="760"/>
+      <c r="M1" s="760"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="715"/>
+      <c r="B2" s="718"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17575,24 +17648,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="719"/>
+      <c r="B3" s="721" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="722"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="720" t="s">
+      <c r="H3" s="723" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="720"/>
+      <c r="I3" s="723"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="744" t="s">
+      <c r="P3" s="747" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="754" t="s">
+      <c r="R3" s="757" t="s">
         <v>216</v>
       </c>
     </row>
@@ -17607,14 +17680,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="721" t="s">
+      <c r="E4" s="724" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="722"/>
-      <c r="H4" s="723" t="s">
+      <c r="F4" s="725"/>
+      <c r="H4" s="726" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="724"/>
+      <c r="I4" s="727"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -17624,15 +17697,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="745"/>
+      <c r="P4" s="748"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="755"/>
-      <c r="W4" s="727" t="s">
+      <c r="R4" s="758"/>
+      <c r="W4" s="730" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="727"/>
+      <c r="X4" s="730"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17683,8 +17756,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="727"/>
-      <c r="X5" s="727"/>
+      <c r="W5" s="730"/>
+      <c r="X5" s="730"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18447,7 +18520,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="731">
+      <c r="W19" s="734">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -18499,7 +18572,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="732"/>
+      <c r="W20" s="735"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -18548,8 +18621,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="733"/>
-      <c r="X21" s="733"/>
+      <c r="W21" s="736"/>
+      <c r="X21" s="736"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -18649,8 +18722,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="734"/>
-      <c r="X23" s="734"/>
+      <c r="W23" s="737"/>
+      <c r="X23" s="737"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -18705,8 +18778,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="734"/>
-      <c r="X24" s="734"/>
+      <c r="W24" s="737"/>
+      <c r="X24" s="737"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -18754,8 +18827,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="735"/>
-      <c r="X25" s="735"/>
+      <c r="W25" s="738"/>
+      <c r="X25" s="738"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -18804,8 +18877,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="735"/>
-      <c r="X26" s="735"/>
+      <c r="W26" s="738"/>
+      <c r="X26" s="738"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -18853,9 +18926,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="728"/>
-      <c r="X27" s="729"/>
-      <c r="Y27" s="730"/>
+      <c r="W27" s="731"/>
+      <c r="X27" s="732"/>
+      <c r="Y27" s="733"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18903,9 +18976,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="729"/>
-      <c r="X28" s="729"/>
-      <c r="Y28" s="730"/>
+      <c r="W28" s="732"/>
+      <c r="X28" s="732"/>
+      <c r="Y28" s="733"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19237,11 +19310,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="746">
+      <c r="M36" s="749">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="748">
+      <c r="N36" s="751">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -19249,7 +19322,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="781">
+      <c r="Q36" s="784">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -19274,13 +19347,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="747"/>
-      <c r="N37" s="749"/>
+      <c r="M37" s="750"/>
+      <c r="N37" s="752"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="782"/>
+      <c r="Q37" s="785"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -19330,11 +19403,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="783">
+      <c r="M39" s="786">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="784"/>
+      <c r="N39" s="787"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -19962,26 +20035,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="701" t="s">
+      <c r="H68" s="704" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="702"/>
+      <c r="I68" s="705"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="703">
+      <c r="K68" s="706">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="736"/>
+      <c r="L68" s="739"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="707" t="s">
+      <c r="D69" s="710" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="707"/>
+      <c r="E69" s="710"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19990,22 +20063,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="737" t="s">
+      <c r="D70" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="737"/>
+      <c r="E70" s="740"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="708" t="s">
+      <c r="I70" s="711" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="709"/>
-      <c r="K70" s="710">
+      <c r="J70" s="712"/>
+      <c r="K70" s="713">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="710"/>
+      <c r="L70" s="713"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -20046,11 +20119,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="712">
+      <c r="K72" s="715">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="713"/>
+      <c r="L72" s="716"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -20067,22 +20140,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="690" t="s">
+      <c r="D74" s="693" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="691"/>
+      <c r="E74" s="694"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="692" t="s">
+      <c r="I74" s="695" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="693"/>
-      <c r="K74" s="694">
+      <c r="J74" s="696"/>
+      <c r="K74" s="697">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="694"/>
+      <c r="L74" s="697"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -22526,7 +22599,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="752" t="s">
+      <c r="F80" s="755" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -22539,7 +22612,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="753"/>
+      <c r="F81" s="756"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -22559,10 +22632,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="790" t="s">
+      <c r="I83" s="793" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="791"/>
+      <c r="J83" s="794"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -22571,8 +22644,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="792"/>
-      <c r="J84" s="793"/>
+      <c r="I84" s="795"/>
+      <c r="J84" s="796"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -22844,23 +22917,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="714"/>
-      <c r="C1" s="756" t="s">
+      <c r="B1" s="717"/>
+      <c r="C1" s="759" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
+      <c r="D1" s="760"/>
+      <c r="E1" s="760"/>
+      <c r="F1" s="760"/>
+      <c r="G1" s="760"/>
+      <c r="H1" s="760"/>
+      <c r="I1" s="760"/>
+      <c r="J1" s="760"/>
+      <c r="K1" s="760"/>
+      <c r="L1" s="760"/>
+      <c r="M1" s="760"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="715"/>
+      <c r="B2" s="718"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22870,24 +22943,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="719"/>
+      <c r="B3" s="721" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="722"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="720" t="s">
+      <c r="H3" s="723" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="720"/>
+      <c r="I3" s="723"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="744" t="s">
+      <c r="P3" s="747" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="754" t="s">
+      <c r="R3" s="757" t="s">
         <v>216</v>
       </c>
     </row>
@@ -22902,14 +22975,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="721" t="s">
+      <c r="E4" s="724" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="722"/>
-      <c r="H4" s="723" t="s">
+      <c r="F4" s="725"/>
+      <c r="H4" s="726" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="724"/>
+      <c r="I4" s="727"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22919,15 +22992,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="745"/>
+      <c r="P4" s="748"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="755"/>
-      <c r="W4" s="727" t="s">
+      <c r="R4" s="758"/>
+      <c r="W4" s="730" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="727"/>
+      <c r="X4" s="730"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22978,8 +23051,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="727"/>
-      <c r="X5" s="727"/>
+      <c r="W5" s="730"/>
+      <c r="X5" s="730"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23738,7 +23811,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="731">
+      <c r="W19" s="734">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -23790,7 +23863,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="732"/>
+      <c r="W20" s="735"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -23839,8 +23912,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="733"/>
-      <c r="X21" s="733"/>
+      <c r="W21" s="736"/>
+      <c r="X21" s="736"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23937,8 +24010,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="734"/>
-      <c r="X23" s="734"/>
+      <c r="W23" s="737"/>
+      <c r="X23" s="737"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23993,8 +24066,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="734"/>
-      <c r="X24" s="734"/>
+      <c r="W24" s="737"/>
+      <c r="X24" s="737"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -24040,8 +24113,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="735"/>
-      <c r="X25" s="735"/>
+      <c r="W25" s="738"/>
+      <c r="X25" s="738"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -24092,8 +24165,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="735"/>
-      <c r="X26" s="735"/>
+      <c r="W26" s="738"/>
+      <c r="X26" s="738"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -24144,9 +24217,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="728"/>
-      <c r="X27" s="729"/>
-      <c r="Y27" s="730"/>
+      <c r="W27" s="731"/>
+      <c r="X27" s="732"/>
+      <c r="Y27" s="733"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24196,9 +24269,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="729"/>
-      <c r="X28" s="729"/>
-      <c r="Y28" s="730"/>
+      <c r="W28" s="732"/>
+      <c r="X28" s="732"/>
+      <c r="Y28" s="733"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24802,11 +24875,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="746">
+      <c r="M41" s="749">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="746">
+      <c r="N41" s="749">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -24814,7 +24887,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="794">
+      <c r="Q41" s="797">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -24844,10 +24917,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="747"/>
-      <c r="N42" s="747"/>
+      <c r="M42" s="750"/>
+      <c r="N42" s="750"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="795"/>
+      <c r="Q42" s="798"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -24935,11 +25008,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="796">
+      <c r="M45" s="799">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="797"/>
+      <c r="N45" s="800"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -25532,26 +25605,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="701" t="s">
+      <c r="H70" s="704" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="702"/>
+      <c r="I70" s="705"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="703">
+      <c r="K70" s="706">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="736"/>
+      <c r="L70" s="739"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="707" t="s">
+      <c r="D71" s="710" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="707"/>
+      <c r="E71" s="710"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -25561,22 +25634,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="737" t="s">
+      <c r="D72" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="737"/>
+      <c r="E72" s="740"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="708" t="s">
+      <c r="I72" s="711" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="709"/>
-      <c r="K72" s="710">
+      <c r="J72" s="712"/>
+      <c r="K72" s="713">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="710"/>
+      <c r="L72" s="713"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -25617,11 +25690,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="712">
+      <c r="K74" s="715">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="713"/>
+      <c r="L74" s="716"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25640,22 +25713,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="690" t="s">
+      <c r="D76" s="693" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="691"/>
+      <c r="E76" s="694"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="692" t="s">
+      <c r="I76" s="695" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="693"/>
-      <c r="K76" s="694">
+      <c r="J76" s="696"/>
+      <c r="K76" s="697">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="694"/>
+      <c r="L76" s="697"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -28360,7 +28433,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="752" t="s">
+      <c r="F90" s="755" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -28373,7 +28446,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="753"/>
+      <c r="F91" s="756"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -28392,10 +28465,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="790" t="s">
+      <c r="I93" s="793" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="791"/>
+      <c r="J93" s="794"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -28405,8 +28478,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="792"/>
-      <c r="J94" s="793"/>
+      <c r="I94" s="795"/>
+      <c r="J94" s="796"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -28847,11 +28920,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="798">
+      <c r="C130" s="801">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="799"/>
+      <c r="D130" s="802"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -28887,21 +28960,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="804" t="s">
+      <c r="F2" s="807" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="805"/>
-      <c r="H2" s="806"/>
+      <c r="G2" s="808"/>
+      <c r="H2" s="809"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="801" t="s">
+      <c r="B3" s="804" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="802"/>
-      <c r="D3" s="803"/>
-      <c r="F3" s="807"/>
-      <c r="G3" s="808"/>
-      <c r="H3" s="809"/>
+      <c r="C3" s="805"/>
+      <c r="D3" s="806"/>
+      <c r="F3" s="810"/>
+      <c r="G3" s="811"/>
+      <c r="H3" s="812"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -29046,11 +29119,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="810">
+      <c r="G11" s="813">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="811"/>
+      <c r="H11" s="814"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -29067,23 +29140,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="814" t="s">
+      <c r="C15" s="817" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="812">
+      <c r="D15" s="815">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="815"/>
-      <c r="D16" s="813"/>
+      <c r="C16" s="818"/>
+      <c r="D16" s="816"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="800" t="s">
+      <c r="C17" s="803" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="800"/>
+      <c r="D17" s="803"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -29141,23 +29214,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="714"/>
-      <c r="C1" s="756" t="s">
+      <c r="B1" s="717"/>
+      <c r="C1" s="759" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
+      <c r="D1" s="760"/>
+      <c r="E1" s="760"/>
+      <c r="F1" s="760"/>
+      <c r="G1" s="760"/>
+      <c r="H1" s="760"/>
+      <c r="I1" s="760"/>
+      <c r="J1" s="760"/>
+      <c r="K1" s="760"/>
+      <c r="L1" s="760"/>
+      <c r="M1" s="760"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="715"/>
+      <c r="B2" s="718"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29167,24 +29240,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="719"/>
+      <c r="B3" s="721" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="722"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="720" t="s">
+      <c r="H3" s="723" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="720"/>
+      <c r="I3" s="723"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="744" t="s">
+      <c r="P3" s="747" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="754" t="s">
+      <c r="R3" s="757" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -29203,14 +29276,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="721" t="s">
+      <c r="E4" s="724" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="722"/>
-      <c r="H4" s="723" t="s">
+      <c r="F4" s="725"/>
+      <c r="H4" s="726" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="724"/>
+      <c r="I4" s="727"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -29220,15 +29293,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="745"/>
+      <c r="P4" s="748"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="755"/>
+      <c r="R4" s="758"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="822"/>
-      <c r="X4" s="822"/>
+      <c r="W4" s="825"/>
+      <c r="X4" s="825"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29282,8 +29355,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="822"/>
-      <c r="X5" s="822"/>
+      <c r="W5" s="825"/>
+      <c r="X5" s="825"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30049,7 +30122,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="823"/>
+      <c r="W19" s="826"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -30103,7 +30176,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="823"/>
+      <c r="W20" s="826"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30158,8 +30231,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="733"/>
-      <c r="X21" s="733"/>
+      <c r="W21" s="736"/>
+      <c r="X21" s="736"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30270,8 +30343,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="734"/>
-      <c r="X23" s="734"/>
+      <c r="W23" s="737"/>
+      <c r="X23" s="737"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30332,8 +30405,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="734"/>
-      <c r="X24" s="734"/>
+      <c r="W24" s="737"/>
+      <c r="X24" s="737"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30386,8 +30459,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="735"/>
-      <c r="X25" s="735"/>
+      <c r="W25" s="738"/>
+      <c r="X25" s="738"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30442,8 +30515,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="735"/>
-      <c r="X26" s="735"/>
+      <c r="W26" s="738"/>
+      <c r="X26" s="738"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30498,9 +30571,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="728"/>
-      <c r="X27" s="729"/>
-      <c r="Y27" s="730"/>
+      <c r="W27" s="731"/>
+      <c r="X27" s="732"/>
+      <c r="Y27" s="733"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30554,9 +30627,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="729"/>
-      <c r="X28" s="729"/>
-      <c r="Y28" s="730"/>
+      <c r="W28" s="732"/>
+      <c r="X28" s="732"/>
+      <c r="Y28" s="733"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31147,11 +31220,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="746">
+      <c r="M41" s="749">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="746">
+      <c r="N41" s="749">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -31159,7 +31232,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="794">
+      <c r="Q41" s="797">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -31183,10 +31256,10 @@
       <c r="L42" s="640">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="747"/>
-      <c r="N42" s="747"/>
+      <c r="M42" s="750"/>
+      <c r="N42" s="750"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="795"/>
+      <c r="Q42" s="798"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -31255,11 +31328,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="796">
+      <c r="M45" s="799">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="797"/>
+      <c r="N45" s="800"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -31675,26 +31748,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="701" t="s">
+      <c r="H63" s="704" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="702"/>
+      <c r="I63" s="705"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="819">
+      <c r="K63" s="822">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="820"/>
+      <c r="L63" s="823"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="707" t="s">
+      <c r="D64" s="710" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="707"/>
+      <c r="E64" s="710"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -31703,22 +31776,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="737" t="s">
+      <c r="D65" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="737"/>
+      <c r="E65" s="740"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="708" t="s">
+      <c r="I65" s="711" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="709"/>
-      <c r="K65" s="710">
+      <c r="J65" s="712"/>
+      <c r="K65" s="713">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="710"/>
+      <c r="L65" s="713"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -31759,11 +31832,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="821">
+      <c r="K67" s="824">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="710"/>
+      <c r="L67" s="713"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -31780,22 +31853,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="690" t="s">
+      <c r="D69" s="693" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="691"/>
+      <c r="E69" s="694"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="816" t="s">
+      <c r="I69" s="819" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="817"/>
-      <c r="K69" s="818">
+      <c r="J69" s="820"/>
+      <c r="K69" s="821">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="818"/>
+      <c r="L69" s="821"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -34001,7 +34074,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="752" t="s">
+      <c r="F71" s="755" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -34014,7 +34087,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="753"/>
+      <c r="F72" s="756"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -34033,10 +34106,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="790" t="s">
+      <c r="I74" s="793" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="791"/>
+      <c r="J74" s="794"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -34045,8 +34118,8 @@
       <c r="D75" s="654"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="792"/>
-      <c r="J75" s="793"/>
+      <c r="I75" s="795"/>
+      <c r="J75" s="796"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -34180,11 +34253,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="826" t="s">
+      <c r="A89" s="829" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="827"/>
-      <c r="C89" s="827"/>
+      <c r="B89" s="830"/>
+      <c r="C89" s="830"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -34194,10 +34267,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="828" t="s">
+      <c r="B90" s="831" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="829"/>
+      <c r="C90" s="832"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -34298,7 +34371,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="662"/>
-      <c r="C97" s="824">
+      <c r="C97" s="827">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -34312,7 +34385,7 @@
       <c r="B98" s="663" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="825"/>
+      <c r="C98" s="828"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -34412,23 +34485,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="714"/>
-      <c r="C1" s="756" t="s">
+      <c r="B1" s="717"/>
+      <c r="C1" s="759" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
+      <c r="D1" s="760"/>
+      <c r="E1" s="760"/>
+      <c r="F1" s="760"/>
+      <c r="G1" s="760"/>
+      <c r="H1" s="760"/>
+      <c r="I1" s="760"/>
+      <c r="J1" s="760"/>
+      <c r="K1" s="760"/>
+      <c r="L1" s="760"/>
+      <c r="M1" s="760"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="715"/>
+      <c r="B2" s="718"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34438,24 +34511,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="719"/>
+      <c r="B3" s="721" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="722"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="720" t="s">
+      <c r="H3" s="723" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="720"/>
+      <c r="I3" s="723"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="744" t="s">
+      <c r="P3" s="747" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="754" t="s">
+      <c r="R3" s="757" t="s">
         <v>216</v>
       </c>
     </row>
@@ -34470,14 +34543,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="721" t="s">
+      <c r="E4" s="724" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="722"/>
-      <c r="H4" s="723" t="s">
+      <c r="F4" s="725"/>
+      <c r="H4" s="726" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="724"/>
+      <c r="I4" s="727"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -34487,11 +34560,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="745"/>
+      <c r="P4" s="748"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="755"/>
+      <c r="R4" s="758"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -36259,11 +36332,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="746">
+      <c r="M41" s="749">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="746">
+      <c r="N41" s="749">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -36271,7 +36344,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="794">
+      <c r="Q41" s="797">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -36301,10 +36374,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="747"/>
-      <c r="N42" s="747"/>
+      <c r="M42" s="750"/>
+      <c r="N42" s="750"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="795"/>
+      <c r="Q42" s="798"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -36391,11 +36464,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="796">
+      <c r="M45" s="799">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="797"/>
+      <c r="N45" s="800"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -36985,26 +37058,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="701" t="s">
+      <c r="H69" s="704" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="702"/>
+      <c r="I69" s="705"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="819">
+      <c r="K69" s="822">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="820"/>
+      <c r="L69" s="823"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="707" t="s">
+      <c r="D70" s="710" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="707"/>
+      <c r="E70" s="710"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1683028.8699999999</v>
@@ -37013,22 +37086,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="737" t="s">
+      <c r="D71" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="737"/>
+      <c r="E71" s="740"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="708" t="s">
+      <c r="I71" s="711" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="709"/>
-      <c r="K71" s="710">
+      <c r="J71" s="712"/>
+      <c r="K71" s="713">
         <f>F73+F74+F75</f>
         <v>2167293.46</v>
       </c>
-      <c r="L71" s="710"/>
+      <c r="L71" s="713"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -37069,11 +37142,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="821">
+      <c r="K73" s="824">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="710"/>
+      <c r="L73" s="713"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -37090,22 +37163,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="690" t="s">
+      <c r="D75" s="693" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="691"/>
+      <c r="E75" s="694"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="692" t="s">
+      <c r="I75" s="695" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="693"/>
-      <c r="K75" s="694">
+      <c r="J75" s="696"/>
+      <c r="K75" s="697">
         <f>K71+K73</f>
         <v>-379688.70000000019</v>
       </c>
-      <c r="L75" s="694"/>
+      <c r="L75" s="697"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -39198,10 +39271,10 @@
         <f>SUM(F3:F66)</f>
         <v>1303900.4000000001</v>
       </c>
-      <c r="H67" s="790" t="s">
+      <c r="H67" s="793" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="791"/>
+      <c r="I67" s="794"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -39221,11 +39294,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="752" t="s">
+      <c r="F68" s="755" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="792"/>
-      <c r="I68" s="793"/>
+      <c r="H68" s="795"/>
+      <c r="I68" s="796"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -39236,7 +39309,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="753"/>
+      <c r="F69" s="756"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -41176,7 +41249,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="725" t="s">
+      <c r="B41" s="728" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -41208,7 +41281,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="726"/>
+      <c r="B42" s="729"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -42773,10 +42846,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -42802,23 +42875,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="714"/>
-      <c r="C1" s="756" t="s">
+      <c r="B1" s="717"/>
+      <c r="C1" s="759" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
+      <c r="D1" s="760"/>
+      <c r="E1" s="760"/>
+      <c r="F1" s="760"/>
+      <c r="G1" s="760"/>
+      <c r="H1" s="760"/>
+      <c r="I1" s="760"/>
+      <c r="J1" s="760"/>
+      <c r="K1" s="760"/>
+      <c r="L1" s="760"/>
+      <c r="M1" s="760"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="715"/>
+      <c r="B2" s="718"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42828,24 +42901,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="719"/>
+      <c r="B3" s="721" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="722"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="720" t="s">
+      <c r="H3" s="723" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="720"/>
+      <c r="I3" s="723"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="744" t="s">
+      <c r="P3" s="747" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="754" t="s">
+      <c r="R3" s="757" t="s">
         <v>216</v>
       </c>
     </row>
@@ -42860,14 +42933,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="721" t="s">
+      <c r="E4" s="724" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="722"/>
-      <c r="H4" s="723" t="s">
+      <c r="F4" s="725"/>
+      <c r="H4" s="726" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="724"/>
+      <c r="I4" s="727"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -42877,11 +42950,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="745"/>
+      <c r="P4" s="748"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="755"/>
+      <c r="R4" s="758"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -43468,7 +43541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
       <c r="B17" s="24">
         <v>44758</v>
@@ -43523,7 +43596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="24">
         <v>44759</v>
@@ -43571,7 +43644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="24">
         <v>44760</v>
@@ -43619,7 +43692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="24">
         <v>44761</v>
@@ -43667,7 +43740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="24">
         <v>44762</v>
@@ -43701,8 +43774,8 @@
       <c r="N21" s="33">
         <v>31157</v>
       </c>
-      <c r="O21" s="661" t="s">
-        <v>915</v>
+      <c r="O21" s="834" t="s">
+        <v>1069</v>
       </c>
       <c r="P21" s="39">
         <f t="shared" si="1"/>
@@ -43716,7 +43789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="24">
         <v>44763</v>
@@ -43764,7 +43837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
       <c r="B23" s="24">
         <v>44764</v>
@@ -43814,7 +43887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
       <c r="B24" s="24">
         <v>44765</v>
@@ -43868,146 +43941,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
       <c r="B25" s="24">
         <v>44766</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="35"/>
+      <c r="C25" s="25">
+        <v>15427</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>1057</v>
+      </c>
       <c r="E25" s="27">
         <v>44766</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>82806</v>
+      </c>
       <c r="G25" s="575"/>
       <c r="H25" s="29">
         <v>44766</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>2454</v>
+      </c>
       <c r="J25" s="50"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <v>36105</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
-      </c>
-      <c r="O25" s="664"/>
+        <v>28820</v>
+      </c>
+      <c r="O25" s="664" t="s">
+        <v>766</v>
+      </c>
       <c r="P25" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82806</v>
       </c>
       <c r="Q25" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R25" s="319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R25" s="319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
       <c r="B26" s="24">
         <v>44767</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="25">
+        <v>49226</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>1058</v>
+      </c>
       <c r="E26" s="27">
         <v>44767</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>902338</v>
+      </c>
       <c r="G26" s="575"/>
       <c r="H26" s="29">
         <v>44767</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="45"/>
+      <c r="I26" s="30">
+        <v>1301</v>
+      </c>
+      <c r="J26" s="37">
+        <v>44767</v>
+      </c>
+      <c r="K26" s="690" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L26" s="691">
+        <v>869292.83</v>
+      </c>
       <c r="M26" s="32">
-        <v>0</v>
+        <f>789401+3510</f>
+        <v>792911</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>58900</v>
+      </c>
+      <c r="O26" s="664" t="s">
+        <v>766</v>
       </c>
       <c r="P26" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1771630.83</v>
       </c>
       <c r="Q26" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R26" s="389">
+        <v>869292.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
       <c r="B27" s="24">
         <v>44768</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="25">
+        <v>3967</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>1060</v>
+      </c>
       <c r="E27" s="27">
         <v>44768</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>116279</v>
+      </c>
       <c r="G27" s="575"/>
       <c r="H27" s="29">
         <v>44768</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30">
+        <v>1764</v>
+      </c>
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <v>17556</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>42992</v>
+      </c>
+      <c r="O27" s="664" t="s">
+        <v>766</v>
       </c>
       <c r="P27" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66279</v>
+      </c>
+      <c r="Q27" s="692">
+        <f t="shared" si="0"/>
+        <v>-50000</v>
       </c>
       <c r="R27" s="319">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="24">
         <v>44769</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="25">
+        <v>15785</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>1061</v>
+      </c>
       <c r="E28" s="27">
         <v>44769</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>91203</v>
+      </c>
       <c r="G28" s="575"/>
       <c r="H28" s="29">
         <v>44769</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30">
+        <v>1610</v>
+      </c>
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <v>41640</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
+        <v>32168</v>
+      </c>
+      <c r="O28" s="664" t="s">
+        <v>766</v>
       </c>
       <c r="P28" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>91203</v>
       </c>
       <c r="Q28" s="325">
         <f t="shared" si="0"/>
@@ -44017,34 +44139,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="24">
         <v>44770</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="25">
+        <v>22377</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>1062</v>
+      </c>
       <c r="E29" s="27">
         <v>44770</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>109445</v>
+      </c>
       <c r="G29" s="575"/>
       <c r="H29" s="29">
         <v>44770</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="30">
+        <v>1705.5</v>
+      </c>
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <v>37988.5</v>
       </c>
       <c r="N29" s="33">
-        <v>0</v>
+        <v>47374</v>
+      </c>
+      <c r="O29" s="664" t="s">
+        <v>766</v>
       </c>
       <c r="P29" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>109445</v>
       </c>
       <c r="Q29" s="325">
         <f t="shared" si="0"/>
@@ -44054,71 +44187,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
       <c r="B30" s="24">
         <v>44771</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="25">
+        <v>7542</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>1063</v>
+      </c>
       <c r="E30" s="27">
         <v>44771</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>110277</v>
+      </c>
       <c r="G30" s="575"/>
       <c r="H30" s="29">
         <v>44771</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="30">
+        <v>1936</v>
+      </c>
       <c r="J30" s="56"/>
       <c r="K30" s="38"/>
       <c r="L30" s="39"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="N30" s="33">
-        <v>0</v>
+        <v>44801</v>
+      </c>
+      <c r="O30" s="664" t="s">
+        <v>766</v>
       </c>
       <c r="P30" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110279</v>
+      </c>
+      <c r="Q30" s="325" t="s">
+        <v>1064</v>
       </c>
       <c r="R30" s="319">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="24">
         <v>44772</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="67"/>
+      <c r="C31" s="25">
+        <v>8919</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>1065</v>
+      </c>
       <c r="E31" s="27">
         <v>44772</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28">
+        <v>128622</v>
+      </c>
       <c r="G31" s="575"/>
       <c r="H31" s="29">
         <v>44772</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="569"/>
-      <c r="L31" s="54"/>
+      <c r="I31" s="30">
+        <v>2688</v>
+      </c>
+      <c r="J31" s="56">
+        <v>44772</v>
+      </c>
+      <c r="K31" s="569" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L31" s="54">
+        <v>22490</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <v>50983</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>43542</v>
+      </c>
+      <c r="O31" s="664" t="s">
+        <v>766</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128622</v>
       </c>
       <c r="Q31" s="325">
         <f t="shared" si="0"/>
@@ -44128,34 +44288,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="24">
         <v>44773</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="25">
+        <v>8964</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>1068</v>
+      </c>
       <c r="E32" s="27">
         <v>44773</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>86594</v>
+      </c>
       <c r="G32" s="575"/>
       <c r="H32" s="29">
         <v>44773</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
+      <c r="I32" s="30">
+        <v>0</v>
+      </c>
+      <c r="J32" s="56">
+        <v>44773</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L32" s="39">
+        <v>200</v>
+      </c>
       <c r="M32" s="32">
-        <v>0</v>
+        <v>46721</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>30709</v>
+      </c>
+      <c r="O32" s="664" t="s">
+        <v>766</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86594</v>
       </c>
       <c r="Q32" s="325">
         <f t="shared" si="0"/>
@@ -44163,6 +44340,9 @@
       </c>
       <c r="R32" s="319">
         <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44281,7 +44461,7 @@
       <c r="J36" s="560">
         <v>44765</v>
       </c>
-      <c r="K36" s="572" t="s">
+      <c r="K36" s="833" t="s">
         <v>1056</v>
       </c>
       <c r="L36" s="9">
@@ -44314,9 +44494,15 @@
       <c r="G37" s="666"/>
       <c r="H37" s="29"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="39"/>
+      <c r="J37" s="56">
+        <v>44772</v>
+      </c>
+      <c r="K37" s="57" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L37" s="39">
+        <v>19092.5</v>
+      </c>
       <c r="M37" s="32">
         <v>0</v>
       </c>
@@ -44324,11 +44510,9 @@
         <v>0</v>
       </c>
       <c r="P37" s="34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q37" s="325">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R37" s="319">
@@ -44441,21 +44625,21 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="746">
+      <c r="M41" s="749">
         <f>SUM(M5:M40)</f>
-        <v>1100755</v>
-      </c>
-      <c r="N41" s="746">
+        <v>2180659.5</v>
+      </c>
+      <c r="N41" s="749">
         <f>SUM(N5:N40)</f>
-        <v>743412</v>
+        <v>1072718</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>2310865</v>
-      </c>
-      <c r="Q41" s="794">
+        <v>4757723.83</v>
+      </c>
+      <c r="Q41" s="797">
         <f>SUM(Q5:Q40)</f>
-        <v>12</v>
+        <v>-49988</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44471,10 +44655,10 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="747"/>
-      <c r="N42" s="747"/>
+      <c r="M42" s="750"/>
+      <c r="N42" s="750"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="795"/>
+      <c r="Q42" s="798"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -44525,11 +44709,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="796">
+      <c r="M45" s="799">
         <f>M41+N41</f>
-        <v>1844167</v>
-      </c>
-      <c r="N45" s="797"/>
+        <v>3253377.5</v>
+      </c>
+      <c r="N45" s="800"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -44926,7 +45110,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>341198</v>
+        <v>473405</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -44934,7 +45118,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>2245276</v>
+        <v>3872840</v>
       </c>
       <c r="G67" s="576"/>
       <c r="H67" s="91" t="s">
@@ -44942,15 +45126,15 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>67260</v>
+        <v>80718.5</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
         <v>10</v>
       </c>
       <c r="L67" s="95">
-        <f>SUM(L5:L65)</f>
-        <v>116420.97</v>
+        <f>SUM(L5:L65)-L26</f>
+        <v>158203.47000000009</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -44968,50 +45152,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="701" t="s">
+      <c r="H69" s="704" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="702"/>
+      <c r="I69" s="705"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="819">
+      <c r="K69" s="822">
         <f>I67+L67</f>
-        <v>183680.97</v>
-      </c>
-      <c r="L69" s="820"/>
+        <v>238921.97000000009</v>
+      </c>
+      <c r="L69" s="823"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="707" t="s">
+      <c r="D70" s="710" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="707"/>
+      <c r="E70" s="710"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>1720397.03</v>
+        <v>3160513.03</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="737" t="s">
+      <c r="D71" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="737"/>
+      <c r="E71" s="740"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="708" t="s">
+      <c r="I71" s="711" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="709"/>
-      <c r="K71" s="710">
+      <c r="J71" s="712"/>
+      <c r="K71" s="713">
         <f>F73+F74+F75</f>
-        <v>4075823.5700000003</v>
-      </c>
-      <c r="L71" s="710"/>
+        <v>5515939.5700000003</v>
+      </c>
+      <c r="L71" s="713"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -45045,18 +45229,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>1720397.03</v>
+        <v>3160513.03</v>
       </c>
       <c r="H73" s="558"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="821">
+      <c r="K73" s="824">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="710"/>
+      <c r="L73" s="713"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -45071,22 +45255,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="690" t="s">
+      <c r="D75" s="693" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="691"/>
+      <c r="E75" s="694"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="692" t="s">
+      <c r="I75" s="695" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="693"/>
-      <c r="K75" s="694">
+      <c r="J75" s="696"/>
+      <c r="K75" s="697">
         <f>K71+K73</f>
-        <v>1720397.0300000003</v>
-      </c>
-      <c r="L75" s="694"/>
+        <v>3160513.0300000003</v>
+      </c>
+      <c r="L75" s="697"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -46656,10 +46840,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="790" t="s">
+      <c r="H67" s="793" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="791"/>
+      <c r="I67" s="794"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -46679,11 +46863,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="752" t="s">
+      <c r="F68" s="755" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="792"/>
-      <c r="I68" s="793"/>
+      <c r="H68" s="795"/>
+      <c r="I68" s="796"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -46694,7 +46878,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="753"/>
+      <c r="F69" s="756"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -47362,23 +47546,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="714"/>
-      <c r="C1" s="716" t="s">
+      <c r="B1" s="717"/>
+      <c r="C1" s="719" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="717"/>
-      <c r="E1" s="717"/>
-      <c r="F1" s="717"/>
-      <c r="G1" s="717"/>
-      <c r="H1" s="717"/>
-      <c r="I1" s="717"/>
-      <c r="J1" s="717"/>
-      <c r="K1" s="717"/>
-      <c r="L1" s="717"/>
-      <c r="M1" s="717"/>
+      <c r="D1" s="720"/>
+      <c r="E1" s="720"/>
+      <c r="F1" s="720"/>
+      <c r="G1" s="720"/>
+      <c r="H1" s="720"/>
+      <c r="I1" s="720"/>
+      <c r="J1" s="720"/>
+      <c r="K1" s="720"/>
+      <c r="L1" s="720"/>
+      <c r="M1" s="720"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="715"/>
+      <c r="B2" s="718"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -47388,21 +47572,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="719"/>
+      <c r="B3" s="721" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="722"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="720" t="s">
+      <c r="H3" s="723" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="720"/>
+      <c r="I3" s="723"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="744" t="s">
+      <c r="P3" s="747" t="s">
         <v>6</v>
       </c>
     </row>
@@ -47417,14 +47601,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="721" t="s">
+      <c r="E4" s="724" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="722"/>
-      <c r="H4" s="723" t="s">
+      <c r="F4" s="725"/>
+      <c r="H4" s="726" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="724"/>
+      <c r="I4" s="727"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -47434,14 +47618,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="745"/>
+      <c r="P4" s="748"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="727" t="s">
+      <c r="W4" s="730" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="727"/>
+      <c r="X4" s="730"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47492,8 +47676,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="727"/>
-      <c r="X5" s="727"/>
+      <c r="W5" s="730"/>
+      <c r="X5" s="730"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48264,7 +48448,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="731">
+      <c r="W19" s="734">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -48316,7 +48500,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="732"/>
+      <c r="W20" s="735"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -48365,8 +48549,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="733"/>
-      <c r="X21" s="733"/>
+      <c r="W21" s="736"/>
+      <c r="X21" s="736"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -48467,8 +48651,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="734"/>
-      <c r="X23" s="734"/>
+      <c r="W23" s="737"/>
+      <c r="X23" s="737"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -48522,8 +48706,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="734"/>
-      <c r="X24" s="734"/>
+      <c r="W24" s="737"/>
+      <c r="X24" s="737"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -48569,8 +48753,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="735"/>
-      <c r="X25" s="735"/>
+      <c r="W25" s="738"/>
+      <c r="X25" s="738"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -48621,8 +48805,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="735"/>
-      <c r="X26" s="735"/>
+      <c r="W26" s="738"/>
+      <c r="X26" s="738"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -48670,9 +48854,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="728"/>
-      <c r="X27" s="729"/>
-      <c r="Y27" s="730"/>
+      <c r="W27" s="731"/>
+      <c r="X27" s="732"/>
+      <c r="Y27" s="733"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48722,9 +48906,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="729"/>
-      <c r="X28" s="729"/>
-      <c r="Y28" s="730"/>
+      <c r="W28" s="732"/>
+      <c r="X28" s="732"/>
+      <c r="Y28" s="733"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -49059,11 +49243,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="746">
+      <c r="M36" s="749">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="748">
+      <c r="N36" s="751">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -49071,7 +49255,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="750">
+      <c r="Q36" s="753">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -49106,13 +49290,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="747"/>
-      <c r="N37" s="749"/>
+      <c r="M37" s="750"/>
+      <c r="N37" s="752"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="751"/>
+      <c r="Q37" s="754"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -49402,26 +49586,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="701" t="s">
+      <c r="H52" s="704" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="702"/>
+      <c r="I52" s="705"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="703">
+      <c r="K52" s="706">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="736"/>
+      <c r="L52" s="739"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="707" t="s">
+      <c r="D53" s="710" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="707"/>
+      <c r="E53" s="710"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -49430,29 +49614,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="737" t="s">
+      <c r="D54" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="737"/>
+      <c r="E54" s="740"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="708" t="s">
+      <c r="I54" s="711" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="709"/>
-      <c r="K54" s="710">
+      <c r="J54" s="712"/>
+      <c r="K54" s="713">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="710"/>
-      <c r="M54" s="738" t="s">
+      <c r="L54" s="713"/>
+      <c r="M54" s="741" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="739"/>
-      <c r="O54" s="739"/>
-      <c r="P54" s="739"/>
-      <c r="Q54" s="740"/>
+      <c r="N54" s="742"/>
+      <c r="O54" s="742"/>
+      <c r="P54" s="742"/>
+      <c r="Q54" s="743"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -49466,11 +49650,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="741"/>
-      <c r="N55" s="742"/>
-      <c r="O55" s="742"/>
-      <c r="P55" s="742"/>
-      <c r="Q55" s="743"/>
+      <c r="M55" s="744"/>
+      <c r="N55" s="745"/>
+      <c r="O55" s="745"/>
+      <c r="P55" s="745"/>
+      <c r="Q55" s="746"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -49488,11 +49672,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="712">
+      <c r="K56" s="715">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="713"/>
+      <c r="L56" s="716"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -49509,22 +49693,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="690" t="s">
+      <c r="D58" s="693" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="691"/>
+      <c r="E58" s="694"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="692" t="s">
+      <c r="I58" s="695" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="693"/>
-      <c r="K58" s="694">
+      <c r="J58" s="696"/>
+      <c r="K58" s="697">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="694"/>
+      <c r="L58" s="697"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -52114,7 +52298,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="752" t="s">
+      <c r="F87" s="755" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -52127,7 +52311,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="753"/>
+      <c r="F88" s="756"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -52439,23 +52623,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="714"/>
-      <c r="C1" s="716" t="s">
+      <c r="B1" s="717"/>
+      <c r="C1" s="719" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="717"/>
-      <c r="E1" s="717"/>
-      <c r="F1" s="717"/>
-      <c r="G1" s="717"/>
-      <c r="H1" s="717"/>
-      <c r="I1" s="717"/>
-      <c r="J1" s="717"/>
-      <c r="K1" s="717"/>
-      <c r="L1" s="717"/>
-      <c r="M1" s="717"/>
+      <c r="D1" s="720"/>
+      <c r="E1" s="720"/>
+      <c r="F1" s="720"/>
+      <c r="G1" s="720"/>
+      <c r="H1" s="720"/>
+      <c r="I1" s="720"/>
+      <c r="J1" s="720"/>
+      <c r="K1" s="720"/>
+      <c r="L1" s="720"/>
+      <c r="M1" s="720"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="715"/>
+      <c r="B2" s="718"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -52465,24 +52649,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="719"/>
+      <c r="B3" s="721" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="722"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="720" t="s">
+      <c r="H3" s="723" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="720"/>
+      <c r="I3" s="723"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="744" t="s">
+      <c r="P3" s="747" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="754" t="s">
+      <c r="R3" s="757" t="s">
         <v>216</v>
       </c>
     </row>
@@ -52497,14 +52681,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="721" t="s">
+      <c r="E4" s="724" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="722"/>
-      <c r="H4" s="723" t="s">
+      <c r="F4" s="725"/>
+      <c r="H4" s="726" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="724"/>
+      <c r="I4" s="727"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -52514,15 +52698,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="745"/>
+      <c r="P4" s="748"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="755"/>
-      <c r="W4" s="727" t="s">
+      <c r="R4" s="758"/>
+      <c r="W4" s="730" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="727"/>
+      <c r="X4" s="730"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52583,8 +52767,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="727"/>
-      <c r="X5" s="727"/>
+      <c r="W5" s="730"/>
+      <c r="X5" s="730"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53341,7 +53525,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="731">
+      <c r="W19" s="734">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -53393,7 +53577,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="732"/>
+      <c r="W20" s="735"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -53442,8 +53626,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="733"/>
-      <c r="X21" s="733"/>
+      <c r="W21" s="736"/>
+      <c r="X21" s="736"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -53544,8 +53728,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="734"/>
-      <c r="X23" s="734"/>
+      <c r="W23" s="737"/>
+      <c r="X23" s="737"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -53596,8 +53780,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="734"/>
-      <c r="X24" s="734"/>
+      <c r="W24" s="737"/>
+      <c r="X24" s="737"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -53643,8 +53827,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="735"/>
-      <c r="X25" s="735"/>
+      <c r="W25" s="738"/>
+      <c r="X25" s="738"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -53692,8 +53876,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="735"/>
-      <c r="X26" s="735"/>
+      <c r="W26" s="738"/>
+      <c r="X26" s="738"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -53753,9 +53937,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="728"/>
-      <c r="X27" s="729"/>
-      <c r="Y27" s="730"/>
+      <c r="W27" s="731"/>
+      <c r="X27" s="732"/>
+      <c r="Y27" s="733"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53809,9 +53993,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="729"/>
-      <c r="X28" s="729"/>
-      <c r="Y28" s="730"/>
+      <c r="W28" s="732"/>
+      <c r="X28" s="732"/>
+      <c r="Y28" s="733"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54127,11 +54311,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="746">
+      <c r="M36" s="749">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="748">
+      <c r="N36" s="751">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -54139,7 +54323,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="750">
+      <c r="Q36" s="753">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -54158,13 +54342,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="747"/>
-      <c r="N37" s="749"/>
+      <c r="M37" s="750"/>
+      <c r="N37" s="752"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="751"/>
+      <c r="Q37" s="754"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -54438,26 +54622,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="701" t="s">
+      <c r="H52" s="704" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="702"/>
+      <c r="I52" s="705"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="703">
+      <c r="K52" s="706">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="736"/>
+      <c r="L52" s="739"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="707" t="s">
+      <c r="D53" s="710" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="707"/>
+      <c r="E53" s="710"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -54466,29 +54650,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="737" t="s">
+      <c r="D54" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="737"/>
+      <c r="E54" s="740"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="708" t="s">
+      <c r="I54" s="711" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="709"/>
-      <c r="K54" s="710">
+      <c r="J54" s="712"/>
+      <c r="K54" s="713">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="710"/>
-      <c r="M54" s="738" t="s">
+      <c r="L54" s="713"/>
+      <c r="M54" s="741" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="739"/>
-      <c r="O54" s="739"/>
-      <c r="P54" s="739"/>
-      <c r="Q54" s="740"/>
+      <c r="N54" s="742"/>
+      <c r="O54" s="742"/>
+      <c r="P54" s="742"/>
+      <c r="Q54" s="743"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -54502,11 +54686,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="741"/>
-      <c r="N55" s="742"/>
-      <c r="O55" s="742"/>
-      <c r="P55" s="742"/>
-      <c r="Q55" s="743"/>
+      <c r="M55" s="744"/>
+      <c r="N55" s="745"/>
+      <c r="O55" s="745"/>
+      <c r="P55" s="745"/>
+      <c r="Q55" s="746"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -54524,11 +54708,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="712">
+      <c r="K56" s="715">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="713"/>
+      <c r="L56" s="716"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -54545,22 +54729,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="690" t="s">
+      <c r="D58" s="693" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="691"/>
+      <c r="E58" s="694"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="692" t="s">
+      <c r="I58" s="695" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="693"/>
-      <c r="K58" s="694">
+      <c r="J58" s="696"/>
+      <c r="K58" s="697">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="694"/>
+      <c r="L58" s="697"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -57123,7 +57307,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="752" t="s">
+      <c r="F75" s="755" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -57136,7 +57320,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="753"/>
+      <c r="F76" s="756"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -57428,23 +57612,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="714"/>
-      <c r="C1" s="756" t="s">
+      <c r="B1" s="717"/>
+      <c r="C1" s="759" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
+      <c r="D1" s="760"/>
+      <c r="E1" s="760"/>
+      <c r="F1" s="760"/>
+      <c r="G1" s="760"/>
+      <c r="H1" s="760"/>
+      <c r="I1" s="760"/>
+      <c r="J1" s="760"/>
+      <c r="K1" s="760"/>
+      <c r="L1" s="760"/>
+      <c r="M1" s="760"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="715"/>
+      <c r="B2" s="718"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -57454,24 +57638,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="719"/>
+      <c r="B3" s="721" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="722"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="720" t="s">
+      <c r="H3" s="723" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="720"/>
+      <c r="I3" s="723"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="744" t="s">
+      <c r="P3" s="747" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="754" t="s">
+      <c r="R3" s="757" t="s">
         <v>216</v>
       </c>
     </row>
@@ -57486,14 +57670,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="721" t="s">
+      <c r="E4" s="724" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="722"/>
-      <c r="H4" s="723" t="s">
+      <c r="F4" s="725"/>
+      <c r="H4" s="726" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="724"/>
+      <c r="I4" s="727"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -57503,15 +57687,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="745"/>
+      <c r="P4" s="748"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="755"/>
-      <c r="W4" s="727" t="s">
+      <c r="R4" s="758"/>
+      <c r="W4" s="730" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="727"/>
+      <c r="X4" s="730"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57562,8 +57746,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="727"/>
-      <c r="X5" s="727"/>
+      <c r="W5" s="730"/>
+      <c r="X5" s="730"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58327,7 +58511,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="731">
+      <c r="W19" s="734">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -58380,7 +58564,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="732"/>
+      <c r="W20" s="735"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -58429,8 +58613,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="733"/>
-      <c r="X21" s="733"/>
+      <c r="W21" s="736"/>
+      <c r="X21" s="736"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -58530,8 +58714,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="734"/>
-      <c r="X23" s="734"/>
+      <c r="W23" s="737"/>
+      <c r="X23" s="737"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -58586,8 +58770,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="734"/>
-      <c r="X24" s="734"/>
+      <c r="W24" s="737"/>
+      <c r="X24" s="737"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -58632,8 +58816,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="735"/>
-      <c r="X25" s="735"/>
+      <c r="W25" s="738"/>
+      <c r="X25" s="738"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -58681,8 +58865,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="735"/>
-      <c r="X26" s="735"/>
+      <c r="W26" s="738"/>
+      <c r="X26" s="738"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -58736,9 +58920,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="728"/>
-      <c r="X27" s="729"/>
-      <c r="Y27" s="730"/>
+      <c r="W27" s="731"/>
+      <c r="X27" s="732"/>
+      <c r="Y27" s="733"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58792,9 +58976,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="729"/>
-      <c r="X28" s="729"/>
-      <c r="Y28" s="730"/>
+      <c r="W28" s="732"/>
+      <c r="X28" s="732"/>
+      <c r="Y28" s="733"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59105,11 +59289,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="746">
+      <c r="M36" s="749">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="748">
+      <c r="N36" s="751">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -59117,7 +59301,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="750">
+      <c r="Q36" s="753">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -59142,13 +59326,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="747"/>
-      <c r="N37" s="749"/>
+      <c r="M37" s="750"/>
+      <c r="N37" s="752"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="751"/>
+      <c r="Q37" s="754"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -59441,26 +59625,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="701" t="s">
+      <c r="H52" s="704" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="702"/>
+      <c r="I52" s="705"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="703">
+      <c r="K52" s="706">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="736"/>
+      <c r="L52" s="739"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="707" t="s">
+      <c r="D53" s="710" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="707"/>
+      <c r="E53" s="710"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -59469,22 +59653,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="737" t="s">
+      <c r="D54" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="737"/>
+      <c r="E54" s="740"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="708" t="s">
+      <c r="I54" s="711" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="709"/>
-      <c r="K54" s="710">
+      <c r="J54" s="712"/>
+      <c r="K54" s="713">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="710"/>
+      <c r="L54" s="713"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -59525,11 +59709,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="712">
+      <c r="K56" s="715">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="713"/>
+      <c r="L56" s="716"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -59546,22 +59730,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="690" t="s">
+      <c r="D58" s="693" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="691"/>
+      <c r="E58" s="694"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="692" t="s">
+      <c r="I58" s="695" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="693"/>
-      <c r="K58" s="694">
+      <c r="J58" s="696"/>
+      <c r="K58" s="697">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="694"/>
+      <c r="L58" s="697"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -61430,12 +61614,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="758" t="s">
+      <c r="B43" s="761" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="759"/>
-      <c r="D43" s="759"/>
-      <c r="E43" s="760"/>
+      <c r="C43" s="762"/>
+      <c r="D43" s="762"/>
+      <c r="E43" s="763"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61463,10 +61647,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="761"/>
-      <c r="C44" s="762"/>
-      <c r="D44" s="762"/>
-      <c r="E44" s="763"/>
+      <c r="B44" s="764"/>
+      <c r="C44" s="765"/>
+      <c r="D44" s="765"/>
+      <c r="E44" s="766"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61494,10 +61678,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="764"/>
-      <c r="C45" s="765"/>
-      <c r="D45" s="765"/>
-      <c r="E45" s="766"/>
+      <c r="B45" s="767"/>
+      <c r="C45" s="768"/>
+      <c r="D45" s="768"/>
+      <c r="E45" s="769"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61540,10 +61724,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="773" t="s">
+      <c r="B47" s="776" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="774"/>
+      <c r="C47" s="777"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -61565,8 +61749,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="775"/>
-      <c r="C48" s="776"/>
+      <c r="B48" s="778"/>
+      <c r="C48" s="779"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -61574,11 +61758,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="767" t="s">
+      <c r="J48" s="770" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="768"/>
-      <c r="L48" s="769"/>
+      <c r="K48" s="771"/>
+      <c r="L48" s="772"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -61596,9 +61780,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="770"/>
-      <c r="K49" s="771"/>
-      <c r="L49" s="772"/>
+      <c r="J49" s="773"/>
+      <c r="K49" s="774"/>
+      <c r="L49" s="775"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -61615,10 +61799,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="777" t="s">
+      <c r="I50" s="780" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="778"/>
+      <c r="J50" s="781"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -61639,8 +61823,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="777"/>
-      <c r="J51" s="778"/>
+      <c r="I51" s="780"/>
+      <c r="J51" s="781"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -61659,8 +61843,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="777"/>
-      <c r="J52" s="778"/>
+      <c r="I52" s="780"/>
+      <c r="J52" s="781"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -61679,8 +61863,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="777"/>
-      <c r="J53" s="778"/>
+      <c r="I53" s="780"/>
+      <c r="J53" s="781"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -61699,8 +61883,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="777"/>
-      <c r="J54" s="778"/>
+      <c r="I54" s="780"/>
+      <c r="J54" s="781"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -61719,8 +61903,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="777"/>
-      <c r="J55" s="778"/>
+      <c r="I55" s="780"/>
+      <c r="J55" s="781"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -61739,8 +61923,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="777"/>
-      <c r="J56" s="778"/>
+      <c r="I56" s="780"/>
+      <c r="J56" s="781"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -61759,8 +61943,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="777"/>
-      <c r="J57" s="778"/>
+      <c r="I57" s="780"/>
+      <c r="J57" s="781"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -61779,8 +61963,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="777"/>
-      <c r="J58" s="778"/>
+      <c r="I58" s="780"/>
+      <c r="J58" s="781"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -61799,8 +61983,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="777"/>
-      <c r="J59" s="778"/>
+      <c r="I59" s="780"/>
+      <c r="J59" s="781"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -61819,8 +62003,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="777"/>
-      <c r="J60" s="778"/>
+      <c r="I60" s="780"/>
+      <c r="J60" s="781"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -61839,8 +62023,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="777"/>
-      <c r="J61" s="778"/>
+      <c r="I61" s="780"/>
+      <c r="J61" s="781"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -61859,8 +62043,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="777"/>
-      <c r="J62" s="778"/>
+      <c r="I62" s="780"/>
+      <c r="J62" s="781"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -61879,8 +62063,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="777"/>
-      <c r="J63" s="778"/>
+      <c r="I63" s="780"/>
+      <c r="J63" s="781"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -61899,8 +62083,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="777"/>
-      <c r="J64" s="778"/>
+      <c r="I64" s="780"/>
+      <c r="J64" s="781"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -61919,8 +62103,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="777"/>
-      <c r="J65" s="778"/>
+      <c r="I65" s="780"/>
+      <c r="J65" s="781"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -61939,8 +62123,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="777"/>
-      <c r="J66" s="778"/>
+      <c r="I66" s="780"/>
+      <c r="J66" s="781"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -61959,8 +62143,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="777"/>
-      <c r="J67" s="778"/>
+      <c r="I67" s="780"/>
+      <c r="J67" s="781"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -61979,8 +62163,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="777"/>
-      <c r="J68" s="778"/>
+      <c r="I68" s="780"/>
+      <c r="J68" s="781"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -61999,8 +62183,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="777"/>
-      <c r="J69" s="778"/>
+      <c r="I69" s="780"/>
+      <c r="J69" s="781"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -62019,8 +62203,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="777"/>
-      <c r="J70" s="778"/>
+      <c r="I70" s="780"/>
+      <c r="J70" s="781"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -62039,8 +62223,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="777"/>
-      <c r="J71" s="778"/>
+      <c r="I71" s="780"/>
+      <c r="J71" s="781"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -62059,8 +62243,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="777"/>
-      <c r="J72" s="778"/>
+      <c r="I72" s="780"/>
+      <c r="J72" s="781"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -62079,8 +62263,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="777"/>
-      <c r="J73" s="778"/>
+      <c r="I73" s="780"/>
+      <c r="J73" s="781"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -62099,8 +62283,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="777"/>
-      <c r="J74" s="778"/>
+      <c r="I74" s="780"/>
+      <c r="J74" s="781"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -62119,8 +62303,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="777"/>
-      <c r="J75" s="778"/>
+      <c r="I75" s="780"/>
+      <c r="J75" s="781"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -62139,8 +62323,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="777"/>
-      <c r="J76" s="778"/>
+      <c r="I76" s="780"/>
+      <c r="J76" s="781"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -62159,8 +62343,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="777"/>
-      <c r="J77" s="778"/>
+      <c r="I77" s="780"/>
+      <c r="J77" s="781"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -62181,8 +62365,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="779"/>
-      <c r="J78" s="780"/>
+      <c r="I78" s="782"/>
+      <c r="J78" s="783"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -62227,7 +62411,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="752" t="s">
+      <c r="F80" s="755" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -62239,7 +62423,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="753"/>
+      <c r="F81" s="756"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -62527,23 +62711,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="714"/>
-      <c r="C1" s="756" t="s">
+      <c r="B1" s="717"/>
+      <c r="C1" s="759" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
+      <c r="D1" s="760"/>
+      <c r="E1" s="760"/>
+      <c r="F1" s="760"/>
+      <c r="G1" s="760"/>
+      <c r="H1" s="760"/>
+      <c r="I1" s="760"/>
+      <c r="J1" s="760"/>
+      <c r="K1" s="760"/>
+      <c r="L1" s="760"/>
+      <c r="M1" s="760"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="715"/>
+      <c r="B2" s="718"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -62553,24 +62737,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="718" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="719"/>
+      <c r="B3" s="721" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="722"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="720" t="s">
+      <c r="H3" s="723" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="720"/>
+      <c r="I3" s="723"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="744" t="s">
+      <c r="P3" s="747" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="754" t="s">
+      <c r="R3" s="757" t="s">
         <v>216</v>
       </c>
     </row>
@@ -62585,14 +62769,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="721" t="s">
+      <c r="E4" s="724" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="722"/>
-      <c r="H4" s="723" t="s">
+      <c r="F4" s="725"/>
+      <c r="H4" s="726" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="724"/>
+      <c r="I4" s="727"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -62602,15 +62786,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="745"/>
+      <c r="P4" s="748"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="755"/>
-      <c r="W4" s="727" t="s">
+      <c r="R4" s="758"/>
+      <c r="W4" s="730" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="727"/>
+      <c r="X4" s="730"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62661,8 +62845,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="727"/>
-      <c r="X5" s="727"/>
+      <c r="W5" s="730"/>
+      <c r="X5" s="730"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63423,7 +63607,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="731">
+      <c r="W19" s="734">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -63475,7 +63659,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="732"/>
+      <c r="W20" s="735"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -63524,8 +63708,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="733"/>
-      <c r="X21" s="733"/>
+      <c r="W21" s="736"/>
+      <c r="X21" s="736"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -63624,8 +63808,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="734"/>
-      <c r="X23" s="734"/>
+      <c r="W23" s="737"/>
+      <c r="X23" s="737"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -63680,8 +63864,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="734"/>
-      <c r="X24" s="734"/>
+      <c r="W24" s="737"/>
+      <c r="X24" s="737"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -63729,8 +63913,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="735"/>
-      <c r="X25" s="735"/>
+      <c r="W25" s="738"/>
+      <c r="X25" s="738"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -63778,8 +63962,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="735"/>
-      <c r="X26" s="735"/>
+      <c r="W26" s="738"/>
+      <c r="X26" s="738"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -63827,9 +64011,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="728"/>
-      <c r="X27" s="729"/>
-      <c r="Y27" s="730"/>
+      <c r="W27" s="731"/>
+      <c r="X27" s="732"/>
+      <c r="Y27" s="733"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63877,9 +64061,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="729"/>
-      <c r="X28" s="729"/>
-      <c r="Y28" s="730"/>
+      <c r="W28" s="732"/>
+      <c r="X28" s="732"/>
+      <c r="Y28" s="733"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64220,11 +64404,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="746">
+      <c r="M36" s="749">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="748">
+      <c r="N36" s="751">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -64232,7 +64416,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="781">
+      <c r="Q36" s="784">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -64257,13 +64441,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="747"/>
-      <c r="N37" s="749"/>
+      <c r="M37" s="750"/>
+      <c r="N37" s="752"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="782"/>
+      <c r="Q37" s="785"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -64313,11 +64497,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="783">
+      <c r="M39" s="786">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="784"/>
+      <c r="N39" s="787"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -64565,26 +64749,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="701" t="s">
+      <c r="H52" s="704" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="702"/>
+      <c r="I52" s="705"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="703">
+      <c r="K52" s="706">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="736"/>
+      <c r="L52" s="739"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="707" t="s">
+      <c r="D53" s="710" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="707"/>
+      <c r="E53" s="710"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -64593,22 +64777,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="737" t="s">
+      <c r="D54" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="737"/>
+      <c r="E54" s="740"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="708" t="s">
+      <c r="I54" s="711" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="709"/>
-      <c r="K54" s="710">
+      <c r="J54" s="712"/>
+      <c r="K54" s="713">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="710"/>
+      <c r="L54" s="713"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -64649,11 +64833,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="712">
+      <c r="K56" s="715">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="713"/>
+      <c r="L56" s="716"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -64670,22 +64854,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="690" t="s">
+      <c r="D58" s="693" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="691"/>
+      <c r="E58" s="694"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="692" t="s">
+      <c r="I58" s="695" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="693"/>
-      <c r="K58" s="694">
+      <c r="J58" s="696"/>
+      <c r="K58" s="697">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="694"/>
+      <c r="L58" s="697"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE    ZAVALETA   JULIO    2022.xlsx
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="1101">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4038,6 +4038,99 @@
   </si>
   <si>
     <t>Abastos/NLP</t>
+  </si>
+  <si>
+    <t>02839 D</t>
+  </si>
+  <si>
+    <t>02912 D</t>
+  </si>
+  <si>
+    <t>02988 D</t>
+  </si>
+  <si>
+    <t>03062 D</t>
+  </si>
+  <si>
+    <t>03160 D</t>
+  </si>
+  <si>
+    <t>03271 D</t>
+  </si>
+  <si>
+    <t>03409 D</t>
+  </si>
+  <si>
+    <t>03591 D</t>
+  </si>
+  <si>
+    <t>03740 D</t>
+  </si>
+  <si>
+    <t>03843 D</t>
+  </si>
+  <si>
+    <t>03934 D</t>
+  </si>
+  <si>
+    <t>04102 D</t>
+  </si>
+  <si>
+    <t>04118 D</t>
+  </si>
+  <si>
+    <t>04167 D</t>
+  </si>
+  <si>
+    <t>04247 D</t>
+  </si>
+  <si>
+    <t>04340 D</t>
+  </si>
+  <si>
+    <t>04453 D</t>
+  </si>
+  <si>
+    <t>04542 D</t>
+  </si>
+  <si>
+    <t>04652 D</t>
+  </si>
+  <si>
+    <t>04760 D</t>
+  </si>
+  <si>
+    <t>04883 D</t>
+  </si>
+  <si>
+    <t>04964 D</t>
+  </si>
+  <si>
+    <t>05088 D</t>
+  </si>
+  <si>
+    <t>05103 D</t>
+  </si>
+  <si>
+    <t>05201 D</t>
+  </si>
+  <si>
+    <t>05305 D</t>
+  </si>
+  <si>
+    <t>05373 D</t>
+  </si>
+  <si>
+    <t>05493 D</t>
+  </si>
+  <si>
+    <t>05530 D</t>
+  </si>
+  <si>
+    <t>05614 D</t>
+  </si>
+  <si>
+    <t>GANANCIA</t>
   </si>
 </sst>
 </file>
@@ -4786,7 +4879,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="105">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -6072,12 +6165,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="835">
+  <cellXfs count="843">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -7499,6 +7663,45 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7571,76 +7774,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7684,6 +7821,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7877,6 +8047,15 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7891,15 +8070,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7919,12 +8089,14 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="109" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -12726,23 +12898,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="717"/>
-      <c r="C1" s="719" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="697" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="720"/>
-      <c r="E1" s="720"/>
-      <c r="F1" s="720"/>
-      <c r="G1" s="720"/>
-      <c r="H1" s="720"/>
-      <c r="I1" s="720"/>
-      <c r="J1" s="720"/>
-      <c r="K1" s="720"/>
-      <c r="L1" s="720"/>
-      <c r="M1" s="720"/>
+      <c r="D1" s="698"/>
+      <c r="E1" s="698"/>
+      <c r="F1" s="698"/>
+      <c r="G1" s="698"/>
+      <c r="H1" s="698"/>
+      <c r="I1" s="698"/>
+      <c r="J1" s="698"/>
+      <c r="K1" s="698"/>
+      <c r="L1" s="698"/>
+      <c r="M1" s="698"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="718"/>
+      <c r="B2" s="696"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12752,17 +12924,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="721" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="722"/>
+      <c r="B3" s="699" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="700"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="723" t="s">
+      <c r="H3" s="701" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="723"/>
+      <c r="I3" s="701"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -12776,14 +12948,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="724" t="s">
+      <c r="E4" s="702" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="725"/>
-      <c r="H4" s="726" t="s">
+      <c r="F4" s="703"/>
+      <c r="H4" s="704" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="727"/>
+      <c r="I4" s="705"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12793,10 +12965,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="698" t="s">
+      <c r="P4" s="711" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="699"/>
+      <c r="Q4" s="712"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -14237,11 +14409,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="700">
+      <c r="M39" s="713">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="702">
+      <c r="N39" s="715">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -14267,8 +14439,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="701"/>
-      <c r="N40" s="703"/>
+      <c r="M40" s="714"/>
+      <c r="N40" s="716"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -14483,29 +14655,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="704" t="s">
+      <c r="H52" s="717" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="705"/>
+      <c r="I52" s="718"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="706">
+      <c r="K52" s="719">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="707"/>
-      <c r="M52" s="708">
+      <c r="L52" s="720"/>
+      <c r="M52" s="721">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="709"/>
+      <c r="N52" s="722"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="710" t="s">
+      <c r="D53" s="723" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="710"/>
+      <c r="E53" s="723"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -14516,22 +14688,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="710" t="s">
+      <c r="D54" s="723" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="710"/>
+      <c r="E54" s="723"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="711" t="s">
+      <c r="I54" s="724" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="712"/>
-      <c r="K54" s="713">
+      <c r="J54" s="725"/>
+      <c r="K54" s="726">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="714"/>
+      <c r="L54" s="727"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -14564,11 +14736,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="715">
+      <c r="K56" s="728">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="716"/>
+      <c r="L56" s="729"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -14585,22 +14757,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="693" t="s">
+      <c r="D58" s="706" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="694"/>
+      <c r="E58" s="707"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="695" t="s">
+      <c r="I58" s="708" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="696"/>
-      <c r="K58" s="697">
+      <c r="J58" s="709"/>
+      <c r="K58" s="710">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="697"/>
+      <c r="L58" s="710"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -14744,12 +14916,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -14764,6 +14930,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17224,10 +17396,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="789" t="s">
+      <c r="I76" s="791" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="790"/>
+      <c r="J76" s="792"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -17246,8 +17418,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="791"/>
-      <c r="J77" s="792"/>
+      <c r="I77" s="793"/>
+      <c r="J77" s="794"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -17314,7 +17486,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="755" t="s">
+      <c r="F80" s="757" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -17329,7 +17501,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="756"/>
+      <c r="F81" s="758"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -17337,10 +17509,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="788" t="s">
+      <c r="B82" s="790" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="788"/>
+      <c r="C82" s="790"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -17622,23 +17794,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="717"/>
-      <c r="C1" s="759" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="761" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="760"/>
-      <c r="E1" s="760"/>
-      <c r="F1" s="760"/>
-      <c r="G1" s="760"/>
-      <c r="H1" s="760"/>
-      <c r="I1" s="760"/>
-      <c r="J1" s="760"/>
-      <c r="K1" s="760"/>
-      <c r="L1" s="760"/>
-      <c r="M1" s="760"/>
+      <c r="D1" s="762"/>
+      <c r="E1" s="762"/>
+      <c r="F1" s="762"/>
+      <c r="G1" s="762"/>
+      <c r="H1" s="762"/>
+      <c r="I1" s="762"/>
+      <c r="J1" s="762"/>
+      <c r="K1" s="762"/>
+      <c r="L1" s="762"/>
+      <c r="M1" s="762"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="718"/>
+      <c r="B2" s="696"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17648,24 +17820,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="721" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="722"/>
+      <c r="B3" s="699" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="700"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="723" t="s">
+      <c r="H3" s="701" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="723"/>
+      <c r="I3" s="701"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="747" t="s">
+      <c r="P3" s="738" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="757" t="s">
+      <c r="R3" s="759" t="s">
         <v>216</v>
       </c>
     </row>
@@ -17680,14 +17852,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="724" t="s">
+      <c r="E4" s="702" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="725"/>
-      <c r="H4" s="726" t="s">
+      <c r="F4" s="703"/>
+      <c r="H4" s="704" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="727"/>
+      <c r="I4" s="705"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -17697,15 +17869,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="748"/>
+      <c r="P4" s="739"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="758"/>
-      <c r="W4" s="730" t="s">
+      <c r="R4" s="760"/>
+      <c r="W4" s="748" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="730"/>
+      <c r="X4" s="748"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17756,8 +17928,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="730"/>
-      <c r="X5" s="730"/>
+      <c r="W5" s="748"/>
+      <c r="X5" s="748"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18520,7 +18692,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="734">
+      <c r="W19" s="752">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -18572,7 +18744,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="735"/>
+      <c r="W20" s="753"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -18621,8 +18793,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="736"/>
-      <c r="X21" s="736"/>
+      <c r="W21" s="754"/>
+      <c r="X21" s="754"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -18722,8 +18894,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="737"/>
-      <c r="X23" s="737"/>
+      <c r="W23" s="755"/>
+      <c r="X23" s="755"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -18778,8 +18950,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="737"/>
-      <c r="X24" s="737"/>
+      <c r="W24" s="755"/>
+      <c r="X24" s="755"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -18827,8 +18999,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="738"/>
-      <c r="X25" s="738"/>
+      <c r="W25" s="756"/>
+      <c r="X25" s="756"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -18877,8 +19049,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="738"/>
-      <c r="X26" s="738"/>
+      <c r="W26" s="756"/>
+      <c r="X26" s="756"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -18926,9 +19098,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="731"/>
-      <c r="X27" s="732"/>
-      <c r="Y27" s="733"/>
+      <c r="W27" s="749"/>
+      <c r="X27" s="750"/>
+      <c r="Y27" s="751"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18976,9 +19148,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="732"/>
-      <c r="X28" s="732"/>
-      <c r="Y28" s="733"/>
+      <c r="W28" s="750"/>
+      <c r="X28" s="750"/>
+      <c r="Y28" s="751"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19310,11 +19482,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="749">
+      <c r="M36" s="740">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="751">
+      <c r="N36" s="742">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -19322,7 +19494,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="784">
+      <c r="Q36" s="786">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -19347,13 +19519,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="750"/>
-      <c r="N37" s="752"/>
+      <c r="M37" s="741"/>
+      <c r="N37" s="743"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="785"/>
+      <c r="Q37" s="787"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -19403,11 +19575,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="786">
+      <c r="M39" s="788">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="787"/>
+      <c r="N39" s="789"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -20035,26 +20207,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="704" t="s">
+      <c r="H68" s="717" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="705"/>
+      <c r="I68" s="718"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="706">
+      <c r="K68" s="719">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="739"/>
+      <c r="L68" s="746"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="710" t="s">
+      <c r="D69" s="723" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="710"/>
+      <c r="E69" s="723"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -20063,22 +20235,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="740" t="s">
+      <c r="D70" s="747" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="740"/>
+      <c r="E70" s="747"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="711" t="s">
+      <c r="I70" s="724" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="712"/>
-      <c r="K70" s="713">
+      <c r="J70" s="725"/>
+      <c r="K70" s="726">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="713"/>
+      <c r="L70" s="726"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -20119,11 +20291,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="715">
+      <c r="K72" s="728">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="716"/>
+      <c r="L72" s="729"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -20140,22 +20312,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="693" t="s">
+      <c r="D74" s="706" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="694"/>
+      <c r="E74" s="707"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="695" t="s">
+      <c r="I74" s="708" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="696"/>
-      <c r="K74" s="697">
+      <c r="J74" s="709"/>
+      <c r="K74" s="710">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="697"/>
+      <c r="L74" s="710"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -20302,21 +20474,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -20332,6 +20489,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22599,7 +22771,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="755" t="s">
+      <c r="F80" s="757" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -22612,7 +22784,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="756"/>
+      <c r="F81" s="758"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -22632,10 +22804,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="793" t="s">
+      <c r="I83" s="795" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="794"/>
+      <c r="J83" s="796"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -22644,8 +22816,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="795"/>
-      <c r="J84" s="796"/>
+      <c r="I84" s="797"/>
+      <c r="J84" s="798"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -22917,23 +23089,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="717"/>
-      <c r="C1" s="759" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="761" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="760"/>
-      <c r="E1" s="760"/>
-      <c r="F1" s="760"/>
-      <c r="G1" s="760"/>
-      <c r="H1" s="760"/>
-      <c r="I1" s="760"/>
-      <c r="J1" s="760"/>
-      <c r="K1" s="760"/>
-      <c r="L1" s="760"/>
-      <c r="M1" s="760"/>
+      <c r="D1" s="762"/>
+      <c r="E1" s="762"/>
+      <c r="F1" s="762"/>
+      <c r="G1" s="762"/>
+      <c r="H1" s="762"/>
+      <c r="I1" s="762"/>
+      <c r="J1" s="762"/>
+      <c r="K1" s="762"/>
+      <c r="L1" s="762"/>
+      <c r="M1" s="762"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="718"/>
+      <c r="B2" s="696"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22943,24 +23115,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="721" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="722"/>
+      <c r="B3" s="699" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="700"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="723" t="s">
+      <c r="H3" s="701" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="723"/>
+      <c r="I3" s="701"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="747" t="s">
+      <c r="P3" s="738" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="757" t="s">
+      <c r="R3" s="759" t="s">
         <v>216</v>
       </c>
     </row>
@@ -22975,14 +23147,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="724" t="s">
+      <c r="E4" s="702" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="725"/>
-      <c r="H4" s="726" t="s">
+      <c r="F4" s="703"/>
+      <c r="H4" s="704" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="727"/>
+      <c r="I4" s="705"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22992,15 +23164,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="748"/>
+      <c r="P4" s="739"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="758"/>
-      <c r="W4" s="730" t="s">
+      <c r="R4" s="760"/>
+      <c r="W4" s="748" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="730"/>
+      <c r="X4" s="748"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23051,8 +23223,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="730"/>
-      <c r="X5" s="730"/>
+      <c r="W5" s="748"/>
+      <c r="X5" s="748"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23811,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="734">
+      <c r="W19" s="752">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -23863,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="735"/>
+      <c r="W20" s="753"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -23912,8 +24084,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="736"/>
-      <c r="X21" s="736"/>
+      <c r="W21" s="754"/>
+      <c r="X21" s="754"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -24010,8 +24182,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="737"/>
-      <c r="X23" s="737"/>
+      <c r="W23" s="755"/>
+      <c r="X23" s="755"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -24066,8 +24238,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="737"/>
-      <c r="X24" s="737"/>
+      <c r="W24" s="755"/>
+      <c r="X24" s="755"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -24113,8 +24285,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="738"/>
-      <c r="X25" s="738"/>
+      <c r="W25" s="756"/>
+      <c r="X25" s="756"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -24165,8 +24337,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="738"/>
-      <c r="X26" s="738"/>
+      <c r="W26" s="756"/>
+      <c r="X26" s="756"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -24217,9 +24389,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="731"/>
-      <c r="X27" s="732"/>
-      <c r="Y27" s="733"/>
+      <c r="W27" s="749"/>
+      <c r="X27" s="750"/>
+      <c r="Y27" s="751"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24269,9 +24441,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="732"/>
-      <c r="X28" s="732"/>
-      <c r="Y28" s="733"/>
+      <c r="W28" s="750"/>
+      <c r="X28" s="750"/>
+      <c r="Y28" s="751"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24875,11 +25047,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="749">
+      <c r="M41" s="740">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="749">
+      <c r="N41" s="740">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -24887,7 +25059,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="797">
+      <c r="Q41" s="799">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -24917,10 +25089,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="750"/>
-      <c r="N42" s="750"/>
+      <c r="M42" s="741"/>
+      <c r="N42" s="741"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="798"/>
+      <c r="Q42" s="800"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -25008,11 +25180,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="799">
+      <c r="M45" s="801">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="800"/>
+      <c r="N45" s="802"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -25605,26 +25777,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="704" t="s">
+      <c r="H70" s="717" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="705"/>
+      <c r="I70" s="718"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="706">
+      <c r="K70" s="719">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="739"/>
+      <c r="L70" s="746"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="710" t="s">
+      <c r="D71" s="723" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="710"/>
+      <c r="E71" s="723"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -25634,22 +25806,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="740" t="s">
+      <c r="D72" s="747" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="740"/>
+      <c r="E72" s="747"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="711" t="s">
+      <c r="I72" s="724" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="712"/>
-      <c r="K72" s="713">
+      <c r="J72" s="725"/>
+      <c r="K72" s="726">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="713"/>
+      <c r="L72" s="726"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -25690,11 +25862,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="715">
+      <c r="K74" s="728">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="716"/>
+      <c r="L74" s="729"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25713,22 +25885,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="693" t="s">
+      <c r="D76" s="706" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="694"/>
+      <c r="E76" s="707"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="695" t="s">
+      <c r="I76" s="708" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="696"/>
-      <c r="K76" s="697">
+      <c r="J76" s="709"/>
+      <c r="K76" s="710">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="697"/>
+      <c r="L76" s="710"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -25888,21 +26060,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -25918,6 +26075,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28433,7 +28605,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="755" t="s">
+      <c r="F90" s="757" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -28446,7 +28618,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="756"/>
+      <c r="F91" s="758"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -28465,10 +28637,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="793" t="s">
+      <c r="I93" s="795" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="794"/>
+      <c r="J93" s="796"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -28478,8 +28650,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="795"/>
-      <c r="J94" s="796"/>
+      <c r="I94" s="797"/>
+      <c r="J94" s="798"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -28920,11 +29092,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="801">
+      <c r="C130" s="803">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="802"/>
+      <c r="D130" s="804"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -28960,21 +29132,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="807" t="s">
+      <c r="F2" s="809" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="808"/>
-      <c r="H2" s="809"/>
+      <c r="G2" s="810"/>
+      <c r="H2" s="811"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="804" t="s">
+      <c r="B3" s="806" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="805"/>
-      <c r="D3" s="806"/>
-      <c r="F3" s="810"/>
-      <c r="G3" s="811"/>
-      <c r="H3" s="812"/>
+      <c r="C3" s="807"/>
+      <c r="D3" s="808"/>
+      <c r="F3" s="812"/>
+      <c r="G3" s="813"/>
+      <c r="H3" s="814"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -29119,11 +29291,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="813">
+      <c r="G11" s="815">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="814"/>
+      <c r="H11" s="816"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -29140,23 +29312,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="817" t="s">
+      <c r="C15" s="819" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="815">
+      <c r="D15" s="817">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="818"/>
-      <c r="D16" s="816"/>
+      <c r="C16" s="820"/>
+      <c r="D16" s="818"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="803" t="s">
+      <c r="C17" s="805" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="803"/>
+      <c r="D17" s="805"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -29214,23 +29386,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="717"/>
-      <c r="C1" s="759" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="761" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="760"/>
-      <c r="E1" s="760"/>
-      <c r="F1" s="760"/>
-      <c r="G1" s="760"/>
-      <c r="H1" s="760"/>
-      <c r="I1" s="760"/>
-      <c r="J1" s="760"/>
-      <c r="K1" s="760"/>
-      <c r="L1" s="760"/>
-      <c r="M1" s="760"/>
+      <c r="D1" s="762"/>
+      <c r="E1" s="762"/>
+      <c r="F1" s="762"/>
+      <c r="G1" s="762"/>
+      <c r="H1" s="762"/>
+      <c r="I1" s="762"/>
+      <c r="J1" s="762"/>
+      <c r="K1" s="762"/>
+      <c r="L1" s="762"/>
+      <c r="M1" s="762"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="718"/>
+      <c r="B2" s="696"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29240,24 +29412,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="721" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="722"/>
+      <c r="B3" s="699" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="700"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="723" t="s">
+      <c r="H3" s="701" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="723"/>
+      <c r="I3" s="701"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="747" t="s">
+      <c r="P3" s="738" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="757" t="s">
+      <c r="R3" s="759" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -29276,14 +29448,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="724" t="s">
+      <c r="E4" s="702" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="725"/>
-      <c r="H4" s="726" t="s">
+      <c r="F4" s="703"/>
+      <c r="H4" s="704" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="727"/>
+      <c r="I4" s="705"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -29293,15 +29465,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="748"/>
+      <c r="P4" s="739"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="758"/>
+      <c r="R4" s="760"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="825"/>
-      <c r="X4" s="825"/>
+      <c r="W4" s="821"/>
+      <c r="X4" s="821"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29355,8 +29527,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="825"/>
-      <c r="X5" s="825"/>
+      <c r="W5" s="821"/>
+      <c r="X5" s="821"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30122,7 +30294,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="826"/>
+      <c r="W19" s="822"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -30176,7 +30348,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="826"/>
+      <c r="W20" s="822"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30231,8 +30403,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="736"/>
-      <c r="X21" s="736"/>
+      <c r="W21" s="754"/>
+      <c r="X21" s="754"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30343,8 +30515,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="737"/>
-      <c r="X23" s="737"/>
+      <c r="W23" s="755"/>
+      <c r="X23" s="755"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30405,8 +30577,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="737"/>
-      <c r="X24" s="737"/>
+      <c r="W24" s="755"/>
+      <c r="X24" s="755"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30459,8 +30631,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="738"/>
-      <c r="X25" s="738"/>
+      <c r="W25" s="756"/>
+      <c r="X25" s="756"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30515,8 +30687,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="738"/>
-      <c r="X26" s="738"/>
+      <c r="W26" s="756"/>
+      <c r="X26" s="756"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30571,9 +30743,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="731"/>
-      <c r="X27" s="732"/>
-      <c r="Y27" s="733"/>
+      <c r="W27" s="749"/>
+      <c r="X27" s="750"/>
+      <c r="Y27" s="751"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30627,9 +30799,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="732"/>
-      <c r="X28" s="732"/>
-      <c r="Y28" s="733"/>
+      <c r="W28" s="750"/>
+      <c r="X28" s="750"/>
+      <c r="Y28" s="751"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31220,11 +31392,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="749">
+      <c r="M41" s="740">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="749">
+      <c r="N41" s="740">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -31232,7 +31404,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="797">
+      <c r="Q41" s="799">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -31256,10 +31428,10 @@
       <c r="L42" s="640">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="750"/>
-      <c r="N42" s="750"/>
+      <c r="M42" s="741"/>
+      <c r="N42" s="741"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="798"/>
+      <c r="Q42" s="800"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -31328,11 +31500,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="799">
+      <c r="M45" s="801">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="800"/>
+      <c r="N45" s="802"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -31748,26 +31920,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="704" t="s">
+      <c r="H63" s="717" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="705"/>
+      <c r="I63" s="718"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="822">
+      <c r="K63" s="827">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="823"/>
+      <c r="L63" s="828"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="710" t="s">
+      <c r="D64" s="723" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="710"/>
+      <c r="E64" s="723"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -31776,22 +31948,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="740" t="s">
+      <c r="D65" s="747" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="740"/>
+      <c r="E65" s="747"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="711" t="s">
+      <c r="I65" s="724" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="712"/>
-      <c r="K65" s="713">
+      <c r="J65" s="725"/>
+      <c r="K65" s="726">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="713"/>
+      <c r="L65" s="726"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -31832,11 +32004,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="824">
+      <c r="K67" s="823">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="713"/>
+      <c r="L67" s="726"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -31853,22 +32025,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="693" t="s">
+      <c r="D69" s="706" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="694"/>
+      <c r="E69" s="707"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="819" t="s">
+      <c r="I69" s="824" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="820"/>
-      <c r="K69" s="821">
+      <c r="J69" s="825"/>
+      <c r="K69" s="826">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="821"/>
+      <c r="L69" s="826"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -32015,6 +32187,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -32030,21 +32217,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34074,7 +34246,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="755" t="s">
+      <c r="F71" s="757" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -34087,7 +34259,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="756"/>
+      <c r="F72" s="758"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -34106,10 +34278,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="793" t="s">
+      <c r="I74" s="795" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="794"/>
+      <c r="J74" s="796"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -34118,8 +34290,8 @@
       <c r="D75" s="654"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="795"/>
-      <c r="J75" s="796"/>
+      <c r="I75" s="797"/>
+      <c r="J75" s="798"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -34253,11 +34425,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="829" t="s">
+      <c r="A89" s="831" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="830"/>
-      <c r="C89" s="830"/>
+      <c r="B89" s="832"/>
+      <c r="C89" s="832"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -34267,10 +34439,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="831" t="s">
+      <c r="B90" s="833" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="832"/>
+      <c r="C90" s="834"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -34371,7 +34543,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="662"/>
-      <c r="C97" s="827">
+      <c r="C97" s="829">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -34385,7 +34557,7 @@
       <c r="B98" s="663" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="828"/>
+      <c r="C98" s="830"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -34485,23 +34657,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="717"/>
-      <c r="C1" s="759" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="761" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="760"/>
-      <c r="E1" s="760"/>
-      <c r="F1" s="760"/>
-      <c r="G1" s="760"/>
-      <c r="H1" s="760"/>
-      <c r="I1" s="760"/>
-      <c r="J1" s="760"/>
-      <c r="K1" s="760"/>
-      <c r="L1" s="760"/>
-      <c r="M1" s="760"/>
+      <c r="D1" s="762"/>
+      <c r="E1" s="762"/>
+      <c r="F1" s="762"/>
+      <c r="G1" s="762"/>
+      <c r="H1" s="762"/>
+      <c r="I1" s="762"/>
+      <c r="J1" s="762"/>
+      <c r="K1" s="762"/>
+      <c r="L1" s="762"/>
+      <c r="M1" s="762"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="718"/>
+      <c r="B2" s="696"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34511,24 +34683,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="721" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="722"/>
+      <c r="B3" s="699" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="700"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="723" t="s">
+      <c r="H3" s="701" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="723"/>
+      <c r="I3" s="701"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="747" t="s">
+      <c r="P3" s="738" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="757" t="s">
+      <c r="R3" s="759" t="s">
         <v>216</v>
       </c>
     </row>
@@ -34543,14 +34715,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="724" t="s">
+      <c r="E4" s="702" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="725"/>
-      <c r="H4" s="726" t="s">
+      <c r="F4" s="703"/>
+      <c r="H4" s="704" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="727"/>
+      <c r="I4" s="705"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -34560,11 +34732,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="748"/>
+      <c r="P4" s="739"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="758"/>
+      <c r="R4" s="760"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -36332,11 +36504,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="749">
+      <c r="M41" s="740">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="749">
+      <c r="N41" s="740">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -36344,7 +36516,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="797">
+      <c r="Q41" s="799">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -36374,10 +36546,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="750"/>
-      <c r="N42" s="750"/>
+      <c r="M42" s="741"/>
+      <c r="N42" s="741"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="798"/>
+      <c r="Q42" s="800"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -36464,11 +36636,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="799">
+      <c r="M45" s="801">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="800"/>
+      <c r="N45" s="802"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -37058,26 +37230,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="704" t="s">
+      <c r="H69" s="717" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="705"/>
+      <c r="I69" s="718"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="822">
+      <c r="K69" s="827">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="823"/>
+      <c r="L69" s="828"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="710" t="s">
+      <c r="D70" s="723" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="710"/>
+      <c r="E70" s="723"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1683028.8699999999</v>
@@ -37086,22 +37258,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="740" t="s">
+      <c r="D71" s="747" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="740"/>
+      <c r="E71" s="747"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="711" t="s">
+      <c r="I71" s="724" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="712"/>
-      <c r="K71" s="713">
+      <c r="J71" s="725"/>
+      <c r="K71" s="726">
         <f>F73+F74+F75</f>
         <v>2167293.46</v>
       </c>
-      <c r="L71" s="713"/>
+      <c r="L71" s="726"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -37142,11 +37314,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="824">
+      <c r="K73" s="823">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="713"/>
+      <c r="L73" s="726"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -37163,22 +37335,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="693" t="s">
+      <c r="D75" s="706" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="694"/>
+      <c r="E75" s="707"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="695" t="s">
+      <c r="I75" s="708" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="696"/>
-      <c r="K75" s="697">
+      <c r="J75" s="709"/>
+      <c r="K75" s="710">
         <f>K71+K73</f>
         <v>-379688.70000000019</v>
       </c>
-      <c r="L75" s="697"/>
+      <c r="L75" s="710"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -37325,17 +37497,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -37347,6 +37508,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37362,8 +37534,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39271,10 +39443,10 @@
         <f>SUM(F3:F66)</f>
         <v>1303900.4000000001</v>
       </c>
-      <c r="H67" s="793" t="s">
+      <c r="H67" s="795" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="794"/>
+      <c r="I67" s="796"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -39294,11 +39466,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="755" t="s">
+      <c r="F68" s="757" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="795"/>
-      <c r="I68" s="796"/>
+      <c r="H68" s="797"/>
+      <c r="I68" s="798"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -39309,7 +39481,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="756"/>
+      <c r="F69" s="758"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -41249,7 +41421,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="728" t="s">
+      <c r="B41" s="730" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -41281,7 +41453,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="729"/>
+      <c r="B42" s="731"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -42848,8 +43020,8 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -42875,23 +43047,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="717"/>
-      <c r="C1" s="759" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="761" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="760"/>
-      <c r="E1" s="760"/>
-      <c r="F1" s="760"/>
-      <c r="G1" s="760"/>
-      <c r="H1" s="760"/>
-      <c r="I1" s="760"/>
-      <c r="J1" s="760"/>
-      <c r="K1" s="760"/>
-      <c r="L1" s="760"/>
-      <c r="M1" s="760"/>
+      <c r="D1" s="762"/>
+      <c r="E1" s="762"/>
+      <c r="F1" s="762"/>
+      <c r="G1" s="762"/>
+      <c r="H1" s="762"/>
+      <c r="I1" s="762"/>
+      <c r="J1" s="762"/>
+      <c r="K1" s="762"/>
+      <c r="L1" s="762"/>
+      <c r="M1" s="762"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="718"/>
+      <c r="B2" s="696"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42901,24 +43073,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="721" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="722"/>
+      <c r="B3" s="699" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="700"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="723" t="s">
+      <c r="H3" s="701" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="723"/>
+      <c r="I3" s="701"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="747" t="s">
+      <c r="P3" s="738" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="757" t="s">
+      <c r="R3" s="759" t="s">
         <v>216</v>
       </c>
     </row>
@@ -42933,14 +43105,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="724" t="s">
+      <c r="E4" s="702" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="725"/>
-      <c r="H4" s="726" t="s">
+      <c r="F4" s="703"/>
+      <c r="H4" s="704" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="727"/>
+      <c r="I4" s="705"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -42950,11 +43122,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="748"/>
+      <c r="P4" s="739"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="758"/>
+      <c r="R4" s="760"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -43774,7 +43946,7 @@
       <c r="N21" s="33">
         <v>31157</v>
       </c>
-      <c r="O21" s="834" t="s">
+      <c r="O21" s="694" t="s">
         <v>1069</v>
       </c>
       <c r="P21" s="39">
@@ -44415,7 +44587,7 @@
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="C35" s="838"/>
       <c r="D35" s="67"/>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
@@ -44448,11 +44620,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="64"/>
+      <c r="C36" s="841"/>
+      <c r="D36" s="836"/>
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
       <c r="G36" s="666"/>
@@ -44461,7 +44633,7 @@
       <c r="J36" s="560">
         <v>44765</v>
       </c>
-      <c r="K36" s="833" t="s">
+      <c r="K36" s="693" t="s">
         <v>1056</v>
       </c>
       <c r="L36" s="9">
@@ -44487,8 +44659,8 @@
     <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="507"/>
+      <c r="C37" s="840"/>
+      <c r="D37" s="837"/>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
       <c r="G37" s="666"/>
@@ -44522,8 +44694,8 @@
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="65"/>
+      <c r="C38" s="840"/>
+      <c r="D38" s="835"/>
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
       <c r="G38" s="666"/>
@@ -44553,8 +44725,8 @@
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="64"/>
+      <c r="C39" s="840"/>
+      <c r="D39" s="836"/>
       <c r="E39" s="27"/>
       <c r="F39" s="509"/>
       <c r="G39" s="666"/>
@@ -44584,8 +44756,8 @@
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="507"/>
+      <c r="C40" s="840"/>
+      <c r="D40" s="837"/>
       <c r="E40" s="27"/>
       <c r="F40" s="70"/>
       <c r="G40" s="575"/>
@@ -44615,7 +44787,7 @@
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="72"/>
+      <c r="C41" s="840"/>
       <c r="D41" s="508"/>
       <c r="E41" s="74"/>
       <c r="F41" s="75"/>
@@ -44625,11 +44797,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="749">
+      <c r="M41" s="740">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="749">
+      <c r="N41" s="740">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -44637,7 +44809,7 @@
         <f>SUM(P5:P40)</f>
         <v>4757723.83</v>
       </c>
-      <c r="Q41" s="797">
+      <c r="Q41" s="799">
         <f>SUM(Q5:Q40)</f>
         <v>-49988</v>
       </c>
@@ -44645,7 +44817,7 @@
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="72"/>
+      <c r="C42" s="840"/>
       <c r="D42" s="73"/>
       <c r="E42" s="74"/>
       <c r="F42" s="75"/>
@@ -44655,15 +44827,15 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="750"/>
-      <c r="N42" s="750"/>
+      <c r="M42" s="741"/>
+      <c r="N42" s="741"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="798"/>
+      <c r="Q42" s="800"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="72"/>
+      <c r="C43" s="840"/>
       <c r="D43" s="73"/>
       <c r="E43" s="74"/>
       <c r="F43" s="75"/>
@@ -44681,7 +44853,7 @@
     <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
-      <c r="C44" s="72"/>
+      <c r="C44" s="840"/>
       <c r="D44" s="73"/>
       <c r="E44" s="74"/>
       <c r="F44" s="75"/>
@@ -44699,7 +44871,7 @@
     <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="72"/>
+      <c r="C45" s="840"/>
       <c r="D45" s="73"/>
       <c r="E45" s="74"/>
       <c r="F45" s="75"/>
@@ -44709,18 +44881,18 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="799">
+      <c r="M45" s="801">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="800"/>
+      <c r="N45" s="802"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
     <row r="46" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="72"/>
+      <c r="C46" s="840"/>
       <c r="D46" s="73"/>
       <c r="E46" s="74"/>
       <c r="F46" s="75"/>
@@ -44738,7 +44910,7 @@
     <row r="47" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="72"/>
+      <c r="C47" s="840"/>
       <c r="D47" s="73"/>
       <c r="E47" s="74"/>
       <c r="F47" s="75"/>
@@ -44756,7 +44928,7 @@
     <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
+      <c r="C48" s="840"/>
       <c r="D48" s="73"/>
       <c r="E48" s="74"/>
       <c r="F48" s="75"/>
@@ -44774,7 +44946,7 @@
     <row r="49" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
+      <c r="C49" s="840"/>
       <c r="D49" s="73"/>
       <c r="E49" s="74"/>
       <c r="F49" s="75"/>
@@ -44792,7 +44964,7 @@
     <row r="50" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
+      <c r="C50" s="840"/>
       <c r="D50" s="73"/>
       <c r="E50" s="74"/>
       <c r="F50" s="75"/>
@@ -44810,7 +44982,7 @@
     <row r="51" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="C51" s="840"/>
       <c r="D51" s="73"/>
       <c r="E51" s="74"/>
       <c r="F51" s="75"/>
@@ -44828,7 +45000,7 @@
     <row r="52" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="C52" s="840"/>
       <c r="D52" s="73"/>
       <c r="E52" s="74"/>
       <c r="F52" s="75"/>
@@ -44846,7 +45018,7 @@
     <row r="53" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="25">
+      <c r="C53" s="840">
         <v>0</v>
       </c>
       <c r="D53" s="73"/>
@@ -44866,7 +45038,7 @@
     <row r="54" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="25">
+      <c r="C54" s="842">
         <v>0</v>
       </c>
       <c r="D54" s="73"/>
@@ -44883,10 +45055,10 @@
       <c r="P54" s="34"/>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
-      <c r="C55" s="25">
+      <c r="C55" s="839">
         <v>0</v>
       </c>
       <c r="D55" s="73"/>
@@ -45152,26 +45324,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="704" t="s">
+      <c r="H69" s="717" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="705"/>
+      <c r="I69" s="718"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="822">
+      <c r="K69" s="827">
         <f>I67+L67</f>
         <v>238921.97000000009</v>
       </c>
-      <c r="L69" s="823"/>
+      <c r="L69" s="828"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="710" t="s">
+      <c r="D70" s="723" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="710"/>
+      <c r="E70" s="723"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>3160513.03</v>
@@ -45180,22 +45352,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="740" t="s">
+      <c r="D71" s="747" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="740"/>
+      <c r="E71" s="747"/>
       <c r="F71" s="111">
-        <v>0</v>
-      </c>
-      <c r="I71" s="711" t="s">
+        <v>-1727771.26</v>
+      </c>
+      <c r="I71" s="724" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="712"/>
-      <c r="K71" s="713">
+      <c r="J71" s="725"/>
+      <c r="K71" s="726">
         <f>F73+F74+F75</f>
-        <v>5515939.5700000003</v>
-      </c>
-      <c r="L71" s="713"/>
+        <v>3788168.3099999996</v>
+      </c>
+      <c r="L71" s="726"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -45229,18 +45401,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>3160513.03</v>
+        <v>1432741.7699999998</v>
       </c>
       <c r="H73" s="558"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="824">
+      <c r="K73" s="823">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="713"/>
+      <c r="L73" s="726"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -45255,22 +45427,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="693" t="s">
+      <c r="D75" s="706" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="694"/>
+      <c r="E75" s="707"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="695" t="s">
-        <v>97</v>
-      </c>
-      <c r="J75" s="696"/>
-      <c r="K75" s="697">
+      <c r="I75" s="824" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J75" s="825"/>
+      <c r="K75" s="826">
         <f>K71+K73</f>
-        <v>3160513.0300000003</v>
-      </c>
-      <c r="L75" s="697"/>
+        <v>1432741.7699999996</v>
+      </c>
+      <c r="L75" s="826"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -45414,6 +45586,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -45430,12 +45608,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45451,8 +45623,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45532,15 +45704,21 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="454"/>
-      <c r="B3" s="246"/>
-      <c r="C3" s="111"/>
+    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="454">
+        <v>44746</v>
+      </c>
+      <c r="B3" s="246" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C3" s="111">
+        <v>67911.399999999994</v>
+      </c>
       <c r="D3" s="412"/>
       <c r="E3" s="111"/>
       <c r="F3" s="410">
         <f>C3-E3</f>
-        <v>0</v>
+        <v>67911.399999999994</v>
       </c>
       <c r="H3" s="500"/>
       <c r="I3" s="501"/>
@@ -45553,14 +45731,20 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="454"/>
-      <c r="B4" s="246"/>
-      <c r="C4" s="111"/>
+      <c r="A4" s="454">
+        <v>44746</v>
+      </c>
+      <c r="B4" s="246" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C4" s="111">
+        <v>73363.8</v>
+      </c>
       <c r="D4" s="412"/>
       <c r="E4" s="111"/>
       <c r="F4" s="547">
         <f t="shared" ref="F4:F65" si="0">C4-E4</f>
-        <v>0</v>
+        <v>73363.8</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="497"/>
@@ -45574,14 +45758,20 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="454"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="111"/>
+      <c r="A5" s="454">
+        <v>44747</v>
+      </c>
+      <c r="B5" s="246" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C5" s="111">
+        <v>31164.35</v>
+      </c>
       <c r="D5" s="412"/>
       <c r="E5" s="111"/>
       <c r="F5" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31164.35</v>
       </c>
       <c r="H5" s="676"/>
       <c r="I5" s="677"/>
@@ -45594,14 +45784,20 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="454"/>
-      <c r="B6" s="246"/>
-      <c r="C6" s="111"/>
+      <c r="A6" s="454">
+        <v>44748</v>
+      </c>
+      <c r="B6" s="246" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C6" s="111">
+        <v>58616</v>
+      </c>
       <c r="D6" s="412"/>
       <c r="E6" s="111"/>
       <c r="F6" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58616</v>
       </c>
       <c r="H6" s="676"/>
       <c r="I6" s="677"/>
@@ -45614,14 +45810,20 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="454"/>
-      <c r="B7" s="246"/>
-      <c r="C7" s="111"/>
+      <c r="A7" s="454">
+        <v>44749</v>
+      </c>
+      <c r="B7" s="246" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C7" s="111">
+        <v>106705.96</v>
+      </c>
       <c r="D7" s="412"/>
       <c r="E7" s="111"/>
       <c r="F7" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>106705.96</v>
       </c>
       <c r="H7" s="679"/>
       <c r="I7" s="680"/>
@@ -45634,14 +45836,20 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="454"/>
-      <c r="B8" s="246"/>
-      <c r="C8" s="111"/>
+      <c r="A8" s="454">
+        <v>44750</v>
+      </c>
+      <c r="B8" s="246" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C8" s="111">
+        <v>68357.89</v>
+      </c>
       <c r="D8" s="412"/>
       <c r="E8" s="111"/>
       <c r="F8" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68357.89</v>
       </c>
       <c r="H8" s="679"/>
       <c r="I8" s="680"/>
@@ -45654,14 +45862,20 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="454"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="111"/>
+      <c r="A9" s="454">
+        <v>44751</v>
+      </c>
+      <c r="B9" s="246" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C9" s="111">
+        <v>39927.050000000003</v>
+      </c>
       <c r="D9" s="412"/>
       <c r="E9" s="111"/>
       <c r="F9" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39927.050000000003</v>
       </c>
       <c r="H9" s="676"/>
       <c r="I9" s="677"/>
@@ -45674,14 +45888,20 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="454"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="111"/>
+      <c r="A10" s="454">
+        <v>44753</v>
+      </c>
+      <c r="B10" s="246" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C10" s="111">
+        <v>121513</v>
+      </c>
       <c r="D10" s="412"/>
       <c r="E10" s="111"/>
       <c r="F10" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121513</v>
       </c>
       <c r="G10" s="138"/>
       <c r="H10" s="676"/>
@@ -45695,14 +45915,20 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="454"/>
-      <c r="B11" s="246"/>
-      <c r="C11" s="111"/>
+      <c r="A11" s="454">
+        <v>44754</v>
+      </c>
+      <c r="B11" s="246" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C11" s="111">
+        <v>60297.8</v>
+      </c>
       <c r="D11" s="412"/>
       <c r="E11" s="111"/>
       <c r="F11" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60297.8</v>
       </c>
       <c r="H11" s="676"/>
       <c r="I11" s="677"/>
@@ -45715,14 +45941,20 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="454"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="111"/>
+      <c r="A12" s="454">
+        <v>44755</v>
+      </c>
+      <c r="B12" s="246" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C12" s="111">
+        <v>105453.7</v>
+      </c>
       <c r="D12" s="412"/>
       <c r="E12" s="111"/>
       <c r="F12" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105453.7</v>
       </c>
       <c r="H12" s="676"/>
       <c r="I12" s="677"/>
@@ -45735,14 +45967,20 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="454"/>
-      <c r="B13" s="246"/>
-      <c r="C13" s="111"/>
+      <c r="A13" s="454">
+        <v>44756</v>
+      </c>
+      <c r="B13" s="246" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C13" s="111">
+        <v>65012.85</v>
+      </c>
       <c r="D13" s="412"/>
       <c r="E13" s="111"/>
       <c r="F13" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65012.85</v>
       </c>
       <c r="H13" s="679"/>
       <c r="I13" s="680"/>
@@ -45755,14 +45993,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="454"/>
-      <c r="B14" s="246"/>
-      <c r="C14" s="111"/>
+      <c r="A14" s="454">
+        <v>44757</v>
+      </c>
+      <c r="B14" s="246" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C14" s="111">
+        <v>83843.7</v>
+      </c>
       <c r="D14" s="412"/>
       <c r="E14" s="111"/>
       <c r="F14" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83843.7</v>
       </c>
       <c r="H14" s="679"/>
       <c r="I14" s="680"/>
@@ -45775,14 +46019,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="454"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="111"/>
+      <c r="A15" s="454">
+        <v>44757</v>
+      </c>
+      <c r="B15" s="246" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C15" s="111">
+        <v>11248</v>
+      </c>
       <c r="D15" s="412"/>
       <c r="E15" s="111"/>
       <c r="F15" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11248</v>
       </c>
       <c r="H15" s="676"/>
       <c r="I15" s="677"/>
@@ -45795,14 +46045,20 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="454"/>
-      <c r="B16" s="246"/>
-      <c r="C16" s="111"/>
+      <c r="A16" s="454">
+        <v>44758</v>
+      </c>
+      <c r="B16" s="246" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C16" s="111">
+        <v>30498.9</v>
+      </c>
       <c r="D16" s="412"/>
       <c r="E16" s="111"/>
       <c r="F16" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30498.9</v>
       </c>
       <c r="H16" s="679"/>
       <c r="I16" s="680"/>
@@ -45815,14 +46071,20 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="454"/>
-      <c r="B17" s="246"/>
-      <c r="C17" s="111"/>
+      <c r="A17" s="454">
+        <v>44758</v>
+      </c>
+      <c r="B17" s="246" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C17" s="111">
+        <v>4920</v>
+      </c>
       <c r="D17" s="412"/>
       <c r="E17" s="111"/>
       <c r="F17" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4920</v>
       </c>
       <c r="H17" s="679"/>
       <c r="I17" s="680"/>
@@ -45835,14 +46097,20 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="454"/>
-      <c r="B18" s="246"/>
-      <c r="C18" s="111"/>
+      <c r="A18" s="454">
+        <v>44760</v>
+      </c>
+      <c r="B18" s="246" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C18" s="111">
+        <v>97808.75</v>
+      </c>
       <c r="D18" s="412"/>
       <c r="E18" s="111"/>
       <c r="F18" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97808.75</v>
       </c>
       <c r="H18" s="676"/>
       <c r="I18" s="677"/>
@@ -45855,14 +46123,20 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="454"/>
-      <c r="B19" s="246"/>
-      <c r="C19" s="111"/>
+      <c r="A19" s="454">
+        <v>44761</v>
+      </c>
+      <c r="B19" s="246" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C19" s="111">
+        <v>70509.3</v>
+      </c>
       <c r="D19" s="412"/>
       <c r="E19" s="111"/>
       <c r="F19" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70509.3</v>
       </c>
       <c r="H19" s="679"/>
       <c r="I19" s="680"/>
@@ -45875,14 +46149,20 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="454"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="111"/>
+      <c r="A20" s="454">
+        <v>44762</v>
+      </c>
+      <c r="B20" s="246" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C20" s="111">
+        <v>72783.5</v>
+      </c>
       <c r="D20" s="412"/>
       <c r="E20" s="111"/>
       <c r="F20" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72783.5</v>
       </c>
       <c r="H20" s="676"/>
       <c r="I20" s="677"/>
@@ -45895,14 +46175,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="454"/>
-      <c r="B21" s="246"/>
-      <c r="C21" s="111"/>
+      <c r="A21" s="454">
+        <v>44763</v>
+      </c>
+      <c r="B21" s="246" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C21" s="111">
+        <v>40894.36</v>
+      </c>
       <c r="D21" s="412"/>
       <c r="E21" s="111"/>
       <c r="F21" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40894.36</v>
       </c>
       <c r="H21" s="679"/>
       <c r="I21" s="680"/>
@@ -45915,14 +46201,20 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="454"/>
-      <c r="B22" s="246"/>
-      <c r="C22" s="111"/>
+      <c r="A22" s="454">
+        <v>44764</v>
+      </c>
+      <c r="B22" s="246" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C22" s="111">
+        <v>69612.42</v>
+      </c>
       <c r="D22" s="412"/>
       <c r="E22" s="111"/>
       <c r="F22" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69612.42</v>
       </c>
       <c r="G22" s="648"/>
       <c r="H22" s="676"/>
@@ -45936,14 +46228,20 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="454"/>
-      <c r="B23" s="246"/>
-      <c r="C23" s="111"/>
+      <c r="A23" s="454">
+        <v>44765</v>
+      </c>
+      <c r="B23" s="246" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C23" s="111">
+        <v>111046</v>
+      </c>
       <c r="D23" s="412"/>
       <c r="E23" s="111"/>
       <c r="F23" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>111046</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="676"/>
@@ -45957,14 +46255,20 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="454"/>
-      <c r="B24" s="246"/>
-      <c r="C24" s="111"/>
+      <c r="A24" s="454">
+        <v>44765</v>
+      </c>
+      <c r="B24" s="246" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C24" s="111">
+        <v>3984</v>
+      </c>
       <c r="D24" s="412"/>
       <c r="E24" s="111"/>
       <c r="F24" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3984</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="676"/>
@@ -45978,14 +46282,20 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="454"/>
-      <c r="B25" s="246"/>
-      <c r="C25" s="111"/>
+      <c r="A25" s="454">
+        <v>44767</v>
+      </c>
+      <c r="B25" s="246" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C25" s="111">
+        <v>26094.639999999999</v>
+      </c>
       <c r="D25" s="412"/>
       <c r="E25" s="111"/>
       <c r="F25" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26094.639999999999</v>
       </c>
       <c r="G25" s="649"/>
       <c r="H25" s="679"/>
@@ -45999,14 +46309,20 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="454"/>
-      <c r="B26" s="583"/>
-      <c r="C26" s="111"/>
+      <c r="A26" s="454">
+        <v>44767</v>
+      </c>
+      <c r="B26" s="583" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C26" s="111">
+        <v>6990.16</v>
+      </c>
       <c r="D26" s="412"/>
       <c r="E26" s="111"/>
       <c r="F26" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6990.16</v>
       </c>
       <c r="G26" s="649"/>
       <c r="H26" s="676"/>
@@ -46020,14 +46336,20 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="454"/>
-      <c r="B27" s="246"/>
-      <c r="C27" s="111"/>
+      <c r="A27" s="454">
+        <v>44768</v>
+      </c>
+      <c r="B27" s="246" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C27" s="111">
+        <v>97965.58</v>
+      </c>
       <c r="D27" s="412"/>
       <c r="E27" s="111"/>
       <c r="F27" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97965.58</v>
       </c>
       <c r="G27" s="649"/>
       <c r="H27" s="679"/>
@@ -46041,14 +46363,20 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="454"/>
-      <c r="B28" s="246"/>
-      <c r="C28" s="111"/>
+      <c r="A28" s="454">
+        <v>44769</v>
+      </c>
+      <c r="B28" s="246" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C28" s="111">
+        <v>10947.2</v>
+      </c>
       <c r="D28" s="412"/>
       <c r="E28" s="111"/>
       <c r="F28" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10947.2</v>
       </c>
       <c r="G28" s="649"/>
       <c r="H28" s="679"/>
@@ -46062,14 +46390,20 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="454"/>
-      <c r="B29" s="246"/>
-      <c r="C29" s="111"/>
+      <c r="A29" s="454">
+        <v>44770</v>
+      </c>
+      <c r="B29" s="246" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C29" s="111">
+        <v>29495.85</v>
+      </c>
       <c r="D29" s="412"/>
       <c r="E29" s="111"/>
       <c r="F29" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29495.85</v>
       </c>
       <c r="G29" s="649"/>
       <c r="H29" s="679"/>
@@ -46083,14 +46417,20 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="454"/>
-      <c r="B30" s="246"/>
-      <c r="C30" s="111"/>
+      <c r="A30" s="454">
+        <v>44771</v>
+      </c>
+      <c r="B30" s="246" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C30" s="111">
+        <v>9222</v>
+      </c>
       <c r="D30" s="412"/>
       <c r="E30" s="111"/>
       <c r="F30" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9222</v>
       </c>
       <c r="G30" s="649"/>
       <c r="H30" s="679"/>
@@ -46104,14 +46444,20 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="454"/>
-      <c r="B31" s="246"/>
-      <c r="C31" s="111"/>
+      <c r="A31" s="454">
+        <v>44771</v>
+      </c>
+      <c r="B31" s="246" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C31" s="111">
+        <v>73071.5</v>
+      </c>
       <c r="D31" s="412"/>
       <c r="E31" s="111"/>
       <c r="F31" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73071.5</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="679"/>
@@ -46125,14 +46471,20 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="454"/>
-      <c r="B32" s="246"/>
-      <c r="C32" s="111"/>
+      <c r="A32" s="454">
+        <v>44772</v>
+      </c>
+      <c r="B32" s="246" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C32" s="111">
+        <v>78511.600000000006</v>
+      </c>
       <c r="D32" s="412"/>
       <c r="E32" s="111"/>
       <c r="F32" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78511.600000000006</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="676"/>
@@ -46829,7 +47181,7 @@
       <c r="B67" s="440"/>
       <c r="C67" s="212">
         <f>SUM(C3:C66)</f>
-        <v>0</v>
+        <v>1727771.26</v>
       </c>
       <c r="D67" s="407"/>
       <c r="E67" s="395">
@@ -46838,12 +47190,12 @@
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="793" t="s">
+        <v>1727771.26</v>
+      </c>
+      <c r="H67" s="795" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="794"/>
+      <c r="I67" s="796"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -46863,11 +47215,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="755" t="s">
+      <c r="F68" s="757" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="795"/>
-      <c r="I68" s="796"/>
+      <c r="H68" s="797"/>
+      <c r="I68" s="798"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -46878,7 +47230,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="756"/>
+      <c r="F69" s="758"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -47546,23 +47898,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="717"/>
-      <c r="C1" s="719" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="697" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="720"/>
-      <c r="E1" s="720"/>
-      <c r="F1" s="720"/>
-      <c r="G1" s="720"/>
-      <c r="H1" s="720"/>
-      <c r="I1" s="720"/>
-      <c r="J1" s="720"/>
-      <c r="K1" s="720"/>
-      <c r="L1" s="720"/>
-      <c r="M1" s="720"/>
+      <c r="D1" s="698"/>
+      <c r="E1" s="698"/>
+      <c r="F1" s="698"/>
+      <c r="G1" s="698"/>
+      <c r="H1" s="698"/>
+      <c r="I1" s="698"/>
+      <c r="J1" s="698"/>
+      <c r="K1" s="698"/>
+      <c r="L1" s="698"/>
+      <c r="M1" s="698"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="718"/>
+      <c r="B2" s="696"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -47572,21 +47924,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="721" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="722"/>
+      <c r="B3" s="699" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="700"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="723" t="s">
+      <c r="H3" s="701" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="723"/>
+      <c r="I3" s="701"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="747" t="s">
+      <c r="P3" s="738" t="s">
         <v>6</v>
       </c>
     </row>
@@ -47601,14 +47953,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="724" t="s">
+      <c r="E4" s="702" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="725"/>
-      <c r="H4" s="726" t="s">
+      <c r="F4" s="703"/>
+      <c r="H4" s="704" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="727"/>
+      <c r="I4" s="705"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -47618,14 +47970,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="748"/>
+      <c r="P4" s="739"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="730" t="s">
+      <c r="W4" s="748" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="730"/>
+      <c r="X4" s="748"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47676,8 +48028,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="730"/>
-      <c r="X5" s="730"/>
+      <c r="W5" s="748"/>
+      <c r="X5" s="748"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48448,7 +48800,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="734">
+      <c r="W19" s="752">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -48500,7 +48852,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="735"/>
+      <c r="W20" s="753"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -48549,8 +48901,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="736"/>
-      <c r="X21" s="736"/>
+      <c r="W21" s="754"/>
+      <c r="X21" s="754"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -48651,8 +49003,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="737"/>
-      <c r="X23" s="737"/>
+      <c r="W23" s="755"/>
+      <c r="X23" s="755"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -48706,8 +49058,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="737"/>
-      <c r="X24" s="737"/>
+      <c r="W24" s="755"/>
+      <c r="X24" s="755"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -48753,8 +49105,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="738"/>
-      <c r="X25" s="738"/>
+      <c r="W25" s="756"/>
+      <c r="X25" s="756"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -48805,8 +49157,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="738"/>
-      <c r="X26" s="738"/>
+      <c r="W26" s="756"/>
+      <c r="X26" s="756"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -48854,9 +49206,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="731"/>
-      <c r="X27" s="732"/>
-      <c r="Y27" s="733"/>
+      <c r="W27" s="749"/>
+      <c r="X27" s="750"/>
+      <c r="Y27" s="751"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48906,9 +49258,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="732"/>
-      <c r="X28" s="732"/>
-      <c r="Y28" s="733"/>
+      <c r="W28" s="750"/>
+      <c r="X28" s="750"/>
+      <c r="Y28" s="751"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -49243,11 +49595,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="749">
+      <c r="M36" s="740">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="751">
+      <c r="N36" s="742">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -49255,7 +49607,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="753">
+      <c r="Q36" s="744">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -49290,13 +49642,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="750"/>
-      <c r="N37" s="752"/>
+      <c r="M37" s="741"/>
+      <c r="N37" s="743"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="754"/>
+      <c r="Q37" s="745"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -49586,26 +49938,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="704" t="s">
+      <c r="H52" s="717" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="705"/>
+      <c r="I52" s="718"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="706">
+      <c r="K52" s="719">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="739"/>
+      <c r="L52" s="746"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="710" t="s">
+      <c r="D53" s="723" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="710"/>
+      <c r="E53" s="723"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -49614,29 +49966,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="740" t="s">
+      <c r="D54" s="747" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="740"/>
+      <c r="E54" s="747"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="711" t="s">
+      <c r="I54" s="724" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="712"/>
-      <c r="K54" s="713">
+      <c r="J54" s="725"/>
+      <c r="K54" s="726">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="713"/>
-      <c r="M54" s="741" t="s">
+      <c r="L54" s="726"/>
+      <c r="M54" s="732" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="742"/>
-      <c r="O54" s="742"/>
-      <c r="P54" s="742"/>
-      <c r="Q54" s="743"/>
+      <c r="N54" s="733"/>
+      <c r="O54" s="733"/>
+      <c r="P54" s="733"/>
+      <c r="Q54" s="734"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -49650,11 +50002,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="744"/>
-      <c r="N55" s="745"/>
-      <c r="O55" s="745"/>
-      <c r="P55" s="745"/>
-      <c r="Q55" s="746"/>
+      <c r="M55" s="735"/>
+      <c r="N55" s="736"/>
+      <c r="O55" s="736"/>
+      <c r="P55" s="736"/>
+      <c r="Q55" s="737"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -49672,11 +50024,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="715">
+      <c r="K56" s="728">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="716"/>
+      <c r="L56" s="729"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -49693,22 +50045,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="693" t="s">
+      <c r="D58" s="706" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="694"/>
+      <c r="E58" s="707"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="695" t="s">
+      <c r="I58" s="708" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="696"/>
-      <c r="K58" s="697">
+      <c r="J58" s="709"/>
+      <c r="K58" s="710">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="697"/>
+      <c r="L58" s="710"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -49852,17 +50204,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -49873,14 +50222,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -52298,7 +52650,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="755" t="s">
+      <c r="F87" s="757" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -52311,7 +52663,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="756"/>
+      <c r="F88" s="758"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -52623,23 +52975,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="717"/>
-      <c r="C1" s="719" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="697" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="720"/>
-      <c r="E1" s="720"/>
-      <c r="F1" s="720"/>
-      <c r="G1" s="720"/>
-      <c r="H1" s="720"/>
-      <c r="I1" s="720"/>
-      <c r="J1" s="720"/>
-      <c r="K1" s="720"/>
-      <c r="L1" s="720"/>
-      <c r="M1" s="720"/>
+      <c r="D1" s="698"/>
+      <c r="E1" s="698"/>
+      <c r="F1" s="698"/>
+      <c r="G1" s="698"/>
+      <c r="H1" s="698"/>
+      <c r="I1" s="698"/>
+      <c r="J1" s="698"/>
+      <c r="K1" s="698"/>
+      <c r="L1" s="698"/>
+      <c r="M1" s="698"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="718"/>
+      <c r="B2" s="696"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -52649,24 +53001,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="721" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="722"/>
+      <c r="B3" s="699" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="700"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="723" t="s">
+      <c r="H3" s="701" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="723"/>
+      <c r="I3" s="701"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="747" t="s">
+      <c r="P3" s="738" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="757" t="s">
+      <c r="R3" s="759" t="s">
         <v>216</v>
       </c>
     </row>
@@ -52681,14 +53033,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="724" t="s">
+      <c r="E4" s="702" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="725"/>
-      <c r="H4" s="726" t="s">
+      <c r="F4" s="703"/>
+      <c r="H4" s="704" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="727"/>
+      <c r="I4" s="705"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -52698,15 +53050,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="748"/>
+      <c r="P4" s="739"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="758"/>
-      <c r="W4" s="730" t="s">
+      <c r="R4" s="760"/>
+      <c r="W4" s="748" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="730"/>
+      <c r="X4" s="748"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52767,8 +53119,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="730"/>
-      <c r="X5" s="730"/>
+      <c r="W5" s="748"/>
+      <c r="X5" s="748"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53525,7 +53877,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="734">
+      <c r="W19" s="752">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -53577,7 +53929,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="735"/>
+      <c r="W20" s="753"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -53626,8 +53978,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="736"/>
-      <c r="X21" s="736"/>
+      <c r="W21" s="754"/>
+      <c r="X21" s="754"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -53728,8 +54080,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="737"/>
-      <c r="X23" s="737"/>
+      <c r="W23" s="755"/>
+      <c r="X23" s="755"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -53780,8 +54132,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="737"/>
-      <c r="X24" s="737"/>
+      <c r="W24" s="755"/>
+      <c r="X24" s="755"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -53827,8 +54179,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="738"/>
-      <c r="X25" s="738"/>
+      <c r="W25" s="756"/>
+      <c r="X25" s="756"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -53876,8 +54228,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="738"/>
-      <c r="X26" s="738"/>
+      <c r="W26" s="756"/>
+      <c r="X26" s="756"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -53937,9 +54289,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="731"/>
-      <c r="X27" s="732"/>
-      <c r="Y27" s="733"/>
+      <c r="W27" s="749"/>
+      <c r="X27" s="750"/>
+      <c r="Y27" s="751"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53993,9 +54345,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="732"/>
-      <c r="X28" s="732"/>
-      <c r="Y28" s="733"/>
+      <c r="W28" s="750"/>
+      <c r="X28" s="750"/>
+      <c r="Y28" s="751"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54311,11 +54663,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="749">
+      <c r="M36" s="740">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="751">
+      <c r="N36" s="742">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -54323,7 +54675,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="753">
+      <c r="Q36" s="744">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -54342,13 +54694,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="750"/>
-      <c r="N37" s="752"/>
+      <c r="M37" s="741"/>
+      <c r="N37" s="743"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="754"/>
+      <c r="Q37" s="745"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -54622,26 +54974,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="704" t="s">
+      <c r="H52" s="717" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="705"/>
+      <c r="I52" s="718"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="706">
+      <c r="K52" s="719">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="739"/>
+      <c r="L52" s="746"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="710" t="s">
+      <c r="D53" s="723" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="710"/>
+      <c r="E53" s="723"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -54650,29 +55002,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="740" t="s">
+      <c r="D54" s="747" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="740"/>
+      <c r="E54" s="747"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="711" t="s">
+      <c r="I54" s="724" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="712"/>
-      <c r="K54" s="713">
+      <c r="J54" s="725"/>
+      <c r="K54" s="726">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="713"/>
-      <c r="M54" s="741" t="s">
+      <c r="L54" s="726"/>
+      <c r="M54" s="732" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="742"/>
-      <c r="O54" s="742"/>
-      <c r="P54" s="742"/>
-      <c r="Q54" s="743"/>
+      <c r="N54" s="733"/>
+      <c r="O54" s="733"/>
+      <c r="P54" s="733"/>
+      <c r="Q54" s="734"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -54686,11 +55038,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="744"/>
-      <c r="N55" s="745"/>
-      <c r="O55" s="745"/>
-      <c r="P55" s="745"/>
-      <c r="Q55" s="746"/>
+      <c r="M55" s="735"/>
+      <c r="N55" s="736"/>
+      <c r="O55" s="736"/>
+      <c r="P55" s="736"/>
+      <c r="Q55" s="737"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -54708,11 +55060,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="715">
+      <c r="K56" s="728">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="716"/>
+      <c r="L56" s="729"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -54729,22 +55081,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="693" t="s">
+      <c r="D58" s="706" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="694"/>
+      <c r="E58" s="707"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="695" t="s">
+      <c r="I58" s="708" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="696"/>
-      <c r="K58" s="697">
+      <c r="J58" s="709"/>
+      <c r="K58" s="710">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="697"/>
+      <c r="L58" s="710"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -54888,13 +55240,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -54904,20 +55263,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -57307,7 +57659,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="755" t="s">
+      <c r="F75" s="757" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -57320,7 +57672,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="756"/>
+      <c r="F76" s="758"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -57612,23 +57964,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="717"/>
-      <c r="C1" s="759" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="761" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="760"/>
-      <c r="E1" s="760"/>
-      <c r="F1" s="760"/>
-      <c r="G1" s="760"/>
-      <c r="H1" s="760"/>
-      <c r="I1" s="760"/>
-      <c r="J1" s="760"/>
-      <c r="K1" s="760"/>
-      <c r="L1" s="760"/>
-      <c r="M1" s="760"/>
+      <c r="D1" s="762"/>
+      <c r="E1" s="762"/>
+      <c r="F1" s="762"/>
+      <c r="G1" s="762"/>
+      <c r="H1" s="762"/>
+      <c r="I1" s="762"/>
+      <c r="J1" s="762"/>
+      <c r="K1" s="762"/>
+      <c r="L1" s="762"/>
+      <c r="M1" s="762"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="718"/>
+      <c r="B2" s="696"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -57638,24 +57990,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="721" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="722"/>
+      <c r="B3" s="699" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="700"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="723" t="s">
+      <c r="H3" s="701" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="723"/>
+      <c r="I3" s="701"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="747" t="s">
+      <c r="P3" s="738" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="757" t="s">
+      <c r="R3" s="759" t="s">
         <v>216</v>
       </c>
     </row>
@@ -57670,14 +58022,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="724" t="s">
+      <c r="E4" s="702" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="725"/>
-      <c r="H4" s="726" t="s">
+      <c r="F4" s="703"/>
+      <c r="H4" s="704" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="727"/>
+      <c r="I4" s="705"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -57687,15 +58039,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="748"/>
+      <c r="P4" s="739"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="758"/>
-      <c r="W4" s="730" t="s">
+      <c r="R4" s="760"/>
+      <c r="W4" s="748" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="730"/>
+      <c r="X4" s="748"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57746,8 +58098,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="730"/>
-      <c r="X5" s="730"/>
+      <c r="W5" s="748"/>
+      <c r="X5" s="748"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58511,7 +58863,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="734">
+      <c r="W19" s="752">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -58564,7 +58916,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="735"/>
+      <c r="W20" s="753"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -58613,8 +58965,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="736"/>
-      <c r="X21" s="736"/>
+      <c r="W21" s="754"/>
+      <c r="X21" s="754"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -58714,8 +59066,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="737"/>
-      <c r="X23" s="737"/>
+      <c r="W23" s="755"/>
+      <c r="X23" s="755"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -58770,8 +59122,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="737"/>
-      <c r="X24" s="737"/>
+      <c r="W24" s="755"/>
+      <c r="X24" s="755"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -58816,8 +59168,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="738"/>
-      <c r="X25" s="738"/>
+      <c r="W25" s="756"/>
+      <c r="X25" s="756"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -58865,8 +59217,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="738"/>
-      <c r="X26" s="738"/>
+      <c r="W26" s="756"/>
+      <c r="X26" s="756"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -58920,9 +59272,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="731"/>
-      <c r="X27" s="732"/>
-      <c r="Y27" s="733"/>
+      <c r="W27" s="749"/>
+      <c r="X27" s="750"/>
+      <c r="Y27" s="751"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58976,9 +59328,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="732"/>
-      <c r="X28" s="732"/>
-      <c r="Y28" s="733"/>
+      <c r="W28" s="750"/>
+      <c r="X28" s="750"/>
+      <c r="Y28" s="751"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59289,11 +59641,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="749">
+      <c r="M36" s="740">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="751">
+      <c r="N36" s="742">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -59301,7 +59653,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="753">
+      <c r="Q36" s="744">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -59326,13 +59678,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="750"/>
-      <c r="N37" s="752"/>
+      <c r="M37" s="741"/>
+      <c r="N37" s="743"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="754"/>
+      <c r="Q37" s="745"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -59625,26 +59977,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="704" t="s">
+      <c r="H52" s="717" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="705"/>
+      <c r="I52" s="718"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="706">
+      <c r="K52" s="719">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="739"/>
+      <c r="L52" s="746"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="710" t="s">
+      <c r="D53" s="723" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="710"/>
+      <c r="E53" s="723"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -59653,22 +60005,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="740" t="s">
+      <c r="D54" s="747" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="740"/>
+      <c r="E54" s="747"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="711" t="s">
+      <c r="I54" s="724" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="712"/>
-      <c r="K54" s="713">
+      <c r="J54" s="725"/>
+      <c r="K54" s="726">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="713"/>
+      <c r="L54" s="726"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -59709,11 +60061,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="715">
+      <c r="K56" s="728">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="716"/>
+      <c r="L56" s="729"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -59730,22 +60082,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="693" t="s">
+      <c r="D58" s="706" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="694"/>
+      <c r="E58" s="707"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="695" t="s">
+      <c r="I58" s="708" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="696"/>
-      <c r="K58" s="697">
+      <c r="J58" s="709"/>
+      <c r="K58" s="710">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="697"/>
+      <c r="L58" s="710"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -59889,6 +60241,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -59904,20 +60270,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -61614,12 +61966,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="761" t="s">
+      <c r="B43" s="763" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="762"/>
-      <c r="D43" s="762"/>
-      <c r="E43" s="763"/>
+      <c r="C43" s="764"/>
+      <c r="D43" s="764"/>
+      <c r="E43" s="765"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61647,10 +61999,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="764"/>
-      <c r="C44" s="765"/>
-      <c r="D44" s="765"/>
-      <c r="E44" s="766"/>
+      <c r="B44" s="766"/>
+      <c r="C44" s="767"/>
+      <c r="D44" s="767"/>
+      <c r="E44" s="768"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61678,10 +62030,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="767"/>
-      <c r="C45" s="768"/>
-      <c r="D45" s="768"/>
-      <c r="E45" s="769"/>
+      <c r="B45" s="769"/>
+      <c r="C45" s="770"/>
+      <c r="D45" s="770"/>
+      <c r="E45" s="771"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -61724,10 +62076,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="776" t="s">
+      <c r="B47" s="778" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="777"/>
+      <c r="C47" s="779"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -61749,8 +62101,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="778"/>
-      <c r="C48" s="779"/>
+      <c r="B48" s="780"/>
+      <c r="C48" s="781"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -61758,11 +62110,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="770" t="s">
+      <c r="J48" s="772" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="771"/>
-      <c r="L48" s="772"/>
+      <c r="K48" s="773"/>
+      <c r="L48" s="774"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -61780,9 +62132,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="773"/>
-      <c r="K49" s="774"/>
-      <c r="L49" s="775"/>
+      <c r="J49" s="775"/>
+      <c r="K49" s="776"/>
+      <c r="L49" s="777"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -61799,10 +62151,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="780" t="s">
+      <c r="I50" s="782" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="781"/>
+      <c r="J50" s="783"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -61823,8 +62175,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="780"/>
-      <c r="J51" s="781"/>
+      <c r="I51" s="782"/>
+      <c r="J51" s="783"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -61843,8 +62195,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="780"/>
-      <c r="J52" s="781"/>
+      <c r="I52" s="782"/>
+      <c r="J52" s="783"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -61863,8 +62215,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="780"/>
-      <c r="J53" s="781"/>
+      <c r="I53" s="782"/>
+      <c r="J53" s="783"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -61883,8 +62235,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="780"/>
-      <c r="J54" s="781"/>
+      <c r="I54" s="782"/>
+      <c r="J54" s="783"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -61903,8 +62255,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="780"/>
-      <c r="J55" s="781"/>
+      <c r="I55" s="782"/>
+      <c r="J55" s="783"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -61923,8 +62275,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="780"/>
-      <c r="J56" s="781"/>
+      <c r="I56" s="782"/>
+      <c r="J56" s="783"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -61943,8 +62295,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="780"/>
-      <c r="J57" s="781"/>
+      <c r="I57" s="782"/>
+      <c r="J57" s="783"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -61963,8 +62315,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="780"/>
-      <c r="J58" s="781"/>
+      <c r="I58" s="782"/>
+      <c r="J58" s="783"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -61983,8 +62335,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="780"/>
-      <c r="J59" s="781"/>
+      <c r="I59" s="782"/>
+      <c r="J59" s="783"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -62003,8 +62355,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="780"/>
-      <c r="J60" s="781"/>
+      <c r="I60" s="782"/>
+      <c r="J60" s="783"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -62023,8 +62375,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="780"/>
-      <c r="J61" s="781"/>
+      <c r="I61" s="782"/>
+      <c r="J61" s="783"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -62043,8 +62395,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="780"/>
-      <c r="J62" s="781"/>
+      <c r="I62" s="782"/>
+      <c r="J62" s="783"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -62063,8 +62415,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="780"/>
-      <c r="J63" s="781"/>
+      <c r="I63" s="782"/>
+      <c r="J63" s="783"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -62083,8 +62435,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="780"/>
-      <c r="J64" s="781"/>
+      <c r="I64" s="782"/>
+      <c r="J64" s="783"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -62103,8 +62455,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="780"/>
-      <c r="J65" s="781"/>
+      <c r="I65" s="782"/>
+      <c r="J65" s="783"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -62123,8 +62475,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="780"/>
-      <c r="J66" s="781"/>
+      <c r="I66" s="782"/>
+      <c r="J66" s="783"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -62143,8 +62495,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="780"/>
-      <c r="J67" s="781"/>
+      <c r="I67" s="782"/>
+      <c r="J67" s="783"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -62163,8 +62515,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="780"/>
-      <c r="J68" s="781"/>
+      <c r="I68" s="782"/>
+      <c r="J68" s="783"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -62183,8 +62535,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="780"/>
-      <c r="J69" s="781"/>
+      <c r="I69" s="782"/>
+      <c r="J69" s="783"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -62203,8 +62555,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="780"/>
-      <c r="J70" s="781"/>
+      <c r="I70" s="782"/>
+      <c r="J70" s="783"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -62223,8 +62575,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="780"/>
-      <c r="J71" s="781"/>
+      <c r="I71" s="782"/>
+      <c r="J71" s="783"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -62243,8 +62595,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="780"/>
-      <c r="J72" s="781"/>
+      <c r="I72" s="782"/>
+      <c r="J72" s="783"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -62263,8 +62615,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="780"/>
-      <c r="J73" s="781"/>
+      <c r="I73" s="782"/>
+      <c r="J73" s="783"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -62283,8 +62635,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="780"/>
-      <c r="J74" s="781"/>
+      <c r="I74" s="782"/>
+      <c r="J74" s="783"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -62303,8 +62655,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="780"/>
-      <c r="J75" s="781"/>
+      <c r="I75" s="782"/>
+      <c r="J75" s="783"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -62323,8 +62675,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="780"/>
-      <c r="J76" s="781"/>
+      <c r="I76" s="782"/>
+      <c r="J76" s="783"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -62343,8 +62695,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="780"/>
-      <c r="J77" s="781"/>
+      <c r="I77" s="782"/>
+      <c r="J77" s="783"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -62365,8 +62717,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="782"/>
-      <c r="J78" s="783"/>
+      <c r="I78" s="784"/>
+      <c r="J78" s="785"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -62411,7 +62763,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="755" t="s">
+      <c r="F80" s="757" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -62423,7 +62775,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="756"/>
+      <c r="F81" s="758"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -62711,23 +63063,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="717"/>
-      <c r="C1" s="759" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="761" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="760"/>
-      <c r="E1" s="760"/>
-      <c r="F1" s="760"/>
-      <c r="G1" s="760"/>
-      <c r="H1" s="760"/>
-      <c r="I1" s="760"/>
-      <c r="J1" s="760"/>
-      <c r="K1" s="760"/>
-      <c r="L1" s="760"/>
-      <c r="M1" s="760"/>
+      <c r="D1" s="762"/>
+      <c r="E1" s="762"/>
+      <c r="F1" s="762"/>
+      <c r="G1" s="762"/>
+      <c r="H1" s="762"/>
+      <c r="I1" s="762"/>
+      <c r="J1" s="762"/>
+      <c r="K1" s="762"/>
+      <c r="L1" s="762"/>
+      <c r="M1" s="762"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="718"/>
+      <c r="B2" s="696"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -62737,24 +63089,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="721" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="722"/>
+      <c r="B3" s="699" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="700"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="723" t="s">
+      <c r="H3" s="701" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="723"/>
+      <c r="I3" s="701"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="747" t="s">
+      <c r="P3" s="738" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="757" t="s">
+      <c r="R3" s="759" t="s">
         <v>216</v>
       </c>
     </row>
@@ -62769,14 +63121,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="724" t="s">
+      <c r="E4" s="702" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="725"/>
-      <c r="H4" s="726" t="s">
+      <c r="F4" s="703"/>
+      <c r="H4" s="704" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="727"/>
+      <c r="I4" s="705"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -62786,15 +63138,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="748"/>
+      <c r="P4" s="739"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="758"/>
-      <c r="W4" s="730" t="s">
+      <c r="R4" s="760"/>
+      <c r="W4" s="748" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="730"/>
+      <c r="X4" s="748"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -62845,8 +63197,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="730"/>
-      <c r="X5" s="730"/>
+      <c r="W5" s="748"/>
+      <c r="X5" s="748"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -63607,7 +63959,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="734">
+      <c r="W19" s="752">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -63659,7 +64011,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="735"/>
+      <c r="W20" s="753"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -63708,8 +64060,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="736"/>
-      <c r="X21" s="736"/>
+      <c r="W21" s="754"/>
+      <c r="X21" s="754"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -63808,8 +64160,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="737"/>
-      <c r="X23" s="737"/>
+      <c r="W23" s="755"/>
+      <c r="X23" s="755"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -63864,8 +64216,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="737"/>
-      <c r="X24" s="737"/>
+      <c r="W24" s="755"/>
+      <c r="X24" s="755"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -63913,8 +64265,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="738"/>
-      <c r="X25" s="738"/>
+      <c r="W25" s="756"/>
+      <c r="X25" s="756"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -63962,8 +64314,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="738"/>
-      <c r="X26" s="738"/>
+      <c r="W26" s="756"/>
+      <c r="X26" s="756"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -64011,9 +64363,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="731"/>
-      <c r="X27" s="732"/>
-      <c r="Y27" s="733"/>
+      <c r="W27" s="749"/>
+      <c r="X27" s="750"/>
+      <c r="Y27" s="751"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64061,9 +64413,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="732"/>
-      <c r="X28" s="732"/>
-      <c r="Y28" s="733"/>
+      <c r="W28" s="750"/>
+      <c r="X28" s="750"/>
+      <c r="Y28" s="751"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64404,11 +64756,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="749">
+      <c r="M36" s="740">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="751">
+      <c r="N36" s="742">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -64416,7 +64768,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="784">
+      <c r="Q36" s="786">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -64441,13 +64793,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="750"/>
-      <c r="N37" s="752"/>
+      <c r="M37" s="741"/>
+      <c r="N37" s="743"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="785"/>
+      <c r="Q37" s="787"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -64497,11 +64849,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="786">
+      <c r="M39" s="788">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="787"/>
+      <c r="N39" s="789"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -64749,26 +65101,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="704" t="s">
+      <c r="H52" s="717" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="705"/>
+      <c r="I52" s="718"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="706">
+      <c r="K52" s="719">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="739"/>
+      <c r="L52" s="746"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="710" t="s">
+      <c r="D53" s="723" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="710"/>
+      <c r="E53" s="723"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -64777,22 +65129,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="740" t="s">
+      <c r="D54" s="747" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="740"/>
+      <c r="E54" s="747"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="711" t="s">
+      <c r="I54" s="724" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="712"/>
-      <c r="K54" s="713">
+      <c r="J54" s="725"/>
+      <c r="K54" s="726">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="713"/>
+      <c r="L54" s="726"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -64833,11 +65185,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="715">
+      <c r="K56" s="728">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="716"/>
+      <c r="L56" s="729"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -64854,22 +65206,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="693" t="s">
+      <c r="D58" s="706" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="694"/>
+      <c r="E58" s="707"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="695" t="s">
+      <c r="I58" s="708" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="696"/>
-      <c r="K58" s="697">
+      <c r="J58" s="709"/>
+      <c r="K58" s="710">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="697"/>
+      <c r="L58" s="710"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -65013,20 +65365,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -65043,6 +65381,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
